--- a/_09_PtmConvTest/Graphics.xlsx
+++ b/_09_PtmConvTest/Graphics.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57619117-2456-4D75-88A2-FDAA7300FBE4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Диаграмма1" sheetId="4" r:id="rId2"/>
     <sheet name="T=F(X,Z) GT 710" sheetId="2" r:id="rId3"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId4"/>
+    <sheet name="T=F(X,Z) MX 250" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="34">
   <si>
     <t>--------------Характеристики расчетной сетки----------------</t>
   </si>
@@ -108,15 +109,27 @@
   <si>
     <t>T_GPU: = 430,56 - 0,048*x + 4,6*z + 0,0003*x^2 - 0,0718*z^2</t>
   </si>
+  <si>
+    <t>Эксперимент 1 (10.02.2021)  GT 710 Y=10000</t>
+  </si>
+  <si>
+    <t>T1_GPU</t>
+  </si>
+  <si>
+    <t>T2_GPU</t>
+  </si>
+  <si>
+    <t>T3_GPU</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +144,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -172,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -198,6 +218,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -208,12 +236,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -302,6 +333,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A9A3-4591-911C-FAB2148CB198}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -363,6 +399,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A9A3-4591-911C-FAB2148CB198}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -465,7 +506,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -562,6 +603,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-886E-47D2-99FE-53978C0BBFA9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -662,7 +708,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -736,6 +782,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A1CD-4F65-86D7-8AD5579D4382}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -792,6 +843,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A1CD-4F65-86D7-8AD5579D4382}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -848,6 +904,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A1CD-4F65-86D7-8AD5579D4382}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -904,6 +965,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A1CD-4F65-86D7-8AD5579D4382}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -960,6 +1026,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A1CD-4F65-86D7-8AD5579D4382}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -1016,6 +1087,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A1CD-4F65-86D7-8AD5579D4382}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1067,7 +1143,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1078,10 +1153,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="129" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="90" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1105,7 +1180,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1135,7 +1216,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1567,10 +1654,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9310872" cy="6084186"/>
+    <xdr:ext cx="9296400" cy="6070600"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -1633,7 +1726,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1666,9 +1759,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1701,6 +1811,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1876,47 +2003,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A23:V38"/>
   <sheetViews>
     <sheetView topLeftCell="I19" workbookViewId="0">
       <selection activeCell="Z28" sqref="Z28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -1930,7 +2057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="S29" s="1">
         <v>1000</v>
       </c>
@@ -1945,7 +2072,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="F30" t="s">
         <v>6</v>
       </c>
@@ -1963,7 +2090,7 @@
         <v>0.82692307692307687</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E31">
         <v>5</v>
       </c>
@@ -1999,7 +2126,7 @@
         <v>0.84920634920634919</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="L32">
         <f>1024*1024*128/5</f>
         <v>26843545.600000001</v>
@@ -2018,18 +2145,18 @@
         <v>0.85906040268456374</v>
       </c>
     </row>
-    <row r="33" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="9:12" x14ac:dyDescent="0.3">
       <c r="L33">
         <f>L32^(1/3)</f>
         <v>299.41941639299762</v>
       </c>
     </row>
-    <row r="37" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I37">
         <v>49152</v>
       </c>
     </row>
-    <row r="38" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I38">
         <f>I37^(1/2)</f>
         <v>221.70250336881628</v>
@@ -2043,45 +2170,45 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:R49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20:F49"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="133.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="133.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
       <c r="R3" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R4" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+    <row r="5" spans="2:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
       <c r="R5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C6" s="6" t="s">
         <v>11</v>
       </c>
@@ -2107,7 +2234,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>1</v>
       </c>
@@ -2125,7 +2252,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>2</v>
       </c>
@@ -2143,7 +2270,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>3</v>
       </c>
@@ -2164,7 +2291,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>4</v>
       </c>
@@ -2195,7 +2322,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>5</v>
       </c>
@@ -2223,7 +2350,7 @@
       </c>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>6</v>
       </c>
@@ -2251,7 +2378,7 @@
       </c>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>7</v>
       </c>
@@ -2279,7 +2406,7 @@
       </c>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>8</v>
       </c>
@@ -2307,7 +2434,7 @@
       </c>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>9</v>
       </c>
@@ -2335,23 +2462,23 @@
       </c>
       <c r="J15" s="7"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="11" t="s">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B18" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="R18" s="12" t="s">
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="R18" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C19" s="6" t="s">
         <v>11</v>
       </c>
@@ -2377,7 +2504,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>1</v>
       </c>
@@ -2407,7 +2534,7 @@
         <v>13.333333333333334</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>2</v>
       </c>
@@ -2437,7 +2564,7 @@
         <v>43.333333333333336</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>3</v>
       </c>
@@ -2467,7 +2594,7 @@
         <v>85.333333333333329</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>4</v>
       </c>
@@ -2497,7 +2624,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>5</v>
       </c>
@@ -2530,7 +2657,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>6</v>
       </c>
@@ -2560,7 +2687,7 @@
         <v>15.333333333333334</v>
       </c>
     </row>
-    <row r="26" spans="2:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>7</v>
       </c>
@@ -2593,7 +2720,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>8</v>
       </c>
@@ -2623,7 +2750,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>9</v>
       </c>
@@ -2653,7 +2780,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>10</v>
       </c>
@@ -2683,7 +2810,7 @@
         <v>144.33333333333334</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>11</v>
       </c>
@@ -2713,7 +2840,7 @@
         <v>13.333333333333334</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>12</v>
       </c>
@@ -2743,7 +2870,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>13</v>
       </c>
@@ -2773,7 +2900,7 @@
         <v>100.33333333333333</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>14</v>
       </c>
@@ -2803,7 +2930,7 @@
         <v>114.66666666666667</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>15</v>
       </c>
@@ -2833,7 +2960,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>16</v>
       </c>
@@ -2863,7 +2990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>17</v>
       </c>
@@ -2893,7 +3020,7 @@
         <v>53.666666666666664</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>18</v>
       </c>
@@ -2923,7 +3050,7 @@
         <v>89.666666666666671</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>19</v>
       </c>
@@ -2953,7 +3080,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>20</v>
       </c>
@@ -2983,7 +3110,7 @@
         <v>144.33333333333334</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>21</v>
       </c>
@@ -3013,7 +3140,7 @@
         <v>14.333333333333334</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>22</v>
       </c>
@@ -3043,7 +3170,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>23</v>
       </c>
@@ -3073,7 +3200,7 @@
         <v>91.333333333333329</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>24</v>
       </c>
@@ -3103,7 +3230,7 @@
         <v>103.33333333333333</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>25</v>
       </c>
@@ -3133,7 +3260,7 @@
         <v>145.66666666666666</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>26</v>
       </c>
@@ -3163,7 +3290,7 @@
         <v>14.333333333333334</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>27</v>
       </c>
@@ -3193,7 +3320,7 @@
         <v>52.333333333333336</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>28</v>
       </c>
@@ -3223,7 +3350,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>29</v>
       </c>
@@ -3253,7 +3380,7 @@
         <v>98.333333333333329</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>30</v>
       </c>
@@ -3294,13 +3421,1561 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6874842F-182D-4950-B543-EEEF951FF77B}">
+  <dimension ref="B3:R49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="133.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="R3" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="R5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>512</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <f>C7*2</f>
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <f>D7/2</f>
+        <v>256</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9" si="0">C8*2</f>
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9" si="1">D8/2</f>
+        <v>128</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="8"/>
+      <c r="R9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>64</v>
+      </c>
+      <c r="E10">
+        <v>64</v>
+      </c>
+      <c r="F10">
+        <v>60</v>
+      </c>
+      <c r="G10">
+        <v>61</v>
+      </c>
+      <c r="H10">
+        <v>60</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" ref="I10:I15" si="2">AVERAGE(F10:H10)</f>
+        <v>60.333333333333336</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="R10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>32</v>
+      </c>
+      <c r="D11">
+        <v>32</v>
+      </c>
+      <c r="E11">
+        <v>65</v>
+      </c>
+      <c r="F11">
+        <v>75</v>
+      </c>
+      <c r="G11">
+        <v>73</v>
+      </c>
+      <c r="H11">
+        <v>81</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="2"/>
+        <v>76.333333333333329</v>
+      </c>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>64</v>
+      </c>
+      <c r="D12">
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <v>81</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <v>83</v>
+      </c>
+      <c r="H12">
+        <v>99</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>128</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>109</v>
+      </c>
+      <c r="F13">
+        <v>117</v>
+      </c>
+      <c r="G13">
+        <v>96</v>
+      </c>
+      <c r="H13">
+        <v>105</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="2"/>
+        <v>106</v>
+      </c>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>256</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="F14">
+        <v>114</v>
+      </c>
+      <c r="G14">
+        <v>111</v>
+      </c>
+      <c r="H14">
+        <v>112</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="2"/>
+        <v>112.33333333333333</v>
+      </c>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>512</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>103</v>
+      </c>
+      <c r="F15">
+        <v>126</v>
+      </c>
+      <c r="G15">
+        <v>134</v>
+      </c>
+      <c r="H15">
+        <v>123</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="2"/>
+        <v>127.66666666666667</v>
+      </c>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="R18" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>16</v>
+      </c>
+      <c r="D20">
+        <v>64</v>
+      </c>
+      <c r="E20">
+        <v>1000</v>
+      </c>
+      <c r="F20">
+        <v>6.8</v>
+      </c>
+      <c r="G20">
+        <v>7.4</v>
+      </c>
+      <c r="H20">
+        <v>7</v>
+      </c>
+      <c r="I20" s="16">
+        <f>AVERAGE(F20:H20)</f>
+        <v>7.0666666666666664</v>
+      </c>
+      <c r="J20">
+        <v>14</v>
+      </c>
+      <c r="K20">
+        <v>15</v>
+      </c>
+      <c r="L20">
+        <v>12</v>
+      </c>
+      <c r="M20" s="16">
+        <f>AVERAGE(J20:L20)</f>
+        <v>13.666666666666666</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>16</v>
+      </c>
+      <c r="D21">
+        <v>64</v>
+      </c>
+      <c r="E21">
+        <v>3000</v>
+      </c>
+      <c r="F21">
+        <v>19.8</v>
+      </c>
+      <c r="G21">
+        <v>22.7</v>
+      </c>
+      <c r="H21">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="I21" s="16">
+        <f t="shared" ref="I21:I49" si="3">AVERAGE(F21:H21)</f>
+        <v>20.8</v>
+      </c>
+      <c r="J21">
+        <v>24</v>
+      </c>
+      <c r="K21">
+        <v>37</v>
+      </c>
+      <c r="L21">
+        <v>37</v>
+      </c>
+      <c r="M21" s="16">
+        <f t="shared" ref="M21:M49" si="4">AVERAGE(J21:L21)</f>
+        <v>32.666666666666664</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>16</v>
+      </c>
+      <c r="D22">
+        <v>64</v>
+      </c>
+      <c r="E22">
+        <v>5000</v>
+      </c>
+      <c r="F22">
+        <v>31.7</v>
+      </c>
+      <c r="G22">
+        <v>31.7</v>
+      </c>
+      <c r="H22">
+        <v>31.7</v>
+      </c>
+      <c r="I22" s="16">
+        <f t="shared" si="3"/>
+        <v>31.7</v>
+      </c>
+      <c r="J22">
+        <v>59</v>
+      </c>
+      <c r="K22">
+        <v>59</v>
+      </c>
+      <c r="L22">
+        <v>50</v>
+      </c>
+      <c r="M22" s="16">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>16</v>
+      </c>
+      <c r="D23">
+        <v>64</v>
+      </c>
+      <c r="E23">
+        <v>7000</v>
+      </c>
+      <c r="F23">
+        <v>45.2</v>
+      </c>
+      <c r="G23">
+        <v>45.6</v>
+      </c>
+      <c r="H23">
+        <v>45.1</v>
+      </c>
+      <c r="I23" s="16">
+        <f t="shared" si="3"/>
+        <v>45.300000000000004</v>
+      </c>
+      <c r="J23">
+        <v>65</v>
+      </c>
+      <c r="K23">
+        <v>70</v>
+      </c>
+      <c r="L23">
+        <v>73</v>
+      </c>
+      <c r="M23" s="16">
+        <f t="shared" si="4"/>
+        <v>69.333333333333329</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>16</v>
+      </c>
+      <c r="D24">
+        <v>64</v>
+      </c>
+      <c r="E24">
+        <v>10000</v>
+      </c>
+      <c r="F24">
+        <v>64</v>
+      </c>
+      <c r="G24">
+        <v>64</v>
+      </c>
+      <c r="H24">
+        <v>64</v>
+      </c>
+      <c r="I24" s="16">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="J24">
+        <v>78</v>
+      </c>
+      <c r="K24">
+        <v>73</v>
+      </c>
+      <c r="L24">
+        <v>64</v>
+      </c>
+      <c r="M24" s="16">
+        <f t="shared" si="4"/>
+        <v>71.666666666666671</v>
+      </c>
+      <c r="R24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>32</v>
+      </c>
+      <c r="D25">
+        <v>32</v>
+      </c>
+      <c r="E25">
+        <v>1000</v>
+      </c>
+      <c r="F25">
+        <v>6.8</v>
+      </c>
+      <c r="G25">
+        <v>6.9</v>
+      </c>
+      <c r="H25">
+        <v>6.8</v>
+      </c>
+      <c r="I25" s="16">
+        <f t="shared" si="3"/>
+        <v>6.833333333333333</v>
+      </c>
+      <c r="J25">
+        <v>8</v>
+      </c>
+      <c r="K25">
+        <v>11</v>
+      </c>
+      <c r="L25">
+        <v>10</v>
+      </c>
+      <c r="M25" s="16">
+        <f t="shared" si="4"/>
+        <v>9.6666666666666661</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>32</v>
+      </c>
+      <c r="D26">
+        <v>32</v>
+      </c>
+      <c r="E26">
+        <v>3000</v>
+      </c>
+      <c r="F26">
+        <v>20</v>
+      </c>
+      <c r="G26">
+        <v>20</v>
+      </c>
+      <c r="H26">
+        <v>20</v>
+      </c>
+      <c r="I26" s="16">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="J26">
+        <v>26</v>
+      </c>
+      <c r="K26">
+        <v>31</v>
+      </c>
+      <c r="L26">
+        <v>32</v>
+      </c>
+      <c r="M26" s="16">
+        <f t="shared" si="4"/>
+        <v>29.666666666666668</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>32</v>
+      </c>
+      <c r="D27">
+        <v>32</v>
+      </c>
+      <c r="E27">
+        <v>5000</v>
+      </c>
+      <c r="F27">
+        <v>33.5</v>
+      </c>
+      <c r="G27">
+        <v>34.6</v>
+      </c>
+      <c r="H27">
+        <v>33.5</v>
+      </c>
+      <c r="I27" s="16">
+        <f t="shared" si="3"/>
+        <v>33.866666666666667</v>
+      </c>
+      <c r="J27">
+        <v>43</v>
+      </c>
+      <c r="K27">
+        <v>45</v>
+      </c>
+      <c r="L27">
+        <v>52</v>
+      </c>
+      <c r="M27" s="16">
+        <f t="shared" si="4"/>
+        <v>46.666666666666664</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>32</v>
+      </c>
+      <c r="D28">
+        <v>32</v>
+      </c>
+      <c r="E28">
+        <v>7000</v>
+      </c>
+      <c r="F28">
+        <v>45.9</v>
+      </c>
+      <c r="G28">
+        <v>46.3</v>
+      </c>
+      <c r="H28">
+        <v>45.8</v>
+      </c>
+      <c r="I28" s="16">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="J28">
+        <v>57</v>
+      </c>
+      <c r="K28">
+        <v>58</v>
+      </c>
+      <c r="L28">
+        <v>59</v>
+      </c>
+      <c r="M28" s="16">
+        <f t="shared" si="4"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>32</v>
+      </c>
+      <c r="D29">
+        <v>32</v>
+      </c>
+      <c r="E29">
+        <v>10000</v>
+      </c>
+      <c r="F29">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="G29">
+        <v>65.8</v>
+      </c>
+      <c r="H29">
+        <v>65.2</v>
+      </c>
+      <c r="I29" s="16">
+        <f t="shared" si="3"/>
+        <v>65.36666666666666</v>
+      </c>
+      <c r="J29">
+        <v>80</v>
+      </c>
+      <c r="K29">
+        <v>84</v>
+      </c>
+      <c r="L29">
+        <v>73</v>
+      </c>
+      <c r="M29" s="16">
+        <f t="shared" si="4"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>64</v>
+      </c>
+      <c r="D30">
+        <v>16</v>
+      </c>
+      <c r="E30">
+        <v>1000</v>
+      </c>
+      <c r="F30">
+        <v>8.24</v>
+      </c>
+      <c r="G30">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H30">
+        <v>8.25</v>
+      </c>
+      <c r="I30" s="16">
+        <f t="shared" si="3"/>
+        <v>8.2633333333333336</v>
+      </c>
+      <c r="J30">
+        <v>13</v>
+      </c>
+      <c r="K30">
+        <v>11</v>
+      </c>
+      <c r="L30">
+        <v>10</v>
+      </c>
+      <c r="M30" s="16">
+        <f t="shared" si="4"/>
+        <v>11.333333333333334</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>64</v>
+      </c>
+      <c r="D31">
+        <v>16</v>
+      </c>
+      <c r="E31">
+        <v>3000</v>
+      </c>
+      <c r="F31">
+        <v>24.5</v>
+      </c>
+      <c r="G31">
+        <v>28.8</v>
+      </c>
+      <c r="H31">
+        <v>24.4</v>
+      </c>
+      <c r="I31" s="16">
+        <f t="shared" si="3"/>
+        <v>25.899999999999995</v>
+      </c>
+      <c r="J31">
+        <v>41</v>
+      </c>
+      <c r="K31">
+        <v>38</v>
+      </c>
+      <c r="L31">
+        <v>31</v>
+      </c>
+      <c r="M31" s="16">
+        <f t="shared" si="4"/>
+        <v>36.666666666666664</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>13</v>
+      </c>
+      <c r="C32">
+        <v>64</v>
+      </c>
+      <c r="D32">
+        <v>16</v>
+      </c>
+      <c r="E32">
+        <v>5000</v>
+      </c>
+      <c r="F32">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="G32">
+        <v>40.5</v>
+      </c>
+      <c r="H32">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="I32" s="16">
+        <f t="shared" si="3"/>
+        <v>40.333333333333336</v>
+      </c>
+      <c r="J32">
+        <v>45</v>
+      </c>
+      <c r="K32">
+        <v>47</v>
+      </c>
+      <c r="L32">
+        <v>48</v>
+      </c>
+      <c r="M32" s="16">
+        <f t="shared" si="4"/>
+        <v>46.666666666666664</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>14</v>
+      </c>
+      <c r="C33">
+        <v>64</v>
+      </c>
+      <c r="D33">
+        <v>16</v>
+      </c>
+      <c r="E33">
+        <v>7000</v>
+      </c>
+      <c r="F33">
+        <v>56.7</v>
+      </c>
+      <c r="G33">
+        <v>56.7</v>
+      </c>
+      <c r="H33">
+        <v>56.7</v>
+      </c>
+      <c r="I33" s="16">
+        <f t="shared" si="3"/>
+        <v>56.70000000000001</v>
+      </c>
+      <c r="J33">
+        <v>65</v>
+      </c>
+      <c r="K33">
+        <v>61</v>
+      </c>
+      <c r="L33">
+        <v>64</v>
+      </c>
+      <c r="M33" s="16">
+        <f t="shared" si="4"/>
+        <v>63.333333333333336</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>15</v>
+      </c>
+      <c r="C34">
+        <v>64</v>
+      </c>
+      <c r="D34">
+        <v>16</v>
+      </c>
+      <c r="E34">
+        <v>10000</v>
+      </c>
+      <c r="F34">
+        <v>81</v>
+      </c>
+      <c r="G34">
+        <v>81</v>
+      </c>
+      <c r="H34">
+        <v>81</v>
+      </c>
+      <c r="I34" s="16">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="J34">
+        <v>90</v>
+      </c>
+      <c r="K34">
+        <v>89</v>
+      </c>
+      <c r="L34">
+        <v>93</v>
+      </c>
+      <c r="M34" s="16">
+        <f t="shared" si="4"/>
+        <v>90.666666666666671</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>16</v>
+      </c>
+      <c r="C35">
+        <v>128</v>
+      </c>
+      <c r="D35">
+        <v>8</v>
+      </c>
+      <c r="E35">
+        <v>1000</v>
+      </c>
+      <c r="F35">
+        <v>11</v>
+      </c>
+      <c r="G35">
+        <v>11</v>
+      </c>
+      <c r="H35">
+        <v>11</v>
+      </c>
+      <c r="I35" s="16">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="J35">
+        <v>13</v>
+      </c>
+      <c r="K35">
+        <v>11</v>
+      </c>
+      <c r="L35">
+        <v>11</v>
+      </c>
+      <c r="M35" s="16">
+        <f t="shared" si="4"/>
+        <v>11.666666666666666</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>17</v>
+      </c>
+      <c r="C36">
+        <v>128</v>
+      </c>
+      <c r="D36">
+        <v>8</v>
+      </c>
+      <c r="E36">
+        <v>3000</v>
+      </c>
+      <c r="F36">
+        <v>33.6</v>
+      </c>
+      <c r="G36">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="H36">
+        <v>33.6</v>
+      </c>
+      <c r="I36" s="16">
+        <f t="shared" si="3"/>
+        <v>33.633333333333333</v>
+      </c>
+      <c r="J36">
+        <v>31</v>
+      </c>
+      <c r="K36">
+        <v>34</v>
+      </c>
+      <c r="L36">
+        <v>35</v>
+      </c>
+      <c r="M36" s="16">
+        <f t="shared" si="4"/>
+        <v>33.333333333333336</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>18</v>
+      </c>
+      <c r="C37">
+        <v>128</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+      <c r="E37">
+        <v>5000</v>
+      </c>
+      <c r="F37">
+        <v>55.2</v>
+      </c>
+      <c r="G37">
+        <v>55.2</v>
+      </c>
+      <c r="H37">
+        <v>55</v>
+      </c>
+      <c r="I37" s="16">
+        <f t="shared" si="3"/>
+        <v>55.133333333333333</v>
+      </c>
+      <c r="J37">
+        <v>66</v>
+      </c>
+      <c r="K37">
+        <v>57</v>
+      </c>
+      <c r="L37">
+        <v>59</v>
+      </c>
+      <c r="M37" s="16">
+        <f t="shared" si="4"/>
+        <v>60.666666666666664</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>19</v>
+      </c>
+      <c r="C38">
+        <v>128</v>
+      </c>
+      <c r="D38">
+        <v>8</v>
+      </c>
+      <c r="E38">
+        <v>7000</v>
+      </c>
+      <c r="F38">
+        <v>77</v>
+      </c>
+      <c r="G38">
+        <v>77.5</v>
+      </c>
+      <c r="H38">
+        <v>77</v>
+      </c>
+      <c r="I38" s="16">
+        <f t="shared" si="3"/>
+        <v>77.166666666666671</v>
+      </c>
+      <c r="J38">
+        <v>67</v>
+      </c>
+      <c r="K38">
+        <v>75</v>
+      </c>
+      <c r="L38">
+        <v>66</v>
+      </c>
+      <c r="M38" s="16">
+        <f t="shared" si="4"/>
+        <v>69.333333333333329</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>20</v>
+      </c>
+      <c r="C39">
+        <v>128</v>
+      </c>
+      <c r="D39">
+        <v>8</v>
+      </c>
+      <c r="E39">
+        <v>10000</v>
+      </c>
+      <c r="F39">
+        <v>109</v>
+      </c>
+      <c r="G39">
+        <v>109</v>
+      </c>
+      <c r="H39">
+        <v>109</v>
+      </c>
+      <c r="I39" s="16">
+        <f t="shared" si="3"/>
+        <v>109</v>
+      </c>
+      <c r="J39">
+        <v>101</v>
+      </c>
+      <c r="K39">
+        <v>95</v>
+      </c>
+      <c r="L39">
+        <v>89</v>
+      </c>
+      <c r="M39" s="16">
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>21</v>
+      </c>
+      <c r="C40">
+        <v>256</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>1000</v>
+      </c>
+      <c r="F40">
+        <v>9.9</v>
+      </c>
+      <c r="G40">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H40">
+        <v>9.9</v>
+      </c>
+      <c r="I40" s="16">
+        <f t="shared" si="3"/>
+        <v>9.8666666666666671</v>
+      </c>
+      <c r="J40">
+        <v>11</v>
+      </c>
+      <c r="K40">
+        <v>12</v>
+      </c>
+      <c r="L40">
+        <v>14</v>
+      </c>
+      <c r="M40" s="16">
+        <f t="shared" si="4"/>
+        <v>12.333333333333334</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>22</v>
+      </c>
+      <c r="C41">
+        <v>256</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>3000</v>
+      </c>
+      <c r="F41">
+        <v>29.6</v>
+      </c>
+      <c r="G41">
+        <v>29.5</v>
+      </c>
+      <c r="H41">
+        <v>29.3</v>
+      </c>
+      <c r="I41" s="16">
+        <f t="shared" si="3"/>
+        <v>29.466666666666669</v>
+      </c>
+      <c r="J41">
+        <v>34</v>
+      </c>
+      <c r="K41">
+        <v>34</v>
+      </c>
+      <c r="L41">
+        <v>40</v>
+      </c>
+      <c r="M41" s="16">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>23</v>
+      </c>
+      <c r="C42">
+        <v>256</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <v>5000</v>
+      </c>
+      <c r="F42">
+        <v>48.8</v>
+      </c>
+      <c r="G42">
+        <v>48.9</v>
+      </c>
+      <c r="H42">
+        <v>48.8</v>
+      </c>
+      <c r="I42" s="16">
+        <f t="shared" si="3"/>
+        <v>48.833333333333336</v>
+      </c>
+      <c r="J42">
+        <v>55</v>
+      </c>
+      <c r="K42">
+        <v>50</v>
+      </c>
+      <c r="L42">
+        <v>55</v>
+      </c>
+      <c r="M42" s="16">
+        <f t="shared" si="4"/>
+        <v>53.333333333333336</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>24</v>
+      </c>
+      <c r="C43">
+        <v>256</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <v>7000</v>
+      </c>
+      <c r="F43">
+        <v>69.2</v>
+      </c>
+      <c r="G43">
+        <v>69.2</v>
+      </c>
+      <c r="H43">
+        <v>70</v>
+      </c>
+      <c r="I43" s="16">
+        <f t="shared" si="3"/>
+        <v>69.466666666666669</v>
+      </c>
+      <c r="J43">
+        <v>65</v>
+      </c>
+      <c r="K43">
+        <v>68</v>
+      </c>
+      <c r="L43">
+        <v>64</v>
+      </c>
+      <c r="M43" s="16">
+        <f t="shared" si="4"/>
+        <v>65.666666666666671</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>25</v>
+      </c>
+      <c r="C44">
+        <v>256</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>10000</v>
+      </c>
+      <c r="F44">
+        <v>100</v>
+      </c>
+      <c r="G44">
+        <v>100</v>
+      </c>
+      <c r="H44">
+        <v>100</v>
+      </c>
+      <c r="I44" s="16">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="J44">
+        <v>91</v>
+      </c>
+      <c r="K44">
+        <v>90</v>
+      </c>
+      <c r="L44">
+        <v>99</v>
+      </c>
+      <c r="M44" s="16">
+        <f t="shared" si="4"/>
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>26</v>
+      </c>
+      <c r="C45">
+        <v>512</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>1000</v>
+      </c>
+      <c r="F45">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G45" s="14">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H45">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I45" s="16">
+        <f t="shared" si="3"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J45">
+        <v>15</v>
+      </c>
+      <c r="K45">
+        <v>15</v>
+      </c>
+      <c r="L45">
+        <v>13</v>
+      </c>
+      <c r="M45" s="16">
+        <f t="shared" si="4"/>
+        <v>14.333333333333334</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>27</v>
+      </c>
+      <c r="C46">
+        <v>512</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>3000</v>
+      </c>
+      <c r="F46">
+        <v>30.2</v>
+      </c>
+      <c r="G46">
+        <v>30.5</v>
+      </c>
+      <c r="H46">
+        <v>31.4</v>
+      </c>
+      <c r="I46" s="16">
+        <f t="shared" si="3"/>
+        <v>30.7</v>
+      </c>
+      <c r="J46">
+        <v>35</v>
+      </c>
+      <c r="K46">
+        <v>35</v>
+      </c>
+      <c r="L46">
+        <v>33</v>
+      </c>
+      <c r="M46" s="16">
+        <f t="shared" si="4"/>
+        <v>34.333333333333336</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>28</v>
+      </c>
+      <c r="C47">
+        <v>512</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>5000</v>
+      </c>
+      <c r="F47">
+        <v>51</v>
+      </c>
+      <c r="G47">
+        <v>51</v>
+      </c>
+      <c r="H47">
+        <v>51</v>
+      </c>
+      <c r="I47" s="16">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="J47">
+        <v>63</v>
+      </c>
+      <c r="K47">
+        <v>51</v>
+      </c>
+      <c r="L47">
+        <v>51</v>
+      </c>
+      <c r="M47" s="16">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>29</v>
+      </c>
+      <c r="C48">
+        <v>512</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>7000</v>
+      </c>
+      <c r="F48">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="G48">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="H48">
+        <v>72</v>
+      </c>
+      <c r="I48" s="16">
+        <f t="shared" si="3"/>
+        <v>72.066666666666663</v>
+      </c>
+      <c r="J48">
+        <v>68</v>
+      </c>
+      <c r="K48">
+        <v>68</v>
+      </c>
+      <c r="L48">
+        <v>69</v>
+      </c>
+      <c r="M48" s="16">
+        <f t="shared" si="4"/>
+        <v>68.333333333333329</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>30</v>
+      </c>
+      <c r="C49">
+        <v>512</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>10000</v>
+      </c>
+      <c r="F49">
+        <v>103</v>
+      </c>
+      <c r="G49">
+        <v>103</v>
+      </c>
+      <c r="H49">
+        <v>103</v>
+      </c>
+      <c r="I49" s="16">
+        <f t="shared" si="3"/>
+        <v>103</v>
+      </c>
+      <c r="J49">
+        <v>105</v>
+      </c>
+      <c r="K49">
+        <v>99</v>
+      </c>
+      <c r="L49">
+        <v>117</v>
+      </c>
+      <c r="M49" s="16">
+        <f t="shared" si="4"/>
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B18:J18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/_09_PtmConvTest/Graphics.xlsx
+++ b/_09_PtmConvTest/Graphics.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57619117-2456-4D75-88A2-FDAA7300FBE4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -13,12 +12,12 @@
     <sheet name="T=F(X,Z) GT 710" sheetId="2" r:id="rId3"/>
     <sheet name="T=F(X,Z) MX 250" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
     <t>--------------Характеристики расчетной сетки----------------</t>
   </si>
@@ -77,9 +76,6 @@
     <t>T_CPU</t>
   </si>
   <si>
-    <t>T_СPU: = 124 + 0,035*x + 0,96*y - 0,012*y^2</t>
-  </si>
-  <si>
     <t>1. Рассчитаем количество узлов в сетке на плоскости XOZ в зависимости от распределяемой памяти при Y=10000 (фиксированное значение). Сначала экспериментально было получено, что количество точек = произведению количества точек на осях X и Z и не должно превышать 1024. Это ограничение накладывается CUDA - количество потоков в одном блоке.</t>
   </si>
   <si>
@@ -107,12 +103,6 @@
     <t>В уравнении регрессии параметр b0 показывает усредненное влияние на результативный признак неучтенных в уравнении факторных признаков.</t>
   </si>
   <si>
-    <t>T_GPU: = 430,56 - 0,048*x + 4,6*z + 0,0003*x^2 - 0,0718*z^2</t>
-  </si>
-  <si>
-    <t>Эксперимент 1 (10.02.2021)  GT 710 Y=10000</t>
-  </si>
-  <si>
     <t>T1_GPU</t>
   </si>
   <si>
@@ -121,15 +111,33 @@
   <si>
     <t>T3_GPU</t>
   </si>
+  <si>
+    <t>Эксперимент 3 (10.02.2021)  GT 710 Y=10000</t>
+  </si>
+  <si>
+    <t>Эксперимент 4 (10.02.2021)  GT 710</t>
+  </si>
+  <si>
+    <t>ЭКСПЕРИМЕНТ 3  MX 250</t>
+  </si>
+  <si>
+    <t>ЭКСПЕРИМЕНТ 4 MX 250</t>
+  </si>
+  <si>
+    <t>3. Результаты эксперимента: T_GPU = 102,01 - 0,715*Z;    T_CPU =91,38 + 0,029*X - 0,32*Z</t>
+  </si>
+  <si>
+    <t>3. Результаты эксперимента: T_GPU = 7,96 - 0,36*Z + 0,0087*Y</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,8 +161,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,6 +196,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -192,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -200,7 +223,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -215,17 +237,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -244,7 +268,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -333,7 +357,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A9A3-4591-911C-FAB2148CB198}"/>
             </c:ext>
@@ -399,7 +423,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A9A3-4591-911C-FAB2148CB198}"/>
             </c:ext>
@@ -413,11 +437,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208994688"/>
-        <c:axId val="208996224"/>
+        <c:axId val="224867456"/>
+        <c:axId val="224868992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="208994688"/>
+        <c:axId val="224867456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60000"/>
@@ -441,13 +465,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208996224"/>
+        <c:crossAx val="224868992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="15000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="208996224"/>
+        <c:axId val="224868992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150"/>
@@ -472,7 +496,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208994688"/>
+        <c:crossAx val="224867456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="25"/>
@@ -506,7 +530,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -603,7 +627,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-886E-47D2-99FE-53978C0BBFA9}"/>
             </c:ext>
@@ -617,11 +641,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209035264"/>
-        <c:axId val="209036800"/>
+        <c:axId val="224912512"/>
+        <c:axId val="224914048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="209035264"/>
+        <c:axId val="224912512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60000"/>
@@ -645,13 +669,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209036800"/>
+        <c:crossAx val="224914048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="15000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209036800"/>
+        <c:axId val="224914048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -675,7 +699,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209035264"/>
+        <c:crossAx val="224912512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -708,7 +732,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -782,7 +806,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A1CD-4F65-86D7-8AD5579D4382}"/>
             </c:ext>
@@ -843,7 +867,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A1CD-4F65-86D7-8AD5579D4382}"/>
             </c:ext>
@@ -904,7 +928,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A1CD-4F65-86D7-8AD5579D4382}"/>
             </c:ext>
@@ -965,7 +989,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-A1CD-4F65-86D7-8AD5579D4382}"/>
             </c:ext>
@@ -1026,7 +1050,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-A1CD-4F65-86D7-8AD5579D4382}"/>
             </c:ext>
@@ -1087,7 +1111,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-A1CD-4F65-86D7-8AD5579D4382}"/>
             </c:ext>
@@ -1103,11 +1127,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="155880064"/>
-        <c:axId val="155885952"/>
+        <c:axId val="225151232"/>
+        <c:axId val="225153024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="155880064"/>
+        <c:axId val="225151232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1117,7 +1141,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155885952"/>
+        <c:crossAx val="225153024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1125,7 +1149,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155885952"/>
+        <c:axId val="225153024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1136,7 +1160,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155880064"/>
+        <c:crossAx val="225151232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1153,7 +1177,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="90" workbookViewId="0" zoomToFit="1"/>
@@ -1183,7 +1207,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1219,7 +1243,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1660,7 +1684,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1726,7 +1750,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1759,26 +1783,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1811,23 +1818,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -2003,47 +1993,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A23:V38"/>
   <sheetViews>
     <sheetView topLeftCell="I19" workbookViewId="0">
       <selection activeCell="Z28" sqref="Z28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" customWidth="1"/>
-    <col min="12" max="12" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -2057,7 +2047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="S29" s="1">
         <v>1000</v>
       </c>
@@ -2072,7 +2062,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
         <v>6</v>
       </c>
@@ -2090,7 +2080,7 @@
         <v>0.82692307692307687</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E31">
         <v>5</v>
       </c>
@@ -2126,7 +2116,7 @@
         <v>0.84920634920634919</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="L32">
         <f>1024*1024*128/5</f>
         <v>26843545.600000001</v>
@@ -2145,18 +2135,18 @@
         <v>0.85906040268456374</v>
       </c>
     </row>
-    <row r="33" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="9:12" x14ac:dyDescent="0.25">
       <c r="L33">
         <f>L32^(1/3)</f>
         <v>299.41941639299762</v>
       </c>
     </row>
-    <row r="37" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I37">
         <v>49152</v>
       </c>
     </row>
-    <row r="38" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I38">
         <f>I37^(1/2)</f>
         <v>221.70250336881628</v>
@@ -2170,71 +2160,71 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:R49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="133.109375" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="133.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="R3" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R3" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R4" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
       <c r="R5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C6" s="6" t="s">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="R6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1</v>
       </c>
@@ -2250,9 +2240,9 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>2</v>
       </c>
@@ -2268,9 +2258,9 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>3</v>
       </c>
@@ -2286,12 +2276,9 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="8"/>
-      <c r="R9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>4</v>
       </c>
@@ -2301,7 +2288,7 @@
       <c r="D10">
         <v>64</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>430</v>
       </c>
       <c r="F10">
@@ -2313,16 +2300,13 @@
       <c r="H10">
         <v>135</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="13">
         <f t="shared" ref="I10:I15" si="2">AVERAGE(F10:H10)</f>
         <v>136</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="R10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>5</v>
       </c>
@@ -2332,7 +2316,7 @@
       <c r="D11">
         <v>32</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>503</v>
       </c>
       <c r="F11">
@@ -2344,13 +2328,13 @@
       <c r="H11">
         <v>149</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="13">
         <f t="shared" si="2"/>
         <v>143.66666666666666</v>
       </c>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>6</v>
       </c>
@@ -2360,7 +2344,7 @@
       <c r="D12">
         <v>16</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>484</v>
       </c>
       <c r="F12">
@@ -2372,13 +2356,13 @@
       <c r="H12">
         <v>142</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="13">
         <f t="shared" si="2"/>
         <v>137</v>
       </c>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>7</v>
       </c>
@@ -2388,7 +2372,7 @@
       <c r="D13">
         <v>8</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>462</v>
       </c>
       <c r="F13">
@@ -2400,13 +2384,13 @@
       <c r="H13">
         <v>134</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="13">
         <f t="shared" si="2"/>
         <v>136.66666666666666</v>
       </c>
-      <c r="J13" s="7"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>8</v>
       </c>
@@ -2416,7 +2400,7 @@
       <c r="D14">
         <v>4</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>457</v>
       </c>
       <c r="F14">
@@ -2428,13 +2412,13 @@
       <c r="H14">
         <v>136</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="13">
         <f t="shared" si="2"/>
         <v>136</v>
       </c>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>9</v>
       </c>
@@ -2444,7 +2428,7 @@
       <c r="D15">
         <v>2</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>501</v>
       </c>
       <c r="F15">
@@ -2456,55 +2440,55 @@
       <c r="H15">
         <v>151</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="13">
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="J15" s="7"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="R18" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C19" s="6" t="s">
+      <c r="J15" s="6"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B18" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="R18" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C19" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="6" t="s">
+      <c r="E19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>1</v>
       </c>
@@ -2517,7 +2501,7 @@
       <c r="E20">
         <v>1000</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>43.8</v>
       </c>
       <c r="G20">
@@ -2529,12 +2513,12 @@
       <c r="I20">
         <v>14</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="13">
         <f>AVERAGE(G20:I20)</f>
         <v>13.333333333333334</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>2</v>
       </c>
@@ -2547,7 +2531,7 @@
       <c r="E21">
         <v>3000</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>132</v>
       </c>
       <c r="G21">
@@ -2559,12 +2543,12 @@
       <c r="I21">
         <v>42</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="13">
         <f t="shared" ref="J21:J49" si="3">AVERAGE(G21:I21)</f>
         <v>43.333333333333336</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>3</v>
       </c>
@@ -2577,7 +2561,7 @@
       <c r="E22">
         <v>5000</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <v>206</v>
       </c>
       <c r="G22">
@@ -2589,12 +2573,12 @@
       <c r="I22">
         <v>89</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="13">
         <f t="shared" si="3"/>
         <v>85.333333333333329</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>4</v>
       </c>
@@ -2607,7 +2591,7 @@
       <c r="E23">
         <v>7000</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <v>302</v>
       </c>
       <c r="G23">
@@ -2619,12 +2603,12 @@
       <c r="I23">
         <v>126</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="13">
         <f t="shared" si="3"/>
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>5</v>
       </c>
@@ -2637,7 +2621,7 @@
       <c r="E24">
         <v>10000</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <v>428</v>
       </c>
       <c r="G24">
@@ -2649,15 +2633,15 @@
       <c r="I24">
         <v>138</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="13">
         <f t="shared" si="3"/>
         <v>140</v>
       </c>
       <c r="R24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>6</v>
       </c>
@@ -2670,7 +2654,7 @@
       <c r="E25">
         <v>1000</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <v>51.6</v>
       </c>
       <c r="G25">
@@ -2682,12 +2666,12 @@
       <c r="I25">
         <v>19</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="13">
         <f t="shared" si="3"/>
         <v>15.333333333333334</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>7</v>
       </c>
@@ -2700,7 +2684,7 @@
       <c r="E26">
         <v>3000</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <v>152</v>
       </c>
       <c r="G26">
@@ -2712,15 +2696,15 @@
       <c r="I26">
         <v>49</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="13">
         <f t="shared" si="3"/>
         <v>47.666666666666664</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>8</v>
       </c>
@@ -2733,7 +2717,7 @@
       <c r="E27">
         <v>5000</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="1">
         <v>250</v>
       </c>
       <c r="G27">
@@ -2745,12 +2729,12 @@
       <c r="I27">
         <v>101</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="13">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>9</v>
       </c>
@@ -2763,7 +2747,7 @@
       <c r="E28">
         <v>7000</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="1">
         <v>341</v>
       </c>
       <c r="G28">
@@ -2775,12 +2759,12 @@
       <c r="I28">
         <v>128</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28" s="13">
         <f t="shared" si="3"/>
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>10</v>
       </c>
@@ -2793,7 +2777,7 @@
       <c r="E29">
         <v>10000</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="1">
         <v>501</v>
       </c>
       <c r="G29">
@@ -2805,12 +2789,12 @@
       <c r="I29">
         <v>142</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="13">
         <f t="shared" si="3"/>
         <v>144.33333333333334</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>11</v>
       </c>
@@ -2823,7 +2807,7 @@
       <c r="E30">
         <v>1000</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="1">
         <v>50</v>
       </c>
       <c r="G30">
@@ -2835,12 +2819,12 @@
       <c r="I30">
         <v>13</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="13">
         <f t="shared" si="3"/>
         <v>13.333333333333334</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>12</v>
       </c>
@@ -2853,7 +2837,7 @@
       <c r="E31">
         <v>3000</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="1">
         <v>145</v>
       </c>
       <c r="G31">
@@ -2865,12 +2849,12 @@
       <c r="I31">
         <v>48</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="13">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>13</v>
       </c>
@@ -2883,7 +2867,7 @@
       <c r="E32">
         <v>5000</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="1">
         <v>242</v>
       </c>
       <c r="G32">
@@ -2895,12 +2879,12 @@
       <c r="I32">
         <v>92</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="13">
         <f t="shared" si="3"/>
         <v>100.33333333333333</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>14</v>
       </c>
@@ -2913,7 +2897,7 @@
       <c r="E33">
         <v>7000</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="1">
         <v>337</v>
       </c>
       <c r="G33">
@@ -2925,12 +2909,12 @@
       <c r="I33">
         <v>115</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33" s="13">
         <f t="shared" si="3"/>
         <v>114.66666666666667</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>15</v>
       </c>
@@ -2943,7 +2927,7 @@
       <c r="E34">
         <v>10000</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="1">
         <v>481</v>
       </c>
       <c r="G34">
@@ -2955,12 +2939,12 @@
       <c r="I34">
         <v>142</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J34" s="13">
         <f t="shared" si="3"/>
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>16</v>
       </c>
@@ -2973,7 +2957,7 @@
       <c r="E35">
         <v>1000</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="1">
         <v>48</v>
       </c>
       <c r="G35">
@@ -2985,12 +2969,12 @@
       <c r="I35">
         <v>13</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35" s="13">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>17</v>
       </c>
@@ -3003,7 +2987,7 @@
       <c r="E36">
         <v>3000</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="1">
         <v>141</v>
       </c>
       <c r="G36">
@@ -3015,12 +2999,12 @@
       <c r="I36">
         <v>46</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J36" s="13">
         <f t="shared" si="3"/>
         <v>53.666666666666664</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>18</v>
       </c>
@@ -3033,7 +3017,7 @@
       <c r="E37">
         <v>5000</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="1">
         <v>231</v>
       </c>
       <c r="G37">
@@ -3045,12 +3029,12 @@
       <c r="I37">
         <v>76</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J37" s="13">
         <f t="shared" si="3"/>
         <v>89.666666666666671</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>19</v>
       </c>
@@ -3063,7 +3047,7 @@
       <c r="E38">
         <v>7000</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="1">
         <v>323</v>
       </c>
       <c r="G38">
@@ -3075,12 +3059,12 @@
       <c r="I38">
         <v>117</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J38" s="13">
         <f t="shared" si="3"/>
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>20</v>
       </c>
@@ -3093,7 +3077,7 @@
       <c r="E39">
         <v>10000</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="1">
         <v>460</v>
       </c>
       <c r="G39">
@@ -3105,12 +3089,12 @@
       <c r="I39">
         <v>146</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J39" s="13">
         <f t="shared" si="3"/>
         <v>144.33333333333334</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>21</v>
       </c>
@@ -3123,7 +3107,7 @@
       <c r="E40">
         <v>1000</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="1">
         <v>48</v>
       </c>
       <c r="G40">
@@ -3135,12 +3119,12 @@
       <c r="I40">
         <v>16</v>
       </c>
-      <c r="J40" s="5">
+      <c r="J40" s="13">
         <f t="shared" si="3"/>
         <v>14.333333333333334</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>22</v>
       </c>
@@ -3153,7 +3137,7 @@
       <c r="E41">
         <v>3000</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="1">
         <v>139</v>
       </c>
       <c r="G41">
@@ -3165,12 +3149,12 @@
       <c r="I41">
         <v>60</v>
       </c>
-      <c r="J41" s="5">
+      <c r="J41" s="13">
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>23</v>
       </c>
@@ -3183,7 +3167,7 @@
       <c r="E42">
         <v>5000</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="1">
         <v>230</v>
       </c>
       <c r="G42">
@@ -3195,12 +3179,12 @@
       <c r="I42">
         <v>93</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J42" s="13">
         <f t="shared" si="3"/>
         <v>91.333333333333329</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>24</v>
       </c>
@@ -3213,7 +3197,7 @@
       <c r="E43">
         <v>7000</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="1">
         <v>324</v>
       </c>
       <c r="G43">
@@ -3225,12 +3209,12 @@
       <c r="I43">
         <v>100</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J43" s="13">
         <f t="shared" si="3"/>
         <v>103.33333333333333</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>25</v>
       </c>
@@ -3243,7 +3227,7 @@
       <c r="E44">
         <v>10000</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="1">
         <v>457</v>
       </c>
       <c r="G44">
@@ -3255,12 +3239,12 @@
       <c r="I44">
         <v>147</v>
       </c>
-      <c r="J44" s="5">
+      <c r="J44" s="13">
         <f t="shared" si="3"/>
         <v>145.66666666666666</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>26</v>
       </c>
@@ -3273,7 +3257,7 @@
       <c r="E45">
         <v>1000</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="1">
         <v>52</v>
       </c>
       <c r="G45">
@@ -3285,12 +3269,12 @@
       <c r="I45">
         <v>17</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J45" s="13">
         <f t="shared" si="3"/>
         <v>14.333333333333334</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>27</v>
       </c>
@@ -3303,7 +3287,7 @@
       <c r="E46">
         <v>3000</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="1">
         <v>151</v>
       </c>
       <c r="G46">
@@ -3315,12 +3299,12 @@
       <c r="I46">
         <v>45</v>
       </c>
-      <c r="J46" s="5">
+      <c r="J46" s="13">
         <f t="shared" si="3"/>
         <v>52.333333333333336</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>28</v>
       </c>
@@ -3333,7 +3317,7 @@
       <c r="E47">
         <v>5000</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="1">
         <v>251</v>
       </c>
       <c r="G47">
@@ -3345,12 +3329,12 @@
       <c r="I47">
         <v>110</v>
       </c>
-      <c r="J47" s="5">
+      <c r="J47" s="13">
         <f t="shared" si="3"/>
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>29</v>
       </c>
@@ -3363,7 +3347,7 @@
       <c r="E48">
         <v>7000</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="1">
         <v>349</v>
       </c>
       <c r="G48">
@@ -3375,12 +3359,12 @@
       <c r="I48">
         <v>98</v>
       </c>
-      <c r="J48" s="5">
+      <c r="J48" s="13">
         <f t="shared" si="3"/>
         <v>98.333333333333329</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>30</v>
       </c>
@@ -3393,7 +3377,7 @@
       <c r="E49">
         <v>10000</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="1">
         <v>498</v>
       </c>
       <c r="G49">
@@ -3405,7 +3389,7 @@
       <c r="I49">
         <v>160</v>
       </c>
-      <c r="J49" s="5">
+      <c r="J49" s="13">
         <f t="shared" si="3"/>
         <v>157.66666666666666</v>
       </c>
@@ -3421,71 +3405,71 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6874842F-182D-4950-B543-EEEF951FF77B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="133.109375" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="133.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="R3" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R3" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R4" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
       <c r="R5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C6" s="6" t="s">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="R6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1</v>
       </c>
@@ -3501,9 +3485,9 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>2</v>
       </c>
@@ -3519,9 +3503,9 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>3</v>
       </c>
@@ -3537,12 +3521,9 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="8"/>
-      <c r="R9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>4</v>
       </c>
@@ -3552,7 +3533,7 @@
       <c r="D10">
         <v>64</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="16">
         <v>64</v>
       </c>
       <c r="F10">
@@ -3564,16 +3545,11 @@
       <c r="H10">
         <v>60</v>
       </c>
-      <c r="I10" s="5">
-        <f t="shared" ref="I10:I15" si="2">AVERAGE(F10:H10)</f>
-        <v>60.333333333333336</v>
-      </c>
-      <c r="J10" s="7"/>
-      <c r="R10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="I10" s="17">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>5</v>
       </c>
@@ -3583,7 +3559,7 @@
       <c r="D11">
         <v>32</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="16">
         <v>65</v>
       </c>
       <c r="F11">
@@ -3595,13 +3571,11 @@
       <c r="H11">
         <v>81</v>
       </c>
-      <c r="I11" s="5">
-        <f t="shared" si="2"/>
-        <v>76.333333333333329</v>
-      </c>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="I11" s="17">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>6</v>
       </c>
@@ -3611,7 +3585,7 @@
       <c r="D12">
         <v>16</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="16">
         <v>81</v>
       </c>
       <c r="F12">
@@ -3623,13 +3597,11 @@
       <c r="H12">
         <v>99</v>
       </c>
-      <c r="I12" s="5">
-        <f t="shared" si="2"/>
-        <v>94</v>
-      </c>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="I12" s="17">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>7</v>
       </c>
@@ -3639,7 +3611,7 @@
       <c r="D13">
         <v>8</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="16">
         <v>109</v>
       </c>
       <c r="F13">
@@ -3651,13 +3623,11 @@
       <c r="H13">
         <v>105</v>
       </c>
-      <c r="I13" s="5">
-        <f t="shared" si="2"/>
-        <v>106</v>
-      </c>
-      <c r="J13" s="7"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="I13" s="17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>8</v>
       </c>
@@ -3667,7 +3637,7 @@
       <c r="D14">
         <v>4</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="16">
         <v>100</v>
       </c>
       <c r="F14">
@@ -3679,13 +3649,11 @@
       <c r="H14">
         <v>112</v>
       </c>
-      <c r="I14" s="5">
-        <f t="shared" si="2"/>
-        <v>112.33333333333333</v>
-      </c>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="I14" s="17">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>9</v>
       </c>
@@ -3695,7 +3663,7 @@
       <c r="D15">
         <v>2</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="16">
         <v>103</v>
       </c>
       <c r="F15">
@@ -3707,64 +3675,62 @@
       <c r="H15">
         <v>123</v>
       </c>
-      <c r="I15" s="5">
-        <f t="shared" si="2"/>
-        <v>127.66666666666667</v>
-      </c>
-      <c r="J15" s="7"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="R18" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C19" s="6" t="s">
+      <c r="I15" s="17">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B18" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="R18" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C19" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="15" t="s">
+      <c r="E19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="K19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="L19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M19" s="15" t="s">
+      <c r="M19" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>1</v>
       </c>
@@ -3786,7 +3752,7 @@
       <c r="H20">
         <v>7</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I20" s="13">
         <f>AVERAGE(F20:H20)</f>
         <v>7.0666666666666664</v>
       </c>
@@ -3799,12 +3765,12 @@
       <c r="L20">
         <v>12</v>
       </c>
-      <c r="M20" s="16">
+      <c r="M20" s="13">
         <f>AVERAGE(J20:L20)</f>
         <v>13.666666666666666</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>2</v>
       </c>
@@ -3826,8 +3792,8 @@
       <c r="H21">
         <v>19.899999999999999</v>
       </c>
-      <c r="I21" s="16">
-        <f t="shared" ref="I21:I49" si="3">AVERAGE(F21:H21)</f>
+      <c r="I21" s="13">
+        <f t="shared" ref="I21:I49" si="2">AVERAGE(F21:H21)</f>
         <v>20.8</v>
       </c>
       <c r="J21">
@@ -3839,12 +3805,12 @@
       <c r="L21">
         <v>37</v>
       </c>
-      <c r="M21" s="16">
-        <f t="shared" ref="M21:M49" si="4">AVERAGE(J21:L21)</f>
+      <c r="M21" s="13">
+        <f t="shared" ref="M21:M49" si="3">AVERAGE(J21:L21)</f>
         <v>32.666666666666664</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>3</v>
       </c>
@@ -3866,8 +3832,8 @@
       <c r="H22">
         <v>31.7</v>
       </c>
-      <c r="I22" s="16">
-        <f t="shared" si="3"/>
+      <c r="I22" s="13">
+        <f t="shared" si="2"/>
         <v>31.7</v>
       </c>
       <c r="J22">
@@ -3879,12 +3845,12 @@
       <c r="L22">
         <v>50</v>
       </c>
-      <c r="M22" s="16">
-        <f t="shared" si="4"/>
+      <c r="M22" s="13">
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>4</v>
       </c>
@@ -3906,8 +3872,8 @@
       <c r="H23">
         <v>45.1</v>
       </c>
-      <c r="I23" s="16">
-        <f t="shared" si="3"/>
+      <c r="I23" s="13">
+        <f t="shared" si="2"/>
         <v>45.300000000000004</v>
       </c>
       <c r="J23">
@@ -3919,12 +3885,12 @@
       <c r="L23">
         <v>73</v>
       </c>
-      <c r="M23" s="16">
-        <f t="shared" si="4"/>
+      <c r="M23" s="13">
+        <f t="shared" si="3"/>
         <v>69.333333333333329</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>5</v>
       </c>
@@ -3946,8 +3912,8 @@
       <c r="H24">
         <v>64</v>
       </c>
-      <c r="I24" s="16">
-        <f t="shared" si="3"/>
+      <c r="I24" s="13">
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="J24">
@@ -3959,15 +3925,15 @@
       <c r="L24">
         <v>64</v>
       </c>
-      <c r="M24" s="16">
-        <f t="shared" si="4"/>
+      <c r="M24" s="13">
+        <f t="shared" si="3"/>
         <v>71.666666666666671</v>
       </c>
       <c r="R24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>6</v>
       </c>
@@ -3989,8 +3955,8 @@
       <c r="H25">
         <v>6.8</v>
       </c>
-      <c r="I25" s="16">
-        <f t="shared" si="3"/>
+      <c r="I25" s="13">
+        <f t="shared" si="2"/>
         <v>6.833333333333333</v>
       </c>
       <c r="J25">
@@ -4002,12 +3968,12 @@
       <c r="L25">
         <v>10</v>
       </c>
-      <c r="M25" s="16">
-        <f t="shared" si="4"/>
+      <c r="M25" s="13">
+        <f t="shared" si="3"/>
         <v>9.6666666666666661</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>7</v>
       </c>
@@ -4029,8 +3995,8 @@
       <c r="H26">
         <v>20</v>
       </c>
-      <c r="I26" s="16">
-        <f t="shared" si="3"/>
+      <c r="I26" s="13">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="J26">
@@ -4042,15 +4008,15 @@
       <c r="L26">
         <v>32</v>
       </c>
-      <c r="M26" s="16">
-        <f t="shared" si="4"/>
+      <c r="M26" s="13">
+        <f t="shared" si="3"/>
         <v>29.666666666666668</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>8</v>
       </c>
@@ -4072,8 +4038,8 @@
       <c r="H27">
         <v>33.5</v>
       </c>
-      <c r="I27" s="16">
-        <f t="shared" si="3"/>
+      <c r="I27" s="13">
+        <f t="shared" si="2"/>
         <v>33.866666666666667</v>
       </c>
       <c r="J27">
@@ -4085,12 +4051,12 @@
       <c r="L27">
         <v>52</v>
       </c>
-      <c r="M27" s="16">
-        <f t="shared" si="4"/>
+      <c r="M27" s="13">
+        <f t="shared" si="3"/>
         <v>46.666666666666664</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>9</v>
       </c>
@@ -4112,8 +4078,8 @@
       <c r="H28">
         <v>45.8</v>
       </c>
-      <c r="I28" s="16">
-        <f t="shared" si="3"/>
+      <c r="I28" s="13">
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="J28">
@@ -4125,12 +4091,12 @@
       <c r="L28">
         <v>59</v>
       </c>
-      <c r="M28" s="16">
-        <f t="shared" si="4"/>
+      <c r="M28" s="13">
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>10</v>
       </c>
@@ -4152,8 +4118,8 @@
       <c r="H29">
         <v>65.2</v>
       </c>
-      <c r="I29" s="16">
-        <f t="shared" si="3"/>
+      <c r="I29" s="13">
+        <f t="shared" si="2"/>
         <v>65.36666666666666</v>
       </c>
       <c r="J29">
@@ -4165,12 +4131,12 @@
       <c r="L29">
         <v>73</v>
       </c>
-      <c r="M29" s="16">
-        <f t="shared" si="4"/>
+      <c r="M29" s="13">
+        <f t="shared" si="3"/>
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>11</v>
       </c>
@@ -4192,8 +4158,8 @@
       <c r="H30">
         <v>8.25</v>
       </c>
-      <c r="I30" s="16">
-        <f t="shared" si="3"/>
+      <c r="I30" s="13">
+        <f t="shared" si="2"/>
         <v>8.2633333333333336</v>
       </c>
       <c r="J30">
@@ -4205,12 +4171,12 @@
       <c r="L30">
         <v>10</v>
       </c>
-      <c r="M30" s="16">
-        <f t="shared" si="4"/>
+      <c r="M30" s="13">
+        <f t="shared" si="3"/>
         <v>11.333333333333334</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>12</v>
       </c>
@@ -4232,8 +4198,8 @@
       <c r="H31">
         <v>24.4</v>
       </c>
-      <c r="I31" s="16">
-        <f t="shared" si="3"/>
+      <c r="I31" s="13">
+        <f t="shared" si="2"/>
         <v>25.899999999999995</v>
       </c>
       <c r="J31">
@@ -4245,12 +4211,12 @@
       <c r="L31">
         <v>31</v>
       </c>
-      <c r="M31" s="16">
-        <f t="shared" si="4"/>
+      <c r="M31" s="13">
+        <f t="shared" si="3"/>
         <v>36.666666666666664</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>13</v>
       </c>
@@ -4272,8 +4238,8 @@
       <c r="H32">
         <v>40.299999999999997</v>
       </c>
-      <c r="I32" s="16">
-        <f t="shared" si="3"/>
+      <c r="I32" s="13">
+        <f t="shared" si="2"/>
         <v>40.333333333333336</v>
       </c>
       <c r="J32">
@@ -4285,12 +4251,12 @@
       <c r="L32">
         <v>48</v>
       </c>
-      <c r="M32" s="16">
-        <f t="shared" si="4"/>
+      <c r="M32" s="13">
+        <f t="shared" si="3"/>
         <v>46.666666666666664</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>14</v>
       </c>
@@ -4312,8 +4278,8 @@
       <c r="H33">
         <v>56.7</v>
       </c>
-      <c r="I33" s="16">
-        <f t="shared" si="3"/>
+      <c r="I33" s="13">
+        <f t="shared" si="2"/>
         <v>56.70000000000001</v>
       </c>
       <c r="J33">
@@ -4325,12 +4291,12 @@
       <c r="L33">
         <v>64</v>
       </c>
-      <c r="M33" s="16">
-        <f t="shared" si="4"/>
+      <c r="M33" s="13">
+        <f t="shared" si="3"/>
         <v>63.333333333333336</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>15</v>
       </c>
@@ -4352,8 +4318,8 @@
       <c r="H34">
         <v>81</v>
       </c>
-      <c r="I34" s="16">
-        <f t="shared" si="3"/>
+      <c r="I34" s="13">
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="J34">
@@ -4365,12 +4331,12 @@
       <c r="L34">
         <v>93</v>
       </c>
-      <c r="M34" s="16">
-        <f t="shared" si="4"/>
+      <c r="M34" s="13">
+        <f t="shared" si="3"/>
         <v>90.666666666666671</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>16</v>
       </c>
@@ -4392,8 +4358,8 @@
       <c r="H35">
         <v>11</v>
       </c>
-      <c r="I35" s="16">
-        <f t="shared" si="3"/>
+      <c r="I35" s="13">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="J35">
@@ -4405,12 +4371,12 @@
       <c r="L35">
         <v>11</v>
       </c>
-      <c r="M35" s="16">
-        <f t="shared" si="4"/>
+      <c r="M35" s="13">
+        <f t="shared" si="3"/>
         <v>11.666666666666666</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>17</v>
       </c>
@@ -4432,8 +4398,8 @@
       <c r="H36">
         <v>33.6</v>
       </c>
-      <c r="I36" s="16">
-        <f t="shared" si="3"/>
+      <c r="I36" s="13">
+        <f t="shared" si="2"/>
         <v>33.633333333333333</v>
       </c>
       <c r="J36">
@@ -4445,12 +4411,12 @@
       <c r="L36">
         <v>35</v>
       </c>
-      <c r="M36" s="16">
-        <f t="shared" si="4"/>
+      <c r="M36" s="13">
+        <f t="shared" si="3"/>
         <v>33.333333333333336</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>18</v>
       </c>
@@ -4472,8 +4438,8 @@
       <c r="H37">
         <v>55</v>
       </c>
-      <c r="I37" s="16">
-        <f t="shared" si="3"/>
+      <c r="I37" s="13">
+        <f t="shared" si="2"/>
         <v>55.133333333333333</v>
       </c>
       <c r="J37">
@@ -4485,12 +4451,12 @@
       <c r="L37">
         <v>59</v>
       </c>
-      <c r="M37" s="16">
-        <f t="shared" si="4"/>
+      <c r="M37" s="13">
+        <f t="shared" si="3"/>
         <v>60.666666666666664</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>19</v>
       </c>
@@ -4512,8 +4478,8 @@
       <c r="H38">
         <v>77</v>
       </c>
-      <c r="I38" s="16">
-        <f t="shared" si="3"/>
+      <c r="I38" s="13">
+        <f t="shared" si="2"/>
         <v>77.166666666666671</v>
       </c>
       <c r="J38">
@@ -4525,12 +4491,12 @@
       <c r="L38">
         <v>66</v>
       </c>
-      <c r="M38" s="16">
-        <f t="shared" si="4"/>
+      <c r="M38" s="13">
+        <f t="shared" si="3"/>
         <v>69.333333333333329</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>20</v>
       </c>
@@ -4552,8 +4518,8 @@
       <c r="H39">
         <v>109</v>
       </c>
-      <c r="I39" s="16">
-        <f t="shared" si="3"/>
+      <c r="I39" s="13">
+        <f t="shared" si="2"/>
         <v>109</v>
       </c>
       <c r="J39">
@@ -4565,12 +4531,12 @@
       <c r="L39">
         <v>89</v>
       </c>
-      <c r="M39" s="16">
-        <f t="shared" si="4"/>
+      <c r="M39" s="13">
+        <f t="shared" si="3"/>
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>21</v>
       </c>
@@ -4592,8 +4558,8 @@
       <c r="H40">
         <v>9.9</v>
       </c>
-      <c r="I40" s="16">
-        <f t="shared" si="3"/>
+      <c r="I40" s="13">
+        <f t="shared" si="2"/>
         <v>9.8666666666666671</v>
       </c>
       <c r="J40">
@@ -4605,12 +4571,12 @@
       <c r="L40">
         <v>14</v>
       </c>
-      <c r="M40" s="16">
-        <f t="shared" si="4"/>
+      <c r="M40" s="13">
+        <f t="shared" si="3"/>
         <v>12.333333333333334</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>22</v>
       </c>
@@ -4632,8 +4598,8 @@
       <c r="H41">
         <v>29.3</v>
       </c>
-      <c r="I41" s="16">
-        <f t="shared" si="3"/>
+      <c r="I41" s="13">
+        <f t="shared" si="2"/>
         <v>29.466666666666669</v>
       </c>
       <c r="J41">
@@ -4645,12 +4611,12 @@
       <c r="L41">
         <v>40</v>
       </c>
-      <c r="M41" s="16">
-        <f t="shared" si="4"/>
+      <c r="M41" s="13">
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>23</v>
       </c>
@@ -4672,8 +4638,8 @@
       <c r="H42">
         <v>48.8</v>
       </c>
-      <c r="I42" s="16">
-        <f t="shared" si="3"/>
+      <c r="I42" s="13">
+        <f t="shared" si="2"/>
         <v>48.833333333333336</v>
       </c>
       <c r="J42">
@@ -4685,12 +4651,12 @@
       <c r="L42">
         <v>55</v>
       </c>
-      <c r="M42" s="16">
-        <f t="shared" si="4"/>
+      <c r="M42" s="13">
+        <f t="shared" si="3"/>
         <v>53.333333333333336</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>24</v>
       </c>
@@ -4712,8 +4678,8 @@
       <c r="H43">
         <v>70</v>
       </c>
-      <c r="I43" s="16">
-        <f t="shared" si="3"/>
+      <c r="I43" s="13">
+        <f t="shared" si="2"/>
         <v>69.466666666666669</v>
       </c>
       <c r="J43">
@@ -4725,12 +4691,12 @@
       <c r="L43">
         <v>64</v>
       </c>
-      <c r="M43" s="16">
-        <f t="shared" si="4"/>
+      <c r="M43" s="13">
+        <f t="shared" si="3"/>
         <v>65.666666666666671</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>25</v>
       </c>
@@ -4752,8 +4718,8 @@
       <c r="H44">
         <v>100</v>
       </c>
-      <c r="I44" s="16">
-        <f t="shared" si="3"/>
+      <c r="I44" s="13">
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="J44">
@@ -4765,12 +4731,12 @@
       <c r="L44">
         <v>99</v>
       </c>
-      <c r="M44" s="16">
-        <f t="shared" si="4"/>
+      <c r="M44" s="13">
+        <f t="shared" si="3"/>
         <v>93.333333333333329</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>26</v>
       </c>
@@ -4786,14 +4752,14 @@
       <c r="F45">
         <v>9.8000000000000007</v>
       </c>
-      <c r="G45" s="14">
+      <c r="G45" s="11">
         <v>9.8000000000000007</v>
       </c>
       <c r="H45">
         <v>9.8000000000000007</v>
       </c>
-      <c r="I45" s="16">
-        <f t="shared" si="3"/>
+      <c r="I45" s="13">
+        <f t="shared" si="2"/>
         <v>9.8000000000000007</v>
       </c>
       <c r="J45">
@@ -4805,12 +4771,12 @@
       <c r="L45">
         <v>13</v>
       </c>
-      <c r="M45" s="16">
-        <f t="shared" si="4"/>
+      <c r="M45" s="13">
+        <f t="shared" si="3"/>
         <v>14.333333333333334</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>27</v>
       </c>
@@ -4832,8 +4798,8 @@
       <c r="H46">
         <v>31.4</v>
       </c>
-      <c r="I46" s="16">
-        <f t="shared" si="3"/>
+      <c r="I46" s="13">
+        <f t="shared" si="2"/>
         <v>30.7</v>
       </c>
       <c r="J46">
@@ -4845,12 +4811,12 @@
       <c r="L46">
         <v>33</v>
       </c>
-      <c r="M46" s="16">
-        <f t="shared" si="4"/>
+      <c r="M46" s="13">
+        <f t="shared" si="3"/>
         <v>34.333333333333336</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>28</v>
       </c>
@@ -4872,8 +4838,8 @@
       <c r="H47">
         <v>51</v>
       </c>
-      <c r="I47" s="16">
-        <f t="shared" si="3"/>
+      <c r="I47" s="13">
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="J47">
@@ -4885,12 +4851,12 @@
       <c r="L47">
         <v>51</v>
       </c>
-      <c r="M47" s="16">
-        <f t="shared" si="4"/>
+      <c r="M47" s="13">
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>29</v>
       </c>
@@ -4912,8 +4878,8 @@
       <c r="H48">
         <v>72</v>
       </c>
-      <c r="I48" s="16">
-        <f t="shared" si="3"/>
+      <c r="I48" s="13">
+        <f t="shared" si="2"/>
         <v>72.066666666666663</v>
       </c>
       <c r="J48">
@@ -4925,12 +4891,12 @@
       <c r="L48">
         <v>69</v>
       </c>
-      <c r="M48" s="16">
-        <f t="shared" si="4"/>
+      <c r="M48" s="13">
+        <f t="shared" si="3"/>
         <v>68.333333333333329</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>30</v>
       </c>
@@ -4952,8 +4918,8 @@
       <c r="H49">
         <v>103</v>
       </c>
-      <c r="I49" s="16">
-        <f t="shared" si="3"/>
+      <c r="I49" s="13">
+        <f t="shared" si="2"/>
         <v>103</v>
       </c>
       <c r="J49">
@@ -4965,8 +4931,8 @@
       <c r="L49">
         <v>117</v>
       </c>
-      <c r="M49" s="16">
-        <f t="shared" si="4"/>
+      <c r="M49" s="13">
+        <f t="shared" si="3"/>
         <v>107</v>
       </c>
     </row>

--- a/_09_PtmConvTest/Graphics.xlsx
+++ b/_09_PtmConvTest/Graphics.xlsx
@@ -3409,7 +3409,7 @@
   <dimension ref="B3:R49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/_09_PtmConvTest/Graphics.xlsx
+++ b/_09_PtmConvTest/Graphics.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Диаграмма1" sheetId="4" r:id="rId2"/>
     <sheet name="T=F(X,Z) GT 710" sheetId="2" r:id="rId3"/>
     <sheet name="T=F(X,Z) MX 250" sheetId="5" r:id="rId4"/>
+    <sheet name="Эксперимент 1" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
   <si>
     <t>--------------Характеристики расчетной сетки----------------</t>
   </si>
@@ -129,6 +130,38 @@
   <si>
     <t>3. Результаты эксперимента: T_GPU = 7,96 - 0,36*Z + 0,0087*Y</t>
   </si>
+  <si>
+    <t>MX 250</t>
+  </si>
+  <si>
+    <t>GT 710</t>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>GPU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, мс</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -137,7 +170,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,8 +203,31 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,8 +258,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -211,11 +273,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -242,14 +319,34 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -437,11 +534,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="224867456"/>
-        <c:axId val="224868992"/>
+        <c:axId val="266695424"/>
+        <c:axId val="266696960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="224867456"/>
+        <c:axId val="266695424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60000"/>
@@ -465,13 +562,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224868992"/>
+        <c:crossAx val="266696960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="15000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="224868992"/>
+        <c:axId val="266696960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150"/>
@@ -496,7 +593,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224867456"/>
+        <c:crossAx val="266695424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="25"/>
@@ -641,11 +738,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="224912512"/>
-        <c:axId val="224914048"/>
+        <c:axId val="266617600"/>
+        <c:axId val="266619136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="224912512"/>
+        <c:axId val="266617600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60000"/>
@@ -669,13 +766,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224914048"/>
+        <c:crossAx val="266619136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="15000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="224914048"/>
+        <c:axId val="266619136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -699,7 +796,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224912512"/>
+        <c:crossAx val="266617600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1127,11 +1224,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="225151232"/>
-        <c:axId val="225153024"/>
+        <c:axId val="266991488"/>
+        <c:axId val="266993024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="225151232"/>
+        <c:axId val="266991488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1141,7 +1238,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="225153024"/>
+        <c:crossAx val="266993024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1149,7 +1246,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="225153024"/>
+        <c:axId val="266993024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1160,7 +1257,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="225151232"/>
+        <c:crossAx val="266991488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1207,7 +1304,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1243,7 +1340,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1684,7 +1781,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2163,8 +2260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:R49"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2184,16 +2281,16 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
       <c r="R5" s="3" t="s">
         <v>10</v>
       </c>
@@ -2447,17 +2544,17 @@
       <c r="J15" s="6"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
       <c r="R18" s="10" t="s">
         <v>24</v>
       </c>
@@ -3408,8 +3505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3429,16 +3526,16 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
       <c r="R5" s="3" t="s">
         <v>10</v>
       </c>
@@ -3533,7 +3630,7 @@
       <c r="D10">
         <v>64</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="14">
         <v>64</v>
       </c>
       <c r="F10">
@@ -3545,7 +3642,7 @@
       <c r="H10">
         <v>60</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="15">
         <v>72</v>
       </c>
     </row>
@@ -3559,7 +3656,7 @@
       <c r="D11">
         <v>32</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="14">
         <v>65</v>
       </c>
       <c r="F11">
@@ -3571,7 +3668,7 @@
       <c r="H11">
         <v>81</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="15">
         <v>79</v>
       </c>
     </row>
@@ -3585,7 +3682,7 @@
       <c r="D12">
         <v>16</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="14">
         <v>81</v>
       </c>
       <c r="F12">
@@ -3597,7 +3694,7 @@
       <c r="H12">
         <v>99</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="15">
         <v>91</v>
       </c>
     </row>
@@ -3611,7 +3708,7 @@
       <c r="D13">
         <v>8</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="14">
         <v>109</v>
       </c>
       <c r="F13">
@@ -3623,7 +3720,7 @@
       <c r="H13">
         <v>105</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="15">
         <v>95</v>
       </c>
     </row>
@@ -3637,7 +3734,7 @@
       <c r="D14">
         <v>4</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="14">
         <v>100</v>
       </c>
       <c r="F14">
@@ -3649,7 +3746,7 @@
       <c r="H14">
         <v>112</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="15">
         <v>93</v>
       </c>
     </row>
@@ -3663,7 +3760,7 @@
       <c r="D15">
         <v>2</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="14">
         <v>103</v>
       </c>
       <c r="F15">
@@ -3675,22 +3772,22 @@
       <c r="H15">
         <v>123</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="15">
         <v>107</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
       <c r="R18" s="10" t="s">
         <v>34</v>
       </c>
@@ -4944,4 +5041,190 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="C2" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="19"/>
+    </row>
+    <row r="3" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="21">
+        <v>2</v>
+      </c>
+      <c r="D4" s="21">
+        <v>512</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+      <c r="C5" s="21">
+        <f>C4*2</f>
+        <v>4</v>
+      </c>
+      <c r="D5" s="21">
+        <f>D4/2</f>
+        <v>256</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+      <c r="C6" s="21">
+        <f t="shared" ref="C6" si="0">C5*2</f>
+        <v>8</v>
+      </c>
+      <c r="D6" s="21">
+        <f t="shared" ref="D6" si="1">D5/2</f>
+        <v>128</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+      <c r="C7" s="22">
+        <v>16</v>
+      </c>
+      <c r="D7" s="22">
+        <v>64</v>
+      </c>
+      <c r="E7" s="24">
+        <v>430</v>
+      </c>
+      <c r="F7" s="24">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B8" s="1"/>
+      <c r="C8" s="21">
+        <v>32</v>
+      </c>
+      <c r="D8" s="21">
+        <v>32</v>
+      </c>
+      <c r="E8" s="20">
+        <v>503</v>
+      </c>
+      <c r="F8" s="25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="21">
+        <v>64</v>
+      </c>
+      <c r="D9" s="21">
+        <v>16</v>
+      </c>
+      <c r="E9" s="20">
+        <v>484</v>
+      </c>
+      <c r="F9" s="25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+      <c r="C10" s="21">
+        <v>128</v>
+      </c>
+      <c r="D10" s="21">
+        <v>8</v>
+      </c>
+      <c r="E10" s="20">
+        <v>462</v>
+      </c>
+      <c r="F10" s="25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="21">
+        <v>256</v>
+      </c>
+      <c r="D11" s="21">
+        <v>4</v>
+      </c>
+      <c r="E11" s="20">
+        <v>457</v>
+      </c>
+      <c r="F11" s="25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="21">
+        <v>512</v>
+      </c>
+      <c r="D12" s="21">
+        <v>2</v>
+      </c>
+      <c r="E12" s="20">
+        <v>501</v>
+      </c>
+      <c r="F12" s="25">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/_09_PtmConvTest/Graphics.xlsx
+++ b/_09_PtmConvTest/Graphics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,15 @@
     <sheet name="T=F(X,Z) GT 710" sheetId="2" r:id="rId3"/>
     <sheet name="T=F(X,Z) MX 250" sheetId="5" r:id="rId4"/>
     <sheet name="Эксперимент 1" sheetId="6" r:id="rId5"/>
+    <sheet name="Tesla K80" sheetId="7" r:id="rId6"/>
+    <sheet name="GTX1650" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="46">
   <si>
     <t>--------------Характеристики расчетной сетки----------------</t>
   </si>
@@ -162,6 +164,24 @@
       <t>, мс</t>
     </r>
   </si>
+  <si>
+    <t>Эксперимент 3 (16.02.2021)  Tesla K80</t>
+  </si>
+  <si>
+    <t>Y=1000</t>
+  </si>
+  <si>
+    <t>Y=3000</t>
+  </si>
+  <si>
+    <t>Эксперимент 4 (24.02.2021)  GTX1650</t>
+  </si>
+  <si>
+    <t>&lt;1</t>
+  </si>
+  <si>
+    <t>too many resources requested for launch</t>
+  </si>
 </sst>
 </file>
 
@@ -170,7 +190,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,8 +246,16 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,6 +292,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EB4E3"/>
+        <bgColor rgb="FF9999FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -292,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -321,18 +361,6 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -347,6 +375,35 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -534,11 +591,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="266695424"/>
-        <c:axId val="266696960"/>
+        <c:axId val="271689600"/>
+        <c:axId val="271691136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="266695424"/>
+        <c:axId val="271689600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60000"/>
@@ -562,13 +619,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="266696960"/>
+        <c:crossAx val="271691136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="15000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="266696960"/>
+        <c:axId val="271691136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150"/>
@@ -593,7 +650,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="266695424"/>
+        <c:crossAx val="271689600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="25"/>
@@ -738,11 +795,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="266617600"/>
-        <c:axId val="266619136"/>
+        <c:axId val="271931264"/>
+        <c:axId val="271932800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="266617600"/>
+        <c:axId val="271931264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60000"/>
@@ -766,13 +823,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="266619136"/>
+        <c:crossAx val="271932800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="15000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="266619136"/>
+        <c:axId val="271932800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -796,7 +853,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="266617600"/>
+        <c:crossAx val="271931264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1224,11 +1281,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="266991488"/>
-        <c:axId val="266993024"/>
+        <c:axId val="270863360"/>
+        <c:axId val="270865152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="266991488"/>
+        <c:axId val="270863360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1238,7 +1295,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="266993024"/>
+        <c:crossAx val="270865152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1246,7 +1303,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="266993024"/>
+        <c:axId val="270865152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1257,7 +1314,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="266991488"/>
+        <c:crossAx val="270863360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1270,6 +1327,285 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>t=f(y)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> XY=512</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>X=512; Y=1</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Tesla K80'!$D$3:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Tesla K80'!$H$3:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>35.366666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>136.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>190.93333333333331</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>248.76666666666668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="271036800"/>
+        <c:axId val="271038336"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="271036800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="271038336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="271038336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="271036800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>('Tesla K80'!$H$3,'Tesla K80'!$H$8,'Tesla K80'!$H$13,'Tesla K80'!$H$18,'Tesla K80'!$H$23,'Tesla K80'!$H$28,'Tesla K80'!$H$33)</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>35.366666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.433333333333337</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.833333333333332</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.633333333333336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.566666666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="271087488"/>
+        <c:axId val="271089024"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="271087488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="271089024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="271089024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="271087488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -1804,6 +2140,71 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -2260,8 +2661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:R49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2281,16 +2682,16 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
       <c r="R5" s="3" t="s">
         <v>10</v>
       </c>
@@ -2544,17 +2945,17 @@
       <c r="J15" s="6"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
       <c r="R18" s="10" t="s">
         <v>24</v>
       </c>
@@ -3505,8 +3906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:R49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E15"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3526,16 +3927,16 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
       <c r="R5" s="3" t="s">
         <v>10</v>
       </c>
@@ -3777,17 +4178,17 @@
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
       <c r="R18" s="10" t="s">
         <v>34</v>
       </c>
@@ -5047,8 +5448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5059,163 +5460,163 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="19"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="20" t="s">
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="16" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
-      <c r="C4" s="21">
+      <c r="C4" s="17">
         <v>2</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="17">
         <v>512</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
-      <c r="C5" s="21">
+      <c r="C5" s="17">
         <f>C4*2</f>
         <v>4</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="17">
         <f>D4/2</f>
         <v>256</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
-      <c r="C6" s="21">
+      <c r="C6" s="17">
         <f t="shared" ref="C6" si="0">C5*2</f>
         <v>8</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="17">
         <f t="shared" ref="D6" si="1">D5/2</f>
         <v>128</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
-      <c r="C7" s="22">
+      <c r="C7" s="18">
         <v>16</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="18">
         <v>64</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="20">
         <v>430</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="20">
         <v>64</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
-      <c r="C8" s="21">
+      <c r="C8" s="17">
         <v>32</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="17">
         <v>32</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="16">
         <v>503</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="21">
         <v>65</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
-      <c r="C9" s="21">
+      <c r="C9" s="17">
         <v>64</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="17">
         <v>16</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="16">
         <v>484</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="21">
         <v>81</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
-      <c r="C10" s="21">
+      <c r="C10" s="17">
         <v>128</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="17">
         <v>8</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="16">
         <v>462</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="21">
         <v>109</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
-      <c r="C11" s="21">
+      <c r="C11" s="17">
         <v>256</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="17">
         <v>4</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="16">
         <v>457</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="21">
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
-      <c r="C12" s="21">
+      <c r="C12" s="17">
         <v>512</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="17">
         <v>2</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="16">
         <v>501</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="21">
         <v>103</v>
       </c>
     </row>
@@ -5227,4 +5628,2262 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="27">
+        <v>1</v>
+      </c>
+      <c r="B3" s="27">
+        <v>512</v>
+      </c>
+      <c r="C3" s="27">
+        <v>1</v>
+      </c>
+      <c r="D3" s="27">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="27">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="F3" s="27">
+        <v>35</v>
+      </c>
+      <c r="G3" s="27">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="H3" s="28">
+        <f t="shared" ref="H3:H37" si="0">AVERAGE(E3:G3)</f>
+        <v>35.366666666666667</v>
+      </c>
+      <c r="K3">
+        <v>512</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="26">
+        <f>H3</f>
+        <v>35.366666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>512</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>3000</v>
+      </c>
+      <c r="E4">
+        <v>87.4</v>
+      </c>
+      <c r="F4">
+        <v>86.5</v>
+      </c>
+      <c r="G4">
+        <v>88.3</v>
+      </c>
+      <c r="H4" s="24">
+        <f t="shared" si="0"/>
+        <v>87.399999999999991</v>
+      </c>
+      <c r="K4">
+        <v>256</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4" s="26">
+        <f>H8</f>
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>512</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>5000</v>
+      </c>
+      <c r="E5">
+        <v>135.19999999999999</v>
+      </c>
+      <c r="F5">
+        <v>137.80000000000001</v>
+      </c>
+      <c r="G5">
+        <v>135.30000000000001</v>
+      </c>
+      <c r="H5" s="24">
+        <f t="shared" si="0"/>
+        <v>136.1</v>
+      </c>
+      <c r="K5">
+        <v>128</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5" s="26">
+        <f>H13</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>512</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>7000</v>
+      </c>
+      <c r="E6">
+        <v>190.3</v>
+      </c>
+      <c r="F6">
+        <v>192.6</v>
+      </c>
+      <c r="G6">
+        <v>189.9</v>
+      </c>
+      <c r="H6" s="24">
+        <f t="shared" si="0"/>
+        <v>190.93333333333331</v>
+      </c>
+      <c r="K6">
+        <v>64</v>
+      </c>
+      <c r="L6">
+        <v>8</v>
+      </c>
+      <c r="M6" s="26">
+        <f>H18</f>
+        <v>27.433333333333337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>512</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>10000</v>
+      </c>
+      <c r="E7">
+        <v>247.9</v>
+      </c>
+      <c r="F7">
+        <v>250.3</v>
+      </c>
+      <c r="G7">
+        <v>248.1</v>
+      </c>
+      <c r="H7" s="24">
+        <f t="shared" si="0"/>
+        <v>248.76666666666668</v>
+      </c>
+      <c r="K7">
+        <v>32</v>
+      </c>
+      <c r="L7">
+        <v>16</v>
+      </c>
+      <c r="M7" s="26">
+        <f>H23</f>
+        <v>27.833333333333332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="27">
+        <v>6</v>
+      </c>
+      <c r="B8" s="27">
+        <v>256</v>
+      </c>
+      <c r="C8" s="27">
+        <v>2</v>
+      </c>
+      <c r="D8" s="27">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="27">
+        <v>30.6</v>
+      </c>
+      <c r="F8" s="27">
+        <v>31.1</v>
+      </c>
+      <c r="G8" s="27">
+        <v>30.4</v>
+      </c>
+      <c r="H8" s="28">
+        <f t="shared" si="0"/>
+        <v>30.7</v>
+      </c>
+      <c r="K8">
+        <v>16</v>
+      </c>
+      <c r="L8">
+        <v>32</v>
+      </c>
+      <c r="M8" s="26">
+        <f>H28</f>
+        <v>28.633333333333336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>256</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>3000</v>
+      </c>
+      <c r="E9">
+        <v>81.3</v>
+      </c>
+      <c r="F9">
+        <v>82.5</v>
+      </c>
+      <c r="G9">
+        <v>81.8</v>
+      </c>
+      <c r="H9" s="24">
+        <f t="shared" si="0"/>
+        <v>81.866666666666674</v>
+      </c>
+      <c r="K9">
+        <v>8</v>
+      </c>
+      <c r="L9">
+        <v>64</v>
+      </c>
+      <c r="M9" s="26">
+        <f>H33</f>
+        <v>24.566666666666666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>256</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>5000</v>
+      </c>
+      <c r="E10">
+        <v>132</v>
+      </c>
+      <c r="F10">
+        <v>132.6</v>
+      </c>
+      <c r="G10">
+        <v>131.80000000000001</v>
+      </c>
+      <c r="H10" s="24">
+        <f t="shared" si="0"/>
+        <v>132.13333333333335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>256</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>7000</v>
+      </c>
+      <c r="E11">
+        <v>179.2</v>
+      </c>
+      <c r="F11">
+        <v>179.9</v>
+      </c>
+      <c r="G11">
+        <v>178.8</v>
+      </c>
+      <c r="H11" s="24">
+        <f t="shared" si="0"/>
+        <v>179.30000000000004</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>256</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>10000</v>
+      </c>
+      <c r="E12">
+        <v>249.5</v>
+      </c>
+      <c r="F12">
+        <v>248.5</v>
+      </c>
+      <c r="G12">
+        <v>249.9</v>
+      </c>
+      <c r="H12" s="24">
+        <f t="shared" si="0"/>
+        <v>249.29999999999998</v>
+      </c>
+      <c r="K12">
+        <v>512</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12" s="26">
+        <f>H4</f>
+        <v>87.399999999999991</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="27">
+        <v>11</v>
+      </c>
+      <c r="B13" s="27">
+        <v>128</v>
+      </c>
+      <c r="C13" s="27">
+        <v>4</v>
+      </c>
+      <c r="D13" s="27">
+        <v>1000</v>
+      </c>
+      <c r="E13" s="27">
+        <v>28.3</v>
+      </c>
+      <c r="F13" s="27">
+        <v>27.6</v>
+      </c>
+      <c r="G13" s="27">
+        <v>28.1</v>
+      </c>
+      <c r="H13" s="28">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="K13">
+        <v>256</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13" s="26">
+        <f>H17</f>
+        <v>223.36666666666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>128</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>3000</v>
+      </c>
+      <c r="E14">
+        <v>79.3</v>
+      </c>
+      <c r="F14">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="G14">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="H14" s="24">
+        <f t="shared" si="0"/>
+        <v>79.266666666666666</v>
+      </c>
+      <c r="K14">
+        <v>128</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="M14" s="26">
+        <f>H22</f>
+        <v>226.66666666666666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>128</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>5000</v>
+      </c>
+      <c r="E15">
+        <v>126.7</v>
+      </c>
+      <c r="F15">
+        <v>125.9</v>
+      </c>
+      <c r="G15">
+        <v>126.6</v>
+      </c>
+      <c r="H15" s="24">
+        <f t="shared" si="0"/>
+        <v>126.40000000000002</v>
+      </c>
+      <c r="K15">
+        <v>64</v>
+      </c>
+      <c r="L15">
+        <v>8</v>
+      </c>
+      <c r="M15" s="26">
+        <f>H27</f>
+        <v>251.70000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>128</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>7000</v>
+      </c>
+      <c r="E16">
+        <v>179.5</v>
+      </c>
+      <c r="F16">
+        <v>178.9</v>
+      </c>
+      <c r="G16">
+        <v>178.6</v>
+      </c>
+      <c r="H16" s="24">
+        <f t="shared" si="0"/>
+        <v>179</v>
+      </c>
+      <c r="K16">
+        <v>32</v>
+      </c>
+      <c r="L16">
+        <v>16</v>
+      </c>
+      <c r="M16" s="26">
+        <f>H32</f>
+        <v>263.73333333333335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>128</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>10000</v>
+      </c>
+      <c r="E17">
+        <v>223.3</v>
+      </c>
+      <c r="F17">
+        <v>223.9</v>
+      </c>
+      <c r="G17">
+        <v>222.9</v>
+      </c>
+      <c r="H17" s="24">
+        <f t="shared" si="0"/>
+        <v>223.36666666666667</v>
+      </c>
+      <c r="K17">
+        <v>16</v>
+      </c>
+      <c r="L17">
+        <v>32</v>
+      </c>
+      <c r="M17" s="26">
+        <f>H37</f>
+        <v>224.0333333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="27">
+        <v>16</v>
+      </c>
+      <c r="B18" s="27">
+        <v>64</v>
+      </c>
+      <c r="C18" s="27">
+        <v>8</v>
+      </c>
+      <c r="D18" s="27">
+        <v>1000</v>
+      </c>
+      <c r="E18" s="27">
+        <v>27.4</v>
+      </c>
+      <c r="F18" s="27">
+        <v>27.3</v>
+      </c>
+      <c r="G18" s="27">
+        <v>27.6</v>
+      </c>
+      <c r="H18" s="28">
+        <f t="shared" si="0"/>
+        <v>27.433333333333337</v>
+      </c>
+      <c r="K18">
+        <v>8</v>
+      </c>
+      <c r="L18">
+        <v>64</v>
+      </c>
+      <c r="M18" s="26">
+        <f>H42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>64</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>3000</v>
+      </c>
+      <c r="E19">
+        <v>79.5</v>
+      </c>
+      <c r="F19">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="G19">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="H19" s="24">
+        <f t="shared" si="0"/>
+        <v>79.433333333333337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>64</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>5000</v>
+      </c>
+      <c r="E20">
+        <v>127.7</v>
+      </c>
+      <c r="F20">
+        <v>127.3</v>
+      </c>
+      <c r="G20">
+        <v>128.19999999999999</v>
+      </c>
+      <c r="H20" s="24">
+        <f t="shared" si="0"/>
+        <v>127.73333333333333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>64</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>7000</v>
+      </c>
+      <c r="E21">
+        <v>181.1</v>
+      </c>
+      <c r="F21">
+        <v>181.5</v>
+      </c>
+      <c r="G21">
+        <v>180.9</v>
+      </c>
+      <c r="H21" s="24">
+        <f t="shared" si="0"/>
+        <v>181.16666666666666</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>64</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>10000</v>
+      </c>
+      <c r="E22">
+        <v>226.2</v>
+      </c>
+      <c r="F22">
+        <v>227.5</v>
+      </c>
+      <c r="G22">
+        <v>226.3</v>
+      </c>
+      <c r="H22" s="24">
+        <f t="shared" si="0"/>
+        <v>226.66666666666666</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="27">
+        <v>21</v>
+      </c>
+      <c r="B23" s="27">
+        <v>32</v>
+      </c>
+      <c r="C23" s="27">
+        <v>16</v>
+      </c>
+      <c r="D23" s="27">
+        <v>1000</v>
+      </c>
+      <c r="E23" s="27">
+        <v>27.9</v>
+      </c>
+      <c r="F23" s="27">
+        <v>27.3</v>
+      </c>
+      <c r="G23" s="27">
+        <v>28.3</v>
+      </c>
+      <c r="H23" s="28">
+        <f t="shared" si="0"/>
+        <v>27.833333333333332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>32</v>
+      </c>
+      <c r="C24">
+        <v>16</v>
+      </c>
+      <c r="D24">
+        <v>3000</v>
+      </c>
+      <c r="E24">
+        <v>81.8</v>
+      </c>
+      <c r="F24">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="G24">
+        <v>82.2</v>
+      </c>
+      <c r="H24" s="24">
+        <f t="shared" si="0"/>
+        <v>81.86666666666666</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>32</v>
+      </c>
+      <c r="C25">
+        <v>16</v>
+      </c>
+      <c r="D25">
+        <v>5000</v>
+      </c>
+      <c r="E25">
+        <v>128.9</v>
+      </c>
+      <c r="F25">
+        <v>128.30000000000001</v>
+      </c>
+      <c r="G25">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="H25" s="24">
+        <f t="shared" si="0"/>
+        <v>128.80000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>32</v>
+      </c>
+      <c r="C26">
+        <v>16</v>
+      </c>
+      <c r="D26">
+        <v>7000</v>
+      </c>
+      <c r="E26">
+        <v>190.4</v>
+      </c>
+      <c r="F26">
+        <v>191.2</v>
+      </c>
+      <c r="G26">
+        <v>190.3</v>
+      </c>
+      <c r="H26" s="24">
+        <f t="shared" si="0"/>
+        <v>190.63333333333335</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>32</v>
+      </c>
+      <c r="C27">
+        <v>16</v>
+      </c>
+      <c r="D27">
+        <v>10000</v>
+      </c>
+      <c r="E27">
+        <v>253.7</v>
+      </c>
+      <c r="F27">
+        <v>249.3</v>
+      </c>
+      <c r="G27">
+        <v>252.1</v>
+      </c>
+      <c r="H27" s="24">
+        <f t="shared" si="0"/>
+        <v>251.70000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="27">
+        <v>26</v>
+      </c>
+      <c r="B28" s="27">
+        <v>16</v>
+      </c>
+      <c r="C28" s="27">
+        <v>32</v>
+      </c>
+      <c r="D28" s="27">
+        <v>1000</v>
+      </c>
+      <c r="E28" s="27">
+        <v>29</v>
+      </c>
+      <c r="F28" s="27">
+        <v>28.7</v>
+      </c>
+      <c r="G28" s="27">
+        <v>28.2</v>
+      </c>
+      <c r="H28" s="28">
+        <f t="shared" si="0"/>
+        <v>28.633333333333336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>16</v>
+      </c>
+      <c r="C29">
+        <v>32</v>
+      </c>
+      <c r="D29">
+        <v>3000</v>
+      </c>
+      <c r="E29">
+        <v>85.1</v>
+      </c>
+      <c r="F29">
+        <v>84.8</v>
+      </c>
+      <c r="G29">
+        <v>85.6</v>
+      </c>
+      <c r="H29" s="24">
+        <f t="shared" si="0"/>
+        <v>85.166666666666657</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>16</v>
+      </c>
+      <c r="C30">
+        <v>32</v>
+      </c>
+      <c r="D30">
+        <v>5000</v>
+      </c>
+      <c r="E30">
+        <v>141.30000000000001</v>
+      </c>
+      <c r="F30">
+        <v>140.9</v>
+      </c>
+      <c r="G30">
+        <v>141.5</v>
+      </c>
+      <c r="H30" s="24">
+        <f t="shared" si="0"/>
+        <v>141.23333333333335</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>16</v>
+      </c>
+      <c r="C31">
+        <v>32</v>
+      </c>
+      <c r="D31">
+        <v>7000</v>
+      </c>
+      <c r="E31">
+        <v>196.4</v>
+      </c>
+      <c r="F31">
+        <v>194.8</v>
+      </c>
+      <c r="G31">
+        <v>196.9</v>
+      </c>
+      <c r="H31" s="24">
+        <f t="shared" si="0"/>
+        <v>196.03333333333333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>16</v>
+      </c>
+      <c r="C32">
+        <v>32</v>
+      </c>
+      <c r="D32">
+        <v>10000</v>
+      </c>
+      <c r="E32">
+        <v>264</v>
+      </c>
+      <c r="F32">
+        <v>260.89999999999998</v>
+      </c>
+      <c r="G32">
+        <v>266.3</v>
+      </c>
+      <c r="H32" s="24">
+        <f t="shared" si="0"/>
+        <v>263.73333333333335</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="27">
+        <v>31</v>
+      </c>
+      <c r="B33" s="27">
+        <v>8</v>
+      </c>
+      <c r="C33" s="27">
+        <v>64</v>
+      </c>
+      <c r="D33" s="27">
+        <v>1000</v>
+      </c>
+      <c r="E33" s="27">
+        <v>24.5</v>
+      </c>
+      <c r="F33" s="27">
+        <v>24.9</v>
+      </c>
+      <c r="G33" s="27">
+        <v>24.3</v>
+      </c>
+      <c r="H33" s="28">
+        <f t="shared" si="0"/>
+        <v>24.566666666666666</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>64</v>
+      </c>
+      <c r="D34">
+        <v>3000</v>
+      </c>
+      <c r="E34">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="F34">
+        <v>71.3</v>
+      </c>
+      <c r="G34">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="H34" s="24">
+        <f t="shared" si="0"/>
+        <v>70.933333333333323</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>64</v>
+      </c>
+      <c r="D35">
+        <v>5000</v>
+      </c>
+      <c r="E35">
+        <v>116.7</v>
+      </c>
+      <c r="F35">
+        <v>114.5</v>
+      </c>
+      <c r="G35">
+        <v>117.3</v>
+      </c>
+      <c r="H35" s="24">
+        <f t="shared" si="0"/>
+        <v>116.16666666666667</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>64</v>
+      </c>
+      <c r="D36">
+        <v>7000</v>
+      </c>
+      <c r="E36">
+        <v>160.19999999999999</v>
+      </c>
+      <c r="F36">
+        <v>157.9</v>
+      </c>
+      <c r="G36">
+        <v>161</v>
+      </c>
+      <c r="H36" s="24">
+        <f t="shared" si="0"/>
+        <v>159.70000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>64</v>
+      </c>
+      <c r="D37">
+        <v>10000</v>
+      </c>
+      <c r="E37">
+        <v>224.5</v>
+      </c>
+      <c r="F37">
+        <v>226.9</v>
+      </c>
+      <c r="G37">
+        <v>220.7</v>
+      </c>
+      <c r="H37" s="24">
+        <f t="shared" si="0"/>
+        <v>224.0333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W29" sqref="W29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="9.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="12"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1000</v>
+      </c>
+      <c r="E3">
+        <v>6.1</v>
+      </c>
+      <c r="F3">
+        <v>6.1</v>
+      </c>
+      <c r="G3">
+        <v>6.21</v>
+      </c>
+      <c r="H3" s="34">
+        <f>AVERAGE(E3:G3)</f>
+        <v>6.1366666666666667</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U3" s="34"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>1000</v>
+      </c>
+      <c r="E4">
+        <v>8.19</v>
+      </c>
+      <c r="F4">
+        <v>8.33</v>
+      </c>
+      <c r="G4">
+        <v>8.24</v>
+      </c>
+      <c r="H4" s="34">
+        <f t="shared" ref="H4:H32" si="0">AVERAGE(E4:G4)</f>
+        <v>8.2533333333333321</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U4" s="34"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>1000</v>
+      </c>
+      <c r="E5">
+        <v>8.73</v>
+      </c>
+      <c r="F5">
+        <v>8.75</v>
+      </c>
+      <c r="G5">
+        <v>8.73</v>
+      </c>
+      <c r="H5" s="34">
+        <f t="shared" si="0"/>
+        <v>8.7366666666666664</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="13">
+        <f t="shared" ref="L4:L32" si="1">AVERAGE(I5:K5)</f>
+        <v>1</v>
+      </c>
+      <c r="U5" s="34"/>
+      <c r="Y5" s="13"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>1000</v>
+      </c>
+      <c r="E6">
+        <v>8.84</v>
+      </c>
+      <c r="F6">
+        <v>8.76</v>
+      </c>
+      <c r="G6">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="H6" s="34">
+        <f t="shared" si="0"/>
+        <v>8.826666666666668</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U6" s="34"/>
+      <c r="Y6" s="13"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>40</v>
+      </c>
+      <c r="D7">
+        <v>1000</v>
+      </c>
+      <c r="E7">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="F7">
+        <v>9.24</v>
+      </c>
+      <c r="G7">
+        <v>9.23</v>
+      </c>
+      <c r="H7" s="34">
+        <f t="shared" si="0"/>
+        <v>9.2266666666666683</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U7" s="34"/>
+      <c r="Y7" s="13"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8">
+        <v>1000</v>
+      </c>
+      <c r="E8">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="F8">
+        <v>9.35</v>
+      </c>
+      <c r="G8">
+        <v>9.34</v>
+      </c>
+      <c r="H8" s="34">
+        <f t="shared" si="0"/>
+        <v>9.3833333333333346</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U8" s="34"/>
+      <c r="Y8" s="13"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>60</v>
+      </c>
+      <c r="D9">
+        <v>1000</v>
+      </c>
+      <c r="E9">
+        <v>9.41</v>
+      </c>
+      <c r="F9">
+        <v>9.49</v>
+      </c>
+      <c r="G9">
+        <v>9.5</v>
+      </c>
+      <c r="H9" s="34">
+        <f t="shared" si="0"/>
+        <v>9.4666666666666668</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U9" s="34"/>
+      <c r="Y9" s="13"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>70</v>
+      </c>
+      <c r="D10">
+        <v>1000</v>
+      </c>
+      <c r="E10">
+        <v>9.66</v>
+      </c>
+      <c r="F10">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="G10">
+        <v>9.68</v>
+      </c>
+      <c r="H10" s="34">
+        <f t="shared" si="0"/>
+        <v>9.6866666666666674</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U10" s="34"/>
+      <c r="Y10" s="13"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>80</v>
+      </c>
+      <c r="D11">
+        <v>1000</v>
+      </c>
+      <c r="E11">
+        <v>9.89</v>
+      </c>
+      <c r="F11">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="G11">
+        <v>9.84</v>
+      </c>
+      <c r="H11" s="34">
+        <f t="shared" si="0"/>
+        <v>9.870000000000001</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U11" s="34"/>
+      <c r="Y11" s="13"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>90</v>
+      </c>
+      <c r="D12">
+        <v>1000</v>
+      </c>
+      <c r="E12">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="F12">
+        <v>9.91</v>
+      </c>
+      <c r="G12">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="H12" s="34">
+        <f t="shared" si="0"/>
+        <v>9.9433333333333334</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12" s="13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="U12" s="34"/>
+      <c r="Y12" s="13"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <v>1000</v>
+      </c>
+      <c r="E13">
+        <v>10.07</v>
+      </c>
+      <c r="F13">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="G13">
+        <v>10.08</v>
+      </c>
+      <c r="H13" s="34">
+        <f t="shared" si="0"/>
+        <v>10.063333333333333</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13" s="13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="U13" s="34"/>
+      <c r="Y13" s="13"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>150</v>
+      </c>
+      <c r="D14">
+        <v>1000</v>
+      </c>
+      <c r="E14">
+        <v>10.64</v>
+      </c>
+      <c r="F14">
+        <v>10.77</v>
+      </c>
+      <c r="G14">
+        <v>10.67</v>
+      </c>
+      <c r="H14" s="34">
+        <f t="shared" si="0"/>
+        <v>10.693333333333333</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14" s="13">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="U14" s="34"/>
+      <c r="Y14" s="13"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>200</v>
+      </c>
+      <c r="D15">
+        <v>1000</v>
+      </c>
+      <c r="E15">
+        <v>11.19</v>
+      </c>
+      <c r="F15">
+        <v>11.26</v>
+      </c>
+      <c r="G15">
+        <v>11.27</v>
+      </c>
+      <c r="H15" s="34">
+        <f t="shared" si="0"/>
+        <v>11.24</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15" s="13">
+        <f t="shared" si="1"/>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="U15" s="34"/>
+      <c r="Y15" s="13"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>250</v>
+      </c>
+      <c r="D16">
+        <v>1000</v>
+      </c>
+      <c r="E16">
+        <v>11.75</v>
+      </c>
+      <c r="F16">
+        <v>11.86</v>
+      </c>
+      <c r="G16">
+        <v>11.84</v>
+      </c>
+      <c r="H16" s="34">
+        <f t="shared" si="0"/>
+        <v>11.816666666666668</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16" s="13">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="U16" s="34"/>
+      <c r="Y16" s="13"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>300</v>
+      </c>
+      <c r="D17">
+        <v>1000</v>
+      </c>
+      <c r="E17">
+        <v>12.45</v>
+      </c>
+      <c r="F17">
+        <v>12.54</v>
+      </c>
+      <c r="G17">
+        <v>12.54</v>
+      </c>
+      <c r="H17" s="34">
+        <f t="shared" si="0"/>
+        <v>12.51</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+      <c r="L17" s="13">
+        <f t="shared" si="1"/>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="U17" s="34"/>
+      <c r="Y17" s="13"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>350</v>
+      </c>
+      <c r="D18">
+        <v>1000</v>
+      </c>
+      <c r="E18">
+        <v>13.02</v>
+      </c>
+      <c r="F18">
+        <v>13.14</v>
+      </c>
+      <c r="G18">
+        <v>13.33</v>
+      </c>
+      <c r="H18" s="34">
+        <f t="shared" si="0"/>
+        <v>13.163333333333334</v>
+      </c>
+      <c r="I18">
+        <v>9</v>
+      </c>
+      <c r="J18">
+        <v>7</v>
+      </c>
+      <c r="K18">
+        <v>6</v>
+      </c>
+      <c r="L18" s="13">
+        <f t="shared" si="1"/>
+        <v>7.333333333333333</v>
+      </c>
+      <c r="U18" s="34"/>
+      <c r="Y18" s="13"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>400</v>
+      </c>
+      <c r="D19">
+        <v>1000</v>
+      </c>
+      <c r="E19">
+        <v>13.82</v>
+      </c>
+      <c r="F19">
+        <v>13.96</v>
+      </c>
+      <c r="G19">
+        <v>13.91</v>
+      </c>
+      <c r="H19" s="34">
+        <f t="shared" si="0"/>
+        <v>13.896666666666667</v>
+      </c>
+      <c r="I19">
+        <v>7</v>
+      </c>
+      <c r="J19">
+        <v>8</v>
+      </c>
+      <c r="K19">
+        <v>8</v>
+      </c>
+      <c r="L19" s="13">
+        <f t="shared" si="1"/>
+        <v>7.666666666666667</v>
+      </c>
+      <c r="U19" s="34"/>
+      <c r="Y19" s="13"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>450</v>
+      </c>
+      <c r="D20">
+        <v>1000</v>
+      </c>
+      <c r="E20">
+        <v>14.51</v>
+      </c>
+      <c r="F20">
+        <v>14.7</v>
+      </c>
+      <c r="G20">
+        <v>14.7</v>
+      </c>
+      <c r="H20" s="34">
+        <f t="shared" si="0"/>
+        <v>14.636666666666665</v>
+      </c>
+      <c r="I20">
+        <v>8</v>
+      </c>
+      <c r="J20">
+        <v>9</v>
+      </c>
+      <c r="K20">
+        <v>9</v>
+      </c>
+      <c r="L20" s="13">
+        <f t="shared" si="1"/>
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="U20" s="34"/>
+      <c r="Y20" s="13"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>500</v>
+      </c>
+      <c r="D21">
+        <v>1000</v>
+      </c>
+      <c r="E21">
+        <v>15.14</v>
+      </c>
+      <c r="F21">
+        <v>16.53</v>
+      </c>
+      <c r="G21">
+        <v>15.28</v>
+      </c>
+      <c r="H21" s="34">
+        <f t="shared" si="0"/>
+        <v>15.65</v>
+      </c>
+      <c r="I21">
+        <v>12</v>
+      </c>
+      <c r="J21">
+        <v>11</v>
+      </c>
+      <c r="K21">
+        <v>9</v>
+      </c>
+      <c r="L21" s="13">
+        <f t="shared" si="1"/>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="U21" s="34"/>
+      <c r="Y21" s="13"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>550</v>
+      </c>
+      <c r="D22">
+        <v>1000</v>
+      </c>
+      <c r="E22">
+        <v>15.94</v>
+      </c>
+      <c r="F22">
+        <v>16.07</v>
+      </c>
+      <c r="G22">
+        <v>16.079999999999998</v>
+      </c>
+      <c r="H22" s="34">
+        <f t="shared" si="0"/>
+        <v>16.029999999999998</v>
+      </c>
+      <c r="I22">
+        <v>15</v>
+      </c>
+      <c r="J22">
+        <v>8</v>
+      </c>
+      <c r="K22">
+        <v>10</v>
+      </c>
+      <c r="L22" s="13">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="U22" s="34"/>
+      <c r="Y22" s="13"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>600</v>
+      </c>
+      <c r="D23">
+        <v>1000</v>
+      </c>
+      <c r="E23">
+        <v>16.579999999999998</v>
+      </c>
+      <c r="F23">
+        <v>16.809999999999999</v>
+      </c>
+      <c r="G23">
+        <v>16.75</v>
+      </c>
+      <c r="H23" s="34">
+        <f t="shared" si="0"/>
+        <v>16.713333333333335</v>
+      </c>
+      <c r="I23">
+        <v>12</v>
+      </c>
+      <c r="J23">
+        <v>12</v>
+      </c>
+      <c r="K23">
+        <v>9</v>
+      </c>
+      <c r="L23" s="13">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="U23" s="34"/>
+      <c r="Y23" s="13"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>630</v>
+      </c>
+      <c r="D24">
+        <v>1000</v>
+      </c>
+      <c r="E24">
+        <v>17.05</v>
+      </c>
+      <c r="F24">
+        <v>17.21</v>
+      </c>
+      <c r="G24">
+        <v>17.2</v>
+      </c>
+      <c r="H24" s="34">
+        <f t="shared" si="0"/>
+        <v>17.153333333333336</v>
+      </c>
+      <c r="I24">
+        <v>11</v>
+      </c>
+      <c r="J24">
+        <v>11</v>
+      </c>
+      <c r="K24">
+        <v>12</v>
+      </c>
+      <c r="L24" s="13">
+        <f t="shared" si="1"/>
+        <v>11.333333333333334</v>
+      </c>
+      <c r="U24" s="34"/>
+      <c r="Y24" s="13"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>640</v>
+      </c>
+      <c r="D25">
+        <v>1000</v>
+      </c>
+      <c r="E25">
+        <v>17.21</v>
+      </c>
+      <c r="F25">
+        <v>17.3</v>
+      </c>
+      <c r="G25">
+        <v>17.34</v>
+      </c>
+      <c r="H25" s="34">
+        <f t="shared" si="0"/>
+        <v>17.283333333333335</v>
+      </c>
+      <c r="I25">
+        <v>13</v>
+      </c>
+      <c r="J25">
+        <v>11</v>
+      </c>
+      <c r="K25">
+        <v>10</v>
+      </c>
+      <c r="L25" s="13">
+        <f t="shared" si="1"/>
+        <v>11.333333333333334</v>
+      </c>
+      <c r="U25" s="34"/>
+      <c r="Y25" s="13"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>641</v>
+      </c>
+      <c r="D26">
+        <v>1000</v>
+      </c>
+      <c r="H26" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="L26" s="13"/>
+      <c r="U26" s="34"/>
+      <c r="Y26" s="13"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H27" s="34"/>
+      <c r="L27" s="13"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="F28" s="11"/>
+      <c r="H28" s="34"/>
+      <c r="L28" s="13"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H29" s="34"/>
+      <c r="L29" s="13"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H30" s="34"/>
+      <c r="L30" s="13"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H31" s="34"/>
+      <c r="L31" s="13"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H32" s="34"/>
+      <c r="L32" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/_09_PtmConvTest/Graphics.xlsx
+++ b/_09_PtmConvTest/Graphics.xlsx
@@ -501,6 +501,146 @@
         </r>
       </text>
     </comment>
+    <comment ref="CE173" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CS173" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DG173" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DU173" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="EI173" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="EW173" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="FK173" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="FY173" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="GM173" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="HA173" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="M187" authorId="0">
       <text>
         <r>
@@ -543,12 +683,320 @@
         </r>
       </text>
     </comment>
+    <comment ref="M213" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M225" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M237" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M249" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M261" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M273" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M285" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M297" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M309" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M321" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M333" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M345" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M357" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M369" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M381" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M393" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M404" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M414" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M422" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M430" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB430" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ430" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="63">
   <si>
     <t>--------------Характеристики расчетной сетки----------------</t>
   </si>
@@ -743,6 +1191,24 @@
   <si>
     <t>X=12</t>
   </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>X=13</t>
+  </si>
+  <si>
+    <t>X=14</t>
+  </si>
+  <si>
+    <t>X=</t>
+  </si>
 </sst>
 </file>
 
@@ -906,7 +1372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -996,6 +1462,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1184,11 +1656,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="265660672"/>
-        <c:axId val="265666560"/>
+        <c:axId val="300460672"/>
+        <c:axId val="300466560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="265660672"/>
+        <c:axId val="300460672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60000"/>
@@ -1212,13 +1684,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="265666560"/>
+        <c:crossAx val="300466560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="15000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="265666560"/>
+        <c:axId val="300466560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150"/>
@@ -1243,7 +1715,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="265660672"/>
+        <c:crossAx val="300460672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="25"/>
@@ -1388,11 +1860,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="266164480"/>
-        <c:axId val="266178560"/>
+        <c:axId val="300964480"/>
+        <c:axId val="300970368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="266164480"/>
+        <c:axId val="300964480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60000"/>
@@ -1416,13 +1888,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="266178560"/>
+        <c:crossAx val="300970368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="15000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="266178560"/>
+        <c:axId val="300970368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1446,7 +1918,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="266164480"/>
+        <c:crossAx val="300964480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1874,11 +2346,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="264969600"/>
-        <c:axId val="264971392"/>
+        <c:axId val="299773952"/>
+        <c:axId val="299775488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="264969600"/>
+        <c:axId val="299773952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1888,7 +2360,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="264971392"/>
+        <c:crossAx val="299775488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1896,7 +2368,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="264971392"/>
+        <c:axId val="299775488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1907,7 +2379,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="264969600"/>
+        <c:crossAx val="299773952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1958,7 +2430,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2031,11 +2502,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="265143040"/>
-        <c:axId val="265144576"/>
+        <c:axId val="299943040"/>
+        <c:axId val="299944576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="265143040"/>
+        <c:axId val="299943040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2045,12 +2516,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="265144576"/>
+        <c:crossAx val="299944576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="265144576"/>
+        <c:axId val="299944576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2061,14 +2532,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="265143040"/>
+        <c:crossAx val="299943040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2148,11 +2618,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="266493952"/>
-        <c:axId val="266495488"/>
+        <c:axId val="301294336"/>
+        <c:axId val="301295872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="266493952"/>
+        <c:axId val="301294336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2161,7 +2631,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="266495488"/>
+        <c:crossAx val="301295872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2169,7 +2639,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="266495488"/>
+        <c:axId val="301295872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2180,14 +2650,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="266493952"/>
+        <c:crossAx val="301294336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2233,7 +2702,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2269,7 +2738,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2710,7 +3179,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7388,10 +7857,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EW208"/>
+  <dimension ref="A1:HA437"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AU160" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BI181" sqref="BI181"/>
+    <sheetView tabSelected="1" topLeftCell="FU159" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="GY183" sqref="GY183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24388,7 +24857,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="161" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:209" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>3</v>
       </c>
@@ -24414,7 +24883,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="162" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:209" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>4</v>
       </c>
@@ -24440,7 +24909,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="163" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:209" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>5</v>
       </c>
@@ -24466,7 +24935,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="164" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:209" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>6</v>
       </c>
@@ -24492,7 +24961,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="165" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:209" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>7</v>
       </c>
@@ -24518,7 +24987,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="166" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:209" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>8</v>
       </c>
@@ -24562,7 +25031,7 @@
         <v>2.0915343915343918E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:209" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>9</v>
       </c>
@@ -24606,7 +25075,7 @@
         <v>2.071465832029212E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:209" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>18</v>
       </c>
@@ -24625,7 +25094,7 @@
       <c r="L168" s="13"/>
       <c r="M168" s="34"/>
     </row>
-    <row r="171" spans="1:69" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:209" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B171" s="31" t="s">
         <v>51</v>
       </c>
@@ -24635,7 +25104,7 @@
       <c r="M171" s="37"/>
       <c r="AA171" s="37"/>
     </row>
-    <row r="173" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:209" x14ac:dyDescent="0.25">
       <c r="A173" s="31"/>
       <c r="B173" s="32" t="s">
         <v>11</v>
@@ -24821,8 +25290,378 @@
       <c r="BQ173" s="33" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="174" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="BS173" s="31"/>
+      <c r="BT173" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="BU173" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="BV173" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="BW173" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="BX173" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="BY173" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="BZ173" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="CA173" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="CB173" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="CC173" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="CD173" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="CE173" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="CG173" s="31"/>
+      <c r="CH173" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="CI173" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="CJ173" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="CK173" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="CL173" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="CM173" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="CN173" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="CO173" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="CP173" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="CQ173" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="CR173" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="CS173" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="CU173" s="31"/>
+      <c r="CV173" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="CW173" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="CX173" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="CY173" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="CZ173" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="DA173" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="DB173" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="DC173" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="DD173" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="DE173" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="DF173" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="DG173" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="DI173" s="31"/>
+      <c r="DJ173" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="DK173" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="DL173" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="DM173" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="DN173" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="DO173" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="DP173" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="DQ173" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="DR173" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="DS173" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="DT173" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="DU173" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="DW173" s="31"/>
+      <c r="DX173" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="DY173" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="DZ173" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="EA173" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="EB173" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="EC173" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="ED173" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="EE173" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="EF173" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="EG173" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="EH173" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="EI173" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="EK173" s="31"/>
+      <c r="EL173" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="EM173" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="EN173" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="EO173" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="EP173" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="EQ173" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="ER173" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="ES173" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="ET173" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="EU173" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="EV173" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="EW173" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="EY173" s="31"/>
+      <c r="EZ173" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="FA173" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="FB173" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="FC173" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="FD173" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="FE173" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="FF173" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="FG173" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="FH173" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="FI173" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="FJ173" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="FK173" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="FM173" s="31"/>
+      <c r="FN173" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="FO173" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="FP173" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="FQ173" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="FR173" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="FS173" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="FT173" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="FU173" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="FV173" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="FW173" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="FX173" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="FY173" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="GA173" s="31"/>
+      <c r="GB173" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="GC173" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="GD173" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="GE173" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="GF173" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="GG173" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="GH173" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="GI173" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="GJ173" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="GK173" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="GL173" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="GM173" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="GO173" s="31"/>
+      <c r="GP173" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="GQ173" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="GR173" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="GS173" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="GT173" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="GU173" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="GV173" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="GW173" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="GX173" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="GY173" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="GZ173" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="HA173" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="174" spans="1:209" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1</v>
       </c>
@@ -25014,8 +25853,293 @@
         <f>BL174*1000/(BF174*BG174*BH174)</f>
         <v>0.80666666666666675</v>
       </c>
-    </row>
-    <row r="175" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="BS174">
+        <v>1</v>
+      </c>
+      <c r="BT174">
+        <v>10</v>
+      </c>
+      <c r="BU174">
+        <v>1</v>
+      </c>
+      <c r="BV174">
+        <v>15000</v>
+      </c>
+      <c r="BW174">
+        <v>120</v>
+      </c>
+      <c r="BX174">
+        <v>121</v>
+      </c>
+      <c r="BY174">
+        <v>121</v>
+      </c>
+      <c r="BZ174" s="29">
+        <f>AVERAGE(BW174:BY174)</f>
+        <v>120.66666666666667</v>
+      </c>
+      <c r="CA174" s="5">
+        <v>2</v>
+      </c>
+      <c r="CB174" s="5">
+        <v>2</v>
+      </c>
+      <c r="CC174" s="5">
+        <v>3</v>
+      </c>
+      <c r="CD174" s="13">
+        <f t="shared" ref="CD174:CD181" si="97">AVERAGE(CA174:CC174)</f>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="CE174" s="34">
+        <f>BZ174*1000/(BT174*BU174*BV174)</f>
+        <v>0.80444444444444452</v>
+      </c>
+      <c r="CG174">
+        <v>1</v>
+      </c>
+      <c r="CH174">
+        <v>10</v>
+      </c>
+      <c r="CI174">
+        <v>1</v>
+      </c>
+      <c r="CJ174">
+        <v>20000</v>
+      </c>
+      <c r="CN174" s="29" t="e">
+        <f>AVERAGE(CK174:CM174)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CO174" s="5"/>
+      <c r="CP174" s="5"/>
+      <c r="CQ174" s="5"/>
+      <c r="CR174" s="13" t="e">
+        <f t="shared" ref="CR174:CR181" si="98">AVERAGE(CO174:CQ174)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CS174" s="34" t="e">
+        <f>CN174*1000/(CH174*CI174*CJ174)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CU174">
+        <v>1</v>
+      </c>
+      <c r="CV174">
+        <v>10</v>
+      </c>
+      <c r="CW174">
+        <v>1</v>
+      </c>
+      <c r="CX174">
+        <v>25000</v>
+      </c>
+      <c r="DB174" s="29" t="e">
+        <f>AVERAGE(CY174:DA174)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DC174" s="5"/>
+      <c r="DD174" s="5"/>
+      <c r="DE174" s="5"/>
+      <c r="DF174" s="13" t="e">
+        <f t="shared" ref="DF174:DF181" si="99">AVERAGE(DC174:DE174)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DG174" s="34" t="e">
+        <f>DB174*1000/(CV174*CW174*CX174)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DI174">
+        <v>1</v>
+      </c>
+      <c r="DJ174">
+        <v>10</v>
+      </c>
+      <c r="DK174">
+        <v>1</v>
+      </c>
+      <c r="DL174">
+        <v>30000</v>
+      </c>
+      <c r="DP174" s="29" t="e">
+        <f>AVERAGE(DM174:DO174)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DQ174" s="5"/>
+      <c r="DR174" s="5"/>
+      <c r="DS174" s="5"/>
+      <c r="DT174" s="13" t="e">
+        <f t="shared" ref="DT174:DT181" si="100">AVERAGE(DQ174:DS174)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DU174" s="34" t="e">
+        <f>DP174*1000/(DJ174*DK174*DL174)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DW174">
+        <v>1</v>
+      </c>
+      <c r="DX174">
+        <v>10</v>
+      </c>
+      <c r="DY174">
+        <v>1</v>
+      </c>
+      <c r="DZ174">
+        <v>35000</v>
+      </c>
+      <c r="ED174" s="29" t="e">
+        <f>AVERAGE(EA174:EC174)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EE174" s="5"/>
+      <c r="EF174" s="5"/>
+      <c r="EG174" s="5"/>
+      <c r="EH174" s="13" t="e">
+        <f t="shared" ref="EH174:EH181" si="101">AVERAGE(EE174:EG174)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EI174" s="34" t="e">
+        <f>ED174*1000/(DX174*DY174*DZ174)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EK174">
+        <v>1</v>
+      </c>
+      <c r="EL174">
+        <v>10</v>
+      </c>
+      <c r="EM174">
+        <v>1</v>
+      </c>
+      <c r="EN174">
+        <v>40000</v>
+      </c>
+      <c r="ER174" s="29" t="e">
+        <f>AVERAGE(EO174:EQ174)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="ES174" s="5"/>
+      <c r="ET174" s="5"/>
+      <c r="EU174" s="5"/>
+      <c r="EV174" s="13" t="e">
+        <f t="shared" ref="EV174:EV181" si="102">AVERAGE(ES174:EU174)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EW174" s="34" t="e">
+        <f>ER174*1000/(EL174*EM174*EN174)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EY174">
+        <v>1</v>
+      </c>
+      <c r="EZ174">
+        <v>10</v>
+      </c>
+      <c r="FA174">
+        <v>1</v>
+      </c>
+      <c r="FB174">
+        <v>45000</v>
+      </c>
+      <c r="FF174" s="29" t="e">
+        <f>AVERAGE(FC174:FE174)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="FG174" s="5"/>
+      <c r="FH174" s="5"/>
+      <c r="FI174" s="5"/>
+      <c r="FJ174" s="13" t="e">
+        <f t="shared" ref="FJ174:FJ181" si="103">AVERAGE(FG174:FI174)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="FK174" s="34" t="e">
+        <f>FF174*1000/(EZ174*FA174*FB174)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="FM174">
+        <v>1</v>
+      </c>
+      <c r="FN174">
+        <v>10</v>
+      </c>
+      <c r="FO174">
+        <v>1</v>
+      </c>
+      <c r="FP174">
+        <v>50000</v>
+      </c>
+      <c r="FT174" s="29" t="e">
+        <f>AVERAGE(FQ174:FS174)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="FU174" s="5"/>
+      <c r="FV174" s="5"/>
+      <c r="FW174" s="5"/>
+      <c r="FX174" s="13" t="e">
+        <f t="shared" ref="FX174:FX181" si="104">AVERAGE(FU174:FW174)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="FY174" s="34" t="e">
+        <f>FT174*1000/(FN174*FO174*FP174)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GA174">
+        <v>1</v>
+      </c>
+      <c r="GB174">
+        <v>10</v>
+      </c>
+      <c r="GC174">
+        <v>1</v>
+      </c>
+      <c r="GD174">
+        <v>60000</v>
+      </c>
+      <c r="GH174" s="29" t="e">
+        <f>AVERAGE(GE174:GG174)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GI174" s="5"/>
+      <c r="GJ174" s="5"/>
+      <c r="GK174" s="5"/>
+      <c r="GL174" s="13" t="e">
+        <f t="shared" ref="GL174:GL181" si="105">AVERAGE(GI174:GK174)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GM174" s="34" t="e">
+        <f>GH174*1000/(GB174*GC174*GD174)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GO174">
+        <v>1</v>
+      </c>
+      <c r="GP174">
+        <v>10</v>
+      </c>
+      <c r="GQ174">
+        <v>1</v>
+      </c>
+      <c r="GR174">
+        <v>70000</v>
+      </c>
+      <c r="GV174" s="29" t="e">
+        <f>AVERAGE(GS174:GU174)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GW174" s="5"/>
+      <c r="GX174" s="5"/>
+      <c r="GY174" s="5"/>
+      <c r="GZ174" s="13" t="e">
+        <f t="shared" ref="GZ174:GZ181" si="106">AVERAGE(GW174:GY174)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="HA174" s="34" t="e">
+        <f>GV174*1000/(GP174*GQ174*GR174)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="175" spans="1:209" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>2</v>
       </c>
@@ -25029,14 +26153,14 @@
         <v>1000</v>
       </c>
       <c r="H175" s="29" t="e">
-        <f t="shared" ref="H175:H181" si="97">AVERAGE(E175:G175)</f>
+        <f t="shared" ref="H175:H181" si="107">AVERAGE(E175:G175)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I175" s="38"/>
       <c r="J175" s="5"/>
       <c r="K175" s="38"/>
       <c r="L175" s="13" t="e">
-        <f t="shared" ref="L175:L181" si="98">AVERAGE(I175:K175)</f>
+        <f t="shared" ref="L175:L181" si="108">AVERAGE(I175:K175)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M175" s="34" t="e">
@@ -25065,7 +26189,7 @@
         <v>20.16</v>
       </c>
       <c r="V175" s="29">
-        <f t="shared" ref="V175:V181" si="99">AVERAGE(S175:U175)</f>
+        <f t="shared" ref="V175:V181" si="109">AVERAGE(S175:U175)</f>
         <v>20.106666666666666</v>
       </c>
       <c r="W175" s="38">
@@ -25078,7 +26202,7 @@
         <v>3</v>
       </c>
       <c r="Z175" s="13">
-        <f t="shared" ref="Z175:Z181" si="100">AVERAGE(W175:Y175)</f>
+        <f t="shared" ref="Z175:Z181" si="110">AVERAGE(W175:Y175)</f>
         <v>3.3333333333333335</v>
       </c>
       <c r="AA175" s="34">
@@ -25107,7 +26231,7 @@
         <v>30.15</v>
       </c>
       <c r="AJ175" s="29">
-        <f t="shared" ref="AJ175:AJ181" si="101">AVERAGE(AG175:AI175)</f>
+        <f t="shared" ref="AJ175:AJ181" si="111">AVERAGE(AG175:AI175)</f>
         <v>30.043333333333333</v>
       </c>
       <c r="AK175" s="38">
@@ -25120,7 +26244,7 @@
         <v>4</v>
       </c>
       <c r="AN175" s="13">
-        <f t="shared" ref="AN175:AN181" si="102">AVERAGE(AK175:AM175)</f>
+        <f t="shared" ref="AN175:AN181" si="112">AVERAGE(AK175:AM175)</f>
         <v>4</v>
       </c>
       <c r="AO175" s="34">
@@ -25140,14 +26264,14 @@
         <v>5000</v>
       </c>
       <c r="AX175" s="29" t="e">
-        <f t="shared" ref="AX175:AX181" si="103">AVERAGE(AU175:AW175)</f>
+        <f t="shared" ref="AX175:AX181" si="113">AVERAGE(AU175:AW175)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AY175" s="38"/>
       <c r="AZ175" s="5"/>
       <c r="BA175" s="38"/>
       <c r="BB175" s="13" t="e">
-        <f t="shared" ref="BB175:BB181" si="104">AVERAGE(AY175:BA175)</f>
+        <f t="shared" ref="BB175:BB181" si="114">AVERAGE(AY175:BA175)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BC175" s="34" t="e">
@@ -25176,7 +26300,7 @@
         <v>100</v>
       </c>
       <c r="BL175" s="29">
-        <f t="shared" ref="BL175:BL181" si="105">AVERAGE(BI175:BK175)</f>
+        <f t="shared" ref="BL175:BL181" si="115">AVERAGE(BI175:BK175)</f>
         <v>99.833333333333329</v>
       </c>
       <c r="BM175" s="38">
@@ -25196,8 +26320,278 @@
         <f>BL175*1000/(BF175*BG175*BH175)</f>
         <v>9.9833333333333329E-2</v>
       </c>
-    </row>
-    <row r="176" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="BS175">
+        <v>2</v>
+      </c>
+      <c r="BT175">
+        <v>10</v>
+      </c>
+      <c r="BU175">
+        <v>10</v>
+      </c>
+      <c r="BV175">
+        <v>15000</v>
+      </c>
+      <c r="BZ175" s="29" t="e">
+        <f t="shared" ref="BZ175:BZ181" si="116">AVERAGE(BW175:BY175)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CA175" s="38"/>
+      <c r="CB175" s="5"/>
+      <c r="CC175" s="38"/>
+      <c r="CD175" s="13" t="e">
+        <f t="shared" si="97"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CE175" s="34" t="e">
+        <f>BZ175*1000/(BT175*BU175*BV175)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CG175">
+        <v>2</v>
+      </c>
+      <c r="CH175">
+        <v>10</v>
+      </c>
+      <c r="CI175">
+        <v>10</v>
+      </c>
+      <c r="CJ175">
+        <v>20000</v>
+      </c>
+      <c r="CN175" s="29" t="e">
+        <f t="shared" ref="CN175:CN181" si="117">AVERAGE(CK175:CM175)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CO175" s="38"/>
+      <c r="CP175" s="5"/>
+      <c r="CQ175" s="38"/>
+      <c r="CR175" s="13" t="e">
+        <f t="shared" si="98"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CS175" s="34" t="e">
+        <f>CN175*1000/(CH175*CI175*CJ175)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CU175">
+        <v>2</v>
+      </c>
+      <c r="CV175">
+        <v>10</v>
+      </c>
+      <c r="CW175">
+        <v>10</v>
+      </c>
+      <c r="CX175">
+        <v>25000</v>
+      </c>
+      <c r="DB175" s="29" t="e">
+        <f t="shared" ref="DB175:DB181" si="118">AVERAGE(CY175:DA175)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DC175" s="38"/>
+      <c r="DD175" s="5"/>
+      <c r="DE175" s="38"/>
+      <c r="DF175" s="13" t="e">
+        <f t="shared" si="99"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DG175" s="34" t="e">
+        <f>DB175*1000/(CV175*CW175*CX175)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DI175">
+        <v>2</v>
+      </c>
+      <c r="DJ175">
+        <v>10</v>
+      </c>
+      <c r="DK175">
+        <v>10</v>
+      </c>
+      <c r="DL175">
+        <v>30000</v>
+      </c>
+      <c r="DP175" s="29" t="e">
+        <f t="shared" ref="DP175:DP181" si="119">AVERAGE(DM175:DO175)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DQ175" s="38"/>
+      <c r="DR175" s="5"/>
+      <c r="DS175" s="38"/>
+      <c r="DT175" s="13" t="e">
+        <f t="shared" si="100"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DU175" s="34" t="e">
+        <f>DP175*1000/(DJ175*DK175*DL175)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DW175">
+        <v>2</v>
+      </c>
+      <c r="DX175">
+        <v>10</v>
+      </c>
+      <c r="DY175">
+        <v>10</v>
+      </c>
+      <c r="DZ175">
+        <v>35000</v>
+      </c>
+      <c r="ED175" s="29" t="e">
+        <f t="shared" ref="ED175:ED181" si="120">AVERAGE(EA175:EC175)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EE175" s="38"/>
+      <c r="EF175" s="5"/>
+      <c r="EG175" s="38"/>
+      <c r="EH175" s="13" t="e">
+        <f t="shared" si="101"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EI175" s="34" t="e">
+        <f>ED175*1000/(DX175*DY175*DZ175)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EK175">
+        <v>2</v>
+      </c>
+      <c r="EL175">
+        <v>10</v>
+      </c>
+      <c r="EM175">
+        <v>10</v>
+      </c>
+      <c r="EN175">
+        <v>40000</v>
+      </c>
+      <c r="ER175" s="29" t="e">
+        <f t="shared" ref="ER175:ER181" si="121">AVERAGE(EO175:EQ175)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="ES175" s="38"/>
+      <c r="ET175" s="5"/>
+      <c r="EU175" s="38"/>
+      <c r="EV175" s="13" t="e">
+        <f t="shared" si="102"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EW175" s="34" t="e">
+        <f>ER175*1000/(EL175*EM175*EN175)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EY175">
+        <v>2</v>
+      </c>
+      <c r="EZ175">
+        <v>10</v>
+      </c>
+      <c r="FA175">
+        <v>10</v>
+      </c>
+      <c r="FB175">
+        <v>45000</v>
+      </c>
+      <c r="FF175" s="29" t="e">
+        <f t="shared" ref="FF175:FF181" si="122">AVERAGE(FC175:FE175)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="FG175" s="38"/>
+      <c r="FH175" s="5"/>
+      <c r="FI175" s="38"/>
+      <c r="FJ175" s="13" t="e">
+        <f t="shared" si="103"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="FK175" s="34" t="e">
+        <f>FF175*1000/(EZ175*FA175*FB175)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="FM175">
+        <v>2</v>
+      </c>
+      <c r="FN175">
+        <v>10</v>
+      </c>
+      <c r="FO175">
+        <v>10</v>
+      </c>
+      <c r="FP175">
+        <v>50000</v>
+      </c>
+      <c r="FT175" s="29" t="e">
+        <f t="shared" ref="FT175:FT181" si="123">AVERAGE(FQ175:FS175)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="FU175" s="38"/>
+      <c r="FV175" s="5"/>
+      <c r="FW175" s="38"/>
+      <c r="FX175" s="13" t="e">
+        <f t="shared" si="104"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="FY175" s="34" t="e">
+        <f>FT175*1000/(FN175*FO175*FP175)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GA175">
+        <v>2</v>
+      </c>
+      <c r="GB175">
+        <v>10</v>
+      </c>
+      <c r="GC175">
+        <v>10</v>
+      </c>
+      <c r="GD175">
+        <v>60000</v>
+      </c>
+      <c r="GH175" s="29" t="e">
+        <f t="shared" ref="GH175:GH181" si="124">AVERAGE(GE175:GG175)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GI175" s="38"/>
+      <c r="GJ175" s="5"/>
+      <c r="GK175" s="38"/>
+      <c r="GL175" s="13" t="e">
+        <f t="shared" si="105"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GM175" s="34" t="e">
+        <f>GH175*1000/(GB175*GC175*GD175)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GO175">
+        <v>2</v>
+      </c>
+      <c r="GP175">
+        <v>10</v>
+      </c>
+      <c r="GQ175">
+        <v>10</v>
+      </c>
+      <c r="GR175">
+        <v>70000</v>
+      </c>
+      <c r="GV175" s="29" t="e">
+        <f t="shared" ref="GV175:GV181" si="125">AVERAGE(GS175:GU175)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GW175" s="38"/>
+      <c r="GX175" s="5"/>
+      <c r="GY175" s="38"/>
+      <c r="GZ175" s="13" t="e">
+        <f t="shared" si="106"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="HA175" s="34" t="e">
+        <f>GV175*1000/(GP175*GQ175*GR175)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="176" spans="1:209" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>3</v>
       </c>
@@ -25211,15 +26605,15 @@
         <v>1000</v>
       </c>
       <c r="H176" s="29" t="e">
-        <f t="shared" si="97"/>
+        <f t="shared" si="107"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L176" s="13" t="e">
-        <f t="shared" si="98"/>
+        <f t="shared" si="108"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M176" s="34" t="e">
-        <f t="shared" ref="M176:M181" si="106">H176*1000/(B176*C176*D176)</f>
+        <f t="shared" ref="M176:M181" si="126">H176*1000/(B176*C176*D176)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O176">
@@ -25235,15 +26629,15 @@
         <v>2000</v>
       </c>
       <c r="V176" s="29" t="e">
-        <f t="shared" si="99"/>
+        <f t="shared" si="109"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z176" s="13" t="e">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA176" s="34" t="e">
-        <f t="shared" ref="AA176:AA181" si="107">V176*1000/(P176*Q176*R176)</f>
+        <f t="shared" ref="AA176:AA181" si="127">V176*1000/(P176*Q176*R176)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AC176">
@@ -25259,15 +26653,15 @@
         <v>3000</v>
       </c>
       <c r="AJ176" s="29" t="e">
-        <f t="shared" si="101"/>
+        <f t="shared" si="111"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN176" s="13" t="e">
-        <f t="shared" si="102"/>
+        <f t="shared" si="112"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO176" s="34" t="e">
-        <f t="shared" ref="AO176:AO181" si="108">AJ176*1000/(AD176*AE176*AF176)</f>
+        <f t="shared" ref="AO176:AO181" si="128">AJ176*1000/(AD176*AE176*AF176)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ176">
@@ -25283,15 +26677,15 @@
         <v>5000</v>
       </c>
       <c r="AX176" s="29" t="e">
-        <f t="shared" si="103"/>
+        <f t="shared" si="113"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BB176" s="13" t="e">
-        <f t="shared" si="104"/>
+        <f t="shared" si="114"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC176" s="34" t="e">
-        <f t="shared" ref="BC176:BC181" si="109">AX176*1000/(AR176*AS176*AT176)</f>
+        <f t="shared" ref="BC176:BC181" si="129">AX176*1000/(AR176*AS176*AT176)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BE176">
@@ -25306,20 +26700,278 @@
       <c r="BH176">
         <v>10000</v>
       </c>
-      <c r="BL176" s="29" t="e">
+      <c r="BI176">
+        <v>102</v>
+      </c>
+      <c r="BJ176">
+        <v>97</v>
+      </c>
+      <c r="BK176">
+        <v>102</v>
+      </c>
+      <c r="BL176" s="29">
+        <f t="shared" si="115"/>
+        <v>100.33333333333333</v>
+      </c>
+      <c r="BM176">
+        <v>32</v>
+      </c>
+      <c r="BN176">
+        <v>42</v>
+      </c>
+      <c r="BO176">
+        <v>47</v>
+      </c>
+      <c r="BP176" s="13">
+        <f t="shared" si="96"/>
+        <v>40.333333333333336</v>
+      </c>
+      <c r="BQ176" s="34">
+        <f t="shared" ref="BQ176:BQ181" si="130">BL176*1000/(BF176*BG176*BH176)</f>
+        <v>5.0166666666666665E-2</v>
+      </c>
+      <c r="BS176">
+        <v>3</v>
+      </c>
+      <c r="BT176">
+        <v>10</v>
+      </c>
+      <c r="BU176">
+        <v>20</v>
+      </c>
+      <c r="BV176">
+        <v>15000</v>
+      </c>
+      <c r="BZ176" s="29" t="e">
+        <f t="shared" si="116"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CD176" s="13" t="e">
+        <f t="shared" si="97"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CE176" s="34" t="e">
+        <f t="shared" ref="CE176:CE181" si="131">BZ176*1000/(BT176*BU176*BV176)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CG176">
+        <v>3</v>
+      </c>
+      <c r="CH176">
+        <v>10</v>
+      </c>
+      <c r="CI176">
+        <v>20</v>
+      </c>
+      <c r="CJ176">
+        <v>20000</v>
+      </c>
+      <c r="CN176" s="29" t="e">
+        <f t="shared" si="117"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CR176" s="13" t="e">
+        <f t="shared" si="98"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CS176" s="34" t="e">
+        <f t="shared" ref="CS176:CS181" si="132">CN176*1000/(CH176*CI176*CJ176)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CU176">
+        <v>3</v>
+      </c>
+      <c r="CV176">
+        <v>10</v>
+      </c>
+      <c r="CW176">
+        <v>20</v>
+      </c>
+      <c r="CX176">
+        <v>25000</v>
+      </c>
+      <c r="DB176" s="29" t="e">
+        <f t="shared" si="118"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DF176" s="13" t="e">
+        <f t="shared" si="99"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DG176" s="34" t="e">
+        <f t="shared" ref="DG176:DG181" si="133">DB176*1000/(CV176*CW176*CX176)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DI176">
+        <v>3</v>
+      </c>
+      <c r="DJ176">
+        <v>10</v>
+      </c>
+      <c r="DK176">
+        <v>20</v>
+      </c>
+      <c r="DL176">
+        <v>30000</v>
+      </c>
+      <c r="DP176" s="29" t="e">
+        <f t="shared" si="119"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DT176" s="13" t="e">
+        <f t="shared" si="100"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DU176" s="34" t="e">
+        <f t="shared" ref="DU176:DU181" si="134">DP176*1000/(DJ176*DK176*DL176)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DW176">
+        <v>3</v>
+      </c>
+      <c r="DX176">
+        <v>10</v>
+      </c>
+      <c r="DY176">
+        <v>20</v>
+      </c>
+      <c r="DZ176">
+        <v>35000</v>
+      </c>
+      <c r="ED176" s="29" t="e">
+        <f t="shared" si="120"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EH176" s="13" t="e">
+        <f t="shared" si="101"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EI176" s="34" t="e">
+        <f t="shared" ref="EI176:EI181" si="135">ED176*1000/(DX176*DY176*DZ176)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EK176">
+        <v>3</v>
+      </c>
+      <c r="EL176">
+        <v>10</v>
+      </c>
+      <c r="EM176">
+        <v>20</v>
+      </c>
+      <c r="EN176">
+        <v>40000</v>
+      </c>
+      <c r="ER176" s="29" t="e">
+        <f t="shared" si="121"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EV176" s="13" t="e">
+        <f t="shared" si="102"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EW176" s="34" t="e">
+        <f t="shared" ref="EW176:EW181" si="136">ER176*1000/(EL176*EM176*EN176)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EY176">
+        <v>3</v>
+      </c>
+      <c r="EZ176">
+        <v>10</v>
+      </c>
+      <c r="FA176">
+        <v>20</v>
+      </c>
+      <c r="FB176">
+        <v>45000</v>
+      </c>
+      <c r="FF176" s="29" t="e">
+        <f t="shared" si="122"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="FJ176" s="13" t="e">
+        <f t="shared" si="103"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="FK176" s="34" t="e">
+        <f t="shared" ref="FK176:FK181" si="137">FF176*1000/(EZ176*FA176*FB176)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="FM176">
+        <v>3</v>
+      </c>
+      <c r="FN176">
+        <v>10</v>
+      </c>
+      <c r="FO176">
+        <v>20</v>
+      </c>
+      <c r="FP176">
+        <v>50000</v>
+      </c>
+      <c r="FT176" s="29" t="e">
+        <f t="shared" si="123"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="FX176" s="13" t="e">
+        <f t="shared" si="104"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="FY176" s="34" t="e">
+        <f t="shared" ref="FY176:FY181" si="138">FT176*1000/(FN176*FO176*FP176)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GA176">
+        <v>3</v>
+      </c>
+      <c r="GB176">
+        <v>10</v>
+      </c>
+      <c r="GC176">
+        <v>20</v>
+      </c>
+      <c r="GD176">
+        <v>60000</v>
+      </c>
+      <c r="GH176" s="29" t="e">
+        <f t="shared" si="124"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GL176" s="13" t="e">
         <f t="shared" si="105"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BP176" s="13" t="e">
-        <f t="shared" si="96"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BQ176" s="34" t="e">
-        <f t="shared" ref="BQ176:BQ181" si="110">BL176*1000/(BF176*BG176*BH176)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="177" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="GM176" s="34" t="e">
+        <f t="shared" ref="GM176:GM181" si="139">GH176*1000/(GB176*GC176*GD176)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GO176">
+        <v>3</v>
+      </c>
+      <c r="GP176">
+        <v>10</v>
+      </c>
+      <c r="GQ176">
+        <v>20</v>
+      </c>
+      <c r="GR176">
+        <v>70000</v>
+      </c>
+      <c r="GV176" s="29" t="e">
+        <f t="shared" si="125"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GZ176" s="13" t="e">
+        <f t="shared" si="106"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="HA176" s="34" t="e">
+        <f t="shared" ref="HA176:HA181" si="140">GV176*1000/(GP176*GQ176*GR176)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="177" spans="1:209" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>4</v>
       </c>
@@ -25333,15 +26985,15 @@
         <v>1000</v>
       </c>
       <c r="H177" s="29" t="e">
-        <f t="shared" si="97"/>
+        <f t="shared" si="107"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L177" s="13" t="e">
-        <f t="shared" si="98"/>
+        <f t="shared" si="108"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M177" s="34" t="e">
-        <f t="shared" si="106"/>
+        <f t="shared" si="126"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O177">
@@ -25357,15 +27009,15 @@
         <v>2000</v>
       </c>
       <c r="V177" s="29" t="e">
-        <f t="shared" si="99"/>
+        <f t="shared" si="109"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z177" s="13" t="e">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA177" s="34" t="e">
-        <f t="shared" si="107"/>
+        <f t="shared" si="127"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC177">
@@ -25381,15 +27033,15 @@
         <v>3000</v>
       </c>
       <c r="AJ177" s="29" t="e">
-        <f t="shared" si="101"/>
+        <f t="shared" si="111"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN177" s="13" t="e">
-        <f t="shared" si="102"/>
+        <f t="shared" si="112"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO177" s="34" t="e">
-        <f t="shared" si="108"/>
+        <f t="shared" si="128"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ177">
@@ -25405,15 +27057,15 @@
         <v>5000</v>
       </c>
       <c r="AX177" s="29" t="e">
-        <f t="shared" si="103"/>
+        <f t="shared" si="113"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BB177" s="13" t="e">
-        <f t="shared" si="104"/>
+        <f t="shared" si="114"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC177" s="34" t="e">
-        <f t="shared" si="109"/>
+        <f t="shared" si="129"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE177">
@@ -25428,20 +27080,278 @@
       <c r="BH177">
         <v>10000</v>
       </c>
-      <c r="BL177" s="29" t="e">
+      <c r="BI177">
+        <v>100</v>
+      </c>
+      <c r="BJ177">
+        <v>106</v>
+      </c>
+      <c r="BK177">
+        <v>106</v>
+      </c>
+      <c r="BL177" s="29">
+        <f t="shared" si="115"/>
+        <v>104</v>
+      </c>
+      <c r="BM177">
+        <v>56</v>
+      </c>
+      <c r="BN177">
+        <v>52</v>
+      </c>
+      <c r="BO177">
+        <v>55</v>
+      </c>
+      <c r="BP177" s="13">
+        <f t="shared" si="96"/>
+        <v>54.333333333333336</v>
+      </c>
+      <c r="BQ177" s="34">
+        <f t="shared" si="130"/>
+        <v>3.4666666666666665E-2</v>
+      </c>
+      <c r="BS177">
+        <v>4</v>
+      </c>
+      <c r="BT177">
+        <v>10</v>
+      </c>
+      <c r="BU177">
+        <v>30</v>
+      </c>
+      <c r="BV177">
+        <v>15000</v>
+      </c>
+      <c r="BZ177" s="29" t="e">
+        <f t="shared" si="116"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CD177" s="13" t="e">
+        <f t="shared" si="97"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CE177" s="34" t="e">
+        <f t="shared" si="131"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CG177">
+        <v>4</v>
+      </c>
+      <c r="CH177">
+        <v>10</v>
+      </c>
+      <c r="CI177">
+        <v>30</v>
+      </c>
+      <c r="CJ177">
+        <v>20000</v>
+      </c>
+      <c r="CN177" s="29" t="e">
+        <f t="shared" si="117"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CR177" s="13" t="e">
+        <f t="shared" si="98"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CS177" s="34" t="e">
+        <f t="shared" si="132"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CU177">
+        <v>4</v>
+      </c>
+      <c r="CV177">
+        <v>10</v>
+      </c>
+      <c r="CW177">
+        <v>30</v>
+      </c>
+      <c r="CX177">
+        <v>25000</v>
+      </c>
+      <c r="DB177" s="29" t="e">
+        <f t="shared" si="118"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DF177" s="13" t="e">
+        <f t="shared" si="99"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DG177" s="34" t="e">
+        <f t="shared" si="133"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DI177">
+        <v>4</v>
+      </c>
+      <c r="DJ177">
+        <v>10</v>
+      </c>
+      <c r="DK177">
+        <v>30</v>
+      </c>
+      <c r="DL177">
+        <v>30000</v>
+      </c>
+      <c r="DP177" s="29" t="e">
+        <f t="shared" si="119"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DT177" s="13" t="e">
+        <f t="shared" si="100"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DU177" s="34" t="e">
+        <f t="shared" si="134"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DW177">
+        <v>4</v>
+      </c>
+      <c r="DX177">
+        <v>10</v>
+      </c>
+      <c r="DY177">
+        <v>30</v>
+      </c>
+      <c r="DZ177">
+        <v>35000</v>
+      </c>
+      <c r="ED177" s="29" t="e">
+        <f t="shared" si="120"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EH177" s="13" t="e">
+        <f t="shared" si="101"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EI177" s="34" t="e">
+        <f t="shared" si="135"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EK177">
+        <v>4</v>
+      </c>
+      <c r="EL177">
+        <v>10</v>
+      </c>
+      <c r="EM177">
+        <v>30</v>
+      </c>
+      <c r="EN177">
+        <v>40000</v>
+      </c>
+      <c r="ER177" s="29" t="e">
+        <f t="shared" si="121"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EV177" s="13" t="e">
+        <f t="shared" si="102"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EW177" s="34" t="e">
+        <f t="shared" si="136"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EY177">
+        <v>4</v>
+      </c>
+      <c r="EZ177">
+        <v>10</v>
+      </c>
+      <c r="FA177">
+        <v>30</v>
+      </c>
+      <c r="FB177">
+        <v>45000</v>
+      </c>
+      <c r="FF177" s="29" t="e">
+        <f t="shared" si="122"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="FJ177" s="13" t="e">
+        <f t="shared" si="103"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="FK177" s="34" t="e">
+        <f t="shared" si="137"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="FM177">
+        <v>4</v>
+      </c>
+      <c r="FN177">
+        <v>10</v>
+      </c>
+      <c r="FO177">
+        <v>30</v>
+      </c>
+      <c r="FP177">
+        <v>50000</v>
+      </c>
+      <c r="FT177" s="29" t="e">
+        <f t="shared" si="123"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="FX177" s="13" t="e">
+        <f t="shared" si="104"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="FY177" s="34" t="e">
+        <f t="shared" si="138"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GA177">
+        <v>4</v>
+      </c>
+      <c r="GB177">
+        <v>10</v>
+      </c>
+      <c r="GC177">
+        <v>30</v>
+      </c>
+      <c r="GD177">
+        <v>60000</v>
+      </c>
+      <c r="GH177" s="29" t="e">
+        <f t="shared" si="124"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GL177" s="13" t="e">
         <f t="shared" si="105"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BP177" s="13" t="e">
-        <f t="shared" si="96"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BQ177" s="34" t="e">
-        <f t="shared" si="110"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="178" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="GM177" s="34" t="e">
+        <f t="shared" si="139"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GO177">
+        <v>4</v>
+      </c>
+      <c r="GP177">
+        <v>10</v>
+      </c>
+      <c r="GQ177">
+        <v>30</v>
+      </c>
+      <c r="GR177">
+        <v>70000</v>
+      </c>
+      <c r="GV177" s="29" t="e">
+        <f t="shared" si="125"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GZ177" s="13" t="e">
+        <f t="shared" si="106"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="HA177" s="34" t="e">
+        <f t="shared" si="140"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="178" spans="1:209" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>5</v>
       </c>
@@ -25455,15 +27365,15 @@
         <v>1000</v>
       </c>
       <c r="H178" s="29" t="e">
-        <f t="shared" si="97"/>
+        <f t="shared" si="107"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L178" s="13" t="e">
-        <f t="shared" si="98"/>
+        <f t="shared" si="108"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M178" s="34" t="e">
-        <f t="shared" si="106"/>
+        <f t="shared" si="126"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O178">
@@ -25479,15 +27389,15 @@
         <v>2000</v>
       </c>
       <c r="V178" s="29" t="e">
-        <f t="shared" si="99"/>
+        <f t="shared" si="109"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z178" s="13" t="e">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA178" s="34" t="e">
-        <f t="shared" si="107"/>
+        <f t="shared" si="127"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC178">
@@ -25503,15 +27413,15 @@
         <v>3000</v>
       </c>
       <c r="AJ178" s="29" t="e">
-        <f t="shared" si="101"/>
+        <f t="shared" si="111"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN178" s="13" t="e">
-        <f t="shared" si="102"/>
+        <f t="shared" si="112"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO178" s="34" t="e">
-        <f t="shared" si="108"/>
+        <f t="shared" si="128"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ178">
@@ -25527,15 +27437,15 @@
         <v>5000</v>
       </c>
       <c r="AX178" s="29" t="e">
-        <f t="shared" si="103"/>
+        <f t="shared" si="113"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BB178" s="13" t="e">
-        <f t="shared" si="104"/>
+        <f t="shared" si="114"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC178" s="34" t="e">
-        <f t="shared" si="109"/>
+        <f t="shared" si="129"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE178">
@@ -25550,20 +27460,278 @@
       <c r="BH178">
         <v>10000</v>
       </c>
-      <c r="BL178" s="29" t="e">
+      <c r="BI178">
+        <v>111</v>
+      </c>
+      <c r="BJ178">
+        <v>104</v>
+      </c>
+      <c r="BK178">
+        <v>99</v>
+      </c>
+      <c r="BL178" s="29">
+        <f t="shared" si="115"/>
+        <v>104.66666666666667</v>
+      </c>
+      <c r="BM178">
+        <v>78</v>
+      </c>
+      <c r="BN178">
+        <v>71</v>
+      </c>
+      <c r="BO178">
+        <v>90</v>
+      </c>
+      <c r="BP178" s="13">
+        <f t="shared" si="96"/>
+        <v>79.666666666666671</v>
+      </c>
+      <c r="BQ178" s="34">
+        <f t="shared" si="130"/>
+        <v>2.6166666666666668E-2</v>
+      </c>
+      <c r="BS178">
+        <v>5</v>
+      </c>
+      <c r="BT178">
+        <v>10</v>
+      </c>
+      <c r="BU178">
+        <v>40</v>
+      </c>
+      <c r="BV178">
+        <v>15000</v>
+      </c>
+      <c r="BZ178" s="29" t="e">
+        <f t="shared" si="116"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CD178" s="13" t="e">
+        <f t="shared" si="97"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CE178" s="34" t="e">
+        <f t="shared" si="131"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CG178">
+        <v>5</v>
+      </c>
+      <c r="CH178">
+        <v>10</v>
+      </c>
+      <c r="CI178">
+        <v>40</v>
+      </c>
+      <c r="CJ178">
+        <v>20000</v>
+      </c>
+      <c r="CN178" s="29" t="e">
+        <f t="shared" si="117"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CR178" s="13" t="e">
+        <f t="shared" si="98"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CS178" s="34" t="e">
+        <f t="shared" si="132"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CU178">
+        <v>5</v>
+      </c>
+      <c r="CV178">
+        <v>10</v>
+      </c>
+      <c r="CW178">
+        <v>40</v>
+      </c>
+      <c r="CX178">
+        <v>25000</v>
+      </c>
+      <c r="DB178" s="29" t="e">
+        <f t="shared" si="118"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DF178" s="13" t="e">
+        <f t="shared" si="99"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DG178" s="34" t="e">
+        <f t="shared" si="133"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DI178">
+        <v>5</v>
+      </c>
+      <c r="DJ178">
+        <v>10</v>
+      </c>
+      <c r="DK178">
+        <v>40</v>
+      </c>
+      <c r="DL178">
+        <v>30000</v>
+      </c>
+      <c r="DP178" s="29" t="e">
+        <f t="shared" si="119"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DT178" s="13" t="e">
+        <f t="shared" si="100"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DU178" s="34" t="e">
+        <f t="shared" si="134"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DW178">
+        <v>5</v>
+      </c>
+      <c r="DX178">
+        <v>10</v>
+      </c>
+      <c r="DY178">
+        <v>40</v>
+      </c>
+      <c r="DZ178">
+        <v>35000</v>
+      </c>
+      <c r="ED178" s="29" t="e">
+        <f t="shared" si="120"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EH178" s="13" t="e">
+        <f t="shared" si="101"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EI178" s="34" t="e">
+        <f t="shared" si="135"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EK178">
+        <v>5</v>
+      </c>
+      <c r="EL178">
+        <v>10</v>
+      </c>
+      <c r="EM178">
+        <v>40</v>
+      </c>
+      <c r="EN178">
+        <v>40000</v>
+      </c>
+      <c r="ER178" s="29" t="e">
+        <f t="shared" si="121"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EV178" s="13" t="e">
+        <f t="shared" si="102"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EW178" s="34" t="e">
+        <f t="shared" si="136"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EY178">
+        <v>5</v>
+      </c>
+      <c r="EZ178">
+        <v>10</v>
+      </c>
+      <c r="FA178">
+        <v>40</v>
+      </c>
+      <c r="FB178">
+        <v>45000</v>
+      </c>
+      <c r="FF178" s="29" t="e">
+        <f t="shared" si="122"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="FJ178" s="13" t="e">
+        <f t="shared" si="103"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="FK178" s="34" t="e">
+        <f t="shared" si="137"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="FM178">
+        <v>5</v>
+      </c>
+      <c r="FN178">
+        <v>10</v>
+      </c>
+      <c r="FO178">
+        <v>40</v>
+      </c>
+      <c r="FP178">
+        <v>50000</v>
+      </c>
+      <c r="FT178" s="29" t="e">
+        <f t="shared" si="123"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="FX178" s="13" t="e">
+        <f t="shared" si="104"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="FY178" s="34" t="e">
+        <f t="shared" si="138"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GA178">
+        <v>5</v>
+      </c>
+      <c r="GB178">
+        <v>10</v>
+      </c>
+      <c r="GC178">
+        <v>40</v>
+      </c>
+      <c r="GD178">
+        <v>60000</v>
+      </c>
+      <c r="GH178" s="29" t="e">
+        <f t="shared" si="124"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GL178" s="13" t="e">
         <f t="shared" si="105"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BP178" s="13" t="e">
-        <f t="shared" si="96"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BQ178" s="34" t="e">
-        <f t="shared" si="110"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="179" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="GM178" s="34" t="e">
+        <f t="shared" si="139"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GO178">
+        <v>5</v>
+      </c>
+      <c r="GP178">
+        <v>10</v>
+      </c>
+      <c r="GQ178">
+        <v>40</v>
+      </c>
+      <c r="GR178">
+        <v>70000</v>
+      </c>
+      <c r="GV178" s="29" t="e">
+        <f t="shared" si="125"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GZ178" s="13" t="e">
+        <f t="shared" si="106"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="HA178" s="34" t="e">
+        <f t="shared" si="140"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="179" spans="1:209" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>6</v>
       </c>
@@ -25577,15 +27745,15 @@
         <v>1000</v>
       </c>
       <c r="H179" s="29" t="e">
-        <f t="shared" si="97"/>
+        <f t="shared" si="107"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L179" s="13" t="e">
-        <f t="shared" si="98"/>
+        <f t="shared" si="108"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M179" s="34" t="e">
-        <f t="shared" si="106"/>
+        <f t="shared" si="126"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O179">
@@ -25601,15 +27769,15 @@
         <v>2000</v>
       </c>
       <c r="V179" s="29" t="e">
-        <f t="shared" si="99"/>
+        <f t="shared" si="109"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z179" s="13" t="e">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA179" s="34" t="e">
-        <f t="shared" si="107"/>
+        <f t="shared" si="127"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC179">
@@ -25625,15 +27793,15 @@
         <v>3000</v>
       </c>
       <c r="AJ179" s="29" t="e">
-        <f t="shared" si="101"/>
+        <f t="shared" si="111"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN179" s="13" t="e">
-        <f t="shared" si="102"/>
+        <f t="shared" si="112"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO179" s="34" t="e">
-        <f t="shared" si="108"/>
+        <f t="shared" si="128"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ179">
@@ -25649,15 +27817,15 @@
         <v>5000</v>
       </c>
       <c r="AX179" s="29" t="e">
-        <f t="shared" si="103"/>
+        <f t="shared" si="113"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BB179" s="13" t="e">
-        <f t="shared" si="104"/>
+        <f t="shared" si="114"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC179" s="34" t="e">
-        <f t="shared" si="109"/>
+        <f t="shared" si="129"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE179">
@@ -25672,20 +27840,278 @@
       <c r="BH179">
         <v>10000</v>
       </c>
-      <c r="BL179" s="29" t="e">
+      <c r="BI179">
+        <v>116</v>
+      </c>
+      <c r="BJ179">
+        <v>111</v>
+      </c>
+      <c r="BK179">
+        <v>110</v>
+      </c>
+      <c r="BL179" s="29">
+        <f t="shared" si="115"/>
+        <v>112.33333333333333</v>
+      </c>
+      <c r="BM179">
+        <v>104</v>
+      </c>
+      <c r="BN179">
+        <v>100</v>
+      </c>
+      <c r="BO179">
+        <v>101</v>
+      </c>
+      <c r="BP179" s="13">
+        <f t="shared" si="96"/>
+        <v>101.66666666666667</v>
+      </c>
+      <c r="BQ179" s="34">
+        <f t="shared" si="130"/>
+        <v>2.2466666666666666E-2</v>
+      </c>
+      <c r="BS179">
+        <v>6</v>
+      </c>
+      <c r="BT179">
+        <v>10</v>
+      </c>
+      <c r="BU179">
+        <v>50</v>
+      </c>
+      <c r="BV179">
+        <v>15000</v>
+      </c>
+      <c r="BZ179" s="29" t="e">
+        <f t="shared" si="116"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CD179" s="13" t="e">
+        <f t="shared" si="97"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CE179" s="34" t="e">
+        <f t="shared" si="131"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CG179">
+        <v>6</v>
+      </c>
+      <c r="CH179">
+        <v>10</v>
+      </c>
+      <c r="CI179">
+        <v>50</v>
+      </c>
+      <c r="CJ179">
+        <v>20000</v>
+      </c>
+      <c r="CN179" s="29" t="e">
+        <f t="shared" si="117"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CR179" s="13" t="e">
+        <f t="shared" si="98"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CS179" s="34" t="e">
+        <f t="shared" si="132"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CU179">
+        <v>6</v>
+      </c>
+      <c r="CV179">
+        <v>10</v>
+      </c>
+      <c r="CW179">
+        <v>50</v>
+      </c>
+      <c r="CX179">
+        <v>25000</v>
+      </c>
+      <c r="DB179" s="29" t="e">
+        <f t="shared" si="118"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DF179" s="13" t="e">
+        <f t="shared" si="99"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DG179" s="34" t="e">
+        <f t="shared" si="133"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DI179">
+        <v>6</v>
+      </c>
+      <c r="DJ179">
+        <v>10</v>
+      </c>
+      <c r="DK179">
+        <v>50</v>
+      </c>
+      <c r="DL179">
+        <v>30000</v>
+      </c>
+      <c r="DP179" s="29" t="e">
+        <f t="shared" si="119"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DT179" s="13" t="e">
+        <f t="shared" si="100"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DU179" s="34" t="e">
+        <f t="shared" si="134"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DW179">
+        <v>6</v>
+      </c>
+      <c r="DX179">
+        <v>10</v>
+      </c>
+      <c r="DY179">
+        <v>50</v>
+      </c>
+      <c r="DZ179">
+        <v>35000</v>
+      </c>
+      <c r="ED179" s="29" t="e">
+        <f t="shared" si="120"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EH179" s="13" t="e">
+        <f t="shared" si="101"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EI179" s="34" t="e">
+        <f t="shared" si="135"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EK179">
+        <v>6</v>
+      </c>
+      <c r="EL179">
+        <v>10</v>
+      </c>
+      <c r="EM179">
+        <v>50</v>
+      </c>
+      <c r="EN179">
+        <v>40000</v>
+      </c>
+      <c r="ER179" s="29" t="e">
+        <f t="shared" si="121"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EV179" s="13" t="e">
+        <f t="shared" si="102"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EW179" s="34" t="e">
+        <f t="shared" si="136"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EY179">
+        <v>6</v>
+      </c>
+      <c r="EZ179">
+        <v>10</v>
+      </c>
+      <c r="FA179">
+        <v>50</v>
+      </c>
+      <c r="FB179">
+        <v>45000</v>
+      </c>
+      <c r="FF179" s="29" t="e">
+        <f t="shared" si="122"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="FJ179" s="13" t="e">
+        <f t="shared" si="103"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="FK179" s="34" t="e">
+        <f t="shared" si="137"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="FM179">
+        <v>6</v>
+      </c>
+      <c r="FN179">
+        <v>10</v>
+      </c>
+      <c r="FO179">
+        <v>50</v>
+      </c>
+      <c r="FP179">
+        <v>50000</v>
+      </c>
+      <c r="FT179" s="29" t="e">
+        <f t="shared" si="123"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="FX179" s="13" t="e">
+        <f t="shared" si="104"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="FY179" s="34" t="e">
+        <f t="shared" si="138"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GA179">
+        <v>6</v>
+      </c>
+      <c r="GB179">
+        <v>10</v>
+      </c>
+      <c r="GC179">
+        <v>50</v>
+      </c>
+      <c r="GD179">
+        <v>60000</v>
+      </c>
+      <c r="GH179" s="29" t="e">
+        <f t="shared" si="124"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GL179" s="13" t="e">
         <f t="shared" si="105"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BP179" s="13" t="e">
-        <f t="shared" si="96"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BQ179" s="34" t="e">
-        <f t="shared" si="110"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="180" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="GM179" s="34" t="e">
+        <f t="shared" si="139"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GO179">
+        <v>6</v>
+      </c>
+      <c r="GP179">
+        <v>10</v>
+      </c>
+      <c r="GQ179">
+        <v>50</v>
+      </c>
+      <c r="GR179">
+        <v>70000</v>
+      </c>
+      <c r="GV179" s="29" t="e">
+        <f t="shared" si="125"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GZ179" s="13" t="e">
+        <f t="shared" si="106"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="HA179" s="34" t="e">
+        <f t="shared" si="140"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="180" spans="1:209" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>7</v>
       </c>
@@ -25708,7 +28134,7 @@
         <v>12.9</v>
       </c>
       <c r="H180" s="29">
-        <f t="shared" si="97"/>
+        <f t="shared" si="107"/>
         <v>12.9</v>
       </c>
       <c r="I180">
@@ -25721,11 +28147,11 @@
         <v>8</v>
       </c>
       <c r="L180" s="13">
-        <f t="shared" si="98"/>
+        <f t="shared" si="108"/>
         <v>8</v>
       </c>
       <c r="M180" s="34">
-        <f t="shared" si="106"/>
+        <f t="shared" si="126"/>
         <v>2.1499999999999998E-2</v>
       </c>
       <c r="O180">
@@ -25741,15 +28167,15 @@
         <v>2000</v>
       </c>
       <c r="V180" s="29" t="e">
-        <f t="shared" si="99"/>
+        <f t="shared" si="109"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z180" s="13" t="e">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA180" s="34" t="e">
-        <f t="shared" si="107"/>
+        <f t="shared" si="127"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC180">
@@ -25765,15 +28191,15 @@
         <v>3000</v>
       </c>
       <c r="AJ180" s="29" t="e">
-        <f t="shared" si="101"/>
+        <f t="shared" si="111"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN180" s="13" t="e">
-        <f t="shared" si="102"/>
+        <f t="shared" si="112"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO180" s="34" t="e">
-        <f t="shared" si="108"/>
+        <f t="shared" si="128"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ180">
@@ -25789,15 +28215,15 @@
         <v>5000</v>
       </c>
       <c r="AX180" s="29" t="e">
-        <f t="shared" si="103"/>
+        <f t="shared" si="113"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BB180" s="13" t="e">
-        <f t="shared" si="104"/>
+        <f t="shared" si="114"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC180" s="34" t="e">
-        <f t="shared" si="109"/>
+        <f t="shared" si="129"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE180">
@@ -25812,20 +28238,278 @@
       <c r="BH180">
         <v>10000</v>
       </c>
-      <c r="BL180" s="29" t="e">
+      <c r="BI180">
+        <v>100</v>
+      </c>
+      <c r="BJ180">
+        <v>114</v>
+      </c>
+      <c r="BK180">
+        <v>114</v>
+      </c>
+      <c r="BL180" s="29">
+        <f t="shared" si="115"/>
+        <v>109.33333333333333</v>
+      </c>
+      <c r="BM180">
+        <v>111</v>
+      </c>
+      <c r="BN180">
+        <v>134</v>
+      </c>
+      <c r="BO180">
+        <v>116</v>
+      </c>
+      <c r="BP180" s="13">
+        <f t="shared" si="96"/>
+        <v>120.33333333333333</v>
+      </c>
+      <c r="BQ180" s="34">
+        <f t="shared" si="130"/>
+        <v>1.8222222222222223E-2</v>
+      </c>
+      <c r="BS180">
+        <v>7</v>
+      </c>
+      <c r="BT180">
+        <v>10</v>
+      </c>
+      <c r="BU180">
+        <v>60</v>
+      </c>
+      <c r="BV180">
+        <v>15000</v>
+      </c>
+      <c r="BZ180" s="29" t="e">
+        <f t="shared" si="116"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CD180" s="13" t="e">
+        <f t="shared" si="97"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CE180" s="34" t="e">
+        <f t="shared" si="131"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CG180">
+        <v>7</v>
+      </c>
+      <c r="CH180">
+        <v>10</v>
+      </c>
+      <c r="CI180">
+        <v>60</v>
+      </c>
+      <c r="CJ180">
+        <v>20000</v>
+      </c>
+      <c r="CN180" s="29" t="e">
+        <f t="shared" si="117"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CR180" s="13" t="e">
+        <f t="shared" si="98"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CS180" s="34" t="e">
+        <f t="shared" si="132"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CU180">
+        <v>7</v>
+      </c>
+      <c r="CV180">
+        <v>10</v>
+      </c>
+      <c r="CW180">
+        <v>60</v>
+      </c>
+      <c r="CX180">
+        <v>25000</v>
+      </c>
+      <c r="DB180" s="29" t="e">
+        <f t="shared" si="118"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DF180" s="13" t="e">
+        <f t="shared" si="99"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DG180" s="34" t="e">
+        <f t="shared" si="133"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DI180">
+        <v>7</v>
+      </c>
+      <c r="DJ180">
+        <v>10</v>
+      </c>
+      <c r="DK180">
+        <v>60</v>
+      </c>
+      <c r="DL180">
+        <v>30000</v>
+      </c>
+      <c r="DP180" s="29" t="e">
+        <f t="shared" si="119"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DT180" s="13" t="e">
+        <f t="shared" si="100"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DU180" s="34" t="e">
+        <f t="shared" si="134"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DW180">
+        <v>7</v>
+      </c>
+      <c r="DX180">
+        <v>10</v>
+      </c>
+      <c r="DY180">
+        <v>60</v>
+      </c>
+      <c r="DZ180">
+        <v>35000</v>
+      </c>
+      <c r="ED180" s="29" t="e">
+        <f t="shared" si="120"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EH180" s="13" t="e">
+        <f t="shared" si="101"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EI180" s="34" t="e">
+        <f t="shared" si="135"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EK180">
+        <v>7</v>
+      </c>
+      <c r="EL180">
+        <v>10</v>
+      </c>
+      <c r="EM180">
+        <v>60</v>
+      </c>
+      <c r="EN180">
+        <v>40000</v>
+      </c>
+      <c r="ER180" s="29" t="e">
+        <f t="shared" si="121"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EV180" s="13" t="e">
+        <f t="shared" si="102"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EW180" s="34" t="e">
+        <f t="shared" si="136"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EY180">
+        <v>7</v>
+      </c>
+      <c r="EZ180">
+        <v>10</v>
+      </c>
+      <c r="FA180">
+        <v>60</v>
+      </c>
+      <c r="FB180">
+        <v>45000</v>
+      </c>
+      <c r="FF180" s="29" t="e">
+        <f t="shared" si="122"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="FJ180" s="13" t="e">
+        <f t="shared" si="103"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="FK180" s="34" t="e">
+        <f t="shared" si="137"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="FM180">
+        <v>7</v>
+      </c>
+      <c r="FN180">
+        <v>10</v>
+      </c>
+      <c r="FO180">
+        <v>60</v>
+      </c>
+      <c r="FP180">
+        <v>50000</v>
+      </c>
+      <c r="FT180" s="29" t="e">
+        <f t="shared" si="123"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="FX180" s="13" t="e">
+        <f t="shared" si="104"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="FY180" s="34" t="e">
+        <f t="shared" si="138"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GA180">
+        <v>7</v>
+      </c>
+      <c r="GB180">
+        <v>10</v>
+      </c>
+      <c r="GC180">
+        <v>60</v>
+      </c>
+      <c r="GD180">
+        <v>60000</v>
+      </c>
+      <c r="GH180" s="29" t="e">
+        <f t="shared" si="124"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GL180" s="13" t="e">
         <f t="shared" si="105"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BP180" s="13" t="e">
-        <f t="shared" si="96"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BQ180" s="34" t="e">
-        <f t="shared" si="110"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="181" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="GM180" s="34" t="e">
+        <f t="shared" si="139"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GO180">
+        <v>7</v>
+      </c>
+      <c r="GP180">
+        <v>10</v>
+      </c>
+      <c r="GQ180">
+        <v>60</v>
+      </c>
+      <c r="GR180">
+        <v>70000</v>
+      </c>
+      <c r="GV180" s="29" t="e">
+        <f t="shared" si="125"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="GZ180" s="13" t="e">
+        <f t="shared" si="106"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="HA180" s="34" t="e">
+        <f t="shared" si="140"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="181" spans="1:209" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>8</v>
       </c>
@@ -25848,7 +28532,7 @@
         <v>12.1</v>
       </c>
       <c r="H181" s="29">
-        <f t="shared" si="97"/>
+        <f t="shared" si="107"/>
         <v>12.11</v>
       </c>
       <c r="I181">
@@ -25861,11 +28545,11 @@
         <v>9</v>
       </c>
       <c r="L181" s="13">
-        <f t="shared" si="98"/>
+        <f t="shared" si="108"/>
         <v>9</v>
       </c>
       <c r="M181" s="34">
-        <f t="shared" si="106"/>
+        <f t="shared" si="126"/>
         <v>1.8921875000000001E-2</v>
       </c>
       <c r="O181">
@@ -25890,7 +28574,7 @@
         <v>23.42</v>
       </c>
       <c r="V181" s="29">
-        <f t="shared" si="99"/>
+        <f t="shared" si="109"/>
         <v>23.306666666666668</v>
       </c>
       <c r="W181">
@@ -25903,11 +28587,11 @@
         <v>18</v>
       </c>
       <c r="Z181" s="13">
-        <f t="shared" si="100"/>
+        <f t="shared" si="110"/>
         <v>20.333333333333332</v>
       </c>
       <c r="AA181" s="34">
-        <f t="shared" si="107"/>
+        <f t="shared" si="127"/>
         <v>1.8208333333333333E-2</v>
       </c>
       <c r="AC181">
@@ -25932,7 +28616,7 @@
         <v>34.67</v>
       </c>
       <c r="AJ181" s="29">
-        <f t="shared" si="101"/>
+        <f t="shared" si="111"/>
         <v>34.56666666666667</v>
       </c>
       <c r="AK181">
@@ -25945,11 +28629,11 @@
         <v>33</v>
       </c>
       <c r="AN181" s="13">
-        <f t="shared" si="102"/>
+        <f t="shared" si="112"/>
         <v>33.666666666666664</v>
       </c>
       <c r="AO181" s="34">
-        <f t="shared" si="108"/>
+        <f t="shared" si="128"/>
         <v>1.8003472222222226E-2</v>
       </c>
       <c r="AQ181">
@@ -25974,7 +28658,7 @@
         <v>58.1</v>
       </c>
       <c r="AX181" s="29">
-        <f t="shared" si="103"/>
+        <f t="shared" si="113"/>
         <v>57</v>
       </c>
       <c r="AY181">
@@ -25987,11 +28671,11 @@
         <v>53</v>
       </c>
       <c r="BB181" s="13">
-        <f t="shared" si="104"/>
+        <f t="shared" si="114"/>
         <v>60.666666666666664</v>
       </c>
       <c r="BC181" s="34">
-        <f t="shared" si="109"/>
+        <f t="shared" si="129"/>
         <v>1.7812499999999998E-2</v>
       </c>
       <c r="BE181">
@@ -26007,17 +28691,17 @@
         <v>10000</v>
       </c>
       <c r="BI181">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="BJ181">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="BK181">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="BL181" s="29">
-        <f t="shared" si="105"/>
-        <v>112.66666666666667</v>
+        <f t="shared" si="115"/>
+        <v>100.33333333333333</v>
       </c>
       <c r="BM181">
         <v>122</v>
@@ -26033,11 +28717,359 @@
         <v>140.66666666666666</v>
       </c>
       <c r="BQ181" s="34">
-        <f t="shared" si="110"/>
-        <v>1.7604166666666667E-2</v>
-      </c>
-    </row>
-    <row r="182" spans="1:69" x14ac:dyDescent="0.25">
+        <f t="shared" si="130"/>
+        <v>1.5677083333333331E-2</v>
+      </c>
+      <c r="BS181">
+        <v>8</v>
+      </c>
+      <c r="BT181">
+        <v>10</v>
+      </c>
+      <c r="BU181">
+        <v>64</v>
+      </c>
+      <c r="BV181">
+        <v>15000</v>
+      </c>
+      <c r="BW181">
+        <v>140</v>
+      </c>
+      <c r="BX181">
+        <v>141</v>
+      </c>
+      <c r="BY181">
+        <v>139</v>
+      </c>
+      <c r="BZ181" s="29">
+        <f t="shared" si="116"/>
+        <v>140</v>
+      </c>
+      <c r="CA181">
+        <v>139</v>
+      </c>
+      <c r="CB181">
+        <v>135</v>
+      </c>
+      <c r="CC181">
+        <v>134</v>
+      </c>
+      <c r="CD181" s="13">
+        <f t="shared" si="97"/>
+        <v>136</v>
+      </c>
+      <c r="CE181" s="34">
+        <f t="shared" si="131"/>
+        <v>1.4583333333333334E-2</v>
+      </c>
+      <c r="CG181">
+        <v>8</v>
+      </c>
+      <c r="CH181">
+        <v>10</v>
+      </c>
+      <c r="CI181">
+        <v>64</v>
+      </c>
+      <c r="CJ181">
+        <v>20000</v>
+      </c>
+      <c r="CN181" s="29" t="e">
+        <f t="shared" si="117"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CR181" s="13" t="e">
+        <f t="shared" si="98"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CS181" s="34" t="e">
+        <f t="shared" si="132"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CU181">
+        <v>8</v>
+      </c>
+      <c r="CV181">
+        <v>10</v>
+      </c>
+      <c r="CW181">
+        <v>64</v>
+      </c>
+      <c r="CX181">
+        <v>25000</v>
+      </c>
+      <c r="DB181" s="29" t="e">
+        <f t="shared" si="118"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DF181" s="13" t="e">
+        <f t="shared" si="99"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DG181" s="34" t="e">
+        <f t="shared" si="133"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DI181">
+        <v>8</v>
+      </c>
+      <c r="DJ181">
+        <v>10</v>
+      </c>
+      <c r="DK181">
+        <v>64</v>
+      </c>
+      <c r="DL181">
+        <v>30000</v>
+      </c>
+      <c r="DP181" s="29" t="e">
+        <f t="shared" si="119"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DT181" s="13" t="e">
+        <f t="shared" si="100"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DU181" s="34" t="e">
+        <f t="shared" si="134"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DW181">
+        <v>8</v>
+      </c>
+      <c r="DX181">
+        <v>10</v>
+      </c>
+      <c r="DY181">
+        <v>64</v>
+      </c>
+      <c r="DZ181">
+        <v>35000</v>
+      </c>
+      <c r="ED181" s="29" t="e">
+        <f t="shared" si="120"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EH181" s="13" t="e">
+        <f t="shared" si="101"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EI181" s="34" t="e">
+        <f t="shared" si="135"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="EK181">
+        <v>8</v>
+      </c>
+      <c r="EL181">
+        <v>10</v>
+      </c>
+      <c r="EM181">
+        <v>64</v>
+      </c>
+      <c r="EN181">
+        <v>40000</v>
+      </c>
+      <c r="EO181">
+        <v>335</v>
+      </c>
+      <c r="EP181">
+        <v>335</v>
+      </c>
+      <c r="EQ181">
+        <v>335</v>
+      </c>
+      <c r="ER181" s="29">
+        <f t="shared" si="121"/>
+        <v>335</v>
+      </c>
+      <c r="ES181">
+        <v>345</v>
+      </c>
+      <c r="ET181">
+        <v>342</v>
+      </c>
+      <c r="EU181">
+        <v>353</v>
+      </c>
+      <c r="EV181" s="13">
+        <f t="shared" si="102"/>
+        <v>346.66666666666669</v>
+      </c>
+      <c r="EW181" s="34">
+        <f t="shared" si="136"/>
+        <v>1.30859375E-2</v>
+      </c>
+      <c r="EY181">
+        <v>8</v>
+      </c>
+      <c r="EZ181">
+        <v>10</v>
+      </c>
+      <c r="FA181">
+        <v>64</v>
+      </c>
+      <c r="FB181">
+        <v>45000</v>
+      </c>
+      <c r="FC181">
+        <v>377</v>
+      </c>
+      <c r="FD181">
+        <v>377</v>
+      </c>
+      <c r="FE181">
+        <v>377</v>
+      </c>
+      <c r="FF181" s="29">
+        <f t="shared" si="122"/>
+        <v>377</v>
+      </c>
+      <c r="FG181">
+        <v>389</v>
+      </c>
+      <c r="FH181">
+        <v>390</v>
+      </c>
+      <c r="FI181">
+        <v>396</v>
+      </c>
+      <c r="FJ181" s="13">
+        <f t="shared" si="103"/>
+        <v>391.66666666666669</v>
+      </c>
+      <c r="FK181" s="34">
+        <f t="shared" si="137"/>
+        <v>1.3090277777777777E-2</v>
+      </c>
+      <c r="FM181">
+        <v>8</v>
+      </c>
+      <c r="FN181">
+        <v>10</v>
+      </c>
+      <c r="FO181">
+        <v>64</v>
+      </c>
+      <c r="FP181">
+        <v>50000</v>
+      </c>
+      <c r="FQ181">
+        <v>419</v>
+      </c>
+      <c r="FR181">
+        <v>419</v>
+      </c>
+      <c r="FS181">
+        <v>419</v>
+      </c>
+      <c r="FT181" s="29">
+        <f t="shared" si="123"/>
+        <v>419</v>
+      </c>
+      <c r="FU181">
+        <v>496</v>
+      </c>
+      <c r="FV181">
+        <v>433</v>
+      </c>
+      <c r="FW181">
+        <v>443</v>
+      </c>
+      <c r="FX181" s="13">
+        <f t="shared" si="104"/>
+        <v>457.33333333333331</v>
+      </c>
+      <c r="FY181" s="34">
+        <f t="shared" si="138"/>
+        <v>1.3093749999999999E-2</v>
+      </c>
+      <c r="GA181">
+        <v>8</v>
+      </c>
+      <c r="GB181">
+        <v>10</v>
+      </c>
+      <c r="GC181">
+        <v>64</v>
+      </c>
+      <c r="GD181">
+        <v>60000</v>
+      </c>
+      <c r="GE181">
+        <v>503</v>
+      </c>
+      <c r="GF181">
+        <v>503</v>
+      </c>
+      <c r="GG181">
+        <v>503</v>
+      </c>
+      <c r="GH181" s="29">
+        <f t="shared" si="124"/>
+        <v>503</v>
+      </c>
+      <c r="GI181">
+        <v>521</v>
+      </c>
+      <c r="GJ181">
+        <v>512</v>
+      </c>
+      <c r="GK181">
+        <v>518</v>
+      </c>
+      <c r="GL181" s="13">
+        <f t="shared" si="105"/>
+        <v>517</v>
+      </c>
+      <c r="GM181" s="34">
+        <f t="shared" si="139"/>
+        <v>1.3098958333333334E-2</v>
+      </c>
+      <c r="GO181">
+        <v>8</v>
+      </c>
+      <c r="GP181">
+        <v>10</v>
+      </c>
+      <c r="GQ181">
+        <v>64</v>
+      </c>
+      <c r="GR181">
+        <v>70000</v>
+      </c>
+      <c r="GS181">
+        <v>588</v>
+      </c>
+      <c r="GT181">
+        <v>588</v>
+      </c>
+      <c r="GU181">
+        <v>588</v>
+      </c>
+      <c r="GV181" s="29">
+        <f t="shared" si="125"/>
+        <v>588</v>
+      </c>
+      <c r="GW181">
+        <v>601</v>
+      </c>
+      <c r="GX181">
+        <v>603</v>
+      </c>
+      <c r="GY181">
+        <v>600</v>
+      </c>
+      <c r="GZ181" s="13">
+        <f t="shared" si="106"/>
+        <v>601.33333333333337</v>
+      </c>
+      <c r="HA181" s="34">
+        <f t="shared" si="140"/>
+        <v>1.3125E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:209" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>18</v>
       </c>
@@ -26056,7 +29088,7 @@
       <c r="L182" s="13"/>
       <c r="M182" s="34"/>
     </row>
-    <row r="185" spans="1:69" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:209" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B185" s="31" t="s">
         <v>55</v>
       </c>
@@ -26066,7 +29098,7 @@
       <c r="M185" s="37"/>
       <c r="AA185" s="37"/>
     </row>
-    <row r="187" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:209" x14ac:dyDescent="0.25">
       <c r="A187" s="31"/>
       <c r="B187" s="32" t="s">
         <v>11</v>
@@ -26142,7 +29174,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="188" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:209" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1</v>
       </c>
@@ -26226,7 +29258,7 @@
         <v>0.73848484848484841</v>
       </c>
     </row>
-    <row r="189" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:209" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>2</v>
       </c>
@@ -26249,7 +29281,7 @@
         <v>10.24</v>
       </c>
       <c r="H189" s="29">
-        <f t="shared" ref="H189:H194" si="111">AVERAGE(E189:G189)</f>
+        <f t="shared" ref="H189:H194" si="141">AVERAGE(E189:G189)</f>
         <v>10.210000000000001</v>
       </c>
       <c r="I189" s="38">
@@ -26262,7 +29294,7 @@
         <v>2</v>
       </c>
       <c r="L189" s="13">
-        <f t="shared" ref="L189:L194" si="112">AVERAGE(I189:K189)</f>
+        <f t="shared" ref="L189:L194" si="142">AVERAGE(I189:K189)</f>
         <v>2</v>
       </c>
       <c r="M189" s="34">
@@ -26291,7 +29323,7 @@
         <v>100.32</v>
       </c>
       <c r="BL189" s="29">
-        <f t="shared" ref="BL189:BL194" si="113">AVERAGE(BI189:BK189)</f>
+        <f t="shared" ref="BL189:BL194" si="143">AVERAGE(BI189:BK189)</f>
         <v>100.20666666666666</v>
       </c>
       <c r="BM189" s="38">
@@ -26304,7 +29336,7 @@
         <v>15</v>
       </c>
       <c r="BP189" s="13">
-        <f t="shared" ref="BP189:BP194" si="114">AVERAGE(BM189:BO189)</f>
+        <f t="shared" ref="BP189:BP194" si="144">AVERAGE(BM189:BO189)</f>
         <v>17</v>
       </c>
       <c r="BQ189" s="34">
@@ -26312,7 +29344,7 @@
         <v>9.109696969696969E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:209" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>3</v>
       </c>
@@ -26326,15 +29358,15 @@
         <v>1000</v>
       </c>
       <c r="H190" s="29" t="e">
-        <f t="shared" si="111"/>
+        <f t="shared" si="141"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L190" s="13" t="e">
-        <f t="shared" si="112"/>
+        <f t="shared" si="142"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M190" s="34" t="e">
-        <f t="shared" ref="M190:M194" si="115">H190*1000/(B190*C190*D190)</f>
+        <f t="shared" ref="M190:M193" si="145">H190*1000/(B190*C190*D190)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BE190">
@@ -26359,7 +29391,7 @@
         <v>103</v>
       </c>
       <c r="BL190" s="29">
-        <f t="shared" si="113"/>
+        <f t="shared" si="143"/>
         <v>102.86666666666667</v>
       </c>
       <c r="BM190">
@@ -26372,15 +29404,15 @@
         <v>31</v>
       </c>
       <c r="BP190" s="13">
-        <f t="shared" si="114"/>
+        <f t="shared" si="144"/>
         <v>31.333333333333332</v>
       </c>
       <c r="BQ190" s="34">
-        <f t="shared" ref="BQ190:BQ194" si="116">BL190*1000/(BF190*BG190*BH190)</f>
+        <f t="shared" ref="BQ190:BQ193" si="146">BL190*1000/(BF190*BG190*BH190)</f>
         <v>4.6757575757575762E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:209" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>4</v>
       </c>
@@ -26403,7 +29435,7 @@
         <v>11.19</v>
       </c>
       <c r="H191" s="29">
-        <f t="shared" si="111"/>
+        <f t="shared" si="141"/>
         <v>11.209999999999999</v>
       </c>
       <c r="I191">
@@ -26416,11 +29448,11 @@
         <v>4</v>
       </c>
       <c r="L191" s="13">
-        <f t="shared" si="112"/>
+        <f t="shared" si="142"/>
         <v>5</v>
       </c>
       <c r="M191" s="34">
-        <f t="shared" si="115"/>
+        <f t="shared" si="145"/>
         <v>3.3969696969696962E-2</v>
       </c>
       <c r="BE191">
@@ -26445,7 +29477,7 @@
         <v>106.4</v>
       </c>
       <c r="BL191" s="29">
-        <f t="shared" si="113"/>
+        <f t="shared" si="143"/>
         <v>106.40000000000002</v>
       </c>
       <c r="BM191">
@@ -26458,15 +29490,15 @@
         <v>48</v>
       </c>
       <c r="BP191" s="13">
-        <f t="shared" si="114"/>
+        <f t="shared" si="144"/>
         <v>47.333333333333336</v>
       </c>
       <c r="BQ191" s="34">
-        <f t="shared" si="116"/>
+        <f t="shared" si="146"/>
         <v>3.2242424242424246E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:209" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>5</v>
       </c>
@@ -26480,15 +29512,15 @@
         <v>1000</v>
       </c>
       <c r="H192" s="29" t="e">
-        <f t="shared" si="111"/>
+        <f t="shared" si="141"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L192" s="13" t="e">
-        <f t="shared" si="112"/>
+        <f t="shared" si="142"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M192" s="34" t="e">
-        <f t="shared" si="115"/>
+        <f t="shared" si="145"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE192">
@@ -26504,15 +29536,15 @@
         <v>10000</v>
       </c>
       <c r="BL192" s="29" t="e">
-        <f t="shared" si="113"/>
+        <f t="shared" si="143"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BP192" s="13" t="e">
-        <f t="shared" si="114"/>
+        <f t="shared" si="144"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BQ192" s="34" t="e">
-        <f t="shared" si="116"/>
+        <f t="shared" si="146"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -26539,7 +29571,7 @@
         <v>12.55</v>
       </c>
       <c r="H193" s="29">
-        <f t="shared" si="111"/>
+        <f t="shared" si="141"/>
         <v>12.536666666666667</v>
       </c>
       <c r="I193">
@@ -26552,11 +29584,11 @@
         <v>7</v>
       </c>
       <c r="L193" s="13">
-        <f t="shared" si="112"/>
+        <f t="shared" si="142"/>
         <v>8</v>
       </c>
       <c r="M193" s="34">
-        <f t="shared" si="115"/>
+        <f t="shared" si="145"/>
         <v>2.2793939393939398E-2</v>
       </c>
       <c r="BE193">
@@ -26572,15 +29604,15 @@
         <v>10000</v>
       </c>
       <c r="BL193" s="29" t="e">
-        <f t="shared" si="113"/>
+        <f t="shared" si="143"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BP193" s="13" t="e">
-        <f t="shared" si="114"/>
+        <f t="shared" si="144"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BQ193" s="34" t="e">
-        <f t="shared" si="116"/>
+        <f t="shared" si="146"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -26607,7 +29639,7 @@
         <v>13.07</v>
       </c>
       <c r="H194" s="29">
-        <f t="shared" si="111"/>
+        <f t="shared" si="141"/>
         <v>13.020000000000001</v>
       </c>
       <c r="I194">
@@ -26620,7 +29652,7 @@
         <v>8</v>
       </c>
       <c r="L194" s="13">
-        <f t="shared" si="112"/>
+        <f t="shared" si="142"/>
         <v>9.3333333333333339</v>
       </c>
       <c r="M194" s="34">
@@ -26649,7 +29681,7 @@
         <v>122</v>
       </c>
       <c r="BL194" s="29">
-        <f t="shared" si="113"/>
+        <f t="shared" si="143"/>
         <v>118.36666666666667</v>
       </c>
       <c r="BM194">
@@ -26662,7 +29694,7 @@
         <v>113</v>
       </c>
       <c r="BP194" s="13">
-        <f t="shared" si="114"/>
+        <f t="shared" si="144"/>
         <v>108</v>
       </c>
       <c r="BQ194" s="34">
@@ -26821,7 +29853,7 @@
         <v>10.26</v>
       </c>
       <c r="H202" s="29">
-        <f t="shared" ref="H202:H207" si="117">AVERAGE(E202:G202)</f>
+        <f t="shared" ref="H202:H207" si="147">AVERAGE(E202:G202)</f>
         <v>10.206666666666665</v>
       </c>
       <c r="I202" s="38">
@@ -26834,7 +29866,7 @@
         <v>2</v>
       </c>
       <c r="L202" s="13">
-        <f t="shared" ref="L202:L207" si="118">AVERAGE(I202:K202)</f>
+        <f t="shared" ref="L202:L207" si="148">AVERAGE(I202:K202)</f>
         <v>1.6666666666666667</v>
       </c>
       <c r="M202" s="34">
@@ -26856,15 +29888,15 @@
         <v>1000</v>
       </c>
       <c r="H203" s="29" t="e">
-        <f t="shared" si="117"/>
+        <f t="shared" si="147"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L203" s="13" t="e">
-        <f t="shared" si="118"/>
+        <f t="shared" si="148"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M203" s="34" t="e">
-        <f t="shared" ref="M203:M207" si="119">H203*1000/(B203*C203*D203)</f>
+        <f t="shared" ref="M203:M206" si="149">H203*1000/(B203*C203*D203)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -26882,15 +29914,15 @@
         <v>1000</v>
       </c>
       <c r="H204" s="29" t="e">
-        <f t="shared" si="117"/>
+        <f t="shared" si="147"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L204" s="13" t="e">
-        <f t="shared" si="118"/>
+        <f t="shared" si="148"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M204" s="34" t="e">
-        <f t="shared" si="119"/>
+        <f t="shared" si="149"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -26908,15 +29940,15 @@
         <v>1000</v>
       </c>
       <c r="H205" s="29" t="e">
-        <f t="shared" si="117"/>
+        <f t="shared" si="147"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L205" s="13" t="e">
-        <f t="shared" si="118"/>
+        <f t="shared" si="148"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M205" s="34" t="e">
-        <f t="shared" si="119"/>
+        <f t="shared" si="149"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -26943,7 +29975,7 @@
         <v>12.8</v>
       </c>
       <c r="H206" s="29">
-        <f t="shared" si="117"/>
+        <f t="shared" si="147"/>
         <v>12.75</v>
       </c>
       <c r="I206">
@@ -26956,11 +29988,11 @@
         <v>8</v>
       </c>
       <c r="L206" s="13">
-        <f t="shared" si="118"/>
+        <f t="shared" si="148"/>
         <v>8.3333333333333339</v>
       </c>
       <c r="M206" s="34">
-        <f t="shared" si="119"/>
+        <f t="shared" si="149"/>
         <v>2.1250000000000002E-2</v>
       </c>
     </row>
@@ -26987,7 +30019,7 @@
         <v>13</v>
       </c>
       <c r="H207" s="29">
-        <f t="shared" si="117"/>
+        <f t="shared" si="147"/>
         <v>13.006666666666666</v>
       </c>
       <c r="I207">
@@ -27000,7 +30032,7 @@
         <v>10</v>
       </c>
       <c r="L207" s="13">
-        <f t="shared" si="118"/>
+        <f t="shared" si="148"/>
         <v>9</v>
       </c>
       <c r="M207" s="34">
@@ -27026,6 +30058,4975 @@
       </c>
       <c r="L208" s="13"/>
       <c r="M208" s="34"/>
+    </row>
+    <row r="211" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B211" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F211" s="35"/>
+      <c r="H211" s="36"/>
+      <c r="L211" s="37"/>
+      <c r="M211" s="37"/>
+      <c r="AA211" s="37"/>
+    </row>
+    <row r="213" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A213" s="31"/>
+      <c r="B213" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C213" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D213" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E213" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F213" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G213" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H213" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I213" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J213" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="K213" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L213" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="M213" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="214" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>1</v>
+      </c>
+      <c r="B214">
+        <v>13</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+      <c r="D214">
+        <v>1000</v>
+      </c>
+      <c r="E214">
+        <v>7.5</v>
+      </c>
+      <c r="F214">
+        <v>7.6</v>
+      </c>
+      <c r="G214">
+        <v>7.6</v>
+      </c>
+      <c r="H214" s="29">
+        <f>AVERAGE(E214:G214)</f>
+        <v>7.5666666666666664</v>
+      </c>
+      <c r="I214" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J214" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K214" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L214" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M214" s="34">
+        <f>H214*1000/(B214*C214*D214)</f>
+        <v>0.58205128205128198</v>
+      </c>
+    </row>
+    <row r="215" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>2</v>
+      </c>
+      <c r="B215">
+        <v>13</v>
+      </c>
+      <c r="C215">
+        <v>10</v>
+      </c>
+      <c r="D215">
+        <v>1000</v>
+      </c>
+      <c r="E215">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F215">
+        <v>10.4</v>
+      </c>
+      <c r="G215">
+        <v>10.4</v>
+      </c>
+      <c r="H215" s="29">
+        <f t="shared" ref="H215:H219" si="150">AVERAGE(E215:G215)</f>
+        <v>10.333333333333334</v>
+      </c>
+      <c r="I215" s="38">
+        <v>2</v>
+      </c>
+      <c r="J215" s="5">
+        <v>1</v>
+      </c>
+      <c r="K215" s="38">
+        <v>2</v>
+      </c>
+      <c r="L215" s="13">
+        <f t="shared" ref="L215:L219" si="151">AVERAGE(I215:K215)</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="M215" s="34">
+        <f>H215*1000/(B215*C215*D215)</f>
+        <v>7.9487179487179496E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>3</v>
+      </c>
+      <c r="B216">
+        <v>13</v>
+      </c>
+      <c r="C216">
+        <v>20</v>
+      </c>
+      <c r="D216">
+        <v>1000</v>
+      </c>
+      <c r="E216">
+        <v>10.8</v>
+      </c>
+      <c r="F216">
+        <v>10.8</v>
+      </c>
+      <c r="G216">
+        <v>10.8</v>
+      </c>
+      <c r="H216" s="29">
+        <f t="shared" si="150"/>
+        <v>10.800000000000002</v>
+      </c>
+      <c r="I216">
+        <v>4</v>
+      </c>
+      <c r="J216">
+        <v>4</v>
+      </c>
+      <c r="K216">
+        <v>6</v>
+      </c>
+      <c r="L216" s="13">
+        <f t="shared" si="151"/>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="M216" s="34">
+        <f t="shared" ref="M216:M219" si="152">H216*1000/(B216*C216*D216)</f>
+        <v>4.1538461538461545E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>4</v>
+      </c>
+      <c r="B217">
+        <v>13</v>
+      </c>
+      <c r="C217">
+        <v>30</v>
+      </c>
+      <c r="D217">
+        <v>1000</v>
+      </c>
+      <c r="E217">
+        <v>11.5</v>
+      </c>
+      <c r="F217">
+        <v>11.5</v>
+      </c>
+      <c r="G217">
+        <v>11.6</v>
+      </c>
+      <c r="H217" s="29">
+        <f t="shared" si="150"/>
+        <v>11.533333333333333</v>
+      </c>
+      <c r="I217">
+        <v>10</v>
+      </c>
+      <c r="J217">
+        <v>6</v>
+      </c>
+      <c r="K217">
+        <v>10</v>
+      </c>
+      <c r="L217" s="13">
+        <f t="shared" si="151"/>
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="M217" s="34">
+        <f t="shared" si="152"/>
+        <v>2.9572649572649573E-2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>5</v>
+      </c>
+      <c r="B218">
+        <v>13</v>
+      </c>
+      <c r="C218">
+        <v>40</v>
+      </c>
+      <c r="D218">
+        <v>1000</v>
+      </c>
+      <c r="E218">
+        <v>12.1</v>
+      </c>
+      <c r="F218">
+        <v>12.3</v>
+      </c>
+      <c r="G218">
+        <v>12.3</v>
+      </c>
+      <c r="H218" s="29">
+        <f t="shared" si="150"/>
+        <v>12.233333333333334</v>
+      </c>
+      <c r="I218">
+        <v>7</v>
+      </c>
+      <c r="J218">
+        <v>13</v>
+      </c>
+      <c r="K218">
+        <v>8</v>
+      </c>
+      <c r="L218" s="13">
+        <f t="shared" si="151"/>
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="M218" s="34">
+        <f t="shared" si="152"/>
+        <v>2.3525641025641027E-2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>6</v>
+      </c>
+      <c r="B219">
+        <v>13</v>
+      </c>
+      <c r="C219">
+        <v>49</v>
+      </c>
+      <c r="D219">
+        <v>1000</v>
+      </c>
+      <c r="E219">
+        <v>12.9</v>
+      </c>
+      <c r="F219">
+        <v>13.1</v>
+      </c>
+      <c r="G219">
+        <v>13</v>
+      </c>
+      <c r="H219" s="29">
+        <f t="shared" si="150"/>
+        <v>13</v>
+      </c>
+      <c r="I219">
+        <v>11</v>
+      </c>
+      <c r="J219">
+        <v>11</v>
+      </c>
+      <c r="K219">
+        <v>9</v>
+      </c>
+      <c r="L219" s="13">
+        <f t="shared" si="151"/>
+        <v>10.333333333333334</v>
+      </c>
+      <c r="M219" s="34">
+        <f t="shared" si="152"/>
+        <v>2.0408163265306121E-2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>18</v>
+      </c>
+      <c r="B220">
+        <v>13</v>
+      </c>
+      <c r="C220">
+        <v>50</v>
+      </c>
+      <c r="D220">
+        <v>1000</v>
+      </c>
+      <c r="H220" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="L220" s="13"/>
+      <c r="M220" s="34"/>
+    </row>
+    <row r="222" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B222" s="5"/>
+      <c r="C222" s="5"/>
+      <c r="D222" s="5"/>
+      <c r="E222" s="5"/>
+    </row>
+    <row r="223" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B223" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F223" s="35"/>
+      <c r="H223" s="36"/>
+      <c r="L223" s="37"/>
+      <c r="M223" s="37"/>
+      <c r="AA223" s="37"/>
+    </row>
+    <row r="225" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A225" s="31"/>
+      <c r="B225" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C225" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D225" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E225" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F225" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G225" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H225" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I225" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J225" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="K225" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L225" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="M225" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="226" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>1</v>
+      </c>
+      <c r="B226">
+        <v>14</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+      <c r="D226">
+        <v>1000</v>
+      </c>
+      <c r="H226" s="29" t="e">
+        <f>AVERAGE(E226:G226)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I226" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J226" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K226" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L226" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M226" s="34" t="e">
+        <f>H226*1000/(B226*C226*D226)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="227" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>2</v>
+      </c>
+      <c r="B227">
+        <v>14</v>
+      </c>
+      <c r="C227">
+        <v>10</v>
+      </c>
+      <c r="D227">
+        <v>1000</v>
+      </c>
+      <c r="H227" s="29" t="e">
+        <f t="shared" ref="H227:H231" si="153">AVERAGE(E227:G227)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I227" s="38"/>
+      <c r="J227" s="5"/>
+      <c r="K227" s="38"/>
+      <c r="L227" s="13" t="e">
+        <f t="shared" ref="L227:L231" si="154">AVERAGE(I227:K227)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M227" s="34" t="e">
+        <f>H227*1000/(B227*C227*D227)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="228" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>3</v>
+      </c>
+      <c r="B228">
+        <v>14</v>
+      </c>
+      <c r="C228">
+        <v>20</v>
+      </c>
+      <c r="D228">
+        <v>1000</v>
+      </c>
+      <c r="H228" s="29" t="e">
+        <f t="shared" si="153"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L228" s="13" t="e">
+        <f t="shared" si="154"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M228" s="34" t="e">
+        <f t="shared" ref="M228:M231" si="155">H228*1000/(B228*C228*D228)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="229" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>4</v>
+      </c>
+      <c r="B229">
+        <v>14</v>
+      </c>
+      <c r="C229">
+        <v>30</v>
+      </c>
+      <c r="D229">
+        <v>1000</v>
+      </c>
+      <c r="H229" s="29" t="e">
+        <f t="shared" si="153"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L229" s="13" t="e">
+        <f t="shared" si="154"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M229" s="34" t="e">
+        <f t="shared" si="155"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="230" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>5</v>
+      </c>
+      <c r="B230">
+        <v>14</v>
+      </c>
+      <c r="C230">
+        <v>40</v>
+      </c>
+      <c r="D230">
+        <v>1000</v>
+      </c>
+      <c r="H230" s="29" t="e">
+        <f t="shared" si="153"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L230" s="13" t="e">
+        <f t="shared" si="154"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M230" s="34" t="e">
+        <f t="shared" si="155"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="231" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>6</v>
+      </c>
+      <c r="B231">
+        <v>14</v>
+      </c>
+      <c r="C231">
+        <v>45</v>
+      </c>
+      <c r="D231">
+        <v>1000</v>
+      </c>
+      <c r="E231">
+        <v>13.1</v>
+      </c>
+      <c r="F231">
+        <v>13</v>
+      </c>
+      <c r="G231">
+        <v>13</v>
+      </c>
+      <c r="H231" s="29">
+        <f t="shared" si="153"/>
+        <v>13.033333333333333</v>
+      </c>
+      <c r="I231">
+        <v>9</v>
+      </c>
+      <c r="J231">
+        <v>9</v>
+      </c>
+      <c r="K231">
+        <v>9</v>
+      </c>
+      <c r="L231" s="13">
+        <f t="shared" si="154"/>
+        <v>9</v>
+      </c>
+      <c r="M231" s="34">
+        <f t="shared" si="155"/>
+        <v>2.0687830687830689E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>18</v>
+      </c>
+      <c r="B232">
+        <v>14</v>
+      </c>
+      <c r="C232">
+        <v>46</v>
+      </c>
+      <c r="D232">
+        <v>1000</v>
+      </c>
+      <c r="H232" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="L232" s="13"/>
+      <c r="M232" s="34"/>
+    </row>
+    <row r="235" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B235" s="45">
+        <v>15</v>
+      </c>
+      <c r="F235" s="35"/>
+      <c r="H235" s="36"/>
+      <c r="L235" s="37"/>
+      <c r="M235" s="37"/>
+      <c r="AA235" s="37"/>
+    </row>
+    <row r="237" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A237" s="31"/>
+      <c r="B237" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C237" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D237" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E237" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F237" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G237" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H237" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I237" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J237" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="K237" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L237" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="M237" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="238" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>1</v>
+      </c>
+      <c r="B238">
+        <f>B235</f>
+        <v>15</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+      <c r="D238">
+        <v>1000</v>
+      </c>
+      <c r="H238" s="29" t="e">
+        <f>AVERAGE(E238:G238)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I238" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J238" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K238" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L238" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M238" s="34" t="e">
+        <f>H238*1000/(B238*C238*D238)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="239" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>2</v>
+      </c>
+      <c r="B239">
+        <f>B238</f>
+        <v>15</v>
+      </c>
+      <c r="C239">
+        <v>10</v>
+      </c>
+      <c r="D239">
+        <v>1000</v>
+      </c>
+      <c r="H239" s="29" t="e">
+        <f t="shared" ref="H239:H243" si="156">AVERAGE(E239:G239)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I239" s="38"/>
+      <c r="J239" s="5"/>
+      <c r="K239" s="38"/>
+      <c r="L239" s="13" t="e">
+        <f t="shared" ref="L239:L243" si="157">AVERAGE(I239:K239)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M239" s="34" t="e">
+        <f>H239*1000/(B239*C239*D239)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="240" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>3</v>
+      </c>
+      <c r="B240">
+        <f t="shared" ref="B240:B244" si="158">B239</f>
+        <v>15</v>
+      </c>
+      <c r="C240">
+        <v>20</v>
+      </c>
+      <c r="D240">
+        <v>1000</v>
+      </c>
+      <c r="H240" s="29" t="e">
+        <f t="shared" si="156"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L240" s="13" t="e">
+        <f t="shared" si="157"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M240" s="34" t="e">
+        <f t="shared" ref="M240:M243" si="159">H240*1000/(B240*C240*D240)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="241" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>4</v>
+      </c>
+      <c r="B241">
+        <f t="shared" si="158"/>
+        <v>15</v>
+      </c>
+      <c r="C241">
+        <v>30</v>
+      </c>
+      <c r="D241">
+        <v>1000</v>
+      </c>
+      <c r="H241" s="29" t="e">
+        <f t="shared" si="156"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L241" s="13" t="e">
+        <f t="shared" si="157"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M241" s="34" t="e">
+        <f t="shared" si="159"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="242" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>5</v>
+      </c>
+      <c r="B242">
+        <f t="shared" si="158"/>
+        <v>15</v>
+      </c>
+      <c r="C242">
+        <v>40</v>
+      </c>
+      <c r="D242">
+        <v>1000</v>
+      </c>
+      <c r="H242" s="29" t="e">
+        <f t="shared" si="156"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L242" s="13" t="e">
+        <f t="shared" si="157"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M242" s="34" t="e">
+        <f t="shared" si="159"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="243" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>6</v>
+      </c>
+      <c r="B243">
+        <f t="shared" si="158"/>
+        <v>15</v>
+      </c>
+      <c r="C243">
+        <v>45</v>
+      </c>
+      <c r="D243">
+        <v>1000</v>
+      </c>
+      <c r="H243" s="29" t="e">
+        <f t="shared" si="156"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L243" s="13" t="e">
+        <f t="shared" si="157"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M243" s="34" t="e">
+        <f t="shared" si="159"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="244" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>18</v>
+      </c>
+      <c r="B244">
+        <f t="shared" si="158"/>
+        <v>15</v>
+      </c>
+      <c r="C244">
+        <v>46</v>
+      </c>
+      <c r="D244">
+        <v>1000</v>
+      </c>
+      <c r="H244" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="L244" s="13"/>
+      <c r="M244" s="34"/>
+    </row>
+    <row r="247" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B247" s="45">
+        <v>16</v>
+      </c>
+      <c r="F247" s="35"/>
+      <c r="H247" s="36"/>
+      <c r="L247" s="37"/>
+      <c r="M247" s="37"/>
+      <c r="AA247" s="37"/>
+    </row>
+    <row r="249" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A249" s="31"/>
+      <c r="B249" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C249" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D249" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E249" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F249" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G249" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H249" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I249" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J249" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="K249" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L249" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="M249" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="250" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>1</v>
+      </c>
+      <c r="B250">
+        <f>B247</f>
+        <v>16</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+      <c r="D250">
+        <v>1000</v>
+      </c>
+      <c r="H250" s="29" t="e">
+        <f>AVERAGE(E250:G250)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I250" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J250" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K250" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L250" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M250" s="34" t="e">
+        <f>H250*1000/(B250*C250*D250)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="251" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>2</v>
+      </c>
+      <c r="B251">
+        <f>B250</f>
+        <v>16</v>
+      </c>
+      <c r="C251">
+        <v>10</v>
+      </c>
+      <c r="D251">
+        <v>1000</v>
+      </c>
+      <c r="H251" s="29" t="e">
+        <f t="shared" ref="H251:H255" si="160">AVERAGE(E251:G251)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I251" s="38"/>
+      <c r="J251" s="5"/>
+      <c r="K251" s="38"/>
+      <c r="L251" s="13" t="e">
+        <f t="shared" ref="L251:L255" si="161">AVERAGE(I251:K251)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M251" s="34" t="e">
+        <f>H251*1000/(B251*C251*D251)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="252" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>3</v>
+      </c>
+      <c r="B252">
+        <f t="shared" ref="B252:B256" si="162">B251</f>
+        <v>16</v>
+      </c>
+      <c r="C252">
+        <v>20</v>
+      </c>
+      <c r="D252">
+        <v>1000</v>
+      </c>
+      <c r="H252" s="29" t="e">
+        <f t="shared" si="160"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L252" s="13" t="e">
+        <f t="shared" si="161"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M252" s="34" t="e">
+        <f t="shared" ref="M252:M255" si="163">H252*1000/(B252*C252*D252)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="253" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>4</v>
+      </c>
+      <c r="B253">
+        <f t="shared" si="162"/>
+        <v>16</v>
+      </c>
+      <c r="C253">
+        <v>30</v>
+      </c>
+      <c r="D253">
+        <v>1000</v>
+      </c>
+      <c r="H253" s="29" t="e">
+        <f t="shared" si="160"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L253" s="13" t="e">
+        <f t="shared" si="161"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M253" s="34" t="e">
+        <f t="shared" si="163"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="254" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>5</v>
+      </c>
+      <c r="B254">
+        <f t="shared" si="162"/>
+        <v>16</v>
+      </c>
+      <c r="C254">
+        <v>40</v>
+      </c>
+      <c r="D254">
+        <v>1000</v>
+      </c>
+      <c r="H254" s="29" t="e">
+        <f t="shared" si="160"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L254" s="13" t="e">
+        <f t="shared" si="161"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M254" s="34" t="e">
+        <f t="shared" si="163"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="255" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>6</v>
+      </c>
+      <c r="B255">
+        <f t="shared" si="162"/>
+        <v>16</v>
+      </c>
+      <c r="C255">
+        <v>45</v>
+      </c>
+      <c r="D255">
+        <v>1000</v>
+      </c>
+      <c r="H255" s="29" t="e">
+        <f t="shared" si="160"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L255" s="13" t="e">
+        <f t="shared" si="161"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M255" s="34" t="e">
+        <f t="shared" si="163"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="256" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>18</v>
+      </c>
+      <c r="B256">
+        <f t="shared" si="162"/>
+        <v>16</v>
+      </c>
+      <c r="C256">
+        <v>46</v>
+      </c>
+      <c r="D256">
+        <v>1000</v>
+      </c>
+      <c r="H256" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="L256" s="13"/>
+      <c r="M256" s="34"/>
+    </row>
+    <row r="259" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B259" s="45">
+        <v>17</v>
+      </c>
+      <c r="F259" s="35"/>
+      <c r="H259" s="36"/>
+      <c r="L259" s="37"/>
+      <c r="M259" s="37"/>
+      <c r="AA259" s="37"/>
+    </row>
+    <row r="261" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A261" s="31"/>
+      <c r="B261" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C261" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D261" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E261" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F261" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G261" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H261" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I261" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J261" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="K261" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L261" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="M261" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="262" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>1</v>
+      </c>
+      <c r="B262">
+        <f>B259</f>
+        <v>17</v>
+      </c>
+      <c r="C262">
+        <v>1</v>
+      </c>
+      <c r="D262">
+        <v>1000</v>
+      </c>
+      <c r="H262" s="29" t="e">
+        <f>AVERAGE(E262:G262)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I262" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J262" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K262" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L262" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M262" s="34" t="e">
+        <f>H262*1000/(B262*C262*D262)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="263" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>2</v>
+      </c>
+      <c r="B263">
+        <f>B262</f>
+        <v>17</v>
+      </c>
+      <c r="C263">
+        <v>10</v>
+      </c>
+      <c r="D263">
+        <v>1000</v>
+      </c>
+      <c r="H263" s="29" t="e">
+        <f t="shared" ref="H263:H267" si="164">AVERAGE(E263:G263)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I263" s="38"/>
+      <c r="J263" s="5"/>
+      <c r="K263" s="38"/>
+      <c r="L263" s="13" t="e">
+        <f t="shared" ref="L263:L267" si="165">AVERAGE(I263:K263)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M263" s="34" t="e">
+        <f>H263*1000/(B263*C263*D263)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="264" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>3</v>
+      </c>
+      <c r="B264">
+        <f t="shared" ref="B264:B268" si="166">B263</f>
+        <v>17</v>
+      </c>
+      <c r="C264">
+        <v>20</v>
+      </c>
+      <c r="D264">
+        <v>1000</v>
+      </c>
+      <c r="H264" s="29" t="e">
+        <f t="shared" si="164"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L264" s="13" t="e">
+        <f t="shared" si="165"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M264" s="34" t="e">
+        <f t="shared" ref="M264:M267" si="167">H264*1000/(B264*C264*D264)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="265" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>4</v>
+      </c>
+      <c r="B265">
+        <f t="shared" si="166"/>
+        <v>17</v>
+      </c>
+      <c r="C265">
+        <v>30</v>
+      </c>
+      <c r="D265">
+        <v>1000</v>
+      </c>
+      <c r="H265" s="29" t="e">
+        <f t="shared" si="164"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L265" s="13" t="e">
+        <f t="shared" si="165"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M265" s="34" t="e">
+        <f t="shared" si="167"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="266" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>5</v>
+      </c>
+      <c r="B266">
+        <f t="shared" si="166"/>
+        <v>17</v>
+      </c>
+      <c r="C266">
+        <v>40</v>
+      </c>
+      <c r="D266">
+        <v>1000</v>
+      </c>
+      <c r="H266" s="29" t="e">
+        <f t="shared" si="164"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L266" s="13" t="e">
+        <f t="shared" si="165"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M266" s="34" t="e">
+        <f t="shared" si="167"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="267" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>6</v>
+      </c>
+      <c r="B267">
+        <f t="shared" si="166"/>
+        <v>17</v>
+      </c>
+      <c r="C267">
+        <v>45</v>
+      </c>
+      <c r="D267">
+        <v>1000</v>
+      </c>
+      <c r="H267" s="29" t="e">
+        <f t="shared" si="164"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L267" s="13" t="e">
+        <f t="shared" si="165"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M267" s="34" t="e">
+        <f t="shared" si="167"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="268" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>18</v>
+      </c>
+      <c r="B268">
+        <f t="shared" si="166"/>
+        <v>17</v>
+      </c>
+      <c r="C268">
+        <v>46</v>
+      </c>
+      <c r="D268">
+        <v>1000</v>
+      </c>
+      <c r="H268" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="L268" s="13"/>
+      <c r="M268" s="34"/>
+    </row>
+    <row r="271" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B271" s="45">
+        <v>18</v>
+      </c>
+      <c r="F271" s="35"/>
+      <c r="H271" s="36"/>
+      <c r="L271" s="37"/>
+      <c r="M271" s="37"/>
+      <c r="AA271" s="37"/>
+    </row>
+    <row r="273" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A273" s="31"/>
+      <c r="B273" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C273" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D273" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E273" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F273" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G273" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H273" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I273" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J273" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="K273" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L273" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="M273" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="274" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>1</v>
+      </c>
+      <c r="B274">
+        <f>B271</f>
+        <v>18</v>
+      </c>
+      <c r="C274">
+        <v>1</v>
+      </c>
+      <c r="D274">
+        <v>1000</v>
+      </c>
+      <c r="H274" s="29" t="e">
+        <f>AVERAGE(E274:G274)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I274" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J274" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K274" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L274" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M274" s="34" t="e">
+        <f>H274*1000/(B274*C274*D274)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="275" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>2</v>
+      </c>
+      <c r="B275">
+        <f>B274</f>
+        <v>18</v>
+      </c>
+      <c r="C275">
+        <v>10</v>
+      </c>
+      <c r="D275">
+        <v>1000</v>
+      </c>
+      <c r="H275" s="29" t="e">
+        <f t="shared" ref="H275:H279" si="168">AVERAGE(E275:G275)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I275" s="38"/>
+      <c r="J275" s="5"/>
+      <c r="K275" s="38"/>
+      <c r="L275" s="13" t="e">
+        <f t="shared" ref="L275:L279" si="169">AVERAGE(I275:K275)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M275" s="34" t="e">
+        <f>H275*1000/(B275*C275*D275)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="276" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>3</v>
+      </c>
+      <c r="B276">
+        <f t="shared" ref="B276:B280" si="170">B275</f>
+        <v>18</v>
+      </c>
+      <c r="C276">
+        <v>20</v>
+      </c>
+      <c r="D276">
+        <v>1000</v>
+      </c>
+      <c r="H276" s="29" t="e">
+        <f t="shared" si="168"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L276" s="13" t="e">
+        <f t="shared" si="169"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M276" s="34" t="e">
+        <f t="shared" ref="M276:M279" si="171">H276*1000/(B276*C276*D276)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="277" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>4</v>
+      </c>
+      <c r="B277">
+        <f t="shared" si="170"/>
+        <v>18</v>
+      </c>
+      <c r="C277">
+        <v>30</v>
+      </c>
+      <c r="D277">
+        <v>1000</v>
+      </c>
+      <c r="H277" s="29" t="e">
+        <f t="shared" si="168"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L277" s="13" t="e">
+        <f t="shared" si="169"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M277" s="34" t="e">
+        <f t="shared" si="171"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="278" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>5</v>
+      </c>
+      <c r="B278">
+        <f t="shared" si="170"/>
+        <v>18</v>
+      </c>
+      <c r="C278">
+        <v>40</v>
+      </c>
+      <c r="D278">
+        <v>1000</v>
+      </c>
+      <c r="H278" s="29" t="e">
+        <f t="shared" si="168"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L278" s="13" t="e">
+        <f t="shared" si="169"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M278" s="34" t="e">
+        <f t="shared" si="171"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="279" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>6</v>
+      </c>
+      <c r="B279">
+        <f t="shared" si="170"/>
+        <v>18</v>
+      </c>
+      <c r="C279">
+        <v>45</v>
+      </c>
+      <c r="D279">
+        <v>1000</v>
+      </c>
+      <c r="H279" s="29" t="e">
+        <f t="shared" si="168"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L279" s="13" t="e">
+        <f t="shared" si="169"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M279" s="34" t="e">
+        <f t="shared" si="171"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="280" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>18</v>
+      </c>
+      <c r="B280">
+        <f t="shared" si="170"/>
+        <v>18</v>
+      </c>
+      <c r="C280">
+        <v>46</v>
+      </c>
+      <c r="D280">
+        <v>1000</v>
+      </c>
+      <c r="H280" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="L280" s="13"/>
+      <c r="M280" s="34"/>
+    </row>
+    <row r="283" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B283" s="45">
+        <v>19</v>
+      </c>
+      <c r="F283" s="35"/>
+      <c r="H283" s="36"/>
+      <c r="L283" s="37"/>
+      <c r="M283" s="37"/>
+      <c r="AA283" s="37"/>
+    </row>
+    <row r="285" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A285" s="31"/>
+      <c r="B285" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C285" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D285" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E285" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F285" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G285" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H285" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I285" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J285" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="K285" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L285" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="M285" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="286" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>1</v>
+      </c>
+      <c r="B286">
+        <f>B283</f>
+        <v>19</v>
+      </c>
+      <c r="C286">
+        <v>1</v>
+      </c>
+      <c r="D286">
+        <v>1000</v>
+      </c>
+      <c r="H286" s="29" t="e">
+        <f>AVERAGE(E286:G286)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I286" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J286" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K286" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L286" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M286" s="34" t="e">
+        <f>H286*1000/(B286*C286*D286)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="287" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>2</v>
+      </c>
+      <c r="B287">
+        <f>B286</f>
+        <v>19</v>
+      </c>
+      <c r="C287">
+        <v>10</v>
+      </c>
+      <c r="D287">
+        <v>1000</v>
+      </c>
+      <c r="H287" s="29" t="e">
+        <f t="shared" ref="H287:H291" si="172">AVERAGE(E287:G287)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I287" s="38"/>
+      <c r="J287" s="5"/>
+      <c r="K287" s="38"/>
+      <c r="L287" s="13" t="e">
+        <f t="shared" ref="L287:L291" si="173">AVERAGE(I287:K287)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M287" s="34" t="e">
+        <f>H287*1000/(B287*C287*D287)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="288" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>3</v>
+      </c>
+      <c r="B288">
+        <f t="shared" ref="B288:B292" si="174">B287</f>
+        <v>19</v>
+      </c>
+      <c r="C288">
+        <v>20</v>
+      </c>
+      <c r="D288">
+        <v>1000</v>
+      </c>
+      <c r="H288" s="29" t="e">
+        <f t="shared" si="172"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L288" s="13" t="e">
+        <f t="shared" si="173"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M288" s="34" t="e">
+        <f t="shared" ref="M288:M291" si="175">H288*1000/(B288*C288*D288)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="289" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>4</v>
+      </c>
+      <c r="B289">
+        <f t="shared" si="174"/>
+        <v>19</v>
+      </c>
+      <c r="C289">
+        <v>30</v>
+      </c>
+      <c r="D289">
+        <v>1000</v>
+      </c>
+      <c r="H289" s="29" t="e">
+        <f t="shared" si="172"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L289" s="13" t="e">
+        <f t="shared" si="173"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M289" s="34" t="e">
+        <f t="shared" si="175"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="290" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>5</v>
+      </c>
+      <c r="B290">
+        <f t="shared" si="174"/>
+        <v>19</v>
+      </c>
+      <c r="C290">
+        <v>40</v>
+      </c>
+      <c r="D290">
+        <v>1000</v>
+      </c>
+      <c r="H290" s="29" t="e">
+        <f t="shared" si="172"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L290" s="13" t="e">
+        <f t="shared" si="173"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M290" s="34" t="e">
+        <f t="shared" si="175"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="291" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>6</v>
+      </c>
+      <c r="B291">
+        <f t="shared" si="174"/>
+        <v>19</v>
+      </c>
+      <c r="C291">
+        <v>45</v>
+      </c>
+      <c r="D291">
+        <v>1000</v>
+      </c>
+      <c r="H291" s="29" t="e">
+        <f t="shared" si="172"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L291" s="13" t="e">
+        <f t="shared" si="173"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M291" s="34" t="e">
+        <f t="shared" si="175"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="292" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>18</v>
+      </c>
+      <c r="B292">
+        <f t="shared" si="174"/>
+        <v>19</v>
+      </c>
+      <c r="C292">
+        <v>46</v>
+      </c>
+      <c r="D292">
+        <v>1000</v>
+      </c>
+      <c r="H292" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="L292" s="13"/>
+      <c r="M292" s="34"/>
+    </row>
+    <row r="295" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B295" s="45">
+        <v>20</v>
+      </c>
+      <c r="F295" s="35"/>
+      <c r="H295" s="36"/>
+      <c r="L295" s="37"/>
+      <c r="M295" s="37"/>
+      <c r="AA295" s="37"/>
+    </row>
+    <row r="297" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A297" s="31"/>
+      <c r="B297" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C297" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D297" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E297" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F297" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G297" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H297" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I297" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J297" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="K297" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L297" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="M297" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="298" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>1</v>
+      </c>
+      <c r="B298">
+        <f>B295</f>
+        <v>20</v>
+      </c>
+      <c r="C298">
+        <v>1</v>
+      </c>
+      <c r="D298">
+        <v>1000</v>
+      </c>
+      <c r="E298">
+        <v>7.7</v>
+      </c>
+      <c r="F298">
+        <v>7.7</v>
+      </c>
+      <c r="G298">
+        <v>7.7</v>
+      </c>
+      <c r="H298" s="29">
+        <f>AVERAGE(E298:G298)</f>
+        <v>7.7</v>
+      </c>
+      <c r="I298" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J298" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K298" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L298" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M298" s="34">
+        <f>H298*1000/(B298*C298*D298)</f>
+        <v>0.38500000000000001</v>
+      </c>
+    </row>
+    <row r="299" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>2</v>
+      </c>
+      <c r="B299">
+        <f>B298</f>
+        <v>20</v>
+      </c>
+      <c r="C299">
+        <v>5</v>
+      </c>
+      <c r="D299">
+        <v>1000</v>
+      </c>
+      <c r="E299">
+        <v>10.3</v>
+      </c>
+      <c r="F299">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G299">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H299" s="29">
+        <f t="shared" ref="H299:H303" si="176">AVERAGE(E299:G299)</f>
+        <v>10.233333333333333</v>
+      </c>
+      <c r="I299" s="38">
+        <v>2</v>
+      </c>
+      <c r="J299" s="5">
+        <v>2</v>
+      </c>
+      <c r="K299" s="38">
+        <v>2</v>
+      </c>
+      <c r="L299" s="13">
+        <f t="shared" ref="L299:L303" si="177">AVERAGE(I299:K299)</f>
+        <v>2</v>
+      </c>
+      <c r="M299" s="34">
+        <f>H299*1000/(B299*C299*D299)</f>
+        <v>0.10233333333333332</v>
+      </c>
+    </row>
+    <row r="300" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>3</v>
+      </c>
+      <c r="B300">
+        <f t="shared" ref="B300:B304" si="178">B299</f>
+        <v>20</v>
+      </c>
+      <c r="C300">
+        <v>10</v>
+      </c>
+      <c r="D300">
+        <v>1000</v>
+      </c>
+      <c r="H300" s="29" t="e">
+        <f t="shared" si="176"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L300" s="13" t="e">
+        <f t="shared" si="177"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M300" s="34" t="e">
+        <f t="shared" ref="M300:M303" si="179">H300*1000/(B300*C300*D300)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="301" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>4</v>
+      </c>
+      <c r="B301">
+        <f t="shared" si="178"/>
+        <v>20</v>
+      </c>
+      <c r="C301">
+        <v>20</v>
+      </c>
+      <c r="D301">
+        <v>1000</v>
+      </c>
+      <c r="H301" s="29" t="e">
+        <f t="shared" si="176"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L301" s="13" t="e">
+        <f t="shared" si="177"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M301" s="34" t="e">
+        <f t="shared" si="179"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="302" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>5</v>
+      </c>
+      <c r="B302">
+        <f t="shared" si="178"/>
+        <v>20</v>
+      </c>
+      <c r="C302">
+        <v>30</v>
+      </c>
+      <c r="D302">
+        <v>1000</v>
+      </c>
+      <c r="H302" s="29" t="e">
+        <f t="shared" si="176"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L302" s="13" t="e">
+        <f t="shared" si="177"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M302" s="34" t="e">
+        <f t="shared" si="179"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="303" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>6</v>
+      </c>
+      <c r="B303">
+        <f t="shared" si="178"/>
+        <v>20</v>
+      </c>
+      <c r="C303">
+        <v>32</v>
+      </c>
+      <c r="D303">
+        <v>1000</v>
+      </c>
+      <c r="E303">
+        <v>12.4</v>
+      </c>
+      <c r="F303">
+        <v>12</v>
+      </c>
+      <c r="G303">
+        <v>12.2</v>
+      </c>
+      <c r="H303" s="29">
+        <f t="shared" si="176"/>
+        <v>12.199999999999998</v>
+      </c>
+      <c r="I303">
+        <v>20</v>
+      </c>
+      <c r="J303">
+        <v>10</v>
+      </c>
+      <c r="K303">
+        <v>9</v>
+      </c>
+      <c r="L303" s="13">
+        <f t="shared" si="177"/>
+        <v>13</v>
+      </c>
+      <c r="M303" s="34">
+        <f t="shared" si="179"/>
+        <v>1.9062499999999996E-2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>18</v>
+      </c>
+      <c r="B304">
+        <f t="shared" si="178"/>
+        <v>20</v>
+      </c>
+      <c r="C304">
+        <v>33</v>
+      </c>
+      <c r="D304">
+        <v>1000</v>
+      </c>
+      <c r="H304" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="L304" s="13"/>
+      <c r="M304" s="34"/>
+    </row>
+    <row r="307" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B307" s="45">
+        <v>30</v>
+      </c>
+      <c r="F307" s="35"/>
+      <c r="H307" s="36"/>
+      <c r="L307" s="37"/>
+      <c r="M307" s="37"/>
+      <c r="AA307" s="37"/>
+    </row>
+    <row r="309" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A309" s="31"/>
+      <c r="B309" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C309" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D309" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E309" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F309" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G309" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H309" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I309" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J309" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="K309" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L309" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="M309" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="310" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>1</v>
+      </c>
+      <c r="B310">
+        <f>B307</f>
+        <v>30</v>
+      </c>
+      <c r="C310">
+        <v>1</v>
+      </c>
+      <c r="D310">
+        <v>1000</v>
+      </c>
+      <c r="H310" s="29" t="e">
+        <f>AVERAGE(E310:G310)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I310" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J310" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K310" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L310" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M310" s="34" t="e">
+        <f>H310*1000/(B310*C310*D310)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="311" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>2</v>
+      </c>
+      <c r="B311">
+        <f>B310</f>
+        <v>30</v>
+      </c>
+      <c r="C311">
+        <v>10</v>
+      </c>
+      <c r="D311">
+        <v>1000</v>
+      </c>
+      <c r="H311" s="29" t="e">
+        <f t="shared" ref="H311:H315" si="180">AVERAGE(E311:G311)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I311" s="38"/>
+      <c r="J311" s="5"/>
+      <c r="K311" s="38"/>
+      <c r="L311" s="13" t="e">
+        <f t="shared" ref="L311:L315" si="181">AVERAGE(I311:K311)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M311" s="34" t="e">
+        <f>H311*1000/(B311*C311*D311)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="312" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>3</v>
+      </c>
+      <c r="B312">
+        <f t="shared" ref="B312:B316" si="182">B311</f>
+        <v>30</v>
+      </c>
+      <c r="C312">
+        <v>20</v>
+      </c>
+      <c r="D312">
+        <v>1000</v>
+      </c>
+      <c r="H312" s="29" t="e">
+        <f t="shared" si="180"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L312" s="13" t="e">
+        <f t="shared" si="181"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M312" s="34" t="e">
+        <f t="shared" ref="M312:M315" si="183">H312*1000/(B312*C312*D312)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="313" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>4</v>
+      </c>
+      <c r="B313">
+        <f t="shared" si="182"/>
+        <v>30</v>
+      </c>
+      <c r="C313">
+        <v>30</v>
+      </c>
+      <c r="D313">
+        <v>1000</v>
+      </c>
+      <c r="H313" s="29" t="e">
+        <f t="shared" si="180"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L313" s="13" t="e">
+        <f t="shared" si="181"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M313" s="34" t="e">
+        <f t="shared" si="183"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="314" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>5</v>
+      </c>
+      <c r="B314">
+        <f t="shared" si="182"/>
+        <v>30</v>
+      </c>
+      <c r="C314">
+        <v>40</v>
+      </c>
+      <c r="D314">
+        <v>1000</v>
+      </c>
+      <c r="H314" s="29" t="e">
+        <f t="shared" si="180"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L314" s="13" t="e">
+        <f t="shared" si="181"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M314" s="34" t="e">
+        <f t="shared" si="183"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="315" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>6</v>
+      </c>
+      <c r="B315">
+        <f t="shared" si="182"/>
+        <v>30</v>
+      </c>
+      <c r="C315">
+        <v>21</v>
+      </c>
+      <c r="D315">
+        <v>1000</v>
+      </c>
+      <c r="E315">
+        <v>13.7</v>
+      </c>
+      <c r="F315">
+        <v>13</v>
+      </c>
+      <c r="G315">
+        <v>13</v>
+      </c>
+      <c r="H315" s="29">
+        <f t="shared" si="180"/>
+        <v>13.233333333333334</v>
+      </c>
+      <c r="I315">
+        <v>13</v>
+      </c>
+      <c r="J315">
+        <v>11</v>
+      </c>
+      <c r="K315">
+        <v>9</v>
+      </c>
+      <c r="L315" s="13">
+        <f t="shared" si="181"/>
+        <v>11</v>
+      </c>
+      <c r="M315" s="34">
+        <f t="shared" si="183"/>
+        <v>2.1005291005291006E-2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>18</v>
+      </c>
+      <c r="B316">
+        <f t="shared" si="182"/>
+        <v>30</v>
+      </c>
+      <c r="C316">
+        <v>22</v>
+      </c>
+      <c r="D316">
+        <v>1000</v>
+      </c>
+      <c r="H316" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="L316" s="13"/>
+      <c r="M316" s="34"/>
+    </row>
+    <row r="319" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B319" s="45">
+        <v>40</v>
+      </c>
+      <c r="F319" s="35"/>
+      <c r="H319" s="36"/>
+      <c r="L319" s="37"/>
+      <c r="M319" s="37"/>
+      <c r="AA319" s="37"/>
+    </row>
+    <row r="321" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A321" s="31"/>
+      <c r="B321" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C321" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D321" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E321" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F321" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G321" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H321" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I321" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J321" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="K321" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L321" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="M321" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="322" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>1</v>
+      </c>
+      <c r="B322">
+        <f>B319</f>
+        <v>40</v>
+      </c>
+      <c r="C322">
+        <v>1</v>
+      </c>
+      <c r="D322">
+        <v>1000</v>
+      </c>
+      <c r="H322" s="29" t="e">
+        <f>AVERAGE(E322:G322)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I322" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J322" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K322" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L322" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M322" s="34" t="e">
+        <f>H322*1000/(B322*C322*D322)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="323" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>2</v>
+      </c>
+      <c r="B323">
+        <f>B322</f>
+        <v>40</v>
+      </c>
+      <c r="C323">
+        <v>10</v>
+      </c>
+      <c r="D323">
+        <v>1000</v>
+      </c>
+      <c r="H323" s="29" t="e">
+        <f t="shared" ref="H323:H327" si="184">AVERAGE(E323:G323)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I323" s="38"/>
+      <c r="J323" s="5"/>
+      <c r="K323" s="38"/>
+      <c r="L323" s="13" t="e">
+        <f t="shared" ref="L323:L327" si="185">AVERAGE(I323:K323)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M323" s="34" t="e">
+        <f>H323*1000/(B323*C323*D323)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="324" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>3</v>
+      </c>
+      <c r="B324">
+        <f t="shared" ref="B324:B328" si="186">B323</f>
+        <v>40</v>
+      </c>
+      <c r="C324">
+        <v>20</v>
+      </c>
+      <c r="D324">
+        <v>1000</v>
+      </c>
+      <c r="H324" s="29" t="e">
+        <f t="shared" si="184"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L324" s="13" t="e">
+        <f t="shared" si="185"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M324" s="34" t="e">
+        <f t="shared" ref="M324:M327" si="187">H324*1000/(B324*C324*D324)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="325" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>4</v>
+      </c>
+      <c r="B325">
+        <f t="shared" si="186"/>
+        <v>40</v>
+      </c>
+      <c r="C325">
+        <v>30</v>
+      </c>
+      <c r="D325">
+        <v>1000</v>
+      </c>
+      <c r="H325" s="29" t="e">
+        <f t="shared" si="184"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L325" s="13" t="e">
+        <f t="shared" si="185"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M325" s="34" t="e">
+        <f t="shared" si="187"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="326" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>5</v>
+      </c>
+      <c r="B326">
+        <f t="shared" si="186"/>
+        <v>40</v>
+      </c>
+      <c r="C326">
+        <v>40</v>
+      </c>
+      <c r="D326">
+        <v>1000</v>
+      </c>
+      <c r="H326" s="29" t="e">
+        <f t="shared" si="184"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L326" s="13" t="e">
+        <f t="shared" si="185"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M326" s="34" t="e">
+        <f t="shared" si="187"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="327" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>6</v>
+      </c>
+      <c r="B327">
+        <f t="shared" si="186"/>
+        <v>40</v>
+      </c>
+      <c r="C327">
+        <v>45</v>
+      </c>
+      <c r="D327">
+        <v>1000</v>
+      </c>
+      <c r="H327" s="29" t="e">
+        <f t="shared" si="184"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L327" s="13" t="e">
+        <f t="shared" si="185"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M327" s="34" t="e">
+        <f t="shared" si="187"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="328" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>18</v>
+      </c>
+      <c r="B328">
+        <f t="shared" si="186"/>
+        <v>40</v>
+      </c>
+      <c r="C328">
+        <v>46</v>
+      </c>
+      <c r="D328">
+        <v>1000</v>
+      </c>
+      <c r="H328" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="L328" s="13"/>
+      <c r="M328" s="34"/>
+    </row>
+    <row r="331" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B331" s="45">
+        <v>50</v>
+      </c>
+      <c r="F331" s="35"/>
+      <c r="H331" s="36"/>
+      <c r="L331" s="37"/>
+      <c r="M331" s="37"/>
+      <c r="AA331" s="37"/>
+    </row>
+    <row r="333" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A333" s="31"/>
+      <c r="B333" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C333" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D333" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E333" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F333" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G333" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H333" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I333" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J333" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="K333" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L333" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="M333" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="334" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>1</v>
+      </c>
+      <c r="B334">
+        <f>B331</f>
+        <v>50</v>
+      </c>
+      <c r="C334">
+        <v>1</v>
+      </c>
+      <c r="D334">
+        <v>1000</v>
+      </c>
+      <c r="H334" s="29" t="e">
+        <f>AVERAGE(E334:G334)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I334" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J334" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K334" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L334" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M334" s="34" t="e">
+        <f>H334*1000/(B334*C334*D334)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="335" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>2</v>
+      </c>
+      <c r="B335">
+        <f>B334</f>
+        <v>50</v>
+      </c>
+      <c r="C335">
+        <v>10</v>
+      </c>
+      <c r="D335">
+        <v>1000</v>
+      </c>
+      <c r="H335" s="29" t="e">
+        <f t="shared" ref="H335:H339" si="188">AVERAGE(E335:G335)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I335" s="38"/>
+      <c r="J335" s="5"/>
+      <c r="K335" s="38"/>
+      <c r="L335" s="13" t="e">
+        <f t="shared" ref="L335:L339" si="189">AVERAGE(I335:K335)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M335" s="34" t="e">
+        <f>H335*1000/(B335*C335*D335)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="336" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>3</v>
+      </c>
+      <c r="B336">
+        <f t="shared" ref="B336:B340" si="190">B335</f>
+        <v>50</v>
+      </c>
+      <c r="C336">
+        <v>20</v>
+      </c>
+      <c r="D336">
+        <v>1000</v>
+      </c>
+      <c r="H336" s="29" t="e">
+        <f t="shared" si="188"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L336" s="13" t="e">
+        <f t="shared" si="189"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M336" s="34" t="e">
+        <f t="shared" ref="M336:M339" si="191">H336*1000/(B336*C336*D336)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="337" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>4</v>
+      </c>
+      <c r="B337">
+        <f t="shared" si="190"/>
+        <v>50</v>
+      </c>
+      <c r="C337">
+        <v>30</v>
+      </c>
+      <c r="D337">
+        <v>1000</v>
+      </c>
+      <c r="H337" s="29" t="e">
+        <f t="shared" si="188"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L337" s="13" t="e">
+        <f t="shared" si="189"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M337" s="34" t="e">
+        <f t="shared" si="191"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="338" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>5</v>
+      </c>
+      <c r="B338">
+        <f t="shared" si="190"/>
+        <v>50</v>
+      </c>
+      <c r="C338">
+        <v>40</v>
+      </c>
+      <c r="D338">
+        <v>1000</v>
+      </c>
+      <c r="H338" s="29" t="e">
+        <f t="shared" si="188"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L338" s="13" t="e">
+        <f t="shared" si="189"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M338" s="34" t="e">
+        <f t="shared" si="191"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="339" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>6</v>
+      </c>
+      <c r="B339">
+        <f t="shared" si="190"/>
+        <v>50</v>
+      </c>
+      <c r="C339">
+        <v>45</v>
+      </c>
+      <c r="D339">
+        <v>1000</v>
+      </c>
+      <c r="H339" s="29" t="e">
+        <f t="shared" si="188"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L339" s="13" t="e">
+        <f t="shared" si="189"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M339" s="34" t="e">
+        <f t="shared" si="191"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="340" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>18</v>
+      </c>
+      <c r="B340">
+        <f t="shared" si="190"/>
+        <v>50</v>
+      </c>
+      <c r="C340">
+        <v>46</v>
+      </c>
+      <c r="D340">
+        <v>1000</v>
+      </c>
+      <c r="H340" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="L340" s="13"/>
+      <c r="M340" s="34"/>
+    </row>
+    <row r="343" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B343" s="45">
+        <v>60</v>
+      </c>
+      <c r="F343" s="35"/>
+      <c r="H343" s="36"/>
+      <c r="L343" s="37"/>
+      <c r="M343" s="37"/>
+      <c r="AA343" s="37"/>
+    </row>
+    <row r="345" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A345" s="31"/>
+      <c r="B345" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C345" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D345" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E345" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F345" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G345" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H345" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I345" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J345" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="K345" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L345" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="M345" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="346" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>1</v>
+      </c>
+      <c r="B346">
+        <f>B343</f>
+        <v>60</v>
+      </c>
+      <c r="C346">
+        <v>1</v>
+      </c>
+      <c r="D346">
+        <v>1000</v>
+      </c>
+      <c r="H346" s="29" t="e">
+        <f>AVERAGE(E346:G346)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I346" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J346" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K346" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L346" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M346" s="34" t="e">
+        <f>H346*1000/(B346*C346*D346)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="347" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>2</v>
+      </c>
+      <c r="B347">
+        <f>B346</f>
+        <v>60</v>
+      </c>
+      <c r="C347">
+        <v>10</v>
+      </c>
+      <c r="D347">
+        <v>1000</v>
+      </c>
+      <c r="H347" s="29" t="e">
+        <f t="shared" ref="H347:H351" si="192">AVERAGE(E347:G347)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I347" s="38"/>
+      <c r="J347" s="5"/>
+      <c r="K347" s="38"/>
+      <c r="L347" s="13" t="e">
+        <f t="shared" ref="L347:L351" si="193">AVERAGE(I347:K347)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M347" s="34" t="e">
+        <f>H347*1000/(B347*C347*D347)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="348" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>3</v>
+      </c>
+      <c r="B348">
+        <f t="shared" ref="B348:B352" si="194">B347</f>
+        <v>60</v>
+      </c>
+      <c r="C348">
+        <v>20</v>
+      </c>
+      <c r="D348">
+        <v>1000</v>
+      </c>
+      <c r="H348" s="29" t="e">
+        <f t="shared" si="192"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L348" s="13" t="e">
+        <f t="shared" si="193"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M348" s="34" t="e">
+        <f t="shared" ref="M348:M351" si="195">H348*1000/(B348*C348*D348)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="349" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>4</v>
+      </c>
+      <c r="B349">
+        <f t="shared" si="194"/>
+        <v>60</v>
+      </c>
+      <c r="C349">
+        <v>30</v>
+      </c>
+      <c r="D349">
+        <v>1000</v>
+      </c>
+      <c r="H349" s="29" t="e">
+        <f t="shared" si="192"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L349" s="13" t="e">
+        <f t="shared" si="193"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M349" s="34" t="e">
+        <f t="shared" si="195"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="350" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>5</v>
+      </c>
+      <c r="B350">
+        <f t="shared" si="194"/>
+        <v>60</v>
+      </c>
+      <c r="C350">
+        <v>40</v>
+      </c>
+      <c r="D350">
+        <v>1000</v>
+      </c>
+      <c r="H350" s="29" t="e">
+        <f t="shared" si="192"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L350" s="13" t="e">
+        <f t="shared" si="193"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M350" s="34" t="e">
+        <f t="shared" si="195"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="351" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>6</v>
+      </c>
+      <c r="B351">
+        <f t="shared" si="194"/>
+        <v>60</v>
+      </c>
+      <c r="C351">
+        <v>45</v>
+      </c>
+      <c r="D351">
+        <v>1000</v>
+      </c>
+      <c r="H351" s="29" t="e">
+        <f t="shared" si="192"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L351" s="13" t="e">
+        <f t="shared" si="193"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M351" s="34" t="e">
+        <f t="shared" si="195"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="352" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>18</v>
+      </c>
+      <c r="B352">
+        <f t="shared" si="194"/>
+        <v>60</v>
+      </c>
+      <c r="C352">
+        <v>46</v>
+      </c>
+      <c r="D352">
+        <v>1000</v>
+      </c>
+      <c r="H352" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="L352" s="13"/>
+      <c r="M352" s="34"/>
+    </row>
+    <row r="355" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B355" s="45">
+        <v>70</v>
+      </c>
+      <c r="F355" s="35"/>
+      <c r="H355" s="36"/>
+      <c r="L355" s="37"/>
+      <c r="M355" s="37"/>
+      <c r="AA355" s="37"/>
+    </row>
+    <row r="357" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A357" s="31"/>
+      <c r="B357" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C357" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D357" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E357" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F357" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G357" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H357" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I357" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J357" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="K357" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L357" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="M357" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="358" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>1</v>
+      </c>
+      <c r="B358">
+        <f>B355</f>
+        <v>70</v>
+      </c>
+      <c r="C358">
+        <v>1</v>
+      </c>
+      <c r="D358">
+        <v>1000</v>
+      </c>
+      <c r="H358" s="29" t="e">
+        <f>AVERAGE(E358:G358)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I358" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J358" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K358" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L358" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M358" s="34" t="e">
+        <f>H358*1000/(B358*C358*D358)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="359" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>2</v>
+      </c>
+      <c r="B359">
+        <f>B358</f>
+        <v>70</v>
+      </c>
+      <c r="C359">
+        <v>10</v>
+      </c>
+      <c r="D359">
+        <v>1000</v>
+      </c>
+      <c r="H359" s="29" t="e">
+        <f t="shared" ref="H359:H363" si="196">AVERAGE(E359:G359)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I359" s="38"/>
+      <c r="J359" s="5"/>
+      <c r="K359" s="38"/>
+      <c r="L359" s="13" t="e">
+        <f t="shared" ref="L359:L363" si="197">AVERAGE(I359:K359)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M359" s="34" t="e">
+        <f>H359*1000/(B359*C359*D359)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="360" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>3</v>
+      </c>
+      <c r="B360">
+        <f t="shared" ref="B360:B364" si="198">B359</f>
+        <v>70</v>
+      </c>
+      <c r="C360">
+        <v>20</v>
+      </c>
+      <c r="D360">
+        <v>1000</v>
+      </c>
+      <c r="H360" s="29" t="e">
+        <f t="shared" si="196"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L360" s="13" t="e">
+        <f t="shared" si="197"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M360" s="34" t="e">
+        <f t="shared" ref="M360:M363" si="199">H360*1000/(B360*C360*D360)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="361" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>4</v>
+      </c>
+      <c r="B361">
+        <f t="shared" si="198"/>
+        <v>70</v>
+      </c>
+      <c r="C361">
+        <v>30</v>
+      </c>
+      <c r="D361">
+        <v>1000</v>
+      </c>
+      <c r="H361" s="29" t="e">
+        <f t="shared" si="196"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L361" s="13" t="e">
+        <f t="shared" si="197"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M361" s="34" t="e">
+        <f t="shared" si="199"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="362" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>5</v>
+      </c>
+      <c r="B362">
+        <f t="shared" si="198"/>
+        <v>70</v>
+      </c>
+      <c r="C362">
+        <v>40</v>
+      </c>
+      <c r="D362">
+        <v>1000</v>
+      </c>
+      <c r="H362" s="29" t="e">
+        <f t="shared" si="196"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L362" s="13" t="e">
+        <f t="shared" si="197"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M362" s="34" t="e">
+        <f t="shared" si="199"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="363" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>6</v>
+      </c>
+      <c r="B363">
+        <f t="shared" si="198"/>
+        <v>70</v>
+      </c>
+      <c r="C363">
+        <v>45</v>
+      </c>
+      <c r="D363">
+        <v>1000</v>
+      </c>
+      <c r="H363" s="29" t="e">
+        <f t="shared" si="196"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L363" s="13" t="e">
+        <f t="shared" si="197"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M363" s="34" t="e">
+        <f t="shared" si="199"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="364" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>18</v>
+      </c>
+      <c r="B364">
+        <f t="shared" si="198"/>
+        <v>70</v>
+      </c>
+      <c r="C364">
+        <v>46</v>
+      </c>
+      <c r="D364">
+        <v>1000</v>
+      </c>
+      <c r="H364" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="L364" s="13"/>
+      <c r="M364" s="34"/>
+    </row>
+    <row r="367" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B367" s="45">
+        <v>80</v>
+      </c>
+      <c r="F367" s="35"/>
+      <c r="H367" s="36"/>
+      <c r="L367" s="37"/>
+      <c r="M367" s="37"/>
+      <c r="AA367" s="37"/>
+    </row>
+    <row r="369" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A369" s="31"/>
+      <c r="B369" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C369" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D369" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E369" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F369" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G369" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H369" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I369" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J369" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="K369" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L369" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="M369" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="370" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>1</v>
+      </c>
+      <c r="B370">
+        <f>B367</f>
+        <v>80</v>
+      </c>
+      <c r="C370">
+        <v>1</v>
+      </c>
+      <c r="D370">
+        <v>1000</v>
+      </c>
+      <c r="H370" s="29" t="e">
+        <f>AVERAGE(E370:G370)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I370" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J370" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K370" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L370" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M370" s="34" t="e">
+        <f>H370*1000/(B370*C370*D370)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="371" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>2</v>
+      </c>
+      <c r="B371">
+        <f>B370</f>
+        <v>80</v>
+      </c>
+      <c r="C371">
+        <v>10</v>
+      </c>
+      <c r="D371">
+        <v>1000</v>
+      </c>
+      <c r="H371" s="29" t="e">
+        <f t="shared" ref="H371:H375" si="200">AVERAGE(E371:G371)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I371" s="38"/>
+      <c r="J371" s="5"/>
+      <c r="K371" s="38"/>
+      <c r="L371" s="13" t="e">
+        <f t="shared" ref="L371:L375" si="201">AVERAGE(I371:K371)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M371" s="34" t="e">
+        <f>H371*1000/(B371*C371*D371)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="372" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>3</v>
+      </c>
+      <c r="B372">
+        <f t="shared" ref="B372:B376" si="202">B371</f>
+        <v>80</v>
+      </c>
+      <c r="C372">
+        <v>20</v>
+      </c>
+      <c r="D372">
+        <v>1000</v>
+      </c>
+      <c r="H372" s="29" t="e">
+        <f t="shared" si="200"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L372" s="13" t="e">
+        <f t="shared" si="201"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M372" s="34" t="e">
+        <f t="shared" ref="M372:M375" si="203">H372*1000/(B372*C372*D372)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="373" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>4</v>
+      </c>
+      <c r="B373">
+        <f t="shared" si="202"/>
+        <v>80</v>
+      </c>
+      <c r="C373">
+        <v>30</v>
+      </c>
+      <c r="D373">
+        <v>1000</v>
+      </c>
+      <c r="H373" s="29" t="e">
+        <f t="shared" si="200"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L373" s="13" t="e">
+        <f t="shared" si="201"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M373" s="34" t="e">
+        <f t="shared" si="203"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="374" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>5</v>
+      </c>
+      <c r="B374">
+        <f t="shared" si="202"/>
+        <v>80</v>
+      </c>
+      <c r="C374">
+        <v>40</v>
+      </c>
+      <c r="D374">
+        <v>1000</v>
+      </c>
+      <c r="H374" s="29" t="e">
+        <f t="shared" si="200"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L374" s="13" t="e">
+        <f t="shared" si="201"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M374" s="34" t="e">
+        <f t="shared" si="203"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="375" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>6</v>
+      </c>
+      <c r="B375">
+        <f t="shared" si="202"/>
+        <v>80</v>
+      </c>
+      <c r="C375">
+        <v>45</v>
+      </c>
+      <c r="D375">
+        <v>1000</v>
+      </c>
+      <c r="H375" s="29" t="e">
+        <f t="shared" si="200"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L375" s="13" t="e">
+        <f t="shared" si="201"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M375" s="34" t="e">
+        <f t="shared" si="203"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="376" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>18</v>
+      </c>
+      <c r="B376">
+        <f t="shared" si="202"/>
+        <v>80</v>
+      </c>
+      <c r="C376">
+        <v>46</v>
+      </c>
+      <c r="D376">
+        <v>1000</v>
+      </c>
+      <c r="H376" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="L376" s="13"/>
+      <c r="M376" s="34"/>
+    </row>
+    <row r="379" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B379" s="45">
+        <v>90</v>
+      </c>
+      <c r="F379" s="35"/>
+      <c r="H379" s="36"/>
+      <c r="L379" s="37"/>
+      <c r="M379" s="37"/>
+      <c r="AA379" s="37"/>
+    </row>
+    <row r="381" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A381" s="31"/>
+      <c r="B381" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C381" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D381" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E381" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F381" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G381" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H381" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I381" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J381" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="K381" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L381" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="M381" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="382" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>1</v>
+      </c>
+      <c r="B382">
+        <f>B379</f>
+        <v>90</v>
+      </c>
+      <c r="C382">
+        <v>1</v>
+      </c>
+      <c r="D382">
+        <v>1000</v>
+      </c>
+      <c r="H382" s="29" t="e">
+        <f>AVERAGE(E382:G382)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I382" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J382" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K382" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L382" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M382" s="34" t="e">
+        <f>H382*1000/(B382*C382*D382)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="383" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>2</v>
+      </c>
+      <c r="B383">
+        <f>B382</f>
+        <v>90</v>
+      </c>
+      <c r="C383">
+        <v>10</v>
+      </c>
+      <c r="D383">
+        <v>1000</v>
+      </c>
+      <c r="H383" s="29" t="e">
+        <f t="shared" ref="H383:H387" si="204">AVERAGE(E383:G383)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I383" s="38"/>
+      <c r="J383" s="5"/>
+      <c r="K383" s="38"/>
+      <c r="L383" s="13" t="e">
+        <f t="shared" ref="L383:L387" si="205">AVERAGE(I383:K383)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M383" s="34" t="e">
+        <f>H383*1000/(B383*C383*D383)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="384" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>3</v>
+      </c>
+      <c r="B384">
+        <f t="shared" ref="B384:B388" si="206">B383</f>
+        <v>90</v>
+      </c>
+      <c r="C384">
+        <v>20</v>
+      </c>
+      <c r="D384">
+        <v>1000</v>
+      </c>
+      <c r="H384" s="29" t="e">
+        <f t="shared" si="204"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L384" s="13" t="e">
+        <f t="shared" si="205"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M384" s="34" t="e">
+        <f t="shared" ref="M384:M387" si="207">H384*1000/(B384*C384*D384)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="385" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>4</v>
+      </c>
+      <c r="B385">
+        <f t="shared" si="206"/>
+        <v>90</v>
+      </c>
+      <c r="C385">
+        <v>30</v>
+      </c>
+      <c r="D385">
+        <v>1000</v>
+      </c>
+      <c r="H385" s="29" t="e">
+        <f t="shared" si="204"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L385" s="13" t="e">
+        <f t="shared" si="205"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M385" s="34" t="e">
+        <f t="shared" si="207"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="386" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>5</v>
+      </c>
+      <c r="B386">
+        <f t="shared" si="206"/>
+        <v>90</v>
+      </c>
+      <c r="C386">
+        <v>40</v>
+      </c>
+      <c r="D386">
+        <v>1000</v>
+      </c>
+      <c r="H386" s="29" t="e">
+        <f t="shared" si="204"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L386" s="13" t="e">
+        <f t="shared" si="205"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M386" s="34" t="e">
+        <f t="shared" si="207"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="387" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>6</v>
+      </c>
+      <c r="B387">
+        <f t="shared" si="206"/>
+        <v>90</v>
+      </c>
+      <c r="C387">
+        <v>45</v>
+      </c>
+      <c r="D387">
+        <v>1000</v>
+      </c>
+      <c r="H387" s="29" t="e">
+        <f t="shared" si="204"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L387" s="13" t="e">
+        <f t="shared" si="205"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M387" s="34" t="e">
+        <f t="shared" si="207"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="388" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>18</v>
+      </c>
+      <c r="B388">
+        <f t="shared" si="206"/>
+        <v>90</v>
+      </c>
+      <c r="C388">
+        <v>46</v>
+      </c>
+      <c r="D388">
+        <v>1000</v>
+      </c>
+      <c r="H388" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="L388" s="13"/>
+      <c r="M388" s="34"/>
+    </row>
+    <row r="391" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A391" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B391" s="45">
+        <v>100</v>
+      </c>
+      <c r="F391" s="35"/>
+      <c r="H391" s="36"/>
+      <c r="L391" s="37"/>
+      <c r="M391" s="37"/>
+      <c r="AA391" s="37"/>
+    </row>
+    <row r="393" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A393" s="31"/>
+      <c r="B393" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C393" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D393" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E393" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F393" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G393" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H393" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I393" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J393" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="K393" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L393" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="M393" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="394" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>1</v>
+      </c>
+      <c r="B394">
+        <f>B391</f>
+        <v>100</v>
+      </c>
+      <c r="C394">
+        <v>1</v>
+      </c>
+      <c r="D394">
+        <v>1000</v>
+      </c>
+      <c r="H394" s="29" t="e">
+        <f>AVERAGE(E394:G394)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I394" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J394" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K394" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L394" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M394" s="34" t="e">
+        <f>H394*1000/(B394*C394*D394)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="395" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>2</v>
+      </c>
+      <c r="B395">
+        <f>B394</f>
+        <v>100</v>
+      </c>
+      <c r="C395">
+        <v>2</v>
+      </c>
+      <c r="D395">
+        <v>1000</v>
+      </c>
+      <c r="H395" s="29" t="e">
+        <f t="shared" ref="H395:H399" si="208">AVERAGE(E395:G395)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I395" s="38"/>
+      <c r="J395" s="5"/>
+      <c r="K395" s="38"/>
+      <c r="L395" s="13" t="e">
+        <f t="shared" ref="L395:L399" si="209">AVERAGE(I395:K395)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M395" s="34" t="e">
+        <f>H395*1000/(B395*C395*D395)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="396" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>3</v>
+      </c>
+      <c r="B396">
+        <f t="shared" ref="B396:B400" si="210">B395</f>
+        <v>100</v>
+      </c>
+      <c r="C396">
+        <v>3</v>
+      </c>
+      <c r="D396">
+        <v>1000</v>
+      </c>
+      <c r="H396" s="29" t="e">
+        <f t="shared" si="208"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L396" s="13" t="e">
+        <f t="shared" si="209"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M396" s="34" t="e">
+        <f t="shared" ref="M396:M399" si="211">H396*1000/(B396*C396*D396)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="397" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>4</v>
+      </c>
+      <c r="B397">
+        <f t="shared" si="210"/>
+        <v>100</v>
+      </c>
+      <c r="C397">
+        <v>4</v>
+      </c>
+      <c r="D397">
+        <v>1000</v>
+      </c>
+      <c r="H397" s="29" t="e">
+        <f t="shared" si="208"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L397" s="13" t="e">
+        <f t="shared" si="209"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M397" s="34" t="e">
+        <f t="shared" si="211"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="398" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>5</v>
+      </c>
+      <c r="B398">
+        <f t="shared" si="210"/>
+        <v>100</v>
+      </c>
+      <c r="C398">
+        <v>5</v>
+      </c>
+      <c r="D398">
+        <v>1000</v>
+      </c>
+      <c r="H398" s="29" t="e">
+        <f t="shared" si="208"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L398" s="13" t="e">
+        <f t="shared" si="209"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M398" s="34" t="e">
+        <f t="shared" si="211"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="399" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>6</v>
+      </c>
+      <c r="B399">
+        <f t="shared" si="210"/>
+        <v>100</v>
+      </c>
+      <c r="C399">
+        <v>6</v>
+      </c>
+      <c r="D399">
+        <v>1000</v>
+      </c>
+      <c r="E399">
+        <v>12.7</v>
+      </c>
+      <c r="F399">
+        <v>12.8</v>
+      </c>
+      <c r="G399">
+        <v>12.8</v>
+      </c>
+      <c r="H399" s="29">
+        <f t="shared" si="208"/>
+        <v>12.766666666666666</v>
+      </c>
+      <c r="I399">
+        <v>13</v>
+      </c>
+      <c r="J399">
+        <v>9</v>
+      </c>
+      <c r="K399">
+        <v>9</v>
+      </c>
+      <c r="L399" s="13">
+        <f t="shared" si="209"/>
+        <v>10.333333333333334</v>
+      </c>
+      <c r="M399" s="34">
+        <f t="shared" si="211"/>
+        <v>2.1277777777777777E-2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>18</v>
+      </c>
+      <c r="B400">
+        <f t="shared" si="210"/>
+        <v>100</v>
+      </c>
+      <c r="C400">
+        <v>7</v>
+      </c>
+      <c r="D400">
+        <v>1000</v>
+      </c>
+      <c r="H400" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="L400" s="13"/>
+      <c r="M400" s="34"/>
+    </row>
+    <row r="402" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A402" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B402" s="45">
+        <v>150</v>
+      </c>
+      <c r="F402" s="35"/>
+      <c r="H402" s="36"/>
+      <c r="L402" s="37"/>
+      <c r="M402" s="37"/>
+      <c r="AA402" s="37"/>
+    </row>
+    <row r="404" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A404" s="31"/>
+      <c r="B404" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C404" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D404" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E404" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F404" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G404" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H404" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I404" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J404" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="K404" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L404" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="M404" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="405" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>1</v>
+      </c>
+      <c r="B405">
+        <f>B402</f>
+        <v>150</v>
+      </c>
+      <c r="C405">
+        <v>1</v>
+      </c>
+      <c r="D405">
+        <v>1000</v>
+      </c>
+      <c r="H405" s="29" t="e">
+        <f>AVERAGE(E405:G405)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I405" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J405" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K405" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L405" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M405" s="34" t="e">
+        <f>H405*1000/(B405*C405*D405)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="406" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>2</v>
+      </c>
+      <c r="B406">
+        <f>B405</f>
+        <v>150</v>
+      </c>
+      <c r="C406">
+        <v>2</v>
+      </c>
+      <c r="D406">
+        <v>1000</v>
+      </c>
+      <c r="H406" s="29" t="e">
+        <f t="shared" ref="H406:H408" si="212">AVERAGE(E406:G406)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I406" s="38"/>
+      <c r="J406" s="5"/>
+      <c r="K406" s="38"/>
+      <c r="L406" s="13" t="e">
+        <f t="shared" ref="L406:L408" si="213">AVERAGE(I406:K406)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M406" s="34" t="e">
+        <f>H406*1000/(B406*C406*D406)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="407" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>3</v>
+      </c>
+      <c r="B407">
+        <f t="shared" ref="B407:B408" si="214">B406</f>
+        <v>150</v>
+      </c>
+      <c r="C407">
+        <v>3</v>
+      </c>
+      <c r="D407">
+        <v>1000</v>
+      </c>
+      <c r="H407" s="29" t="e">
+        <f t="shared" si="212"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L407" s="13" t="e">
+        <f t="shared" si="213"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M407" s="34" t="e">
+        <f t="shared" ref="M407:M408" si="215">H407*1000/(B407*C407*D407)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="408" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>4</v>
+      </c>
+      <c r="B408">
+        <f t="shared" si="214"/>
+        <v>150</v>
+      </c>
+      <c r="C408">
+        <v>4</v>
+      </c>
+      <c r="D408">
+        <v>1000</v>
+      </c>
+      <c r="E408">
+        <v>13.3</v>
+      </c>
+      <c r="F408">
+        <v>12</v>
+      </c>
+      <c r="G408">
+        <v>12.1</v>
+      </c>
+      <c r="H408" s="29">
+        <f t="shared" si="212"/>
+        <v>12.466666666666667</v>
+      </c>
+      <c r="I408">
+        <v>12</v>
+      </c>
+      <c r="J408">
+        <v>13</v>
+      </c>
+      <c r="K408">
+        <v>9</v>
+      </c>
+      <c r="L408" s="13">
+        <f t="shared" si="213"/>
+        <v>11.333333333333334</v>
+      </c>
+      <c r="M408" s="34">
+        <f t="shared" si="215"/>
+        <v>2.0777777777777777E-2</v>
+      </c>
+    </row>
+    <row r="409" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>18</v>
+      </c>
+      <c r="B409">
+        <f>B408</f>
+        <v>150</v>
+      </c>
+      <c r="C409">
+        <v>5</v>
+      </c>
+      <c r="D409">
+        <v>1000</v>
+      </c>
+      <c r="H409" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="L409" s="13"/>
+      <c r="M409" s="34"/>
+    </row>
+    <row r="412" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A412" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B412" s="45">
+        <v>200</v>
+      </c>
+      <c r="F412" s="35"/>
+      <c r="H412" s="36"/>
+      <c r="L412" s="37"/>
+      <c r="M412" s="37"/>
+      <c r="AA412" s="37"/>
+    </row>
+    <row r="414" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A414" s="31"/>
+      <c r="B414" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C414" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D414" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E414" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F414" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G414" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H414" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I414" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J414" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="K414" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L414" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="M414" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="415" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>1</v>
+      </c>
+      <c r="B415">
+        <f>B412</f>
+        <v>200</v>
+      </c>
+      <c r="C415">
+        <v>1</v>
+      </c>
+      <c r="D415">
+        <v>1000</v>
+      </c>
+      <c r="H415" s="29" t="e">
+        <f>AVERAGE(E415:G415)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I415" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J415" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K415" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L415" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M415" s="34" t="e">
+        <f>H415*1000/(B415*C415*D415)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="416" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>2</v>
+      </c>
+      <c r="B416">
+        <f>B415</f>
+        <v>200</v>
+      </c>
+      <c r="C416">
+        <v>2</v>
+      </c>
+      <c r="D416">
+        <v>1000</v>
+      </c>
+      <c r="H416" s="29" t="e">
+        <f t="shared" ref="H416:H417" si="216">AVERAGE(E416:G416)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I416" s="38"/>
+      <c r="J416" s="5"/>
+      <c r="K416" s="38"/>
+      <c r="L416" s="13" t="e">
+        <f t="shared" ref="L416:L417" si="217">AVERAGE(I416:K416)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M416" s="34" t="e">
+        <f>H416*1000/(B416*C416*D416)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="417" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>3</v>
+      </c>
+      <c r="B417">
+        <f t="shared" ref="B417" si="218">B416</f>
+        <v>200</v>
+      </c>
+      <c r="C417">
+        <v>3</v>
+      </c>
+      <c r="D417">
+        <v>1000</v>
+      </c>
+      <c r="E417">
+        <v>13.2</v>
+      </c>
+      <c r="F417">
+        <v>13.3</v>
+      </c>
+      <c r="H417" s="29">
+        <f t="shared" si="216"/>
+        <v>13.25</v>
+      </c>
+      <c r="I417">
+        <v>10</v>
+      </c>
+      <c r="J417">
+        <v>10</v>
+      </c>
+      <c r="K417">
+        <v>10</v>
+      </c>
+      <c r="L417" s="13">
+        <f t="shared" si="217"/>
+        <v>10</v>
+      </c>
+      <c r="M417" s="34">
+        <f t="shared" ref="M417" si="219">H417*1000/(B417*C417*D417)</f>
+        <v>2.2083333333333333E-2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>18</v>
+      </c>
+      <c r="B418">
+        <f>B417</f>
+        <v>200</v>
+      </c>
+      <c r="C418">
+        <v>4</v>
+      </c>
+      <c r="D418">
+        <v>1000</v>
+      </c>
+      <c r="H418" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="L418" s="13"/>
+      <c r="M418" s="34"/>
+    </row>
+    <row r="420" spans="1:43" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A420" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B420" s="45">
+        <v>300</v>
+      </c>
+      <c r="F420" s="35"/>
+      <c r="H420" s="36"/>
+      <c r="L420" s="37"/>
+      <c r="M420" s="37"/>
+      <c r="AA420" s="37"/>
+    </row>
+    <row r="422" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A422" s="31"/>
+      <c r="B422" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C422" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D422" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E422" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F422" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G422" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H422" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I422" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J422" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="K422" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L422" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="M422" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="423" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>1</v>
+      </c>
+      <c r="B423">
+        <f>B420</f>
+        <v>300</v>
+      </c>
+      <c r="C423">
+        <v>1</v>
+      </c>
+      <c r="D423">
+        <v>1000</v>
+      </c>
+      <c r="H423" s="29" t="e">
+        <f>AVERAGE(E423:G423)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I423" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J423" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K423" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L423" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M423" s="34" t="e">
+        <f>H423*1000/(B423*C423*D423)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="424" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>2</v>
+      </c>
+      <c r="B424">
+        <f>B423</f>
+        <v>300</v>
+      </c>
+      <c r="C424">
+        <v>2</v>
+      </c>
+      <c r="D424">
+        <v>1000</v>
+      </c>
+      <c r="E424">
+        <v>12.8</v>
+      </c>
+      <c r="F424">
+        <v>12.9</v>
+      </c>
+      <c r="G424">
+        <v>12.8</v>
+      </c>
+      <c r="H424" s="29">
+        <f t="shared" ref="H424" si="220">AVERAGE(E424:G424)</f>
+        <v>12.833333333333334</v>
+      </c>
+      <c r="I424" s="38">
+        <v>13</v>
+      </c>
+      <c r="J424" s="5">
+        <v>9</v>
+      </c>
+      <c r="K424" s="38">
+        <v>13</v>
+      </c>
+      <c r="L424" s="13">
+        <f t="shared" ref="L424" si="221">AVERAGE(I424:K424)</f>
+        <v>11.666666666666666</v>
+      </c>
+      <c r="M424" s="34">
+        <f>H424*1000/(B424*C424*D424)</f>
+        <v>2.1388888888888891E-2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>18</v>
+      </c>
+      <c r="B425">
+        <f>B424</f>
+        <v>300</v>
+      </c>
+      <c r="C425">
+        <v>3</v>
+      </c>
+      <c r="D425">
+        <v>1000</v>
+      </c>
+      <c r="H425" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="L425" s="13"/>
+      <c r="M425" s="34"/>
+    </row>
+    <row r="428" spans="1:43" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A428" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B428" s="45">
+        <v>400</v>
+      </c>
+      <c r="F428" s="35"/>
+      <c r="H428" s="36"/>
+      <c r="L428" s="37"/>
+      <c r="M428" s="37"/>
+      <c r="AA428" s="37"/>
+    </row>
+    <row r="430" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A430" s="31"/>
+      <c r="B430" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C430" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D430" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E430" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F430" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G430" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H430" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I430" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J430" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="K430" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L430" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="M430" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="P430" s="31"/>
+      <c r="Q430" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="R430" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="S430" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T430" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="U430" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="V430" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="W430" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="X430" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y430" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z430" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA430" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB430" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE430" s="31"/>
+      <c r="AF430" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG430" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH430" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI430" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ430" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK430" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL430" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM430" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN430" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO430" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP430" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ430" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="431" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>1</v>
+      </c>
+      <c r="B431">
+        <f>B428</f>
+        <v>400</v>
+      </c>
+      <c r="C431">
+        <v>1</v>
+      </c>
+      <c r="D431">
+        <v>1000</v>
+      </c>
+      <c r="E431">
+        <v>12</v>
+      </c>
+      <c r="F431">
+        <v>12.1</v>
+      </c>
+      <c r="G431">
+        <v>12.6</v>
+      </c>
+      <c r="H431" s="29">
+        <f>AVERAGE(E431:G431)</f>
+        <v>12.233333333333334</v>
+      </c>
+      <c r="I431" s="5">
+        <v>10</v>
+      </c>
+      <c r="J431" s="5">
+        <v>6</v>
+      </c>
+      <c r="K431" s="5">
+        <v>13</v>
+      </c>
+      <c r="L431" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M431" s="34">
+        <f>H431*1000/(B431*C431*D431)</f>
+        <v>3.0583333333333334E-2</v>
+      </c>
+      <c r="P431">
+        <v>1</v>
+      </c>
+      <c r="Q431">
+        <f>B428</f>
+        <v>400</v>
+      </c>
+      <c r="R431">
+        <v>1</v>
+      </c>
+      <c r="S431">
+        <v>10000</v>
+      </c>
+      <c r="T431">
+        <v>140</v>
+      </c>
+      <c r="U431">
+        <v>140</v>
+      </c>
+      <c r="V431">
+        <v>140</v>
+      </c>
+      <c r="W431" s="29">
+        <f>AVERAGE(T431:V431)</f>
+        <v>140</v>
+      </c>
+      <c r="X431" s="5">
+        <v>116</v>
+      </c>
+      <c r="Y431" s="5">
+        <v>114</v>
+      </c>
+      <c r="Z431" s="5">
+        <v>110</v>
+      </c>
+      <c r="AA431" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB431" s="34">
+        <f>W431*1000/(Q431*R431*S431)</f>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AE431">
+        <v>1</v>
+      </c>
+      <c r="AF431">
+        <f>B428</f>
+        <v>400</v>
+      </c>
+      <c r="AG431">
+        <v>1</v>
+      </c>
+      <c r="AH431">
+        <v>20000</v>
+      </c>
+      <c r="AI431">
+        <v>140</v>
+      </c>
+      <c r="AJ431">
+        <v>140</v>
+      </c>
+      <c r="AK431">
+        <v>140</v>
+      </c>
+      <c r="AL431" s="29">
+        <f>AVERAGE(AI431:AK431)</f>
+        <v>140</v>
+      </c>
+      <c r="AM431" s="5">
+        <v>116</v>
+      </c>
+      <c r="AN431" s="5">
+        <v>114</v>
+      </c>
+      <c r="AO431" s="5">
+        <v>110</v>
+      </c>
+      <c r="AP431" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ431" s="34">
+        <f>AL431*1000/(AF431*AG431*AH431)</f>
+        <v>1.7500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>18</v>
+      </c>
+      <c r="B432">
+        <f>B431</f>
+        <v>400</v>
+      </c>
+      <c r="C432">
+        <v>2</v>
+      </c>
+      <c r="D432">
+        <v>1000</v>
+      </c>
+      <c r="H432" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="L432" s="13"/>
+      <c r="M432" s="34"/>
+      <c r="P432">
+        <v>18</v>
+      </c>
+      <c r="Q432">
+        <f>Q431</f>
+        <v>400</v>
+      </c>
+      <c r="R432">
+        <v>2</v>
+      </c>
+      <c r="S432">
+        <f>S431</f>
+        <v>10000</v>
+      </c>
+      <c r="W432" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA432" s="13"/>
+      <c r="AB432" s="34"/>
+      <c r="AE432">
+        <v>18</v>
+      </c>
+      <c r="AF432">
+        <f>AF431</f>
+        <v>400</v>
+      </c>
+      <c r="AG432">
+        <v>2</v>
+      </c>
+      <c r="AH432">
+        <f>AH431</f>
+        <v>20000</v>
+      </c>
+      <c r="AL432" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP432" s="13"/>
+      <c r="AQ432" s="34"/>
+    </row>
+    <row r="436" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B436" t="s">
+        <v>57</v>
+      </c>
+      <c r="C436" t="s">
+        <v>58</v>
+      </c>
+      <c r="D436" t="s">
+        <v>59</v>
+      </c>
+      <c r="E436" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="437" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C437">
+        <v>1000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/_09_PtmConvTest/Graphics.xlsx
+++ b/_09_PtmConvTest/Graphics.xlsx
@@ -2760,7 +2760,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M398" authorId="0">
+    <comment ref="M397" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2774,7 +2774,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA398" authorId="0">
+    <comment ref="AA397" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2788,7 +2788,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO398" authorId="0">
+    <comment ref="AO397" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2802,7 +2802,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BC398" authorId="0">
+    <comment ref="BC397" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2816,7 +2816,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BQ398" authorId="0">
+    <comment ref="BQ397" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2830,7 +2830,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M405" authorId="0">
+    <comment ref="CE397" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2844,7 +2844,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA405" authorId="0">
+    <comment ref="CS397" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2858,7 +2858,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO405" authorId="0">
+    <comment ref="DG397" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2872,7 +2872,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BC405" authorId="0">
+    <comment ref="DU397" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2886,7 +2886,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BQ405" authorId="0">
+    <comment ref="M406" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2900,7 +2900,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M412" authorId="0">
+    <comment ref="AA406" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2914,7 +2914,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA412" authorId="0">
+    <comment ref="AO406" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2928,7 +2928,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO412" authorId="0">
+    <comment ref="BC406" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2942,7 +2942,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BC412" authorId="0">
+    <comment ref="BQ406" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2956,7 +2956,133 @@
         </r>
       </text>
     </comment>
-    <comment ref="BQ412" authorId="0">
+    <comment ref="M413" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA413" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO413" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BC413" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BQ413" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M420" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA420" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO420" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BC420" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BQ420" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2975,7 +3101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3385" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3512" uniqueCount="70">
   <si>
     <t>--------------Характеристики расчетной сетки----------------</t>
   </si>
@@ -11474,10 +11600,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:HA414"/>
+  <dimension ref="A1:HA422"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A379" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A388" sqref="A388:XFD394"/>
+      <selection activeCell="DQ404" sqref="DQ404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -69740,7 +69866,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="385" spans="1:69" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:125" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A385" s="41">
         <v>6</v>
       </c>
@@ -69921,7 +70047,7 @@
         <v>1.8566666666666665E-2</v>
       </c>
     </row>
-    <row r="386" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>18</v>
       </c>
@@ -70013,7 +70139,7 @@
       <c r="BP386" s="13"/>
       <c r="BQ386" s="34"/>
     </row>
-    <row r="388" spans="1:69" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:125" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A388" s="39" t="s">
         <v>59</v>
       </c>
@@ -70027,7 +70153,7 @@
       <c r="AA388" s="37"/>
       <c r="BE388" s="54"/>
     </row>
-    <row r="389" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A389" s="31"/>
       <c r="B389" s="32" t="s">
         <v>11</v>
@@ -70214,7 +70340,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="390" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>1</v>
       </c>
@@ -70357,7 +70483,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="391" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>2</v>
       </c>
@@ -70499,7 +70625,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="392" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>3</v>
       </c>
@@ -70626,7 +70752,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="393" spans="1:69" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:125" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A393" s="41">
         <v>4</v>
       </c>
@@ -70807,7 +70933,7 @@
         <v>1.6149999999999998E-2</v>
       </c>
     </row>
-    <row r="394" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>18</v>
       </c>
@@ -70899,683 +71025,1399 @@
       <c r="BP394" s="13"/>
       <c r="BQ394" s="34"/>
     </row>
-    <row r="397" spans="1:69" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A397" s="39" t="s">
+    <row r="396" spans="1:125" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A396" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B397" s="40">
-        <v>200</v>
-      </c>
-      <c r="F397" s="35"/>
-      <c r="H397" s="36"/>
-      <c r="L397" s="37"/>
-      <c r="M397" s="37"/>
-      <c r="AA397" s="37"/>
+      <c r="B396" s="40">
+        <v>160</v>
+      </c>
+      <c r="F396" s="35"/>
+      <c r="H396" s="36"/>
+      <c r="L396" s="37"/>
+      <c r="M396" s="37"/>
+      <c r="AA396" s="37"/>
+      <c r="BE396" s="54"/>
+    </row>
+    <row r="397" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A397" s="31"/>
+      <c r="B397" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C397" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D397" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E397" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F397" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G397" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H397" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I397" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J397" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="K397" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L397" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="M397" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="O397" s="31"/>
+      <c r="P397" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q397" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="R397" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="S397" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="T397" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="U397" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="V397" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="W397" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="X397" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y397" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z397" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA397" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC397" s="31"/>
+      <c r="AD397" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE397" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF397" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG397" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH397" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI397" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ397" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK397" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL397" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM397" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN397" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO397" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ397" s="31"/>
+      <c r="AR397" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS397" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT397" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="AU397" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="AV397" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="AW397" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="AX397" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="AY397" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ397" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="BA397" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="BB397" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="BC397" s="33" t="s">
+        <v>45</v>
+      </c>
       <c r="BE397" s="54"/>
+      <c r="BF397" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="BG397" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH397" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="BI397" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="BJ397" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="BK397" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="BL397" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="BM397" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="BN397" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO397" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="BP397" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="BQ397" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="BS397" s="54"/>
+      <c r="BT397" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="BU397" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="BV397" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="BW397" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="BX397" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="BY397" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="BZ397" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="CA397" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="CB397" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="CC397" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="CD397" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="CE397" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="CG397" s="54"/>
+      <c r="CH397" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="CI397" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="CJ397" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="CK397" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="CL397" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="CM397" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="CN397" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="CO397" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="CP397" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="CQ397" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="CR397" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="CS397" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="CU397" s="54"/>
+      <c r="CV397" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="CW397" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="CX397" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="CY397" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="CZ397" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="DA397" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="DB397" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="DC397" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="DD397" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="DE397" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="DF397" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="DG397" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="DI397" s="54"/>
+      <c r="DJ397" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="DK397" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="DL397" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="DM397" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="DN397" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="DO397" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="DP397" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="DQ397" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="DR397" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="DS397" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="DT397" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="DU397" s="33" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="398" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A398" s="31"/>
-      <c r="B398" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C398" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="D398" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E398" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="F398" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="G398" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="H398" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="I398" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="J398" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="K398" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="L398" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="M398" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="O398" s="31"/>
-      <c r="P398" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q398" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="R398" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="S398" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="T398" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="U398" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="V398" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="W398" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="X398" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y398" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z398" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA398" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC398" s="31"/>
-      <c r="AD398" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE398" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF398" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG398" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH398" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI398" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ398" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK398" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="AL398" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM398" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN398" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="AO398" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="AQ398" s="31"/>
-      <c r="AR398" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="AS398" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="AT398" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="AU398" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="AV398" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="AW398" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="AX398" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="AY398" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="AZ398" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="BA398" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="BB398" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="BC398" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="BE398" s="54"/>
-      <c r="BF398" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="BG398" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="BH398" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="BI398" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="BJ398" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="BK398" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="BL398" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="BM398" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="BN398" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="BO398" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="BP398" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="BQ398" s="33" t="s">
-        <v>45</v>
+    <row r="398" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>1</v>
+      </c>
+      <c r="B398">
+        <f>$B$396</f>
+        <v>160</v>
+      </c>
+      <c r="C398">
+        <v>1</v>
+      </c>
+      <c r="D398">
+        <v>1000</v>
+      </c>
+      <c r="H398" s="29" t="e">
+        <f>AVERAGE(E398:G398)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I398" s="5"/>
+      <c r="J398" s="5"/>
+      <c r="K398" s="5"/>
+      <c r="L398" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M398" s="34" t="e">
+        <f>H398*1000/(B398*C398*D398)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O398">
+        <v>1</v>
+      </c>
+      <c r="P398">
+        <f>$B$398</f>
+        <v>160</v>
+      </c>
+      <c r="Q398">
+        <v>1</v>
+      </c>
+      <c r="R398">
+        <v>2000</v>
+      </c>
+      <c r="V398" s="29" t="e">
+        <f>AVERAGE(S398:U398)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W398" s="5"/>
+      <c r="X398" s="5"/>
+      <c r="Y398" s="5"/>
+      <c r="Z398" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA398" s="34" t="e">
+        <f>V398*1000/(P398*Q398*R398)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC398">
+        <v>1</v>
+      </c>
+      <c r="AD398">
+        <f>$B$398</f>
+        <v>160</v>
+      </c>
+      <c r="AE398">
+        <v>1</v>
+      </c>
+      <c r="AF398">
+        <v>3000</v>
+      </c>
+      <c r="AJ398" s="29" t="e">
+        <f>AVERAGE(AG398:AI398)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK398" s="5"/>
+      <c r="AL398" s="5"/>
+      <c r="AM398" s="5"/>
+      <c r="AN398" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO398" s="34" t="e">
+        <f>AJ398*1000/(AD398*AE398*AF398)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ398">
+        <v>1</v>
+      </c>
+      <c r="AR398">
+        <f>$B$398</f>
+        <v>160</v>
+      </c>
+      <c r="AS398">
+        <v>1</v>
+      </c>
+      <c r="AT398">
+        <v>5000</v>
+      </c>
+      <c r="AX398" s="29" t="e">
+        <f>AVERAGE(AU398:AW398)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY398" s="5"/>
+      <c r="AZ398" s="5"/>
+      <c r="BA398" s="5"/>
+      <c r="BB398" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="BC398" s="34" t="e">
+        <f>AX398*1000/(AR398*AS398*AT398)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE398" s="53">
+        <v>1</v>
+      </c>
+      <c r="BF398">
+        <f>$B$398</f>
+        <v>160</v>
+      </c>
+      <c r="BG398">
+        <v>1</v>
+      </c>
+      <c r="BH398">
+        <v>10000</v>
+      </c>
+      <c r="BL398" s="29" t="e">
+        <f>AVERAGE(BI398:BK398)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BM398" s="5"/>
+      <c r="BN398" s="5"/>
+      <c r="BO398" s="5"/>
+      <c r="BP398" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="BQ398" s="34" t="e">
+        <f>BL398*1000/(BF398*BG398*BH398)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BS398" s="53">
+        <v>1</v>
+      </c>
+      <c r="BT398">
+        <f>$B$398</f>
+        <v>160</v>
+      </c>
+      <c r="BU398">
+        <v>1</v>
+      </c>
+      <c r="BV398">
+        <v>15000</v>
+      </c>
+      <c r="BZ398" s="29" t="e">
+        <f>AVERAGE(BW398:BY398)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CA398" s="5"/>
+      <c r="CB398" s="5"/>
+      <c r="CC398" s="5"/>
+      <c r="CD398" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="CE398" s="34" t="e">
+        <f>BZ398*1000/(BT398*BU398*BV398)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CG398" s="53">
+        <v>1</v>
+      </c>
+      <c r="CH398">
+        <f>$B$398</f>
+        <v>160</v>
+      </c>
+      <c r="CI398">
+        <v>1</v>
+      </c>
+      <c r="CJ398">
+        <v>20000</v>
+      </c>
+      <c r="CN398" s="29" t="e">
+        <f>AVERAGE(CK398:CM398)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CO398" s="5"/>
+      <c r="CP398" s="5"/>
+      <c r="CQ398" s="5"/>
+      <c r="CR398" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="CS398" s="34" t="e">
+        <f>CN398*1000/(CH398*CI398*CJ398)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CU398" s="53">
+        <v>1</v>
+      </c>
+      <c r="CV398">
+        <f>$B$398</f>
+        <v>160</v>
+      </c>
+      <c r="CW398">
+        <v>1</v>
+      </c>
+      <c r="CX398">
+        <v>25000</v>
+      </c>
+      <c r="DB398" s="29" t="e">
+        <f>AVERAGE(CY398:DA398)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DC398" s="5"/>
+      <c r="DD398" s="5"/>
+      <c r="DE398" s="5"/>
+      <c r="DF398" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="DG398" s="34" t="e">
+        <f>DB398*1000/(CV398*CW398*CX398)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DI398" s="53">
+        <v>1</v>
+      </c>
+      <c r="DJ398">
+        <f>$B$398</f>
+        <v>160</v>
+      </c>
+      <c r="DK398">
+        <v>1</v>
+      </c>
+      <c r="DL398">
+        <v>30000</v>
+      </c>
+      <c r="DP398" s="29" t="e">
+        <f>AVERAGE(DM398:DO398)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DQ398" s="5"/>
+      <c r="DR398" s="5"/>
+      <c r="DS398" s="5"/>
+      <c r="DT398" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="DU398" s="34" t="e">
+        <f>DP398*1000/(DJ398*DK398*DL398)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="399" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B399">
-        <f>$B$397</f>
-        <v>200</v>
+        <f>B398</f>
+        <v>160</v>
       </c>
       <c r="C399">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D399">
         <v>1000</v>
       </c>
       <c r="H399" s="29" t="e">
-        <f>AVERAGE(E399:G399)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I399" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J399" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K399" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L399" s="5" t="s">
-        <v>43</v>
+        <f t="shared" ref="H399:H401" si="681">AVERAGE(E399:G399)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I399" s="38"/>
+      <c r="J399" s="5"/>
+      <c r="K399" s="38"/>
+      <c r="L399" s="13" t="e">
+        <f t="shared" ref="L399:L401" si="682">AVERAGE(I399:K399)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M399" s="34" t="e">
         <f>H399*1000/(B399*C399*D399)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O399">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P399">
-        <f>$B$397</f>
-        <v>200</v>
+        <f>P398</f>
+        <v>160</v>
       </c>
       <c r="Q399">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R399">
         <v>2000</v>
       </c>
       <c r="V399" s="29" t="e">
-        <f>AVERAGE(S399:U399)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W399" s="5"/>
+        <f t="shared" ref="V399:V401" si="683">AVERAGE(S399:U399)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W399" s="38"/>
       <c r="X399" s="5"/>
-      <c r="Y399" s="5"/>
-      <c r="Z399" s="5" t="s">
-        <v>43</v>
+      <c r="Y399" s="38"/>
+      <c r="Z399" s="13" t="e">
+        <f t="shared" ref="Z399:Z401" si="684">AVERAGE(W399:Y399)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="AA399" s="34" t="e">
         <f>V399*1000/(P399*Q399*R399)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AC399">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD399">
-        <f>$B$397</f>
-        <v>200</v>
+        <f>AD398</f>
+        <v>160</v>
       </c>
       <c r="AE399">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF399">
         <v>3000</v>
       </c>
       <c r="AJ399" s="29" t="e">
-        <f>AVERAGE(AG399:AI399)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK399" s="5"/>
+        <f t="shared" ref="AJ399:AJ401" si="685">AVERAGE(AG399:AI399)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK399" s="38"/>
       <c r="AL399" s="5"/>
-      <c r="AM399" s="5"/>
-      <c r="AN399" s="5" t="s">
-        <v>43</v>
+      <c r="AM399" s="38"/>
+      <c r="AN399" s="13" t="e">
+        <f t="shared" ref="AN399:AN401" si="686">AVERAGE(AK399:AM399)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="AO399" s="34" t="e">
         <f>AJ399*1000/(AD399*AE399*AF399)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ399">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR399">
-        <f>$B$397</f>
-        <v>200</v>
+        <f>AR398</f>
+        <v>160</v>
       </c>
       <c r="AS399">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT399">
         <v>5000</v>
       </c>
       <c r="AX399" s="29" t="e">
-        <f>AVERAGE(AU399:AW399)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AY399" s="5"/>
+        <f t="shared" ref="AX399:AX401" si="687">AVERAGE(AU399:AW399)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY399" s="38"/>
       <c r="AZ399" s="5"/>
-      <c r="BA399" s="5"/>
-      <c r="BB399" s="5" t="s">
-        <v>43</v>
+      <c r="BA399" s="38"/>
+      <c r="BB399" s="13" t="e">
+        <f t="shared" ref="BB399:BB401" si="688">AVERAGE(AY399:BA399)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="BC399" s="34" t="e">
         <f>AX399*1000/(AR399*AS399*AT399)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BE399" s="53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF399">
-        <f>$B$397</f>
-        <v>200</v>
+        <f>BF398</f>
+        <v>160</v>
       </c>
       <c r="BG399">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BH399">
         <v>10000</v>
       </c>
       <c r="BL399" s="29" t="e">
-        <f>AVERAGE(BI399:BK399)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BM399" s="5"/>
+        <f t="shared" ref="BL399:BL401" si="689">AVERAGE(BI399:BK399)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BM399" s="38"/>
       <c r="BN399" s="5"/>
-      <c r="BO399" s="5"/>
-      <c r="BP399" s="5" t="s">
-        <v>43</v>
+      <c r="BO399" s="38"/>
+      <c r="BP399" s="13" t="e">
+        <f t="shared" ref="BP399:BP401" si="690">AVERAGE(BM399:BO399)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="BQ399" s="34" t="e">
         <f>BL399*1000/(BF399*BG399*BH399)</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="BS399" s="53">
+        <v>2</v>
+      </c>
+      <c r="BT399">
+        <f>BT398</f>
+        <v>160</v>
+      </c>
+      <c r="BU399">
+        <v>2</v>
+      </c>
+      <c r="BV399">
+        <v>15000</v>
+      </c>
+      <c r="BZ399" s="29" t="e">
+        <f t="shared" ref="BZ399:BZ401" si="691">AVERAGE(BW399:BY399)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CA399" s="38"/>
+      <c r="CB399" s="5"/>
+      <c r="CC399" s="38"/>
+      <c r="CD399" s="13" t="e">
+        <f t="shared" ref="CD399:CD401" si="692">AVERAGE(CA399:CC399)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CE399" s="34" t="e">
+        <f>BZ399*1000/(BT399*BU399*BV399)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CG399" s="53">
+        <v>2</v>
+      </c>
+      <c r="CH399">
+        <f>CH398</f>
+        <v>160</v>
+      </c>
+      <c r="CI399">
+        <v>2</v>
+      </c>
+      <c r="CJ399">
+        <v>20000</v>
+      </c>
+      <c r="CN399" s="29" t="e">
+        <f t="shared" ref="CN399:CN401" si="693">AVERAGE(CK399:CM399)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CO399" s="38"/>
+      <c r="CP399" s="5"/>
+      <c r="CQ399" s="38"/>
+      <c r="CR399" s="13" t="e">
+        <f t="shared" ref="CR399:CR401" si="694">AVERAGE(CO399:CQ399)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CS399" s="34" t="e">
+        <f>CN399*1000/(CH399*CI399*CJ399)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CU399" s="53">
+        <v>2</v>
+      </c>
+      <c r="CV399">
+        <f>CV398</f>
+        <v>160</v>
+      </c>
+      <c r="CW399">
+        <v>2</v>
+      </c>
+      <c r="CX399">
+        <v>25000</v>
+      </c>
+      <c r="DB399" s="29" t="e">
+        <f t="shared" ref="DB399:DB401" si="695">AVERAGE(CY399:DA399)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DC399" s="38"/>
+      <c r="DD399" s="5"/>
+      <c r="DE399" s="38"/>
+      <c r="DF399" s="13" t="e">
+        <f t="shared" ref="DF399:DF401" si="696">AVERAGE(DC399:DE399)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DG399" s="34" t="e">
+        <f>DB399*1000/(CV399*CW399*CX399)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DI399" s="53">
+        <v>2</v>
+      </c>
+      <c r="DJ399">
+        <f>DJ398</f>
+        <v>160</v>
+      </c>
+      <c r="DK399">
+        <v>2</v>
+      </c>
+      <c r="DL399">
+        <v>30000</v>
+      </c>
+      <c r="DP399" s="29" t="e">
+        <f t="shared" ref="DP399:DP401" si="697">AVERAGE(DM399:DO399)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DQ399" s="38"/>
+      <c r="DR399" s="5"/>
+      <c r="DS399" s="38"/>
+      <c r="DT399" s="13" t="e">
+        <f t="shared" ref="DT399:DT401" si="698">AVERAGE(DQ399:DS399)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DU399" s="34" t="e">
+        <f>DP399*1000/(DJ399*DK399*DL399)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="400" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B400">
-        <f>B399</f>
-        <v>200</v>
+        <f t="shared" ref="B400:B401" si="699">B399</f>
+        <v>160</v>
       </c>
       <c r="C400">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D400">
         <v>1000</v>
       </c>
       <c r="H400" s="29" t="e">
-        <f t="shared" ref="H400:H401" si="681">AVERAGE(E400:G400)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I400" s="38"/>
-      <c r="J400" s="5"/>
-      <c r="K400" s="38"/>
+        <f t="shared" si="681"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="L400" s="13" t="e">
-        <f t="shared" ref="L400:L401" si="682">AVERAGE(I400:K400)</f>
+        <f t="shared" si="682"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M400" s="34" t="e">
-        <f>H400*1000/(B400*C400*D400)</f>
+        <f t="shared" ref="M400:M401" si="700">H400*1000/(B400*C400*D400)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O400">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P400">
-        <f>P399</f>
-        <v>200</v>
+        <f t="shared" ref="P400:P401" si="701">P399</f>
+        <v>160</v>
       </c>
       <c r="Q400">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R400">
         <v>2000</v>
       </c>
       <c r="V400" s="29" t="e">
-        <f t="shared" ref="V400:V401" si="683">AVERAGE(S400:U400)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W400" s="38"/>
-      <c r="X400" s="5"/>
-      <c r="Y400" s="38"/>
+        <f t="shared" si="683"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Z400" s="13" t="e">
-        <f t="shared" ref="Z400:Z401" si="684">AVERAGE(W400:Y400)</f>
+        <f t="shared" si="684"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA400" s="34" t="e">
-        <f>V400*1000/(P400*Q400*R400)</f>
+        <f t="shared" ref="AA400:AA401" si="702">V400*1000/(P400*Q400*R400)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AC400">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD400">
-        <f>AD399</f>
-        <v>200</v>
+        <f t="shared" ref="AD400:AD401" si="703">AD399</f>
+        <v>160</v>
       </c>
       <c r="AE400">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF400">
         <v>3000</v>
       </c>
       <c r="AJ400" s="29" t="e">
-        <f t="shared" ref="AJ400:AJ401" si="685">AVERAGE(AG400:AI400)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK400" s="38"/>
-      <c r="AL400" s="5"/>
-      <c r="AM400" s="38"/>
+        <f t="shared" si="685"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AN400" s="13" t="e">
-        <f t="shared" ref="AN400:AN401" si="686">AVERAGE(AK400:AM400)</f>
+        <f t="shared" si="686"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO400" s="34" t="e">
-        <f>AJ400*1000/(AD400*AE400*AF400)</f>
+        <f t="shared" ref="AO400:AO401" si="704">AJ400*1000/(AD400*AE400*AF400)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ400">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR400">
-        <f>AR399</f>
-        <v>200</v>
+        <f t="shared" ref="AR400:AR401" si="705">AR399</f>
+        <v>160</v>
       </c>
       <c r="AS400">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT400">
         <v>5000</v>
       </c>
       <c r="AX400" s="29" t="e">
-        <f t="shared" ref="AX400:AX401" si="687">AVERAGE(AU400:AW400)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AY400" s="38"/>
-      <c r="AZ400" s="5"/>
-      <c r="BA400" s="38"/>
+        <f t="shared" si="687"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="BB400" s="13" t="e">
-        <f t="shared" ref="BB400:BB401" si="688">AVERAGE(AY400:BA400)</f>
+        <f t="shared" si="688"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC400" s="34" t="e">
-        <f>AX400*1000/(AR400*AS400*AT400)</f>
+        <f t="shared" ref="BC400:BC401" si="706">AX400*1000/(AR400*AS400*AT400)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BE400" s="53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BF400">
-        <f>BF399</f>
-        <v>200</v>
+        <f t="shared" ref="BF400:BF401" si="707">BF399</f>
+        <v>160</v>
       </c>
       <c r="BG400">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH400">
         <v>10000</v>
       </c>
       <c r="BL400" s="29" t="e">
-        <f t="shared" ref="BL400:BL401" si="689">AVERAGE(BI400:BK400)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BM400" s="38"/>
-      <c r="BN400" s="5"/>
-      <c r="BO400" s="38"/>
+        <f t="shared" si="689"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="BP400" s="13" t="e">
-        <f t="shared" ref="BP400:BP401" si="690">AVERAGE(BM400:BO400)</f>
+        <f t="shared" si="690"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BQ400" s="34" t="e">
-        <f>BL400*1000/(BF400*BG400*BH400)</f>
+        <f t="shared" ref="BQ400:BQ401" si="708">BL400*1000/(BF400*BG400*BH400)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BS400" s="53">
+        <v>3</v>
+      </c>
+      <c r="BT400">
+        <f t="shared" ref="BT400:BT401" si="709">BT399</f>
+        <v>160</v>
+      </c>
+      <c r="BU400">
+        <v>3</v>
+      </c>
+      <c r="BV400">
+        <v>15000</v>
+      </c>
+      <c r="BZ400" s="29" t="e">
+        <f t="shared" si="691"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CD400" s="13" t="e">
+        <f t="shared" si="692"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CE400" s="34" t="e">
+        <f t="shared" ref="CE400:CE401" si="710">BZ400*1000/(BT400*BU400*BV400)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CG400" s="53">
+        <v>3</v>
+      </c>
+      <c r="CH400">
+        <f t="shared" ref="CH400:CH401" si="711">CH399</f>
+        <v>160</v>
+      </c>
+      <c r="CI400">
+        <v>3</v>
+      </c>
+      <c r="CJ400">
+        <v>20000</v>
+      </c>
+      <c r="CN400" s="29" t="e">
+        <f t="shared" si="693"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CR400" s="13" t="e">
+        <f t="shared" si="694"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CS400" s="34" t="e">
+        <f t="shared" ref="CS400:CS401" si="712">CN400*1000/(CH400*CI400*CJ400)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CU400" s="53">
+        <v>3</v>
+      </c>
+      <c r="CV400">
+        <f t="shared" ref="CV400:CV401" si="713">CV399</f>
+        <v>160</v>
+      </c>
+      <c r="CW400">
+        <v>3</v>
+      </c>
+      <c r="CX400">
+        <v>25000</v>
+      </c>
+      <c r="DB400" s="29" t="e">
+        <f t="shared" si="695"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DF400" s="13" t="e">
+        <f t="shared" si="696"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DG400" s="34" t="e">
+        <f t="shared" ref="DG400:DG401" si="714">DB400*1000/(CV400*CW400*CX400)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DI400" s="53">
+        <v>3</v>
+      </c>
+      <c r="DJ400">
+        <f t="shared" ref="DJ400:DJ401" si="715">DJ399</f>
+        <v>160</v>
+      </c>
+      <c r="DK400">
+        <v>3</v>
+      </c>
+      <c r="DL400">
+        <v>30000</v>
+      </c>
+      <c r="DP400" s="29" t="e">
+        <f t="shared" si="697"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DT400" s="13" t="e">
+        <f t="shared" si="698"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DU400" s="34" t="e">
+        <f t="shared" ref="DU400:DU401" si="716">DP400*1000/(DJ400*DK400*DL400)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="401" spans="1:69" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:125" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A401" s="41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B401" s="41">
-        <f t="shared" ref="B401" si="691">B400</f>
-        <v>200</v>
+        <f t="shared" si="699"/>
+        <v>160</v>
       </c>
       <c r="C401" s="41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D401" s="41">
         <v>1000</v>
       </c>
       <c r="E401" s="41">
-        <v>13.2</v>
+        <v>12.08</v>
       </c>
       <c r="F401" s="41">
-        <v>13.3</v>
+        <v>12.33</v>
       </c>
       <c r="G401" s="41">
-        <v>13.4</v>
+        <v>12.2</v>
       </c>
       <c r="H401" s="42">
         <f t="shared" si="681"/>
-        <v>13.299999999999999</v>
-      </c>
-      <c r="I401" s="41">
-        <v>10</v>
-      </c>
-      <c r="J401" s="41">
-        <v>10</v>
-      </c>
-      <c r="K401" s="41">
-        <v>10</v>
-      </c>
-      <c r="L401" s="43">
+        <v>12.203333333333333</v>
+      </c>
+      <c r="L401" s="43" t="e">
         <f t="shared" si="682"/>
-        <v>10</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M401" s="44">
-        <f t="shared" ref="M401" si="692">H401*1000/(B401*C401*D401)</f>
-        <v>2.2166666666666664E-2</v>
+        <f t="shared" si="700"/>
+        <v>1.9067708333333336E-2</v>
       </c>
       <c r="O401" s="41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P401" s="41">
-        <f t="shared" ref="P401" si="693">P400</f>
-        <v>200</v>
+        <f t="shared" si="701"/>
+        <v>160</v>
       </c>
       <c r="Q401" s="41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R401" s="41">
         <v>2000</v>
       </c>
       <c r="S401" s="41">
-        <v>24.6</v>
+        <v>22.9</v>
       </c>
       <c r="T401" s="41">
-        <v>24.9</v>
+        <v>23.2</v>
       </c>
       <c r="U401" s="41">
-        <v>24.9</v>
+        <v>23.2</v>
       </c>
       <c r="V401" s="42">
         <f t="shared" si="683"/>
-        <v>24.8</v>
+        <v>23.099999999999998</v>
       </c>
       <c r="Z401" s="43" t="e">
         <f t="shared" si="684"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA401" s="44">
-        <f t="shared" ref="AA401" si="694">V401*1000/(P401*Q401*R401)</f>
-        <v>2.0666666666666667E-2</v>
+        <f t="shared" si="702"/>
+        <v>1.8046874999999997E-2</v>
       </c>
       <c r="AC401" s="41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD401" s="41">
-        <f t="shared" ref="AD401" si="695">AD400</f>
-        <v>200</v>
+        <f t="shared" si="703"/>
+        <v>160</v>
       </c>
       <c r="AE401" s="41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF401" s="41">
         <v>3000</v>
       </c>
       <c r="AG401" s="41">
-        <v>36.200000000000003</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="AH401" s="41">
-        <v>36.1</v>
+        <v>33.9</v>
       </c>
       <c r="AI401" s="41">
-        <v>36.4</v>
+        <v>34.1</v>
       </c>
       <c r="AJ401" s="42">
         <f t="shared" si="685"/>
-        <v>36.233333333333341</v>
+        <v>33.9</v>
       </c>
       <c r="AN401" s="43" t="e">
         <f t="shared" si="686"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO401" s="44">
-        <f t="shared" ref="AO401" si="696">AJ401*1000/(AD401*AE401*AF401)</f>
-        <v>2.0129629629629636E-2</v>
+        <f t="shared" si="704"/>
+        <v>1.7656249999999998E-2</v>
       </c>
       <c r="AQ401" s="41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR401" s="41">
-        <f t="shared" ref="AR401" si="697">AR400</f>
-        <v>200</v>
+        <f t="shared" si="705"/>
+        <v>160</v>
       </c>
       <c r="AS401" s="41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT401" s="41">
         <v>5000</v>
       </c>
       <c r="AU401" s="41">
-        <v>57.6</v>
+        <v>55.3</v>
       </c>
       <c r="AV401" s="41">
-        <v>59</v>
+        <v>55.3</v>
       </c>
       <c r="AW401" s="41">
-        <v>59</v>
+        <v>54.5</v>
       </c>
       <c r="AX401" s="42">
         <f t="shared" si="687"/>
-        <v>58.533333333333331</v>
+        <v>55.033333333333331</v>
       </c>
       <c r="BB401" s="43" t="e">
         <f t="shared" si="688"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC401" s="44">
-        <f t="shared" ref="BC401" si="698">AX401*1000/(AR401*AS401*AT401)</f>
-        <v>1.9511111111111111E-2</v>
+        <f t="shared" si="706"/>
+        <v>1.7197916666666663E-2</v>
       </c>
       <c r="BE401" s="55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BF401" s="41">
-        <f t="shared" ref="BF401" si="699">BF400</f>
-        <v>200</v>
+        <f t="shared" si="707"/>
+        <v>160</v>
       </c>
       <c r="BG401" s="41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH401" s="41">
         <v>10000</v>
       </c>
       <c r="BI401" s="41">
-        <v>99.7</v>
+        <v>109.4</v>
       </c>
       <c r="BJ401" s="41">
-        <v>108</v>
+        <v>109.4</v>
       </c>
       <c r="BK401" s="41">
-        <v>95</v>
+        <v>106.8</v>
       </c>
       <c r="BL401" s="42">
         <f t="shared" si="689"/>
-        <v>100.89999999999999</v>
+        <v>108.53333333333335</v>
       </c>
       <c r="BP401" s="43" t="e">
         <f t="shared" si="690"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BQ401" s="44">
-        <f t="shared" ref="BQ401" si="700">BL401*1000/(BF401*BG401*BH401)</f>
-        <v>1.6816666666666664E-2</v>
+        <f t="shared" si="708"/>
+        <v>1.6958333333333336E-2</v>
+      </c>
+      <c r="BS401" s="55">
+        <v>4</v>
+      </c>
+      <c r="BT401" s="41">
+        <f t="shared" si="709"/>
+        <v>160</v>
+      </c>
+      <c r="BU401" s="41">
+        <v>4</v>
+      </c>
+      <c r="BV401" s="41">
+        <v>15000</v>
+      </c>
+      <c r="BW401" s="41">
+        <v>145.6</v>
+      </c>
+      <c r="BX401" s="41">
+        <v>134.9</v>
+      </c>
+      <c r="BY401" s="41">
+        <v>134.4</v>
+      </c>
+      <c r="BZ401" s="42">
+        <f t="shared" si="691"/>
+        <v>138.29999999999998</v>
+      </c>
+      <c r="CD401" s="43" t="e">
+        <f t="shared" si="692"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CE401" s="44">
+        <f t="shared" si="710"/>
+        <v>1.4406249999999997E-2</v>
+      </c>
+      <c r="CG401" s="55">
+        <v>4</v>
+      </c>
+      <c r="CH401" s="41">
+        <f t="shared" si="711"/>
+        <v>160</v>
+      </c>
+      <c r="CI401" s="41">
+        <v>4</v>
+      </c>
+      <c r="CJ401" s="41">
+        <v>20000</v>
+      </c>
+      <c r="CK401" s="41">
+        <v>161.4</v>
+      </c>
+      <c r="CL401" s="41">
+        <v>161.30000000000001</v>
+      </c>
+      <c r="CM401" s="41">
+        <v>161.19999999999999</v>
+      </c>
+      <c r="CN401" s="42">
+        <f t="shared" si="693"/>
+        <v>161.30000000000001</v>
+      </c>
+      <c r="CR401" s="43" t="e">
+        <f t="shared" si="694"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CS401" s="44">
+        <f t="shared" si="712"/>
+        <v>1.26015625E-2</v>
+      </c>
+      <c r="CU401" s="55">
+        <v>4</v>
+      </c>
+      <c r="CV401" s="41">
+        <f t="shared" si="713"/>
+        <v>160</v>
+      </c>
+      <c r="CW401" s="41">
+        <v>4</v>
+      </c>
+      <c r="CX401" s="41">
+        <v>25000</v>
+      </c>
+      <c r="CY401" s="41">
+        <v>200.9</v>
+      </c>
+      <c r="CZ401" s="41">
+        <v>200.9</v>
+      </c>
+      <c r="DA401" s="41">
+        <v>200.9</v>
+      </c>
+      <c r="DB401" s="42">
+        <f t="shared" si="695"/>
+        <v>200.9</v>
+      </c>
+      <c r="DF401" s="43" t="e">
+        <f t="shared" si="696"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DG401" s="44">
+        <f t="shared" si="714"/>
+        <v>1.255625E-2</v>
+      </c>
+      <c r="DI401" s="55">
+        <v>4</v>
+      </c>
+      <c r="DJ401" s="41">
+        <f t="shared" si="715"/>
+        <v>160</v>
+      </c>
+      <c r="DK401" s="41">
+        <v>4</v>
+      </c>
+      <c r="DL401" s="41">
+        <v>30000</v>
+      </c>
+      <c r="DM401" s="41">
+        <v>240.8</v>
+      </c>
+      <c r="DN401" s="41">
+        <v>240.9</v>
+      </c>
+      <c r="DO401" s="41">
+        <v>241</v>
+      </c>
+      <c r="DP401" s="42">
+        <f t="shared" si="697"/>
+        <v>240.9</v>
+      </c>
+      <c r="DT401" s="43" t="e">
+        <f t="shared" si="698"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DU401" s="44">
+        <f t="shared" si="716"/>
+        <v>1.2546875000000001E-2</v>
       </c>
     </row>
-    <row r="402" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>18</v>
       </c>
       <c r="B402">
         <f>B401</f>
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="C402">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D402">
         <v>1000</v>
@@ -71590,10 +72432,10 @@
       </c>
       <c r="P402">
         <f>P401</f>
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="Q402">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R402">
         <v>2000</v>
@@ -71608,10 +72450,10 @@
       </c>
       <c r="AD402">
         <f>AD401</f>
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="AE402">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF402">
         <v>3000</v>
@@ -71626,10 +72468,10 @@
       </c>
       <c r="AR402">
         <f>AR401</f>
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="AS402">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT402">
         <v>5000</v>
@@ -71644,10 +72486,10 @@
       </c>
       <c r="BF402">
         <f>BF401</f>
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="BG402">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH402">
         <v>10000</v>
@@ -71657,1122 +72499,1953 @@
       </c>
       <c r="BP402" s="13"/>
       <c r="BQ402" s="34"/>
+      <c r="BS402" s="53">
+        <v>18</v>
+      </c>
+      <c r="BT402">
+        <f>BT401</f>
+        <v>160</v>
+      </c>
+      <c r="BU402">
+        <v>5</v>
+      </c>
+      <c r="BV402">
+        <v>15000</v>
+      </c>
+      <c r="BZ402" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="CD402" s="13"/>
+      <c r="CE402" s="34"/>
+      <c r="CG402" s="53">
+        <v>18</v>
+      </c>
+      <c r="CH402">
+        <f>CH401</f>
+        <v>160</v>
+      </c>
+      <c r="CI402">
+        <v>5</v>
+      </c>
+      <c r="CJ402">
+        <v>20000</v>
+      </c>
+      <c r="CN402" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="CR402" s="13"/>
+      <c r="CS402" s="34"/>
+      <c r="CU402" s="53">
+        <v>18</v>
+      </c>
+      <c r="CV402">
+        <f>CV401</f>
+        <v>160</v>
+      </c>
+      <c r="CW402">
+        <v>5</v>
+      </c>
+      <c r="CX402">
+        <v>25000</v>
+      </c>
+      <c r="DB402" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="DF402" s="13"/>
+      <c r="DG402" s="34"/>
+      <c r="DI402" s="53">
+        <v>18</v>
+      </c>
+      <c r="DJ402">
+        <f>DJ401</f>
+        <v>160</v>
+      </c>
+      <c r="DK402">
+        <v>5</v>
+      </c>
+      <c r="DL402">
+        <v>30000</v>
+      </c>
+      <c r="DP402" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="DT402" s="13"/>
+      <c r="DU402" s="34"/>
     </row>
-    <row r="404" spans="1:69" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A404" s="39" t="s">
+    <row r="405" spans="1:125" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A405" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B404" s="40">
-        <v>300</v>
-      </c>
-      <c r="F404" s="35"/>
-      <c r="H404" s="36"/>
-      <c r="L404" s="37"/>
-      <c r="M404" s="37"/>
-      <c r="AA404" s="37"/>
-      <c r="BE404" s="54"/>
+      <c r="B405" s="40">
+        <v>200</v>
+      </c>
+      <c r="F405" s="35"/>
+      <c r="H405" s="36"/>
+      <c r="L405" s="37"/>
+      <c r="M405" s="37"/>
+      <c r="AA405" s="37"/>
+      <c r="BE405" s="54"/>
     </row>
-    <row r="405" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A405" s="31"/>
-      <c r="B405" s="32" t="s">
+    <row r="406" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A406" s="31"/>
+      <c r="B406" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C405" s="32" t="s">
+      <c r="C406" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D405" s="32" t="s">
+      <c r="D406" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E405" s="32" t="s">
+      <c r="E406" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="F405" s="32" t="s">
+      <c r="F406" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="G405" s="32" t="s">
+      <c r="G406" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="H405" s="33" t="s">
+      <c r="H406" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="I405" s="32" t="s">
+      <c r="I406" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="J405" s="32" t="s">
+      <c r="J406" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="K405" s="32" t="s">
+      <c r="K406" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="L405" s="33" t="s">
+      <c r="L406" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="M405" s="33" t="s">
+      <c r="M406" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="O405" s="31"/>
-      <c r="P405" s="32" t="s">
+      <c r="O406" s="31"/>
+      <c r="P406" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="Q405" s="32" t="s">
+      <c r="Q406" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="R405" s="32" t="s">
+      <c r="R406" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="S405" s="32" t="s">
+      <c r="S406" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="T405" s="32" t="s">
+      <c r="T406" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="U405" s="32" t="s">
+      <c r="U406" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="V405" s="33" t="s">
+      <c r="V406" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="W405" s="32" t="s">
+      <c r="W406" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="X405" s="32" t="s">
+      <c r="X406" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="Y405" s="32" t="s">
+      <c r="Y406" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="Z405" s="33" t="s">
+      <c r="Z406" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="AA405" s="33" t="s">
+      <c r="AA406" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="AC405" s="31"/>
-      <c r="AD405" s="32" t="s">
+      <c r="AC406" s="31"/>
+      <c r="AD406" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="AE405" s="32" t="s">
+      <c r="AE406" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="AF405" s="32" t="s">
+      <c r="AF406" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="AG405" s="32" t="s">
+      <c r="AG406" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="AH405" s="32" t="s">
+      <c r="AH406" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="AI405" s="32" t="s">
+      <c r="AI406" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="AJ405" s="33" t="s">
+      <c r="AJ406" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="AK405" s="32" t="s">
+      <c r="AK406" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="AL405" s="32" t="s">
+      <c r="AL406" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="AM405" s="32" t="s">
+      <c r="AM406" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="AN405" s="33" t="s">
+      <c r="AN406" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="AO405" s="33" t="s">
+      <c r="AO406" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="AQ405" s="31"/>
-      <c r="AR405" s="32" t="s">
+      <c r="AQ406" s="31"/>
+      <c r="AR406" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="AS405" s="32" t="s">
+      <c r="AS406" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="AT405" s="32" t="s">
+      <c r="AT406" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="AU405" s="32" t="s">
+      <c r="AU406" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="AV405" s="32" t="s">
+      <c r="AV406" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="AW405" s="32" t="s">
+      <c r="AW406" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="AX405" s="33" t="s">
+      <c r="AX406" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="AY405" s="32" t="s">
+      <c r="AY406" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="AZ405" s="32" t="s">
+      <c r="AZ406" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="BA405" s="32" t="s">
+      <c r="BA406" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="BB405" s="33" t="s">
+      <c r="BB406" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="BC405" s="33" t="s">
+      <c r="BC406" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="BE405" s="54"/>
-      <c r="BF405" s="32" t="s">
+      <c r="BE406" s="54"/>
+      <c r="BF406" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="BG405" s="32" t="s">
+      <c r="BG406" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="BH405" s="32" t="s">
+      <c r="BH406" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="BI405" s="32" t="s">
+      <c r="BI406" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="BJ405" s="32" t="s">
+      <c r="BJ406" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="BK405" s="32" t="s">
+      <c r="BK406" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="BL405" s="33" t="s">
+      <c r="BL406" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="BM405" s="32" t="s">
+      <c r="BM406" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="BN405" s="32" t="s">
+      <c r="BN406" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="BO405" s="32" t="s">
+      <c r="BO406" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="BP405" s="33" t="s">
+      <c r="BP406" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="BQ405" s="33" t="s">
+      <c r="BQ406" s="33" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="406" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A406">
-        <v>1</v>
-      </c>
-      <c r="B406">
-        <f>$B$404</f>
-        <v>300</v>
-      </c>
-      <c r="C406">
-        <v>1</v>
-      </c>
-      <c r="D406">
+    <row r="407" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>1</v>
+      </c>
+      <c r="B407">
+        <f>$B$405</f>
+        <v>200</v>
+      </c>
+      <c r="C407">
+        <v>1</v>
+      </c>
+      <c r="D407">
         <v>1000</v>
       </c>
-      <c r="H406" s="29" t="e">
-        <f>AVERAGE(E406:G406)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I406" s="5" t="s">
+      <c r="H407" s="29" t="e">
+        <f>AVERAGE(E407:G407)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I407" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J406" s="5" t="s">
+      <c r="J407" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K406" s="5" t="s">
+      <c r="K407" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="L406" s="5" t="s">
+      <c r="L407" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="M406" s="34" t="e">
-        <f>H406*1000/(B406*C406*D406)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O406">
-        <v>1</v>
-      </c>
-      <c r="P406">
-        <f>$B$404</f>
-        <v>300</v>
-      </c>
-      <c r="Q406">
-        <v>1</v>
-      </c>
-      <c r="R406">
+      <c r="M407" s="34" t="e">
+        <f>H407*1000/(B407*C407*D407)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O407">
+        <v>1</v>
+      </c>
+      <c r="P407">
+        <f>$B$405</f>
+        <v>200</v>
+      </c>
+      <c r="Q407">
+        <v>1</v>
+      </c>
+      <c r="R407">
         <v>2000</v>
       </c>
-      <c r="V406" s="29" t="e">
-        <f>AVERAGE(S406:U406)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W406" s="5"/>
-      <c r="X406" s="5"/>
-      <c r="Y406" s="5"/>
-      <c r="Z406" s="5"/>
-      <c r="AA406" s="34" t="e">
-        <f>V406*1000/(P406*Q406*R406)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC406">
-        <v>1</v>
-      </c>
-      <c r="AD406">
-        <f>$B$404</f>
-        <v>300</v>
-      </c>
-      <c r="AE406">
-        <v>1</v>
-      </c>
-      <c r="AF406">
+      <c r="V407" s="29" t="e">
+        <f>AVERAGE(S407:U407)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W407" s="5"/>
+      <c r="X407" s="5"/>
+      <c r="Y407" s="5"/>
+      <c r="Z407" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA407" s="34" t="e">
+        <f>V407*1000/(P407*Q407*R407)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC407">
+        <v>1</v>
+      </c>
+      <c r="AD407">
+        <f>$B$405</f>
+        <v>200</v>
+      </c>
+      <c r="AE407">
+        <v>1</v>
+      </c>
+      <c r="AF407">
         <v>3000</v>
       </c>
-      <c r="AJ406" s="29" t="e">
-        <f>AVERAGE(AG406:AI406)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK406" s="5"/>
-      <c r="AL406" s="5"/>
-      <c r="AM406" s="5"/>
-      <c r="AN406" s="5"/>
-      <c r="AO406" s="34" t="e">
-        <f>AJ406*1000/(AD406*AE406*AF406)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ406">
-        <v>1</v>
-      </c>
-      <c r="AR406">
-        <f>$B$404</f>
-        <v>300</v>
-      </c>
-      <c r="AS406">
-        <v>1</v>
-      </c>
-      <c r="AT406">
+      <c r="AJ407" s="29" t="e">
+        <f>AVERAGE(AG407:AI407)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK407" s="5"/>
+      <c r="AL407" s="5"/>
+      <c r="AM407" s="5"/>
+      <c r="AN407" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO407" s="34" t="e">
+        <f>AJ407*1000/(AD407*AE407*AF407)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ407">
+        <v>1</v>
+      </c>
+      <c r="AR407">
+        <f>$B$405</f>
+        <v>200</v>
+      </c>
+      <c r="AS407">
+        <v>1</v>
+      </c>
+      <c r="AT407">
         <v>5000</v>
       </c>
-      <c r="AX406" s="29" t="e">
-        <f>AVERAGE(AU406:AW406)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AY406" s="5"/>
-      <c r="AZ406" s="5"/>
-      <c r="BA406" s="5"/>
-      <c r="BB406" s="5"/>
-      <c r="BC406" s="34" t="e">
-        <f>AX406*1000/(AR406*AS406*AT406)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BE406" s="53">
-        <v>1</v>
-      </c>
-      <c r="BF406">
-        <f>$B$404</f>
-        <v>300</v>
-      </c>
-      <c r="BG406">
-        <v>1</v>
-      </c>
-      <c r="BH406">
+      <c r="AX407" s="29" t="e">
+        <f>AVERAGE(AU407:AW407)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY407" s="5"/>
+      <c r="AZ407" s="5"/>
+      <c r="BA407" s="5"/>
+      <c r="BB407" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="BC407" s="34" t="e">
+        <f>AX407*1000/(AR407*AS407*AT407)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE407" s="53">
+        <v>1</v>
+      </c>
+      <c r="BF407">
+        <f>$B$405</f>
+        <v>200</v>
+      </c>
+      <c r="BG407">
+        <v>1</v>
+      </c>
+      <c r="BH407">
         <v>10000</v>
       </c>
-      <c r="BL406" s="29" t="e">
-        <f>AVERAGE(BI406:BK406)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BM406" s="5"/>
-      <c r="BN406" s="5"/>
-      <c r="BO406" s="5"/>
-      <c r="BP406" s="5"/>
-      <c r="BQ406" s="34" t="e">
-        <f>BL406*1000/(BF406*BG406*BH406)</f>
+      <c r="BL407" s="29" t="e">
+        <f>AVERAGE(BI407:BK407)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BM407" s="5"/>
+      <c r="BN407" s="5"/>
+      <c r="BO407" s="5"/>
+      <c r="BP407" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="BQ407" s="34" t="e">
+        <f>BL407*1000/(BF407*BG407*BH407)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="407" spans="1:69" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A407" s="41">
+    <row r="408" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A408">
         <v>2</v>
-      </c>
-      <c r="B407" s="41">
-        <f>B406</f>
-        <v>300</v>
-      </c>
-      <c r="C407" s="41">
-        <v>2</v>
-      </c>
-      <c r="D407" s="41">
-        <v>1000</v>
-      </c>
-      <c r="E407" s="41">
-        <v>12.8</v>
-      </c>
-      <c r="F407" s="41">
-        <v>12.9</v>
-      </c>
-      <c r="G407" s="41">
-        <v>12.8</v>
-      </c>
-      <c r="H407" s="42">
-        <f t="shared" ref="H407" si="701">AVERAGE(E407:G407)</f>
-        <v>12.833333333333334</v>
-      </c>
-      <c r="I407" s="56">
-        <v>13</v>
-      </c>
-      <c r="J407" s="57">
-        <v>9</v>
-      </c>
-      <c r="K407" s="56">
-        <v>13</v>
-      </c>
-      <c r="L407" s="43">
-        <f t="shared" ref="L407" si="702">AVERAGE(I407:K407)</f>
-        <v>11.666666666666666</v>
-      </c>
-      <c r="M407" s="44">
-        <f>H407*1000/(B407*C407*D407)</f>
-        <v>2.1388888888888891E-2</v>
-      </c>
-      <c r="O407" s="41">
-        <v>2</v>
-      </c>
-      <c r="P407" s="41">
-        <f>P406</f>
-        <v>300</v>
-      </c>
-      <c r="Q407" s="41">
-        <v>2</v>
-      </c>
-      <c r="R407" s="41">
-        <v>2000</v>
-      </c>
-      <c r="S407" s="41">
-        <v>23.2</v>
-      </c>
-      <c r="T407" s="41">
-        <v>23.4</v>
-      </c>
-      <c r="U407" s="41">
-        <v>23.5</v>
-      </c>
-      <c r="V407" s="42">
-        <f t="shared" ref="V407" si="703">AVERAGE(S407:U407)</f>
-        <v>23.366666666666664</v>
-      </c>
-      <c r="W407" s="56"/>
-      <c r="X407" s="57"/>
-      <c r="Y407" s="56"/>
-      <c r="Z407" s="43"/>
-      <c r="AA407" s="44">
-        <f>V407*1000/(P407*Q407*R407)</f>
-        <v>1.9472222222222221E-2</v>
-      </c>
-      <c r="AC407" s="41">
-        <v>2</v>
-      </c>
-      <c r="AD407" s="41">
-        <f>AD406</f>
-        <v>300</v>
-      </c>
-      <c r="AE407" s="41">
-        <v>2</v>
-      </c>
-      <c r="AF407" s="41">
-        <v>3000</v>
-      </c>
-      <c r="AG407" s="41">
-        <v>33.700000000000003</v>
-      </c>
-      <c r="AH407" s="41">
-        <v>33.9</v>
-      </c>
-      <c r="AI407" s="41">
-        <v>34</v>
-      </c>
-      <c r="AJ407" s="42">
-        <f t="shared" ref="AJ407" si="704">AVERAGE(AG407:AI407)</f>
-        <v>33.866666666666667</v>
-      </c>
-      <c r="AK407" s="56"/>
-      <c r="AL407" s="57"/>
-      <c r="AM407" s="56"/>
-      <c r="AN407" s="43"/>
-      <c r="AO407" s="44">
-        <f>AJ407*1000/(AD407*AE407*AF407)</f>
-        <v>1.8814814814814812E-2</v>
-      </c>
-      <c r="AQ407" s="41">
-        <v>2</v>
-      </c>
-      <c r="AR407" s="41">
-        <f>AR406</f>
-        <v>300</v>
-      </c>
-      <c r="AS407" s="41">
-        <v>2</v>
-      </c>
-      <c r="AT407" s="41">
-        <v>5000</v>
-      </c>
-      <c r="AU407" s="41">
-        <v>54.7</v>
-      </c>
-      <c r="AV407" s="41">
-        <v>54.6</v>
-      </c>
-      <c r="AW407" s="41">
-        <v>54.6</v>
-      </c>
-      <c r="AX407" s="42">
-        <f t="shared" ref="AX407" si="705">AVERAGE(AU407:AW407)</f>
-        <v>54.633333333333333</v>
-      </c>
-      <c r="AY407" s="56"/>
-      <c r="AZ407" s="57"/>
-      <c r="BA407" s="56"/>
-      <c r="BB407" s="43"/>
-      <c r="BC407" s="44">
-        <f>AX407*1000/(AR407*AS407*AT407)</f>
-        <v>1.8211111111111112E-2</v>
-      </c>
-      <c r="BE407" s="55">
-        <v>2</v>
-      </c>
-      <c r="BF407" s="41">
-        <f>BF406</f>
-        <v>300</v>
-      </c>
-      <c r="BG407" s="41">
-        <v>2</v>
-      </c>
-      <c r="BH407" s="41">
-        <v>10000</v>
-      </c>
-      <c r="BI407" s="41">
-        <v>107.9</v>
-      </c>
-      <c r="BJ407" s="41">
-        <v>94.7</v>
-      </c>
-      <c r="BK407" s="41">
-        <v>93.2</v>
-      </c>
-      <c r="BL407" s="42">
-        <f t="shared" ref="BL407" si="706">AVERAGE(BI407:BK407)</f>
-        <v>98.600000000000009</v>
-      </c>
-      <c r="BM407" s="56"/>
-      <c r="BN407" s="57"/>
-      <c r="BO407" s="56"/>
-      <c r="BP407" s="43"/>
-      <c r="BQ407" s="44">
-        <f>BL407*1000/(BF407*BG407*BH407)</f>
-        <v>1.6433333333333335E-2</v>
-      </c>
-    </row>
-    <row r="408" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A408">
-        <v>18</v>
       </c>
       <c r="B408">
         <f>B407</f>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="C408">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D408">
         <v>1000</v>
       </c>
-      <c r="H408" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="L408" s="13"/>
-      <c r="M408" s="34"/>
+      <c r="H408" s="29" t="e">
+        <f t="shared" ref="H408:H409" si="717">AVERAGE(E408:G408)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I408" s="38"/>
+      <c r="J408" s="5"/>
+      <c r="K408" s="38"/>
+      <c r="L408" s="13" t="e">
+        <f t="shared" ref="L408:L409" si="718">AVERAGE(I408:K408)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M408" s="34" t="e">
+        <f>H408*1000/(B408*C408*D408)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O408">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="P408">
         <f>P407</f>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q408">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R408">
         <v>2000</v>
       </c>
-      <c r="V408" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z408" s="13"/>
-      <c r="AA408" s="34"/>
+      <c r="V408" s="29" t="e">
+        <f t="shared" ref="V408:V409" si="719">AVERAGE(S408:U408)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W408" s="38"/>
+      <c r="X408" s="5"/>
+      <c r="Y408" s="38"/>
+      <c r="Z408" s="13" t="e">
+        <f t="shared" ref="Z408:Z409" si="720">AVERAGE(W408:Y408)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA408" s="34" t="e">
+        <f>V408*1000/(P408*Q408*R408)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AC408">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="AD408">
         <f>AD407</f>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AE408">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF408">
         <v>3000</v>
       </c>
-      <c r="AJ408" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN408" s="13"/>
-      <c r="AO408" s="34"/>
+      <c r="AJ408" s="29" t="e">
+        <f t="shared" ref="AJ408:AJ409" si="721">AVERAGE(AG408:AI408)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK408" s="38"/>
+      <c r="AL408" s="5"/>
+      <c r="AM408" s="38"/>
+      <c r="AN408" s="13" t="e">
+        <f t="shared" ref="AN408:AN409" si="722">AVERAGE(AK408:AM408)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO408" s="34" t="e">
+        <f>AJ408*1000/(AD408*AE408*AF408)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AQ408">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="AR408">
         <f>AR407</f>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AS408">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT408">
         <v>5000</v>
       </c>
-      <c r="AX408" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="BB408" s="13"/>
-      <c r="BC408" s="34"/>
+      <c r="AX408" s="29" t="e">
+        <f t="shared" ref="AX408:AX409" si="723">AVERAGE(AU408:AW408)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY408" s="38"/>
+      <c r="AZ408" s="5"/>
+      <c r="BA408" s="38"/>
+      <c r="BB408" s="13" t="e">
+        <f t="shared" ref="BB408:BB409" si="724">AVERAGE(AY408:BA408)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC408" s="34" t="e">
+        <f>AX408*1000/(AR408*AS408*AT408)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="BE408" s="53">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="BF408">
         <f>BF407</f>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="BG408">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BH408">
         <v>10000</v>
       </c>
-      <c r="BL408" s="29" t="s">
+      <c r="BL408" s="29" t="e">
+        <f t="shared" ref="BL408:BL409" si="725">AVERAGE(BI408:BK408)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BM408" s="38"/>
+      <c r="BN408" s="5"/>
+      <c r="BO408" s="38"/>
+      <c r="BP408" s="13" t="e">
+        <f t="shared" ref="BP408:BP409" si="726">AVERAGE(BM408:BO408)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BQ408" s="34" t="e">
+        <f>BL408*1000/(BF408*BG408*BH408)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="409" spans="1:125" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A409" s="41">
+        <v>3</v>
+      </c>
+      <c r="B409" s="41">
+        <f t="shared" ref="B409" si="727">B408</f>
+        <v>200</v>
+      </c>
+      <c r="C409" s="41">
+        <v>3</v>
+      </c>
+      <c r="D409" s="41">
+        <v>1000</v>
+      </c>
+      <c r="E409" s="41">
+        <v>13.2</v>
+      </c>
+      <c r="F409" s="41">
+        <v>13.3</v>
+      </c>
+      <c r="G409" s="41">
+        <v>13.4</v>
+      </c>
+      <c r="H409" s="42">
+        <f t="shared" si="717"/>
+        <v>13.299999999999999</v>
+      </c>
+      <c r="I409" s="41">
+        <v>10</v>
+      </c>
+      <c r="J409" s="41">
+        <v>10</v>
+      </c>
+      <c r="K409" s="41">
+        <v>10</v>
+      </c>
+      <c r="L409" s="43">
+        <f t="shared" si="718"/>
+        <v>10</v>
+      </c>
+      <c r="M409" s="44">
+        <f t="shared" ref="M409" si="728">H409*1000/(B409*C409*D409)</f>
+        <v>2.2166666666666664E-2</v>
+      </c>
+      <c r="O409" s="41">
+        <v>3</v>
+      </c>
+      <c r="P409" s="41">
+        <f t="shared" ref="P409" si="729">P408</f>
+        <v>200</v>
+      </c>
+      <c r="Q409" s="41">
+        <v>3</v>
+      </c>
+      <c r="R409" s="41">
+        <v>2000</v>
+      </c>
+      <c r="S409" s="41">
+        <v>24.6</v>
+      </c>
+      <c r="T409" s="41">
+        <v>24.9</v>
+      </c>
+      <c r="U409" s="41">
+        <v>24.9</v>
+      </c>
+      <c r="V409" s="42">
+        <f t="shared" si="719"/>
+        <v>24.8</v>
+      </c>
+      <c r="Z409" s="43" t="e">
+        <f t="shared" si="720"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA409" s="44">
+        <f t="shared" ref="AA409" si="730">V409*1000/(P409*Q409*R409)</f>
+        <v>2.0666666666666667E-2</v>
+      </c>
+      <c r="AC409" s="41">
+        <v>3</v>
+      </c>
+      <c r="AD409" s="41">
+        <f t="shared" ref="AD409" si="731">AD408</f>
+        <v>200</v>
+      </c>
+      <c r="AE409" s="41">
+        <v>3</v>
+      </c>
+      <c r="AF409" s="41">
+        <v>3000</v>
+      </c>
+      <c r="AG409" s="41">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="AH409" s="41">
+        <v>36.1</v>
+      </c>
+      <c r="AI409" s="41">
+        <v>36.4</v>
+      </c>
+      <c r="AJ409" s="42">
+        <f t="shared" si="721"/>
+        <v>36.233333333333341</v>
+      </c>
+      <c r="AN409" s="43" t="e">
+        <f t="shared" si="722"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO409" s="44">
+        <f t="shared" ref="AO409" si="732">AJ409*1000/(AD409*AE409*AF409)</f>
+        <v>2.0129629629629636E-2</v>
+      </c>
+      <c r="AQ409" s="41">
+        <v>3</v>
+      </c>
+      <c r="AR409" s="41">
+        <f t="shared" ref="AR409" si="733">AR408</f>
+        <v>200</v>
+      </c>
+      <c r="AS409" s="41">
+        <v>3</v>
+      </c>
+      <c r="AT409" s="41">
+        <v>5000</v>
+      </c>
+      <c r="AU409" s="41">
+        <v>57.6</v>
+      </c>
+      <c r="AV409" s="41">
+        <v>59</v>
+      </c>
+      <c r="AW409" s="41">
+        <v>59</v>
+      </c>
+      <c r="AX409" s="42">
+        <f t="shared" si="723"/>
+        <v>58.533333333333331</v>
+      </c>
+      <c r="BB409" s="43" t="e">
+        <f t="shared" si="724"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC409" s="44">
+        <f t="shared" ref="BC409" si="734">AX409*1000/(AR409*AS409*AT409)</f>
+        <v>1.9511111111111111E-2</v>
+      </c>
+      <c r="BE409" s="55">
+        <v>3</v>
+      </c>
+      <c r="BF409" s="41">
+        <f t="shared" ref="BF409" si="735">BF408</f>
+        <v>200</v>
+      </c>
+      <c r="BG409" s="41">
+        <v>3</v>
+      </c>
+      <c r="BH409" s="41">
+        <v>10000</v>
+      </c>
+      <c r="BI409" s="41">
+        <v>99.7</v>
+      </c>
+      <c r="BJ409" s="41">
+        <v>108</v>
+      </c>
+      <c r="BK409" s="41">
+        <v>95</v>
+      </c>
+      <c r="BL409" s="42">
+        <f t="shared" si="725"/>
+        <v>100.89999999999999</v>
+      </c>
+      <c r="BP409" s="43" t="e">
+        <f t="shared" si="726"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BQ409" s="44">
+        <f t="shared" ref="BQ409" si="736">BL409*1000/(BF409*BG409*BH409)</f>
+        <v>1.6816666666666664E-2</v>
+      </c>
+    </row>
+    <row r="410" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>18</v>
+      </c>
+      <c r="B410">
+        <f>B409</f>
+        <v>200</v>
+      </c>
+      <c r="C410">
+        <v>4</v>
+      </c>
+      <c r="D410">
+        <v>1000</v>
+      </c>
+      <c r="H410" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="BP408" s="13"/>
-      <c r="BQ408" s="34"/>
+      <c r="L410" s="13"/>
+      <c r="M410" s="34"/>
+      <c r="O410">
+        <v>18</v>
+      </c>
+      <c r="P410">
+        <f>P409</f>
+        <v>200</v>
+      </c>
+      <c r="Q410">
+        <v>4</v>
+      </c>
+      <c r="R410">
+        <v>2000</v>
+      </c>
+      <c r="V410" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z410" s="13"/>
+      <c r="AA410" s="34"/>
+      <c r="AC410">
+        <v>18</v>
+      </c>
+      <c r="AD410">
+        <f>AD409</f>
+        <v>200</v>
+      </c>
+      <c r="AE410">
+        <v>4</v>
+      </c>
+      <c r="AF410">
+        <v>3000</v>
+      </c>
+      <c r="AJ410" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN410" s="13"/>
+      <c r="AO410" s="34"/>
+      <c r="AQ410">
+        <v>18</v>
+      </c>
+      <c r="AR410">
+        <f>AR409</f>
+        <v>200</v>
+      </c>
+      <c r="AS410">
+        <v>4</v>
+      </c>
+      <c r="AT410">
+        <v>5000</v>
+      </c>
+      <c r="AX410" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="BB410" s="13"/>
+      <c r="BC410" s="34"/>
+      <c r="BE410" s="53">
+        <v>18</v>
+      </c>
+      <c r="BF410">
+        <f>BF409</f>
+        <v>200</v>
+      </c>
+      <c r="BG410">
+        <v>4</v>
+      </c>
+      <c r="BH410">
+        <v>10000</v>
+      </c>
+      <c r="BL410" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="BP410" s="13"/>
+      <c r="BQ410" s="34"/>
     </row>
-    <row r="411" spans="1:69" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A411" s="39" t="s">
+    <row r="412" spans="1:125" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A412" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B411" s="40">
-        <v>400</v>
-      </c>
-      <c r="F411" s="35"/>
-      <c r="H411" s="36"/>
-      <c r="L411" s="37"/>
-      <c r="M411" s="37"/>
-      <c r="AA411" s="37"/>
-      <c r="BE411" s="54"/>
+      <c r="B412" s="40">
+        <v>300</v>
+      </c>
+      <c r="F412" s="35"/>
+      <c r="H412" s="36"/>
+      <c r="L412" s="37"/>
+      <c r="M412" s="37"/>
+      <c r="AA412" s="37"/>
+      <c r="BE412" s="54"/>
     </row>
-    <row r="412" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A412" s="31"/>
-      <c r="B412" s="32" t="s">
+    <row r="413" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A413" s="31"/>
+      <c r="B413" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C412" s="32" t="s">
+      <c r="C413" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D412" s="32" t="s">
+      <c r="D413" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E412" s="32" t="s">
+      <c r="E413" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="F412" s="32" t="s">
+      <c r="F413" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="G412" s="32" t="s">
+      <c r="G413" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="H412" s="33" t="s">
+      <c r="H413" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="I412" s="32" t="s">
+      <c r="I413" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="J412" s="32" t="s">
+      <c r="J413" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="K412" s="32" t="s">
+      <c r="K413" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="L412" s="33" t="s">
+      <c r="L413" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="M412" s="33" t="s">
+      <c r="M413" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="O412" s="31"/>
-      <c r="P412" s="32" t="s">
+      <c r="O413" s="31"/>
+      <c r="P413" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="Q412" s="32" t="s">
+      <c r="Q413" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="R412" s="32" t="s">
+      <c r="R413" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="S412" s="32" t="s">
+      <c r="S413" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="T412" s="32" t="s">
+      <c r="T413" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="U412" s="32" t="s">
+      <c r="U413" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="V412" s="33" t="s">
+      <c r="V413" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="W412" s="32" t="s">
+      <c r="W413" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="X412" s="32" t="s">
+      <c r="X413" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="Y412" s="32" t="s">
+      <c r="Y413" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="Z412" s="33" t="s">
+      <c r="Z413" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="AA412" s="33" t="s">
+      <c r="AA413" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="AC412" s="31"/>
-      <c r="AD412" s="32" t="s">
+      <c r="AC413" s="31"/>
+      <c r="AD413" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="AE412" s="32" t="s">
+      <c r="AE413" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="AF412" s="32" t="s">
+      <c r="AF413" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="AG412" s="32" t="s">
+      <c r="AG413" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="AH412" s="32" t="s">
+      <c r="AH413" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="AI412" s="32" t="s">
+      <c r="AI413" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="AJ412" s="33" t="s">
+      <c r="AJ413" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="AK412" s="32" t="s">
+      <c r="AK413" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="AL412" s="32" t="s">
+      <c r="AL413" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="AM412" s="32" t="s">
+      <c r="AM413" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="AN412" s="33" t="s">
+      <c r="AN413" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="AO412" s="33" t="s">
+      <c r="AO413" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="AQ412" s="31"/>
-      <c r="AR412" s="32" t="s">
+      <c r="AQ413" s="31"/>
+      <c r="AR413" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="AS412" s="32" t="s">
+      <c r="AS413" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="AT412" s="32" t="s">
+      <c r="AT413" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="AU412" s="32" t="s">
+      <c r="AU413" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="AV412" s="32" t="s">
+      <c r="AV413" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="AW412" s="32" t="s">
+      <c r="AW413" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="AX412" s="33" t="s">
+      <c r="AX413" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="AY412" s="32" t="s">
+      <c r="AY413" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="AZ412" s="32" t="s">
+      <c r="AZ413" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="BA412" s="32" t="s">
+      <c r="BA413" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="BB412" s="33" t="s">
+      <c r="BB413" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="BC412" s="33" t="s">
+      <c r="BC413" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="BE412" s="54"/>
-      <c r="BF412" s="32" t="s">
+      <c r="BE413" s="54"/>
+      <c r="BF413" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="BG412" s="32" t="s">
+      <c r="BG413" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="BH412" s="32" t="s">
+      <c r="BH413" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="BI412" s="32" t="s">
+      <c r="BI413" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="BJ412" s="32" t="s">
+      <c r="BJ413" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="BK412" s="32" t="s">
+      <c r="BK413" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="BL412" s="33" t="s">
+      <c r="BL413" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="BM412" s="32" t="s">
+      <c r="BM413" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="BN412" s="32" t="s">
+      <c r="BN413" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="BO412" s="32" t="s">
+      <c r="BO413" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="BP412" s="33" t="s">
+      <c r="BP413" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="BQ412" s="33" t="s">
+      <c r="BQ413" s="33" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="413" spans="1:69" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A413" s="41">
-        <v>1</v>
-      </c>
-      <c r="B413" s="41">
-        <f>$B$411</f>
-        <v>400</v>
-      </c>
-      <c r="C413" s="41">
-        <v>1</v>
-      </c>
-      <c r="D413" s="41">
-        <v>1000</v>
-      </c>
-      <c r="E413" s="41">
-        <v>12</v>
-      </c>
-      <c r="F413" s="41">
-        <v>12.1</v>
-      </c>
-      <c r="G413" s="41">
-        <v>12.6</v>
-      </c>
-      <c r="H413" s="42">
-        <f>AVERAGE(E413:G413)</f>
-        <v>12.233333333333334</v>
-      </c>
-      <c r="I413" s="57">
-        <v>10</v>
-      </c>
-      <c r="J413" s="57">
-        <v>6</v>
-      </c>
-      <c r="K413" s="57">
-        <v>13</v>
-      </c>
-      <c r="L413" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="M413" s="44">
-        <f>H413*1000/(B413*C413*D413)</f>
-        <v>3.0583333333333334E-2</v>
-      </c>
-      <c r="O413" s="41">
-        <v>1</v>
-      </c>
-      <c r="P413" s="41">
-        <f>B411</f>
-        <v>400</v>
-      </c>
-      <c r="Q413" s="41">
-        <v>1</v>
-      </c>
-      <c r="R413" s="41">
-        <v>2000</v>
-      </c>
-      <c r="S413" s="41">
-        <v>21.7</v>
-      </c>
-      <c r="T413" s="41">
-        <v>21.4</v>
-      </c>
-      <c r="U413" s="41">
-        <v>21.5</v>
-      </c>
-      <c r="V413" s="42">
-        <f>AVERAGE(S413:U413)</f>
-        <v>21.533333333333331</v>
-      </c>
-      <c r="W413" s="57">
-        <v>18</v>
-      </c>
-      <c r="X413" s="57">
-        <v>14</v>
-      </c>
-      <c r="Y413" s="57">
-        <v>15</v>
-      </c>
-      <c r="Z413" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA413" s="44">
-        <f>V413*1000/(P413*Q413*R413)</f>
-        <v>2.6916666666666665E-2</v>
-      </c>
-      <c r="AC413" s="41">
-        <v>1</v>
-      </c>
-      <c r="AD413" s="41">
-        <f>B411</f>
-        <v>400</v>
-      </c>
-      <c r="AE413" s="41">
-        <v>1</v>
-      </c>
-      <c r="AF413" s="41">
-        <v>3000</v>
-      </c>
-      <c r="AG413" s="41">
-        <v>30.5</v>
-      </c>
-      <c r="AH413" s="41">
-        <v>30.6</v>
-      </c>
-      <c r="AI413" s="41">
-        <v>31.9</v>
-      </c>
-      <c r="AJ413" s="42">
-        <f>AVERAGE(AG413:AI413)</f>
-        <v>31</v>
-      </c>
-      <c r="AK413" s="57">
-        <v>22</v>
-      </c>
-      <c r="AL413" s="57">
-        <v>20</v>
-      </c>
-      <c r="AM413" s="57">
-        <v>22</v>
-      </c>
-      <c r="AN413" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO413" s="44">
-        <f>AJ413*1000/(AD413*AE413*AF413)</f>
-        <v>2.5833333333333333E-2</v>
-      </c>
-      <c r="AQ413" s="41">
-        <v>1</v>
-      </c>
-      <c r="AR413" s="41">
-        <v>400</v>
-      </c>
-      <c r="AS413" s="41">
-        <v>1</v>
-      </c>
-      <c r="AT413" s="41">
-        <v>5000</v>
-      </c>
-      <c r="AU413" s="41">
-        <v>48.9</v>
-      </c>
-      <c r="AV413" s="41">
-        <v>48.9</v>
-      </c>
-      <c r="AW413" s="41">
-        <v>48.9</v>
-      </c>
-      <c r="AX413" s="42">
-        <f>AVERAGE(AU413:AW413)</f>
-        <v>48.9</v>
-      </c>
-      <c r="AY413" s="57">
-        <v>22</v>
-      </c>
-      <c r="AZ413" s="57">
-        <v>20</v>
-      </c>
-      <c r="BA413" s="57">
-        <v>22</v>
-      </c>
-      <c r="BB413" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="BC413" s="44">
-        <f>AX413*1000/(AR413*AS413*AT413)</f>
-        <v>2.445E-2</v>
-      </c>
-      <c r="BE413" s="55">
-        <v>1</v>
-      </c>
-      <c r="BF413" s="41">
-        <v>400</v>
-      </c>
-      <c r="BG413" s="41">
-        <v>1</v>
-      </c>
-      <c r="BH413" s="41">
-        <v>10000</v>
-      </c>
-      <c r="BI413" s="41">
-        <v>96.3</v>
-      </c>
-      <c r="BJ413" s="41">
-        <v>91.2</v>
-      </c>
-      <c r="BK413" s="41">
-        <v>95</v>
-      </c>
-      <c r="BL413" s="42">
-        <f>AVERAGE(BI413:BK413)</f>
-        <v>94.166666666666671</v>
-      </c>
-      <c r="BM413" s="57">
-        <v>22</v>
-      </c>
-      <c r="BN413" s="57">
-        <v>20</v>
-      </c>
-      <c r="BO413" s="57">
-        <v>22</v>
-      </c>
-      <c r="BP413" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="BQ413" s="44">
-        <f>BL413*1000/(BF413*BG413*BH413)</f>
-        <v>2.3541666666666669E-2</v>
-      </c>
-    </row>
-    <row r="414" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B414">
-        <f>B413</f>
-        <v>400</v>
+        <f>$B$412</f>
+        <v>300</v>
       </c>
       <c r="C414">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D414">
         <v>1000</v>
       </c>
-      <c r="H414" s="29" t="s">
+      <c r="H414" s="29" t="e">
+        <f>AVERAGE(E414:G414)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I414" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J414" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K414" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L414" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M414" s="34" t="e">
+        <f>H414*1000/(B414*C414*D414)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O414">
+        <v>1</v>
+      </c>
+      <c r="P414">
+        <f>$B$412</f>
+        <v>300</v>
+      </c>
+      <c r="Q414">
+        <v>1</v>
+      </c>
+      <c r="R414">
+        <v>2000</v>
+      </c>
+      <c r="V414" s="29" t="e">
+        <f>AVERAGE(S414:U414)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W414" s="5"/>
+      <c r="X414" s="5"/>
+      <c r="Y414" s="5"/>
+      <c r="Z414" s="5"/>
+      <c r="AA414" s="34" t="e">
+        <f>V414*1000/(P414*Q414*R414)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC414">
+        <v>1</v>
+      </c>
+      <c r="AD414">
+        <f>$B$412</f>
+        <v>300</v>
+      </c>
+      <c r="AE414">
+        <v>1</v>
+      </c>
+      <c r="AF414">
+        <v>3000</v>
+      </c>
+      <c r="AJ414" s="29" t="e">
+        <f>AVERAGE(AG414:AI414)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK414" s="5"/>
+      <c r="AL414" s="5"/>
+      <c r="AM414" s="5"/>
+      <c r="AN414" s="5"/>
+      <c r="AO414" s="34" t="e">
+        <f>AJ414*1000/(AD414*AE414*AF414)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ414">
+        <v>1</v>
+      </c>
+      <c r="AR414">
+        <f>$B$412</f>
+        <v>300</v>
+      </c>
+      <c r="AS414">
+        <v>1</v>
+      </c>
+      <c r="AT414">
+        <v>5000</v>
+      </c>
+      <c r="AX414" s="29" t="e">
+        <f>AVERAGE(AU414:AW414)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY414" s="5"/>
+      <c r="AZ414" s="5"/>
+      <c r="BA414" s="5"/>
+      <c r="BB414" s="5"/>
+      <c r="BC414" s="34" t="e">
+        <f>AX414*1000/(AR414*AS414*AT414)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE414" s="53">
+        <v>1</v>
+      </c>
+      <c r="BF414">
+        <f>$B$412</f>
+        <v>300</v>
+      </c>
+      <c r="BG414">
+        <v>1</v>
+      </c>
+      <c r="BH414">
+        <v>10000</v>
+      </c>
+      <c r="BL414" s="29" t="e">
+        <f>AVERAGE(BI414:BK414)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BM414" s="5"/>
+      <c r="BN414" s="5"/>
+      <c r="BO414" s="5"/>
+      <c r="BP414" s="5"/>
+      <c r="BQ414" s="34" t="e">
+        <f>BL414*1000/(BF414*BG414*BH414)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="415" spans="1:125" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A415" s="41">
+        <v>2</v>
+      </c>
+      <c r="B415" s="41">
+        <f>B414</f>
+        <v>300</v>
+      </c>
+      <c r="C415" s="41">
+        <v>2</v>
+      </c>
+      <c r="D415" s="41">
+        <v>1000</v>
+      </c>
+      <c r="E415" s="41">
+        <v>12.8</v>
+      </c>
+      <c r="F415" s="41">
+        <v>12.9</v>
+      </c>
+      <c r="G415" s="41">
+        <v>12.8</v>
+      </c>
+      <c r="H415" s="42">
+        <f t="shared" ref="H415" si="737">AVERAGE(E415:G415)</f>
+        <v>12.833333333333334</v>
+      </c>
+      <c r="I415" s="56">
+        <v>13</v>
+      </c>
+      <c r="J415" s="57">
+        <v>9</v>
+      </c>
+      <c r="K415" s="56">
+        <v>13</v>
+      </c>
+      <c r="L415" s="43">
+        <f t="shared" ref="L415" si="738">AVERAGE(I415:K415)</f>
+        <v>11.666666666666666</v>
+      </c>
+      <c r="M415" s="44">
+        <f>H415*1000/(B415*C415*D415)</f>
+        <v>2.1388888888888891E-2</v>
+      </c>
+      <c r="O415" s="41">
+        <v>2</v>
+      </c>
+      <c r="P415" s="41">
+        <f>P414</f>
+        <v>300</v>
+      </c>
+      <c r="Q415" s="41">
+        <v>2</v>
+      </c>
+      <c r="R415" s="41">
+        <v>2000</v>
+      </c>
+      <c r="S415" s="41">
+        <v>23.2</v>
+      </c>
+      <c r="T415" s="41">
+        <v>23.4</v>
+      </c>
+      <c r="U415" s="41">
+        <v>23.5</v>
+      </c>
+      <c r="V415" s="42">
+        <f t="shared" ref="V415" si="739">AVERAGE(S415:U415)</f>
+        <v>23.366666666666664</v>
+      </c>
+      <c r="W415" s="56"/>
+      <c r="X415" s="57"/>
+      <c r="Y415" s="56"/>
+      <c r="Z415" s="43"/>
+      <c r="AA415" s="44">
+        <f>V415*1000/(P415*Q415*R415)</f>
+        <v>1.9472222222222221E-2</v>
+      </c>
+      <c r="AC415" s="41">
+        <v>2</v>
+      </c>
+      <c r="AD415" s="41">
+        <f>AD414</f>
+        <v>300</v>
+      </c>
+      <c r="AE415" s="41">
+        <v>2</v>
+      </c>
+      <c r="AF415" s="41">
+        <v>3000</v>
+      </c>
+      <c r="AG415" s="41">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="AH415" s="41">
+        <v>33.9</v>
+      </c>
+      <c r="AI415" s="41">
+        <v>34</v>
+      </c>
+      <c r="AJ415" s="42">
+        <f t="shared" ref="AJ415" si="740">AVERAGE(AG415:AI415)</f>
+        <v>33.866666666666667</v>
+      </c>
+      <c r="AK415" s="56"/>
+      <c r="AL415" s="57"/>
+      <c r="AM415" s="56"/>
+      <c r="AN415" s="43"/>
+      <c r="AO415" s="44">
+        <f>AJ415*1000/(AD415*AE415*AF415)</f>
+        <v>1.8814814814814812E-2</v>
+      </c>
+      <c r="AQ415" s="41">
+        <v>2</v>
+      </c>
+      <c r="AR415" s="41">
+        <f>AR414</f>
+        <v>300</v>
+      </c>
+      <c r="AS415" s="41">
+        <v>2</v>
+      </c>
+      <c r="AT415" s="41">
+        <v>5000</v>
+      </c>
+      <c r="AU415" s="41">
+        <v>54.7</v>
+      </c>
+      <c r="AV415" s="41">
+        <v>54.6</v>
+      </c>
+      <c r="AW415" s="41">
+        <v>54.6</v>
+      </c>
+      <c r="AX415" s="42">
+        <f t="shared" ref="AX415" si="741">AVERAGE(AU415:AW415)</f>
+        <v>54.633333333333333</v>
+      </c>
+      <c r="AY415" s="56"/>
+      <c r="AZ415" s="57"/>
+      <c r="BA415" s="56"/>
+      <c r="BB415" s="43"/>
+      <c r="BC415" s="44">
+        <f>AX415*1000/(AR415*AS415*AT415)</f>
+        <v>1.8211111111111112E-2</v>
+      </c>
+      <c r="BE415" s="55">
+        <v>2</v>
+      </c>
+      <c r="BF415" s="41">
+        <f>BF414</f>
+        <v>300</v>
+      </c>
+      <c r="BG415" s="41">
+        <v>2</v>
+      </c>
+      <c r="BH415" s="41">
+        <v>10000</v>
+      </c>
+      <c r="BI415" s="41">
+        <v>107.9</v>
+      </c>
+      <c r="BJ415" s="41">
+        <v>94.7</v>
+      </c>
+      <c r="BK415" s="41">
+        <v>93.2</v>
+      </c>
+      <c r="BL415" s="42">
+        <f t="shared" ref="BL415" si="742">AVERAGE(BI415:BK415)</f>
+        <v>98.600000000000009</v>
+      </c>
+      <c r="BM415" s="56"/>
+      <c r="BN415" s="57"/>
+      <c r="BO415" s="56"/>
+      <c r="BP415" s="43"/>
+      <c r="BQ415" s="44">
+        <f>BL415*1000/(BF415*BG415*BH415)</f>
+        <v>1.6433333333333335E-2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>18</v>
+      </c>
+      <c r="B416">
+        <f>B415</f>
+        <v>300</v>
+      </c>
+      <c r="C416">
+        <v>3</v>
+      </c>
+      <c r="D416">
+        <v>1000</v>
+      </c>
+      <c r="H416" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="L414" s="13"/>
-      <c r="M414" s="34"/>
-      <c r="O414">
+      <c r="L416" s="13"/>
+      <c r="M416" s="34"/>
+      <c r="O416">
         <v>18</v>
       </c>
-      <c r="P414">
-        <f>P413</f>
+      <c r="P416">
+        <f>P415</f>
+        <v>300</v>
+      </c>
+      <c r="Q416">
+        <v>3</v>
+      </c>
+      <c r="R416">
+        <v>2000</v>
+      </c>
+      <c r="V416" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z416" s="13"/>
+      <c r="AA416" s="34"/>
+      <c r="AC416">
+        <v>18</v>
+      </c>
+      <c r="AD416">
+        <f>AD415</f>
+        <v>300</v>
+      </c>
+      <c r="AE416">
+        <v>3</v>
+      </c>
+      <c r="AF416">
+        <v>3000</v>
+      </c>
+      <c r="AJ416" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN416" s="13"/>
+      <c r="AO416" s="34"/>
+      <c r="AQ416">
+        <v>18</v>
+      </c>
+      <c r="AR416">
+        <f>AR415</f>
+        <v>300</v>
+      </c>
+      <c r="AS416">
+        <v>3</v>
+      </c>
+      <c r="AT416">
+        <v>5000</v>
+      </c>
+      <c r="AX416" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="BB416" s="13"/>
+      <c r="BC416" s="34"/>
+      <c r="BE416" s="53">
+        <v>18</v>
+      </c>
+      <c r="BF416">
+        <f>BF415</f>
+        <v>300</v>
+      </c>
+      <c r="BG416">
+        <v>3</v>
+      </c>
+      <c r="BH416">
+        <v>10000</v>
+      </c>
+      <c r="BL416" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="BP416" s="13"/>
+      <c r="BQ416" s="34"/>
+    </row>
+    <row r="419" spans="1:69" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A419" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B419" s="40">
         <v>400</v>
       </c>
-      <c r="Q414">
+      <c r="F419" s="35"/>
+      <c r="H419" s="36"/>
+      <c r="L419" s="37"/>
+      <c r="M419" s="37"/>
+      <c r="AA419" s="37"/>
+      <c r="BE419" s="54"/>
+    </row>
+    <row r="420" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A420" s="31"/>
+      <c r="B420" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C420" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D420" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E420" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F420" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G420" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H420" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I420" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J420" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="K420" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L420" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="M420" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="O420" s="31"/>
+      <c r="P420" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q420" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="R420" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="S420" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="T420" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="U420" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="V420" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="W420" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="X420" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y420" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z420" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA420" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC420" s="31"/>
+      <c r="AD420" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE420" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF420" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG420" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH420" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI420" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ420" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK420" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL420" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM420" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN420" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO420" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ420" s="31"/>
+      <c r="AR420" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS420" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT420" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="AU420" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="AV420" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="AW420" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="AX420" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="AY420" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ420" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="BA420" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="BB420" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="BC420" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE420" s="54"/>
+      <c r="BF420" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="BG420" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH420" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="BI420" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="BJ420" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="BK420" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="BL420" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="BM420" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="BN420" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO420" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="BP420" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="BQ420" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="421" spans="1:69" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A421" s="41">
+        <v>1</v>
+      </c>
+      <c r="B421" s="41">
+        <f>$B$419</f>
+        <v>400</v>
+      </c>
+      <c r="C421" s="41">
+        <v>1</v>
+      </c>
+      <c r="D421" s="41">
+        <v>1000</v>
+      </c>
+      <c r="E421" s="41">
+        <v>12</v>
+      </c>
+      <c r="F421" s="41">
+        <v>12.1</v>
+      </c>
+      <c r="G421" s="41">
+        <v>12.6</v>
+      </c>
+      <c r="H421" s="42">
+        <f>AVERAGE(E421:G421)</f>
+        <v>12.233333333333334</v>
+      </c>
+      <c r="I421" s="57">
+        <v>10</v>
+      </c>
+      <c r="J421" s="57">
+        <v>6</v>
+      </c>
+      <c r="K421" s="57">
+        <v>13</v>
+      </c>
+      <c r="L421" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="M421" s="44">
+        <f>H421*1000/(B421*C421*D421)</f>
+        <v>3.0583333333333334E-2</v>
+      </c>
+      <c r="O421" s="41">
+        <v>1</v>
+      </c>
+      <c r="P421" s="41">
+        <f>B419</f>
+        <v>400</v>
+      </c>
+      <c r="Q421" s="41">
+        <v>1</v>
+      </c>
+      <c r="R421" s="41">
+        <v>2000</v>
+      </c>
+      <c r="S421" s="41">
+        <v>21.7</v>
+      </c>
+      <c r="T421" s="41">
+        <v>21.4</v>
+      </c>
+      <c r="U421" s="41">
+        <v>21.5</v>
+      </c>
+      <c r="V421" s="42">
+        <f>AVERAGE(S421:U421)</f>
+        <v>21.533333333333331</v>
+      </c>
+      <c r="W421" s="57">
+        <v>18</v>
+      </c>
+      <c r="X421" s="57">
+        <v>14</v>
+      </c>
+      <c r="Y421" s="57">
+        <v>15</v>
+      </c>
+      <c r="Z421" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA421" s="44">
+        <f>V421*1000/(P421*Q421*R421)</f>
+        <v>2.6916666666666665E-2</v>
+      </c>
+      <c r="AC421" s="41">
+        <v>1</v>
+      </c>
+      <c r="AD421" s="41">
+        <f>B419</f>
+        <v>400</v>
+      </c>
+      <c r="AE421" s="41">
+        <v>1</v>
+      </c>
+      <c r="AF421" s="41">
+        <v>3000</v>
+      </c>
+      <c r="AG421" s="41">
+        <v>30.5</v>
+      </c>
+      <c r="AH421" s="41">
+        <v>30.6</v>
+      </c>
+      <c r="AI421" s="41">
+        <v>31.9</v>
+      </c>
+      <c r="AJ421" s="42">
+        <f>AVERAGE(AG421:AI421)</f>
+        <v>31</v>
+      </c>
+      <c r="AK421" s="57">
+        <v>22</v>
+      </c>
+      <c r="AL421" s="57">
+        <v>20</v>
+      </c>
+      <c r="AM421" s="57">
+        <v>22</v>
+      </c>
+      <c r="AN421" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO421" s="44">
+        <f>AJ421*1000/(AD421*AE421*AF421)</f>
+        <v>2.5833333333333333E-2</v>
+      </c>
+      <c r="AQ421" s="41">
+        <v>1</v>
+      </c>
+      <c r="AR421" s="41">
+        <v>400</v>
+      </c>
+      <c r="AS421" s="41">
+        <v>1</v>
+      </c>
+      <c r="AT421" s="41">
+        <v>5000</v>
+      </c>
+      <c r="AU421" s="41">
+        <v>48.9</v>
+      </c>
+      <c r="AV421" s="41">
+        <v>48.9</v>
+      </c>
+      <c r="AW421" s="41">
+        <v>48.9</v>
+      </c>
+      <c r="AX421" s="42">
+        <f>AVERAGE(AU421:AW421)</f>
+        <v>48.9</v>
+      </c>
+      <c r="AY421" s="57">
+        <v>22</v>
+      </c>
+      <c r="AZ421" s="57">
+        <v>20</v>
+      </c>
+      <c r="BA421" s="57">
+        <v>22</v>
+      </c>
+      <c r="BB421" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="BC421" s="44">
+        <f>AX421*1000/(AR421*AS421*AT421)</f>
+        <v>2.445E-2</v>
+      </c>
+      <c r="BE421" s="55">
+        <v>1</v>
+      </c>
+      <c r="BF421" s="41">
+        <v>400</v>
+      </c>
+      <c r="BG421" s="41">
+        <v>1</v>
+      </c>
+      <c r="BH421" s="41">
+        <v>10000</v>
+      </c>
+      <c r="BI421" s="41">
+        <v>96.3</v>
+      </c>
+      <c r="BJ421" s="41">
+        <v>91.2</v>
+      </c>
+      <c r="BK421" s="41">
+        <v>95</v>
+      </c>
+      <c r="BL421" s="42">
+        <f>AVERAGE(BI421:BK421)</f>
+        <v>94.166666666666671</v>
+      </c>
+      <c r="BM421" s="57">
+        <v>22</v>
+      </c>
+      <c r="BN421" s="57">
+        <v>20</v>
+      </c>
+      <c r="BO421" s="57">
+        <v>22</v>
+      </c>
+      <c r="BP421" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="BQ421" s="44">
+        <f>BL421*1000/(BF421*BG421*BH421)</f>
+        <v>2.3541666666666669E-2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>18</v>
+      </c>
+      <c r="B422">
+        <f>B421</f>
+        <v>400</v>
+      </c>
+      <c r="C422">
         <v>2</v>
       </c>
-      <c r="R414">
-        <f>R413</f>
+      <c r="D422">
+        <v>1000</v>
+      </c>
+      <c r="H422" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="L422" s="13"/>
+      <c r="M422" s="34"/>
+      <c r="O422">
+        <v>18</v>
+      </c>
+      <c r="P422">
+        <f>P421</f>
+        <v>400</v>
+      </c>
+      <c r="Q422">
+        <v>2</v>
+      </c>
+      <c r="R422">
+        <f>R421</f>
         <v>2000</v>
       </c>
-      <c r="V414" s="29" t="s">
+      <c r="V422" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="Z414" s="13"/>
-      <c r="AA414" s="34"/>
-      <c r="AC414">
+      <c r="Z422" s="13"/>
+      <c r="AA422" s="34"/>
+      <c r="AC422">
         <v>18</v>
       </c>
-      <c r="AD414">
-        <f>AD413</f>
+      <c r="AD422">
+        <f>AD421</f>
         <v>400</v>
       </c>
-      <c r="AE414">
+      <c r="AE422">
         <v>2</v>
       </c>
-      <c r="AF414">
-        <f>AF413</f>
+      <c r="AF422">
+        <f>AF421</f>
         <v>3000</v>
       </c>
-      <c r="AJ414" s="29" t="s">
+      <c r="AJ422" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="AN414" s="13"/>
-      <c r="AO414" s="34"/>
-      <c r="AQ414">
+      <c r="AN422" s="13"/>
+      <c r="AO422" s="34"/>
+      <c r="AQ422">
         <v>18</v>
       </c>
-      <c r="AR414">
-        <f>AR413</f>
+      <c r="AR422">
+        <f>AR421</f>
         <v>400</v>
       </c>
-      <c r="AS414">
+      <c r="AS422">
         <v>2</v>
       </c>
-      <c r="AT414">
-        <f>AT413</f>
+      <c r="AT422">
+        <f>AT421</f>
         <v>5000</v>
       </c>
-      <c r="AX414" s="29" t="s">
+      <c r="AX422" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="BB414" s="13"/>
-      <c r="BC414" s="34"/>
-      <c r="BE414" s="53">
+      <c r="BB422" s="13"/>
+      <c r="BC422" s="34"/>
+      <c r="BE422" s="53">
         <v>18</v>
       </c>
-      <c r="BF414">
-        <f>BF413</f>
+      <c r="BF422">
+        <f>BF421</f>
         <v>400</v>
       </c>
-      <c r="BG414">
+      <c r="BG422">
         <v>2</v>
       </c>
-      <c r="BH414">
-        <f>BH413</f>
+      <c r="BH422">
+        <f>BH421</f>
         <v>10000</v>
       </c>
-      <c r="BL414" s="29" t="s">
+      <c r="BL422" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="BP414" s="13"/>
-      <c r="BQ414" s="34"/>
+      <c r="BP422" s="13"/>
+      <c r="BQ422" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/_09_PtmConvTest/Graphics.xlsx
+++ b/_09_PtmConvTest/Graphics.xlsx
@@ -3026,7 +3026,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M420" authorId="0">
+    <comment ref="M419" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3040,7 +3040,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA420" authorId="0">
+    <comment ref="AA419" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3054,7 +3054,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO420" authorId="0">
+    <comment ref="AO419" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3068,7 +3068,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BC420" authorId="0">
+    <comment ref="BC419" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3082,7 +3082,133 @@
         </r>
       </text>
     </comment>
-    <comment ref="BQ420" authorId="0">
+    <comment ref="BQ419" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CE419" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CS419" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DG419" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DU419" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M426" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA426" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO426" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BC426" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BQ426" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3101,7 +3227,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3512" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3634" uniqueCount="70">
   <si>
     <t>--------------Характеристики расчетной сетки----------------</t>
   </si>
@@ -11600,10 +11726,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:HA422"/>
+  <dimension ref="A1:HA428"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A379" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="DQ404" sqref="DQ404"/>
+    <sheetView tabSelected="1" topLeftCell="CT394" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="DO424" sqref="DO424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -73682,17 +73808,17 @@
         <v>1000</v>
       </c>
       <c r="E415" s="41">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="F415" s="41">
-        <v>12.9</v>
+        <v>13.2</v>
       </c>
       <c r="G415" s="41">
-        <v>12.8</v>
+        <v>13.3</v>
       </c>
       <c r="H415" s="42">
         <f t="shared" ref="H415" si="737">AVERAGE(E415:G415)</f>
-        <v>12.833333333333334</v>
+        <v>13.199999999999998</v>
       </c>
       <c r="I415" s="56">
         <v>13</v>
@@ -73709,7 +73835,7 @@
       </c>
       <c r="M415" s="44">
         <f>H415*1000/(B415*C415*D415)</f>
-        <v>2.1388888888888891E-2</v>
+        <v>2.1999999999999995E-2</v>
       </c>
       <c r="O415" s="41">
         <v>2</v>
@@ -73940,427 +74066,902 @@
       <c r="BP416" s="13"/>
       <c r="BQ416" s="34"/>
     </row>
-    <row r="419" spans="1:69" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A419" s="39" t="s">
+    <row r="418" spans="1:125" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A418" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B419" s="40">
-        <v>400</v>
-      </c>
-      <c r="F419" s="35"/>
-      <c r="H419" s="36"/>
-      <c r="L419" s="37"/>
-      <c r="M419" s="37"/>
-      <c r="AA419" s="37"/>
+      <c r="B418" s="40">
+        <v>320</v>
+      </c>
+      <c r="F418" s="35"/>
+      <c r="H418" s="36"/>
+      <c r="L418" s="37"/>
+      <c r="M418" s="37"/>
+      <c r="AA418" s="37"/>
+      <c r="BE418" s="54"/>
+    </row>
+    <row r="419" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A419" s="31"/>
+      <c r="B419" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C419" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D419" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E419" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F419" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G419" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H419" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I419" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J419" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="K419" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L419" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="M419" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="O419" s="31"/>
+      <c r="P419" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q419" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="R419" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="S419" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="T419" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="U419" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="V419" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="W419" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="X419" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y419" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z419" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA419" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC419" s="31"/>
+      <c r="AD419" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE419" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF419" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG419" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH419" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI419" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ419" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK419" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL419" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM419" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN419" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO419" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ419" s="31"/>
+      <c r="AR419" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS419" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT419" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="AU419" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="AV419" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="AW419" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="AX419" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="AY419" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ419" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="BA419" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="BB419" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="BC419" s="33" t="s">
+        <v>45</v>
+      </c>
       <c r="BE419" s="54"/>
+      <c r="BF419" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="BG419" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH419" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="BI419" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="BJ419" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="BK419" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="BL419" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="BM419" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="BN419" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO419" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="BP419" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="BQ419" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="BS419" s="54"/>
+      <c r="BT419" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="BU419" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="BV419" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="BW419" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="BX419" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="BY419" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="BZ419" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="CA419" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="CB419" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="CC419" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="CD419" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="CE419" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="CG419" s="54"/>
+      <c r="CH419" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="CI419" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="CJ419" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="CK419" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="CL419" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="CM419" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="CN419" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="CO419" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="CP419" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="CQ419" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="CR419" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="CS419" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="CU419" s="54"/>
+      <c r="CV419" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="CW419" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="CX419" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="CY419" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="CZ419" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="DA419" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="DB419" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="DC419" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="DD419" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="DE419" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="DF419" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="DG419" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="DI419" s="54"/>
+      <c r="DJ419" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="DK419" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="DL419" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="DM419" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="DN419" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="DO419" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="DP419" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="DQ419" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="DR419" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="DS419" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="DT419" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="DU419" s="33" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="420" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A420" s="31"/>
-      <c r="B420" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C420" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="D420" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E420" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="F420" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="G420" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="H420" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="I420" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="J420" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="K420" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="L420" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="M420" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="O420" s="31"/>
-      <c r="P420" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q420" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="R420" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="S420" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="T420" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="U420" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="V420" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="W420" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="X420" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y420" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z420" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA420" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC420" s="31"/>
-      <c r="AD420" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE420" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF420" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG420" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH420" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI420" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ420" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK420" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="AL420" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM420" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN420" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="AO420" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="AQ420" s="31"/>
-      <c r="AR420" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="AS420" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="AT420" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="AU420" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="AV420" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="AW420" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="AX420" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="AY420" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="AZ420" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="BA420" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="BB420" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="BC420" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="BE420" s="54"/>
-      <c r="BF420" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="BG420" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="BH420" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="BI420" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="BJ420" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="BK420" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="BL420" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="BM420" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="BN420" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="BO420" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="BP420" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="BQ420" s="33" t="s">
-        <v>45</v>
+    <row r="420" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>1</v>
+      </c>
+      <c r="B420">
+        <f>$B$418</f>
+        <v>320</v>
+      </c>
+      <c r="C420">
+        <v>1</v>
+      </c>
+      <c r="D420">
+        <v>1000</v>
+      </c>
+      <c r="H420" s="29" t="e">
+        <f>AVERAGE(E420:G420)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I420" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J420" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K420" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L420" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M420" s="34" t="e">
+        <f>H420*1000/(B420*C420*D420)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O420">
+        <v>1</v>
+      </c>
+      <c r="P420">
+        <f>$B$418</f>
+        <v>320</v>
+      </c>
+      <c r="Q420">
+        <v>1</v>
+      </c>
+      <c r="R420">
+        <v>2000</v>
+      </c>
+      <c r="V420" s="29" t="e">
+        <f>AVERAGE(S420:U420)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W420" s="5"/>
+      <c r="X420" s="5"/>
+      <c r="Y420" s="5"/>
+      <c r="Z420" s="5"/>
+      <c r="AA420" s="34" t="e">
+        <f>V420*1000/(P420*Q420*R420)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC420">
+        <v>1</v>
+      </c>
+      <c r="AD420">
+        <f>$B$418</f>
+        <v>320</v>
+      </c>
+      <c r="AE420">
+        <v>1</v>
+      </c>
+      <c r="AF420">
+        <v>3000</v>
+      </c>
+      <c r="AJ420" s="29" t="e">
+        <f>AVERAGE(AG420:AI420)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK420" s="5"/>
+      <c r="AL420" s="5"/>
+      <c r="AM420" s="5"/>
+      <c r="AN420" s="5"/>
+      <c r="AO420" s="34" t="e">
+        <f>AJ420*1000/(AD420*AE420*AF420)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ420">
+        <v>1</v>
+      </c>
+      <c r="AR420">
+        <f>$B$418</f>
+        <v>320</v>
+      </c>
+      <c r="AS420">
+        <v>1</v>
+      </c>
+      <c r="AT420">
+        <v>5000</v>
+      </c>
+      <c r="AX420" s="29" t="e">
+        <f>AVERAGE(AU420:AW420)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AY420" s="5"/>
+      <c r="AZ420" s="5"/>
+      <c r="BA420" s="5"/>
+      <c r="BB420" s="5"/>
+      <c r="BC420" s="34" t="e">
+        <f>AX420*1000/(AR420*AS420*AT420)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE420" s="53">
+        <v>1</v>
+      </c>
+      <c r="BF420">
+        <f>$B$418</f>
+        <v>320</v>
+      </c>
+      <c r="BG420">
+        <v>1</v>
+      </c>
+      <c r="BH420">
+        <v>10000</v>
+      </c>
+      <c r="BL420" s="29" t="e">
+        <f>AVERAGE(BI420:BK420)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BM420" s="5"/>
+      <c r="BN420" s="5"/>
+      <c r="BO420" s="5"/>
+      <c r="BP420" s="5"/>
+      <c r="BQ420" s="34" t="e">
+        <f>BL420*1000/(BF420*BG420*BH420)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BS420" s="53">
+        <v>1</v>
+      </c>
+      <c r="BT420">
+        <f>$B$418</f>
+        <v>320</v>
+      </c>
+      <c r="BU420">
+        <v>1</v>
+      </c>
+      <c r="BV420">
+        <v>15000</v>
+      </c>
+      <c r="BZ420" s="29" t="e">
+        <f>AVERAGE(BW420:BY420)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CA420" s="5"/>
+      <c r="CB420" s="5"/>
+      <c r="CC420" s="5"/>
+      <c r="CD420" s="5"/>
+      <c r="CE420" s="34" t="e">
+        <f>BZ420*1000/(BT420*BU420*BV420)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CG420" s="53">
+        <v>1</v>
+      </c>
+      <c r="CH420">
+        <f>$B$418</f>
+        <v>320</v>
+      </c>
+      <c r="CI420">
+        <v>1</v>
+      </c>
+      <c r="CJ420">
+        <v>20000</v>
+      </c>
+      <c r="CN420" s="29" t="e">
+        <f>AVERAGE(CK420:CM420)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CO420" s="5"/>
+      <c r="CP420" s="5"/>
+      <c r="CQ420" s="5"/>
+      <c r="CR420" s="5"/>
+      <c r="CS420" s="34" t="e">
+        <f>CN420*1000/(CH420*CI420*CJ420)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CU420" s="53">
+        <v>1</v>
+      </c>
+      <c r="CV420">
+        <f>$B$418</f>
+        <v>320</v>
+      </c>
+      <c r="CW420">
+        <v>1</v>
+      </c>
+      <c r="CX420">
+        <v>25000</v>
+      </c>
+      <c r="DB420" s="29" t="e">
+        <f>AVERAGE(CY420:DA420)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DC420" s="5"/>
+      <c r="DD420" s="5"/>
+      <c r="DE420" s="5"/>
+      <c r="DF420" s="5"/>
+      <c r="DG420" s="34" t="e">
+        <f>DB420*1000/(CV420*CW420*CX420)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DI420" s="53">
+        <v>1</v>
+      </c>
+      <c r="DJ420">
+        <f>$B$418</f>
+        <v>320</v>
+      </c>
+      <c r="DK420">
+        <v>1</v>
+      </c>
+      <c r="DL420">
+        <v>30000</v>
+      </c>
+      <c r="DP420" s="29" t="e">
+        <f>AVERAGE(DM420:DO420)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DQ420" s="5"/>
+      <c r="DR420" s="5"/>
+      <c r="DS420" s="5"/>
+      <c r="DT420" s="5"/>
+      <c r="DU420" s="34" t="e">
+        <f>DP420*1000/(DJ420*DK420*DL420)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="421" spans="1:69" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:125" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A421" s="41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B421" s="41">
-        <f>$B$419</f>
-        <v>400</v>
+        <f>B420</f>
+        <v>320</v>
       </c>
       <c r="C421" s="41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D421" s="41">
         <v>1000</v>
       </c>
-      <c r="E421" s="41">
-        <v>12</v>
-      </c>
-      <c r="F421" s="41">
-        <v>12.1</v>
-      </c>
-      <c r="G421" s="41">
-        <v>12.6</v>
-      </c>
-      <c r="H421" s="42">
-        <f>AVERAGE(E421:G421)</f>
-        <v>12.233333333333334</v>
-      </c>
-      <c r="I421" s="57">
-        <v>10</v>
-      </c>
-      <c r="J421" s="57">
-        <v>6</v>
-      </c>
-      <c r="K421" s="57">
-        <v>13</v>
-      </c>
-      <c r="L421" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="M421" s="44">
+      <c r="H421" s="42" t="e">
+        <f t="shared" ref="H421" si="743">AVERAGE(E421:G421)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I421" s="56"/>
+      <c r="J421" s="57"/>
+      <c r="K421" s="56"/>
+      <c r="L421" s="43" t="e">
+        <f t="shared" ref="L421" si="744">AVERAGE(I421:K421)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M421" s="44" t="e">
         <f>H421*1000/(B421*C421*D421)</f>
-        <v>3.0583333333333334E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O421" s="41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P421" s="41">
-        <f>B419</f>
-        <v>400</v>
+        <f>P420</f>
+        <v>320</v>
       </c>
       <c r="Q421" s="41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R421" s="41">
         <v>2000</v>
       </c>
       <c r="S421" s="41">
-        <v>21.7</v>
+        <v>23.9</v>
       </c>
       <c r="T421" s="41">
-        <v>21.4</v>
+        <v>24.1</v>
       </c>
       <c r="U421" s="41">
-        <v>21.5</v>
+        <v>24.1</v>
       </c>
       <c r="V421" s="42">
-        <f>AVERAGE(S421:U421)</f>
-        <v>21.533333333333331</v>
-      </c>
-      <c r="W421" s="57">
-        <v>18</v>
-      </c>
-      <c r="X421" s="57">
-        <v>14</v>
-      </c>
-      <c r="Y421" s="57">
-        <v>15</v>
-      </c>
-      <c r="Z421" s="57" t="s">
-        <v>43</v>
-      </c>
+        <f t="shared" ref="V421" si="745">AVERAGE(S421:U421)</f>
+        <v>24.033333333333331</v>
+      </c>
+      <c r="W421" s="56"/>
+      <c r="X421" s="57"/>
+      <c r="Y421" s="56"/>
+      <c r="Z421" s="43"/>
       <c r="AA421" s="44">
         <f>V421*1000/(P421*Q421*R421)</f>
-        <v>2.6916666666666665E-2</v>
+        <v>1.8776041666666667E-2</v>
       </c>
       <c r="AC421" s="41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD421" s="41">
-        <f>B419</f>
-        <v>400</v>
+        <f>AD420</f>
+        <v>320</v>
       </c>
       <c r="AE421" s="41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF421" s="41">
         <v>3000</v>
       </c>
       <c r="AG421" s="41">
-        <v>30.5</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="AH421" s="41">
-        <v>30.6</v>
+        <v>34.9</v>
       </c>
       <c r="AI421" s="41">
-        <v>31.9</v>
+        <v>35</v>
       </c>
       <c r="AJ421" s="42">
-        <f>AVERAGE(AG421:AI421)</f>
-        <v>31</v>
-      </c>
-      <c r="AK421" s="57">
-        <v>22</v>
-      </c>
-      <c r="AL421" s="57">
-        <v>20</v>
-      </c>
-      <c r="AM421" s="57">
-        <v>22</v>
-      </c>
-      <c r="AN421" s="57" t="s">
-        <v>43</v>
-      </c>
+        <f t="shared" ref="AJ421" si="746">AVERAGE(AG421:AI421)</f>
+        <v>34.866666666666667</v>
+      </c>
+      <c r="AK421" s="56"/>
+      <c r="AL421" s="57"/>
+      <c r="AM421" s="56"/>
+      <c r="AN421" s="43"/>
       <c r="AO421" s="44">
         <f>AJ421*1000/(AD421*AE421*AF421)</f>
-        <v>2.5833333333333333E-2</v>
+        <v>1.8159722222222219E-2</v>
       </c>
       <c r="AQ421" s="41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR421" s="41">
-        <v>400</v>
+        <f>AR420</f>
+        <v>320</v>
       </c>
       <c r="AS421" s="41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT421" s="41">
         <v>5000</v>
       </c>
       <c r="AU421" s="41">
-        <v>48.9</v>
+        <v>56.2</v>
       </c>
       <c r="AV421" s="41">
-        <v>48.9</v>
+        <v>56.3</v>
       </c>
       <c r="AW421" s="41">
-        <v>48.9</v>
+        <v>56.2</v>
       </c>
       <c r="AX421" s="42">
-        <f>AVERAGE(AU421:AW421)</f>
-        <v>48.9</v>
-      </c>
-      <c r="AY421" s="57">
-        <v>22</v>
-      </c>
-      <c r="AZ421" s="57">
-        <v>20</v>
-      </c>
-      <c r="BA421" s="57">
-        <v>22</v>
-      </c>
-      <c r="BB421" s="57" t="s">
-        <v>43</v>
-      </c>
+        <f t="shared" ref="AX421" si="747">AVERAGE(AU421:AW421)</f>
+        <v>56.233333333333327</v>
+      </c>
+      <c r="AY421" s="56"/>
+      <c r="AZ421" s="57"/>
+      <c r="BA421" s="56"/>
+      <c r="BB421" s="43"/>
       <c r="BC421" s="44">
         <f>AX421*1000/(AR421*AS421*AT421)</f>
-        <v>2.445E-2</v>
+        <v>1.7572916666666664E-2</v>
       </c>
       <c r="BE421" s="55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF421" s="41">
-        <v>400</v>
+        <f>BF420</f>
+        <v>320</v>
       </c>
       <c r="BG421" s="41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BH421" s="41">
         <v>10000</v>
       </c>
       <c r="BI421" s="41">
-        <v>96.3</v>
+        <v>103.3</v>
       </c>
       <c r="BJ421" s="41">
-        <v>91.2</v>
+        <v>110.6</v>
       </c>
       <c r="BK421" s="41">
-        <v>95</v>
+        <v>108.6</v>
       </c>
       <c r="BL421" s="42">
-        <f>AVERAGE(BI421:BK421)</f>
-        <v>94.166666666666671</v>
-      </c>
-      <c r="BM421" s="57">
-        <v>22</v>
-      </c>
-      <c r="BN421" s="57">
-        <v>20</v>
-      </c>
-      <c r="BO421" s="57">
-        <v>22</v>
-      </c>
-      <c r="BP421" s="57" t="s">
-        <v>43</v>
-      </c>
+        <f t="shared" ref="BL421" si="748">AVERAGE(BI421:BK421)</f>
+        <v>107.5</v>
+      </c>
+      <c r="BM421" s="56"/>
+      <c r="BN421" s="57"/>
+      <c r="BO421" s="56"/>
+      <c r="BP421" s="43"/>
       <c r="BQ421" s="44">
         <f>BL421*1000/(BF421*BG421*BH421)</f>
-        <v>2.3541666666666669E-2</v>
+        <v>1.6796874999999999E-2</v>
+      </c>
+      <c r="BS421" s="55">
+        <v>2</v>
+      </c>
+      <c r="BT421" s="41">
+        <f>BT420</f>
+        <v>320</v>
+      </c>
+      <c r="BU421" s="41">
+        <v>2</v>
+      </c>
+      <c r="BV421" s="41">
+        <v>15000</v>
+      </c>
+      <c r="BW421" s="41">
+        <v>124</v>
+      </c>
+      <c r="BX421" s="41">
+        <v>125.3</v>
+      </c>
+      <c r="BY421" s="41">
+        <v>123.2</v>
+      </c>
+      <c r="BZ421" s="42">
+        <f t="shared" ref="BZ421" si="749">AVERAGE(BW421:BY421)</f>
+        <v>124.16666666666667</v>
+      </c>
+      <c r="CA421" s="56"/>
+      <c r="CB421" s="57"/>
+      <c r="CC421" s="56"/>
+      <c r="CD421" s="43"/>
+      <c r="CE421" s="44">
+        <f>BZ421*1000/(BT421*BU421*BV421)</f>
+        <v>1.2934027777777779E-2</v>
+      </c>
+      <c r="CG421" s="55">
+        <v>2</v>
+      </c>
+      <c r="CH421" s="41">
+        <f>CH420</f>
+        <v>320</v>
+      </c>
+      <c r="CI421" s="41">
+        <v>2</v>
+      </c>
+      <c r="CJ421" s="41">
+        <v>20000</v>
+      </c>
+      <c r="CK421" s="41">
+        <v>165.5</v>
+      </c>
+      <c r="CL421" s="41">
+        <v>163.69999999999999</v>
+      </c>
+      <c r="CM421" s="41">
+        <v>163.5</v>
+      </c>
+      <c r="CN421" s="42">
+        <f t="shared" ref="CN421" si="750">AVERAGE(CK421:CM421)</f>
+        <v>164.23333333333332</v>
+      </c>
+      <c r="CO421" s="56"/>
+      <c r="CP421" s="57"/>
+      <c r="CQ421" s="56"/>
+      <c r="CR421" s="43"/>
+      <c r="CS421" s="44">
+        <f>CN421*1000/(CH421*CI421*CJ421)</f>
+        <v>1.2830729166666666E-2</v>
+      </c>
+      <c r="CU421" s="55">
+        <v>2</v>
+      </c>
+      <c r="CV421" s="41">
+        <f>CV420</f>
+        <v>320</v>
+      </c>
+      <c r="CW421" s="41">
+        <v>2</v>
+      </c>
+      <c r="CX421" s="41">
+        <v>25000</v>
+      </c>
+      <c r="CY421" s="41">
+        <v>204.9</v>
+      </c>
+      <c r="CZ421" s="41">
+        <v>204.5</v>
+      </c>
+      <c r="DA421" s="41">
+        <v>204.5</v>
+      </c>
+      <c r="DB421" s="42">
+        <f t="shared" ref="DB421" si="751">AVERAGE(CY421:DA421)</f>
+        <v>204.63333333333333</v>
+      </c>
+      <c r="DC421" s="56"/>
+      <c r="DD421" s="57"/>
+      <c r="DE421" s="56"/>
+      <c r="DF421" s="43"/>
+      <c r="DG421" s="44">
+        <f>DB421*1000/(CV421*CW421*CX421)</f>
+        <v>1.2789583333333332E-2</v>
+      </c>
+      <c r="DI421" s="55">
+        <v>2</v>
+      </c>
+      <c r="DJ421" s="41">
+        <f>DJ420</f>
+        <v>320</v>
+      </c>
+      <c r="DK421" s="41">
+        <v>2</v>
+      </c>
+      <c r="DL421" s="41">
+        <v>30000</v>
+      </c>
+      <c r="DM421" s="41">
+        <v>244.7</v>
+      </c>
+      <c r="DN421" s="41">
+        <v>244.9</v>
+      </c>
+      <c r="DO421" s="41">
+        <v>244.8</v>
+      </c>
+      <c r="DP421" s="42">
+        <f t="shared" ref="DP421" si="752">AVERAGE(DM421:DO421)</f>
+        <v>244.80000000000004</v>
+      </c>
+      <c r="DQ421" s="56"/>
+      <c r="DR421" s="57"/>
+      <c r="DS421" s="56"/>
+      <c r="DT421" s="43"/>
+      <c r="DU421" s="44">
+        <f>DP421*1000/(DJ421*DK421*DL421)</f>
+        <v>1.2750000000000001E-2</v>
       </c>
     </row>
-    <row r="422" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>18</v>
       </c>
       <c r="B422">
         <f>B421</f>
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="C422">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D422">
         <v>1000</v>
@@ -74375,13 +74976,12 @@
       </c>
       <c r="P422">
         <f>P421</f>
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="Q422">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R422">
-        <f>R421</f>
         <v>2000</v>
       </c>
       <c r="V422" s="29" t="s">
@@ -74394,13 +74994,12 @@
       </c>
       <c r="AD422">
         <f>AD421</f>
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="AE422">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF422">
-        <f>AF421</f>
         <v>3000</v>
       </c>
       <c r="AJ422" s="29" t="s">
@@ -74413,13 +75012,12 @@
       </c>
       <c r="AR422">
         <f>AR421</f>
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="AS422">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT422">
-        <f>AT421</f>
         <v>5000</v>
       </c>
       <c r="AX422" s="29" t="s">
@@ -74432,13 +75030,12 @@
       </c>
       <c r="BF422">
         <f>BF421</f>
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="BG422">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH422">
-        <f>BH421</f>
         <v>10000</v>
       </c>
       <c r="BL422" s="29" t="s">
@@ -74446,6 +75043,585 @@
       </c>
       <c r="BP422" s="13"/>
       <c r="BQ422" s="34"/>
+      <c r="BS422" s="53">
+        <v>18</v>
+      </c>
+      <c r="BT422">
+        <f>BT421</f>
+        <v>320</v>
+      </c>
+      <c r="BU422">
+        <v>3</v>
+      </c>
+      <c r="BV422">
+        <v>15000</v>
+      </c>
+      <c r="BZ422" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="CD422" s="13"/>
+      <c r="CE422" s="34"/>
+      <c r="CG422" s="53">
+        <v>18</v>
+      </c>
+      <c r="CH422">
+        <f>CH421</f>
+        <v>320</v>
+      </c>
+      <c r="CI422">
+        <v>3</v>
+      </c>
+      <c r="CJ422">
+        <v>20000</v>
+      </c>
+      <c r="CN422" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="CR422" s="13"/>
+      <c r="CS422" s="34"/>
+      <c r="CU422" s="53">
+        <v>18</v>
+      </c>
+      <c r="CV422">
+        <f>CV421</f>
+        <v>320</v>
+      </c>
+      <c r="CW422">
+        <v>3</v>
+      </c>
+      <c r="CX422">
+        <v>25000</v>
+      </c>
+      <c r="DB422" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="DF422" s="13"/>
+      <c r="DG422" s="34"/>
+      <c r="DI422" s="53">
+        <v>18</v>
+      </c>
+      <c r="DJ422">
+        <f>DJ421</f>
+        <v>320</v>
+      </c>
+      <c r="DK422">
+        <v>3</v>
+      </c>
+      <c r="DL422">
+        <v>30000</v>
+      </c>
+      <c r="DP422" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="DT422" s="13"/>
+      <c r="DU422" s="34"/>
+    </row>
+    <row r="425" spans="1:125" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A425" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B425" s="40">
+        <v>400</v>
+      </c>
+      <c r="F425" s="35"/>
+      <c r="H425" s="36"/>
+      <c r="L425" s="37"/>
+      <c r="M425" s="37"/>
+      <c r="AA425" s="37"/>
+      <c r="BE425" s="54"/>
+    </row>
+    <row r="426" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A426" s="31"/>
+      <c r="B426" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C426" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D426" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E426" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F426" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G426" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H426" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I426" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J426" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="K426" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L426" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="M426" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="O426" s="31"/>
+      <c r="P426" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q426" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="R426" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="S426" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="T426" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="U426" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="V426" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="W426" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="X426" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y426" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z426" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA426" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC426" s="31"/>
+      <c r="AD426" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE426" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF426" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG426" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH426" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI426" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ426" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK426" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL426" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM426" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN426" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO426" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ426" s="31"/>
+      <c r="AR426" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS426" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT426" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="AU426" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="AV426" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="AW426" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="AX426" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="AY426" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ426" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="BA426" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="BB426" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="BC426" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE426" s="54"/>
+      <c r="BF426" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="BG426" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH426" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="BI426" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="BJ426" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="BK426" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="BL426" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="BM426" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="BN426" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO426" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="BP426" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="BQ426" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="427" spans="1:125" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A427" s="41">
+        <v>1</v>
+      </c>
+      <c r="B427" s="41">
+        <f>$B$425</f>
+        <v>400</v>
+      </c>
+      <c r="C427" s="41">
+        <v>1</v>
+      </c>
+      <c r="D427" s="41">
+        <v>1000</v>
+      </c>
+      <c r="E427" s="41">
+        <v>12</v>
+      </c>
+      <c r="F427" s="41">
+        <v>12.1</v>
+      </c>
+      <c r="G427" s="41">
+        <v>12.6</v>
+      </c>
+      <c r="H427" s="42">
+        <f>AVERAGE(E427:G427)</f>
+        <v>12.233333333333334</v>
+      </c>
+      <c r="I427" s="57">
+        <v>10</v>
+      </c>
+      <c r="J427" s="57">
+        <v>6</v>
+      </c>
+      <c r="K427" s="57">
+        <v>13</v>
+      </c>
+      <c r="L427" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="M427" s="44">
+        <f>H427*1000/(B427*C427*D427)</f>
+        <v>3.0583333333333334E-2</v>
+      </c>
+      <c r="O427" s="41">
+        <v>1</v>
+      </c>
+      <c r="P427" s="41">
+        <f>B425</f>
+        <v>400</v>
+      </c>
+      <c r="Q427" s="41">
+        <v>1</v>
+      </c>
+      <c r="R427" s="41">
+        <v>2000</v>
+      </c>
+      <c r="S427" s="41">
+        <v>21.7</v>
+      </c>
+      <c r="T427" s="41">
+        <v>21.4</v>
+      </c>
+      <c r="U427" s="41">
+        <v>21.5</v>
+      </c>
+      <c r="V427" s="42">
+        <f>AVERAGE(S427:U427)</f>
+        <v>21.533333333333331</v>
+      </c>
+      <c r="W427" s="57">
+        <v>18</v>
+      </c>
+      <c r="X427" s="57">
+        <v>14</v>
+      </c>
+      <c r="Y427" s="57">
+        <v>15</v>
+      </c>
+      <c r="Z427" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA427" s="44">
+        <f>V427*1000/(P427*Q427*R427)</f>
+        <v>2.6916666666666665E-2</v>
+      </c>
+      <c r="AC427" s="41">
+        <v>1</v>
+      </c>
+      <c r="AD427" s="41">
+        <f>B425</f>
+        <v>400</v>
+      </c>
+      <c r="AE427" s="41">
+        <v>1</v>
+      </c>
+      <c r="AF427" s="41">
+        <v>3000</v>
+      </c>
+      <c r="AG427" s="41">
+        <v>30.5</v>
+      </c>
+      <c r="AH427" s="41">
+        <v>30.6</v>
+      </c>
+      <c r="AI427" s="41">
+        <v>31.9</v>
+      </c>
+      <c r="AJ427" s="42">
+        <f>AVERAGE(AG427:AI427)</f>
+        <v>31</v>
+      </c>
+      <c r="AK427" s="57">
+        <v>22</v>
+      </c>
+      <c r="AL427" s="57">
+        <v>20</v>
+      </c>
+      <c r="AM427" s="57">
+        <v>22</v>
+      </c>
+      <c r="AN427" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO427" s="44">
+        <f>AJ427*1000/(AD427*AE427*AF427)</f>
+        <v>2.5833333333333333E-2</v>
+      </c>
+      <c r="AQ427" s="41">
+        <v>1</v>
+      </c>
+      <c r="AR427" s="41">
+        <v>400</v>
+      </c>
+      <c r="AS427" s="41">
+        <v>1</v>
+      </c>
+      <c r="AT427" s="41">
+        <v>5000</v>
+      </c>
+      <c r="AU427" s="41">
+        <v>48.9</v>
+      </c>
+      <c r="AV427" s="41">
+        <v>48.9</v>
+      </c>
+      <c r="AW427" s="41">
+        <v>48.9</v>
+      </c>
+      <c r="AX427" s="42">
+        <f>AVERAGE(AU427:AW427)</f>
+        <v>48.9</v>
+      </c>
+      <c r="AY427" s="57">
+        <v>22</v>
+      </c>
+      <c r="AZ427" s="57">
+        <v>20</v>
+      </c>
+      <c r="BA427" s="57">
+        <v>22</v>
+      </c>
+      <c r="BB427" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="BC427" s="44">
+        <f>AX427*1000/(AR427*AS427*AT427)</f>
+        <v>2.445E-2</v>
+      </c>
+      <c r="BE427" s="55">
+        <v>1</v>
+      </c>
+      <c r="BF427" s="41">
+        <v>400</v>
+      </c>
+      <c r="BG427" s="41">
+        <v>1</v>
+      </c>
+      <c r="BH427" s="41">
+        <v>10000</v>
+      </c>
+      <c r="BI427" s="41">
+        <v>96.3</v>
+      </c>
+      <c r="BJ427" s="41">
+        <v>91.2</v>
+      </c>
+      <c r="BK427" s="41">
+        <v>95</v>
+      </c>
+      <c r="BL427" s="42">
+        <f>AVERAGE(BI427:BK427)</f>
+        <v>94.166666666666671</v>
+      </c>
+      <c r="BM427" s="57">
+        <v>22</v>
+      </c>
+      <c r="BN427" s="57">
+        <v>20</v>
+      </c>
+      <c r="BO427" s="57">
+        <v>22</v>
+      </c>
+      <c r="BP427" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="BQ427" s="44">
+        <f>BL427*1000/(BF427*BG427*BH427)</f>
+        <v>2.3541666666666669E-2</v>
+      </c>
+    </row>
+    <row r="428" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>18</v>
+      </c>
+      <c r="B428">
+        <f>B427</f>
+        <v>400</v>
+      </c>
+      <c r="C428">
+        <v>2</v>
+      </c>
+      <c r="D428">
+        <v>1000</v>
+      </c>
+      <c r="H428" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="L428" s="13"/>
+      <c r="M428" s="34"/>
+      <c r="O428">
+        <v>18</v>
+      </c>
+      <c r="P428">
+        <f>P427</f>
+        <v>400</v>
+      </c>
+      <c r="Q428">
+        <v>2</v>
+      </c>
+      <c r="R428">
+        <f>R427</f>
+        <v>2000</v>
+      </c>
+      <c r="V428" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z428" s="13"/>
+      <c r="AA428" s="34"/>
+      <c r="AC428">
+        <v>18</v>
+      </c>
+      <c r="AD428">
+        <f>AD427</f>
+        <v>400</v>
+      </c>
+      <c r="AE428">
+        <v>2</v>
+      </c>
+      <c r="AF428">
+        <f>AF427</f>
+        <v>3000</v>
+      </c>
+      <c r="AJ428" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN428" s="13"/>
+      <c r="AO428" s="34"/>
+      <c r="AQ428">
+        <v>18</v>
+      </c>
+      <c r="AR428">
+        <f>AR427</f>
+        <v>400</v>
+      </c>
+      <c r="AS428">
+        <v>2</v>
+      </c>
+      <c r="AT428">
+        <f>AT427</f>
+        <v>5000</v>
+      </c>
+      <c r="AX428" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="BB428" s="13"/>
+      <c r="BC428" s="34"/>
+      <c r="BE428" s="53">
+        <v>18</v>
+      </c>
+      <c r="BF428">
+        <f>BF427</f>
+        <v>400</v>
+      </c>
+      <c r="BG428">
+        <v>2</v>
+      </c>
+      <c r="BH428">
+        <f>BH427</f>
+        <v>10000</v>
+      </c>
+      <c r="BL428" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="BP428" s="13"/>
+      <c r="BQ428" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/_09_PtmConvTest/Graphics.xlsx
+++ b/_09_PtmConvTest/Graphics.xlsx
@@ -3222,12 +3222,138 @@
         </r>
       </text>
     </comment>
+    <comment ref="M431" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA431" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO431" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BC431" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BQ431" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CE431" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CS431" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DG431" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DU431" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3634" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3761" uniqueCount="70">
   <si>
     <t>--------------Характеристики расчетной сетки----------------</t>
   </si>
@@ -11726,10 +11852,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:HA428"/>
+  <dimension ref="A1:HA433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CT394" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="DO424" sqref="DO424"/>
+    <sheetView tabSelected="1" topLeftCell="BN400" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BZ438" sqref="BZ438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -74664,9 +74790,18 @@
       <c r="D421" s="41">
         <v>1000</v>
       </c>
-      <c r="H421" s="42" t="e">
+      <c r="E421" s="41">
+        <v>13.2</v>
+      </c>
+      <c r="F421" s="41">
+        <v>13.2</v>
+      </c>
+      <c r="G421" s="41">
+        <v>13.2</v>
+      </c>
+      <c r="H421" s="42">
         <f t="shared" ref="H421" si="743">AVERAGE(E421:G421)</f>
-        <v>#DIV/0!</v>
+        <v>13.199999999999998</v>
       </c>
       <c r="I421" s="56"/>
       <c r="J421" s="57"/>
@@ -74675,9 +74810,9 @@
         <f t="shared" ref="L421" si="744">AVERAGE(I421:K421)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M421" s="44" t="e">
+      <c r="M421" s="44">
         <f>H421*1000/(B421*C421*D421)</f>
-        <v>#DIV/0!</v>
+        <v>2.0624999999999998E-2</v>
       </c>
       <c r="O421" s="41">
         <v>2</v>
@@ -75622,6 +75757,878 @@
       </c>
       <c r="BP428" s="13"/>
       <c r="BQ428" s="34"/>
+    </row>
+    <row r="430" spans="1:125" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A430" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B430" s="40">
+        <v>640</v>
+      </c>
+      <c r="F430" s="35"/>
+      <c r="H430" s="36"/>
+      <c r="L430" s="37"/>
+      <c r="M430" s="37"/>
+      <c r="AA430" s="37"/>
+      <c r="BE430" s="54"/>
+      <c r="BS430" s="54"/>
+      <c r="CG430" s="54"/>
+    </row>
+    <row r="431" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A431" s="31"/>
+      <c r="B431" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C431" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D431" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E431" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F431" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G431" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H431" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I431" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J431" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="K431" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L431" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="M431" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="O431" s="31"/>
+      <c r="P431" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q431" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="R431" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="S431" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="T431" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="U431" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="V431" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="W431" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="X431" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y431" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z431" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA431" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC431" s="31"/>
+      <c r="AD431" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE431" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF431" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG431" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH431" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI431" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ431" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK431" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL431" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM431" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN431" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO431" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ431" s="31"/>
+      <c r="AR431" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS431" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT431" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="AU431" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="AV431" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="AW431" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="AX431" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="AY431" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ431" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="BA431" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="BB431" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="BC431" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE431" s="54"/>
+      <c r="BF431" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="BG431" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH431" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="BI431" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="BJ431" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="BK431" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="BL431" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="BM431" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="BN431" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO431" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="BP431" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="BQ431" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="BS431" s="54"/>
+      <c r="BT431" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="BU431" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="BV431" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="BW431" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="BX431" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="BY431" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="BZ431" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="CA431" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="CB431" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="CC431" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="CD431" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="CE431" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="CG431" s="54"/>
+      <c r="CH431" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="CI431" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="CJ431" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="CK431" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="CL431" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="CM431" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="CN431" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="CO431" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="CP431" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="CQ431" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="CR431" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="CS431" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="CU431" s="54"/>
+      <c r="CV431" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="CW431" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="CX431" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="CY431" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="CZ431" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="DA431" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="DB431" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="DC431" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="DD431" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="DE431" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="DF431" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="DG431" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="DI431" s="54"/>
+      <c r="DJ431" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="DK431" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="DL431" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="DM431" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="DN431" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="DO431" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="DP431" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="DQ431" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="DR431" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="DS431" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="DT431" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="DU431" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="432" spans="1:125" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A432" s="41">
+        <v>1</v>
+      </c>
+      <c r="B432" s="41">
+        <f>$B$430</f>
+        <v>640</v>
+      </c>
+      <c r="C432" s="41">
+        <v>1</v>
+      </c>
+      <c r="D432" s="41">
+        <v>1000</v>
+      </c>
+      <c r="E432" s="41">
+        <v>15.2</v>
+      </c>
+      <c r="F432" s="41">
+        <v>15.4</v>
+      </c>
+      <c r="G432" s="41">
+        <v>15.3</v>
+      </c>
+      <c r="H432" s="42">
+        <f>AVERAGE(E432:G432)</f>
+        <v>15.300000000000002</v>
+      </c>
+      <c r="I432" s="57">
+        <v>10</v>
+      </c>
+      <c r="J432" s="57">
+        <v>6</v>
+      </c>
+      <c r="K432" s="57">
+        <v>13</v>
+      </c>
+      <c r="L432" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="M432" s="44">
+        <f>H432*1000/(B432*C432*D432)</f>
+        <v>2.3906250000000004E-2</v>
+      </c>
+      <c r="O432" s="41">
+        <v>1</v>
+      </c>
+      <c r="P432" s="41">
+        <f>$B$430</f>
+        <v>640</v>
+      </c>
+      <c r="Q432" s="41">
+        <v>1</v>
+      </c>
+      <c r="R432" s="41">
+        <v>2000</v>
+      </c>
+      <c r="S432" s="41">
+        <v>27.5</v>
+      </c>
+      <c r="T432" s="41">
+        <v>26.5</v>
+      </c>
+      <c r="U432" s="41">
+        <v>26.5</v>
+      </c>
+      <c r="V432" s="42">
+        <f>AVERAGE(S432:U432)</f>
+        <v>26.833333333333332</v>
+      </c>
+      <c r="W432" s="57">
+        <v>18</v>
+      </c>
+      <c r="X432" s="57">
+        <v>14</v>
+      </c>
+      <c r="Y432" s="57">
+        <v>15</v>
+      </c>
+      <c r="Z432" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA432" s="44">
+        <f>V432*1000/(P432*Q432*R432)</f>
+        <v>2.0963541666666665E-2</v>
+      </c>
+      <c r="AC432" s="41">
+        <v>1</v>
+      </c>
+      <c r="AD432" s="41">
+        <f>B430</f>
+        <v>640</v>
+      </c>
+      <c r="AE432" s="41">
+        <v>1</v>
+      </c>
+      <c r="AF432" s="41">
+        <v>3000</v>
+      </c>
+      <c r="AG432" s="41">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="AH432" s="41">
+        <v>37.6</v>
+      </c>
+      <c r="AI432" s="41">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="AJ432" s="42">
+        <f>AVERAGE(AG432:AI432)</f>
+        <v>37.4</v>
+      </c>
+      <c r="AK432" s="57">
+        <v>22</v>
+      </c>
+      <c r="AL432" s="57">
+        <v>20</v>
+      </c>
+      <c r="AM432" s="57">
+        <v>22</v>
+      </c>
+      <c r="AN432" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO432" s="44">
+        <f>AJ432*1000/(AD432*AE432*AF432)</f>
+        <v>1.9479166666666665E-2</v>
+      </c>
+      <c r="AQ432" s="41">
+        <v>1</v>
+      </c>
+      <c r="AR432" s="41">
+        <f>$B$430</f>
+        <v>640</v>
+      </c>
+      <c r="AS432" s="41">
+        <v>1</v>
+      </c>
+      <c r="AT432" s="41">
+        <v>5000</v>
+      </c>
+      <c r="AU432" s="41">
+        <v>57.7</v>
+      </c>
+      <c r="AV432" s="41">
+        <v>59.5</v>
+      </c>
+      <c r="AW432" s="41">
+        <v>59.5</v>
+      </c>
+      <c r="AX432" s="42">
+        <f>AVERAGE(AU432:AW432)</f>
+        <v>58.9</v>
+      </c>
+      <c r="AY432" s="57">
+        <v>22</v>
+      </c>
+      <c r="AZ432" s="57">
+        <v>20</v>
+      </c>
+      <c r="BA432" s="57">
+        <v>22</v>
+      </c>
+      <c r="BB432" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="BC432" s="44">
+        <f>AX432*1000/(AR432*AS432*AT432)</f>
+        <v>1.8406249999999999E-2</v>
+      </c>
+      <c r="BE432" s="55">
+        <v>1</v>
+      </c>
+      <c r="BF432" s="41">
+        <f>$B$430</f>
+        <v>640</v>
+      </c>
+      <c r="BG432" s="41">
+        <v>1</v>
+      </c>
+      <c r="BH432" s="41">
+        <v>10000</v>
+      </c>
+      <c r="BI432" s="41">
+        <v>89.1</v>
+      </c>
+      <c r="BJ432" s="41">
+        <v>93.3</v>
+      </c>
+      <c r="BK432" s="41">
+        <v>92</v>
+      </c>
+      <c r="BL432" s="42">
+        <f>AVERAGE(BI432:BK432)</f>
+        <v>91.466666666666654</v>
+      </c>
+      <c r="BM432" s="57">
+        <v>22</v>
+      </c>
+      <c r="BN432" s="57">
+        <v>20</v>
+      </c>
+      <c r="BO432" s="57">
+        <v>22</v>
+      </c>
+      <c r="BP432" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="BQ432" s="44">
+        <f>BL432*1000/(BF432*BG432*BH432)</f>
+        <v>1.4291666666666664E-2</v>
+      </c>
+      <c r="BS432" s="55">
+        <v>1</v>
+      </c>
+      <c r="BT432" s="41">
+        <f>$B$430</f>
+        <v>640</v>
+      </c>
+      <c r="BU432" s="41">
+        <v>1</v>
+      </c>
+      <c r="BV432" s="41">
+        <v>15000</v>
+      </c>
+      <c r="BW432" s="41">
+        <v>126.7</v>
+      </c>
+      <c r="BX432" s="41">
+        <v>126.7</v>
+      </c>
+      <c r="BY432" s="41">
+        <v>126.6</v>
+      </c>
+      <c r="BZ432" s="42">
+        <f>AVERAGE(BW432:BY432)</f>
+        <v>126.66666666666667</v>
+      </c>
+      <c r="CA432" s="57">
+        <v>22</v>
+      </c>
+      <c r="CB432" s="57">
+        <v>20</v>
+      </c>
+      <c r="CC432" s="57">
+        <v>22</v>
+      </c>
+      <c r="CD432" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="CE432" s="44">
+        <f>BZ432*1000/(BT432*BU432*BV432)</f>
+        <v>1.3194444444444444E-2</v>
+      </c>
+      <c r="CG432" s="55">
+        <v>1</v>
+      </c>
+      <c r="CH432" s="41">
+        <f>$B$430</f>
+        <v>640</v>
+      </c>
+      <c r="CI432" s="41">
+        <v>1</v>
+      </c>
+      <c r="CJ432" s="41">
+        <v>20000</v>
+      </c>
+      <c r="CN432" s="42" t="e">
+        <f>AVERAGE(CK432:CM432)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CO432" s="57">
+        <v>22</v>
+      </c>
+      <c r="CP432" s="57">
+        <v>20</v>
+      </c>
+      <c r="CQ432" s="57">
+        <v>22</v>
+      </c>
+      <c r="CR432" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="CS432" s="44" t="e">
+        <f>CN432*1000/(CH432*CI432*CJ432)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CU432" s="55">
+        <v>1</v>
+      </c>
+      <c r="CV432" s="41">
+        <f>$B$430</f>
+        <v>640</v>
+      </c>
+      <c r="CW432" s="41">
+        <v>1</v>
+      </c>
+      <c r="CX432" s="41">
+        <v>25000</v>
+      </c>
+      <c r="DB432" s="42" t="e">
+        <f>AVERAGE(CY432:DA432)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DC432" s="57">
+        <v>22</v>
+      </c>
+      <c r="DD432" s="57">
+        <v>20</v>
+      </c>
+      <c r="DE432" s="57">
+        <v>22</v>
+      </c>
+      <c r="DF432" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="DG432" s="44" t="e">
+        <f>DB432*1000/(CV432*CW432*CX432)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DI432" s="55">
+        <v>1</v>
+      </c>
+      <c r="DJ432" s="41">
+        <f>$B$430</f>
+        <v>640</v>
+      </c>
+      <c r="DK432" s="41">
+        <v>1</v>
+      </c>
+      <c r="DL432" s="41">
+        <v>30000</v>
+      </c>
+      <c r="DP432" s="42" t="e">
+        <f>AVERAGE(DM432:DO432)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DQ432" s="57">
+        <v>22</v>
+      </c>
+      <c r="DR432" s="57">
+        <v>20</v>
+      </c>
+      <c r="DS432" s="57">
+        <v>22</v>
+      </c>
+      <c r="DT432" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="DU432" s="44" t="e">
+        <f>DP432*1000/(DJ432*DK432*DL432)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="433" spans="1:125" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>18</v>
+      </c>
+      <c r="B433">
+        <f>B432</f>
+        <v>640</v>
+      </c>
+      <c r="C433">
+        <v>2</v>
+      </c>
+      <c r="D433">
+        <v>1000</v>
+      </c>
+      <c r="H433" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="L433" s="13"/>
+      <c r="M433" s="34"/>
+      <c r="O433">
+        <v>18</v>
+      </c>
+      <c r="P433">
+        <f>P432</f>
+        <v>640</v>
+      </c>
+      <c r="Q433">
+        <v>2</v>
+      </c>
+      <c r="R433">
+        <f>R432</f>
+        <v>2000</v>
+      </c>
+      <c r="V433" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z433" s="13"/>
+      <c r="AA433" s="34"/>
+      <c r="AC433">
+        <v>18</v>
+      </c>
+      <c r="AD433">
+        <f>AD432</f>
+        <v>640</v>
+      </c>
+      <c r="AE433">
+        <v>2</v>
+      </c>
+      <c r="AF433">
+        <f>AF432</f>
+        <v>3000</v>
+      </c>
+      <c r="AJ433" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN433" s="13"/>
+      <c r="AO433" s="34"/>
+      <c r="AQ433">
+        <v>18</v>
+      </c>
+      <c r="AR433">
+        <f>AR432</f>
+        <v>640</v>
+      </c>
+      <c r="AS433">
+        <v>2</v>
+      </c>
+      <c r="AT433">
+        <f>AT432</f>
+        <v>5000</v>
+      </c>
+      <c r="AX433" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="BB433" s="13"/>
+      <c r="BC433" s="34"/>
+      <c r="BE433" s="53">
+        <v>18</v>
+      </c>
+      <c r="BF433">
+        <f>BF432</f>
+        <v>640</v>
+      </c>
+      <c r="BG433">
+        <v>2</v>
+      </c>
+      <c r="BH433">
+        <f>BH432</f>
+        <v>10000</v>
+      </c>
+      <c r="BL433" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="BP433" s="13"/>
+      <c r="BQ433" s="34"/>
+      <c r="BS433" s="53">
+        <v>18</v>
+      </c>
+      <c r="BT433">
+        <f>BT432</f>
+        <v>640</v>
+      </c>
+      <c r="BU433">
+        <v>2</v>
+      </c>
+      <c r="BV433">
+        <v>15000</v>
+      </c>
+      <c r="BZ433" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="CD433" s="13"/>
+      <c r="CE433" s="34"/>
+      <c r="CG433" s="53">
+        <v>18</v>
+      </c>
+      <c r="CH433">
+        <f>CH432</f>
+        <v>640</v>
+      </c>
+      <c r="CI433">
+        <v>2</v>
+      </c>
+      <c r="CJ433">
+        <v>20000</v>
+      </c>
+      <c r="CN433" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="CR433" s="13"/>
+      <c r="CS433" s="34"/>
+      <c r="CU433" s="53">
+        <v>18</v>
+      </c>
+      <c r="CV433">
+        <f>CV432</f>
+        <v>640</v>
+      </c>
+      <c r="CW433">
+        <v>2</v>
+      </c>
+      <c r="CX433">
+        <v>25000</v>
+      </c>
+      <c r="DB433" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="DF433" s="13"/>
+      <c r="DG433" s="34"/>
+      <c r="DI433" s="53">
+        <v>18</v>
+      </c>
+      <c r="DJ433">
+        <f>DJ432</f>
+        <v>640</v>
+      </c>
+      <c r="DK433">
+        <v>2</v>
+      </c>
+      <c r="DL433">
+        <v>30000</v>
+      </c>
+      <c r="DP433" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="DT433" s="13"/>
+      <c r="DU433" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/_09_PtmConvTest/Graphics.xlsx
+++ b/_09_PtmConvTest/Graphics.xlsx
@@ -2760,6 +2760,62 @@
         </r>
       </text>
     </comment>
+    <comment ref="CE389" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CS389" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DG389" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DU389" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Время расчета 1000 узлов, мс</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="M398" authorId="0">
       <text>
         <r>
@@ -3423,7 +3479,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3832" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3888" uniqueCount="70">
   <si>
     <t>--------------Характеристики расчетной сетки----------------</t>
   </si>
@@ -11924,8 +11980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:HA442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE412" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A394" sqref="A394:XFD394"/>
+    <sheetView tabSelected="1" topLeftCell="CS373" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="DI394" sqref="DI394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -70188,7 +70244,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="385" spans="1:69" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:125" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A385" s="41">
         <v>6</v>
       </c>
@@ -70369,7 +70425,7 @@
         <v>1.8566666666666665E-2</v>
       </c>
     </row>
-    <row r="386" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>18</v>
       </c>
@@ -70461,7 +70517,7 @@
       <c r="BP386" s="13"/>
       <c r="BQ386" s="34"/>
     </row>
-    <row r="388" spans="1:69" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:125" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A388" s="39" t="s">
         <v>59</v>
       </c>
@@ -70475,7 +70531,7 @@
       <c r="AA388" s="37"/>
       <c r="BE388" s="54"/>
     </row>
-    <row r="389" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A389" s="31"/>
       <c r="B389" s="32" t="s">
         <v>11</v>
@@ -70661,8 +70717,156 @@
       <c r="BQ389" s="33" t="s">
         <v>45</v>
       </c>
+      <c r="BS389" s="54"/>
+      <c r="BT389" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="BU389" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="BV389" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="BW389" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="BX389" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="BY389" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="BZ389" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="CA389" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="CB389" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="CC389" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="CD389" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="CE389" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="CG389" s="54"/>
+      <c r="CH389" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="CI389" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="CJ389" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="CK389" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="CL389" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="CM389" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="CN389" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="CO389" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="CP389" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="CQ389" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="CR389" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="CS389" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="CU389" s="54"/>
+      <c r="CV389" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="CW389" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="CX389" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="CY389" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="CZ389" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="DA389" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="DB389" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="DC389" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="DD389" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="DE389" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="DF389" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="DG389" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="DI389" s="54"/>
+      <c r="DJ389" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="DK389" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="DL389" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="DM389" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="DN389" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="DO389" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="DP389" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="DQ389" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="DR389" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="DS389" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="DT389" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="DU389" s="33" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="390" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>1</v>
       </c>
@@ -70798,8 +71002,116 @@
         <f>BL390*1000/(BF390*BG390*BH390)</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="BS390" s="53">
+        <v>1</v>
+      </c>
+      <c r="BT390">
+        <f>$B$388</f>
+        <v>128</v>
+      </c>
+      <c r="BU390">
+        <v>1</v>
+      </c>
+      <c r="BV390">
+        <v>15000</v>
+      </c>
+      <c r="BZ390" s="29" t="e">
+        <f>AVERAGE(BW390:BY390)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CA390" s="5"/>
+      <c r="CB390" s="5"/>
+      <c r="CC390" s="5"/>
+      <c r="CD390" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="CE390" s="34" t="e">
+        <f>BZ390*1000/(BT390*BU390*BV390)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CG390" s="53">
+        <v>1</v>
+      </c>
+      <c r="CH390">
+        <f>$B$388</f>
+        <v>128</v>
+      </c>
+      <c r="CI390">
+        <v>1</v>
+      </c>
+      <c r="CJ390">
+        <v>20000</v>
+      </c>
+      <c r="CN390" s="29" t="e">
+        <f>AVERAGE(CK390:CM390)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CO390" s="5"/>
+      <c r="CP390" s="5"/>
+      <c r="CQ390" s="5"/>
+      <c r="CR390" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="CS390" s="34" t="e">
+        <f>CN390*1000/(CH390*CI390*CJ390)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CU390" s="53">
+        <v>1</v>
+      </c>
+      <c r="CV390">
+        <f>$B$388</f>
+        <v>128</v>
+      </c>
+      <c r="CW390">
+        <v>1</v>
+      </c>
+      <c r="CX390">
+        <v>25000</v>
+      </c>
+      <c r="DB390" s="29" t="e">
+        <f>AVERAGE(CY390:DA390)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DC390" s="5"/>
+      <c r="DD390" s="5"/>
+      <c r="DE390" s="5"/>
+      <c r="DF390" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="DG390" s="34" t="e">
+        <f>DB390*1000/(CV390*CW390*CX390)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DI390" s="53">
+        <v>1</v>
+      </c>
+      <c r="DJ390">
+        <f>$B$388</f>
+        <v>128</v>
+      </c>
+      <c r="DK390">
+        <v>1</v>
+      </c>
+      <c r="DL390">
+        <v>30000</v>
+      </c>
+      <c r="DP390" s="29" t="e">
+        <f>AVERAGE(DM390:DO390)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DQ390" s="5"/>
+      <c r="DR390" s="5"/>
+      <c r="DS390" s="5"/>
+      <c r="DT390" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="DU390" s="34" t="e">
+        <f>DP390*1000/(DJ390*DK390*DL390)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="391" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>2</v>
       </c>
@@ -70940,13 +71252,125 @@
         <f>BL391*1000/(BF391*BG391*BH391)</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="BS391" s="53">
+        <v>2</v>
+      </c>
+      <c r="BT391">
+        <f>BT390</f>
+        <v>128</v>
+      </c>
+      <c r="BU391">
+        <v>2</v>
+      </c>
+      <c r="BV391">
+        <v>15000</v>
+      </c>
+      <c r="BZ391" s="29" t="e">
+        <f t="shared" ref="BZ391:BZ394" si="671">AVERAGE(BW391:BY391)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CA391" s="38"/>
+      <c r="CB391" s="5"/>
+      <c r="CC391" s="38"/>
+      <c r="CD391" s="13" t="e">
+        <f t="shared" ref="CD391:CD394" si="672">AVERAGE(CA391:CC391)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CE391" s="34" t="e">
+        <f>BZ391*1000/(BT391*BU391*BV391)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CG391" s="53">
+        <v>2</v>
+      </c>
+      <c r="CH391">
+        <f>CH390</f>
+        <v>128</v>
+      </c>
+      <c r="CI391">
+        <v>2</v>
+      </c>
+      <c r="CJ391">
+        <v>20000</v>
+      </c>
+      <c r="CN391" s="29" t="e">
+        <f t="shared" ref="CN391:CN394" si="673">AVERAGE(CK391:CM391)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CO391" s="38"/>
+      <c r="CP391" s="5"/>
+      <c r="CQ391" s="38"/>
+      <c r="CR391" s="13" t="e">
+        <f t="shared" ref="CR391:CR394" si="674">AVERAGE(CO391:CQ391)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CS391" s="34" t="e">
+        <f>CN391*1000/(CH391*CI391*CJ391)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CU391" s="53">
+        <v>2</v>
+      </c>
+      <c r="CV391">
+        <f>CV390</f>
+        <v>128</v>
+      </c>
+      <c r="CW391">
+        <v>2</v>
+      </c>
+      <c r="CX391">
+        <v>25000</v>
+      </c>
+      <c r="DB391" s="29" t="e">
+        <f t="shared" ref="DB391:DB394" si="675">AVERAGE(CY391:DA391)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DC391" s="38"/>
+      <c r="DD391" s="5"/>
+      <c r="DE391" s="38"/>
+      <c r="DF391" s="13" t="e">
+        <f t="shared" ref="DF391:DF394" si="676">AVERAGE(DC391:DE391)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DG391" s="34" t="e">
+        <f>DB391*1000/(CV391*CW391*CX391)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DI391" s="53">
+        <v>2</v>
+      </c>
+      <c r="DJ391">
+        <f>DJ390</f>
+        <v>128</v>
+      </c>
+      <c r="DK391">
+        <v>2</v>
+      </c>
+      <c r="DL391">
+        <v>30000</v>
+      </c>
+      <c r="DP391" s="29" t="e">
+        <f t="shared" ref="DP391:DP394" si="677">AVERAGE(DM391:DO391)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DQ391" s="38"/>
+      <c r="DR391" s="5"/>
+      <c r="DS391" s="38"/>
+      <c r="DT391" s="13" t="e">
+        <f t="shared" ref="DT391:DT394" si="678">AVERAGE(DQ391:DS391)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DU391" s="34" t="e">
+        <f>DP391*1000/(DJ391*DK391*DL391)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="392" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>3</v>
       </c>
       <c r="B392">
-        <f t="shared" ref="B392:B395" si="671">B391</f>
+        <f t="shared" ref="B392:B395" si="679">B391</f>
         <v>128</v>
       </c>
       <c r="C392">
@@ -70964,14 +71388,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M392" s="34" t="e">
-        <f t="shared" ref="M392:M394" si="672">H392*1000/(B392*C392*D392)</f>
+        <f t="shared" ref="M392:M394" si="680">H392*1000/(B392*C392*D392)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O392">
         <v>3</v>
       </c>
       <c r="P392">
-        <f t="shared" ref="P392:P394" si="673">P391</f>
+        <f t="shared" ref="P392:P395" si="681">P391</f>
         <v>128</v>
       </c>
       <c r="Q392">
@@ -70989,14 +71413,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AA392" s="34" t="e">
-        <f t="shared" ref="AA392:AA394" si="674">V392*1000/(P392*Q392*R392)</f>
+        <f t="shared" ref="AA392:AA394" si="682">V392*1000/(P392*Q392*R392)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AC392">
         <v>3</v>
       </c>
       <c r="AD392">
-        <f t="shared" ref="AD392:AD394" si="675">AD391</f>
+        <f t="shared" ref="AD392:AD395" si="683">AD391</f>
         <v>128</v>
       </c>
       <c r="AE392">
@@ -71014,14 +71438,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO392" s="34" t="e">
-        <f t="shared" ref="AO392:AO394" si="676">AJ392*1000/(AD392*AE392*AF392)</f>
+        <f t="shared" ref="AO392:AO394" si="684">AJ392*1000/(AD392*AE392*AF392)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ392">
         <v>3</v>
       </c>
       <c r="AR392">
-        <f t="shared" ref="AR392:AR394" si="677">AR391</f>
+        <f t="shared" ref="AR392:AR395" si="685">AR391</f>
         <v>128</v>
       </c>
       <c r="AS392">
@@ -71039,14 +71463,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="BC392" s="34" t="e">
-        <f t="shared" ref="BC392:BC394" si="678">AX392*1000/(AR392*AS392*AT392)</f>
+        <f t="shared" ref="BC392:BC394" si="686">AX392*1000/(AR392*AS392*AT392)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BE392" s="53">
         <v>3</v>
       </c>
       <c r="BF392">
-        <f t="shared" ref="BF392:BF394" si="679">BF391</f>
+        <f t="shared" ref="BF392:BF395" si="687">BF391</f>
         <v>128</v>
       </c>
       <c r="BG392">
@@ -71064,16 +71488,116 @@
         <v>#DIV/0!</v>
       </c>
       <c r="BQ392" s="34" t="e">
-        <f t="shared" ref="BQ392:BQ394" si="680">BL392*1000/(BF392*BG392*BH392)</f>
+        <f t="shared" ref="BQ392:BQ394" si="688">BL392*1000/(BF392*BG392*BH392)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BS392" s="53">
+        <v>3</v>
+      </c>
+      <c r="BT392">
+        <f t="shared" ref="BT392:BT395" si="689">BT391</f>
+        <v>128</v>
+      </c>
+      <c r="BU392">
+        <v>3</v>
+      </c>
+      <c r="BV392">
+        <v>15000</v>
+      </c>
+      <c r="BZ392" s="29" t="e">
+        <f t="shared" si="671"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CD392" s="13" t="e">
+        <f t="shared" si="672"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CE392" s="34" t="e">
+        <f t="shared" ref="CE392:CE394" si="690">BZ392*1000/(BT392*BU392*BV392)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CG392" s="53">
+        <v>3</v>
+      </c>
+      <c r="CH392">
+        <f t="shared" ref="CH392:CH395" si="691">CH391</f>
+        <v>128</v>
+      </c>
+      <c r="CI392">
+        <v>3</v>
+      </c>
+      <c r="CJ392">
+        <v>20000</v>
+      </c>
+      <c r="CN392" s="29" t="e">
+        <f t="shared" si="673"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CR392" s="13" t="e">
+        <f t="shared" si="674"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CS392" s="34" t="e">
+        <f t="shared" ref="CS392:CS394" si="692">CN392*1000/(CH392*CI392*CJ392)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CU392" s="53">
+        <v>3</v>
+      </c>
+      <c r="CV392">
+        <f t="shared" ref="CV392:CV395" si="693">CV391</f>
+        <v>128</v>
+      </c>
+      <c r="CW392">
+        <v>3</v>
+      </c>
+      <c r="CX392">
+        <v>25000</v>
+      </c>
+      <c r="DB392" s="29" t="e">
+        <f t="shared" si="675"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DF392" s="13" t="e">
+        <f t="shared" si="676"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DG392" s="34" t="e">
+        <f t="shared" ref="DG392:DG394" si="694">DB392*1000/(CV392*CW392*CX392)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DI392" s="53">
+        <v>3</v>
+      </c>
+      <c r="DJ392">
+        <f t="shared" ref="DJ392:DJ395" si="695">DJ391</f>
+        <v>128</v>
+      </c>
+      <c r="DK392">
+        <v>3</v>
+      </c>
+      <c r="DL392">
+        <v>30000</v>
+      </c>
+      <c r="DP392" s="29" t="e">
+        <f t="shared" si="677"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DT392" s="13" t="e">
+        <f t="shared" si="678"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DU392" s="34" t="e">
+        <f t="shared" ref="DU392:DU394" si="696">DP392*1000/(DJ392*DK392*DL392)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="393" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>4</v>
       </c>
       <c r="B393">
-        <f t="shared" si="671"/>
+        <f t="shared" si="679"/>
         <v>128</v>
       </c>
       <c r="C393">
@@ -71091,14 +71615,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M393" s="34" t="e">
-        <f t="shared" si="672"/>
+        <f t="shared" si="680"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O393">
         <v>4</v>
       </c>
       <c r="P393">
-        <f t="shared" si="673"/>
+        <f t="shared" si="681"/>
         <v>128</v>
       </c>
       <c r="Q393">
@@ -71116,14 +71640,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AA393" s="34" t="e">
-        <f t="shared" si="674"/>
+        <f t="shared" si="682"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC393">
         <v>4</v>
       </c>
       <c r="AD393">
-        <f t="shared" si="675"/>
+        <f t="shared" si="683"/>
         <v>128</v>
       </c>
       <c r="AE393">
@@ -71141,14 +71665,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO393" s="34" t="e">
-        <f t="shared" si="676"/>
+        <f t="shared" si="684"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ393">
         <v>4</v>
       </c>
       <c r="AR393">
-        <f t="shared" si="677"/>
+        <f t="shared" si="685"/>
         <v>128</v>
       </c>
       <c r="AS393">
@@ -71166,66 +71690,175 @@
         <v>#DIV/0!</v>
       </c>
       <c r="BC393" s="34" t="e">
-        <f t="shared" si="678"/>
+        <f t="shared" si="686"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BE393" s="53">
         <v>4</v>
       </c>
       <c r="BF393">
+        <f t="shared" si="687"/>
+        <v>128</v>
+      </c>
+      <c r="BG393">
+        <v>4</v>
+      </c>
+      <c r="BH393">
+        <v>10000</v>
+      </c>
+      <c r="BL393" s="29" t="e">
+        <f t="shared" si="669"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BP393" s="13" t="e">
+        <f t="shared" si="670"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BQ393" s="34" t="e">
+        <f t="shared" si="688"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BS393" s="53">
+        <v>4</v>
+      </c>
+      <c r="BT393">
+        <f t="shared" si="689"/>
+        <v>128</v>
+      </c>
+      <c r="BU393">
+        <v>4</v>
+      </c>
+      <c r="BV393">
+        <v>15000</v>
+      </c>
+      <c r="BZ393" s="29" t="e">
+        <f t="shared" si="671"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CD393" s="13" t="e">
+        <f t="shared" si="672"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CE393" s="34" t="e">
+        <f t="shared" si="690"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CG393" s="53">
+        <v>4</v>
+      </c>
+      <c r="CH393">
+        <f t="shared" si="691"/>
+        <v>128</v>
+      </c>
+      <c r="CI393">
+        <v>4</v>
+      </c>
+      <c r="CJ393">
+        <v>20000</v>
+      </c>
+      <c r="CN393" s="29" t="e">
+        <f t="shared" si="673"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CR393" s="13" t="e">
+        <f t="shared" si="674"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CS393" s="34" t="e">
+        <f t="shared" si="692"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CU393" s="53">
+        <v>4</v>
+      </c>
+      <c r="CV393">
+        <f t="shared" si="693"/>
+        <v>128</v>
+      </c>
+      <c r="CW393">
+        <v>4</v>
+      </c>
+      <c r="CX393">
+        <v>25000</v>
+      </c>
+      <c r="DB393" s="29" t="e">
+        <f t="shared" si="675"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DF393" s="13" t="e">
+        <f t="shared" si="676"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DG393" s="34" t="e">
+        <f t="shared" si="694"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DI393" s="53">
+        <v>4</v>
+      </c>
+      <c r="DJ393">
+        <f t="shared" si="695"/>
+        <v>128</v>
+      </c>
+      <c r="DK393">
+        <v>4</v>
+      </c>
+      <c r="DL393">
+        <v>30000</v>
+      </c>
+      <c r="DP393" s="29" t="e">
+        <f t="shared" si="677"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DT393" s="13" t="e">
+        <f t="shared" si="678"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DU393" s="34" t="e">
+        <f t="shared" si="696"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="394" spans="1:125" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A394" s="41">
+        <v>5</v>
+      </c>
+      <c r="B394" s="41">
         <f t="shared" si="679"/>
         <v>128</v>
       </c>
-      <c r="BG393">
-        <v>4</v>
-      </c>
-      <c r="BH393">
-        <v>10000</v>
-      </c>
-      <c r="BL393" s="29" t="e">
-        <f t="shared" si="669"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BP393" s="13" t="e">
-        <f t="shared" si="670"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BQ393" s="34" t="e">
-        <f t="shared" si="680"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="394" spans="1:69" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A394" s="41">
-        <v>5</v>
-      </c>
-      <c r="B394" s="41">
-        <f t="shared" si="671"/>
-        <v>128</v>
-      </c>
       <c r="C394" s="41">
         <v>5</v>
       </c>
       <c r="D394" s="41">
         <v>1000</v>
       </c>
-      <c r="H394" s="42" t="e">
+      <c r="E394" s="41">
+        <v>12.9</v>
+      </c>
+      <c r="F394" s="41">
+        <v>13.1</v>
+      </c>
+      <c r="G394" s="41">
+        <v>13</v>
+      </c>
+      <c r="H394" s="42">
         <f t="shared" si="661"/>
-        <v>#DIV/0!</v>
+        <v>13</v>
       </c>
       <c r="L394" s="43" t="e">
         <f t="shared" si="662"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M394" s="44" t="e">
-        <f t="shared" si="672"/>
-        <v>#DIV/0!</v>
+      <c r="M394" s="44">
+        <f t="shared" si="680"/>
+        <v>2.0312500000000001E-2</v>
       </c>
       <c r="O394" s="41">
         <v>5</v>
       </c>
       <c r="P394" s="41">
-        <f t="shared" si="673"/>
+        <f t="shared" si="681"/>
         <v>128</v>
       </c>
       <c r="Q394" s="41">
@@ -71234,23 +71867,32 @@
       <c r="R394" s="41">
         <v>2000</v>
       </c>
-      <c r="V394" s="42" t="e">
+      <c r="S394" s="41">
+        <v>24.7</v>
+      </c>
+      <c r="T394" s="41">
+        <v>24.8</v>
+      </c>
+      <c r="U394" s="41">
+        <v>24.8</v>
+      </c>
+      <c r="V394" s="42">
         <f t="shared" si="663"/>
-        <v>#DIV/0!</v>
+        <v>24.766666666666666</v>
       </c>
       <c r="Z394" s="43" t="e">
         <f t="shared" si="664"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA394" s="44" t="e">
-        <f t="shared" si="674"/>
-        <v>#DIV/0!</v>
+      <c r="AA394" s="44">
+        <f t="shared" si="682"/>
+        <v>1.9348958333333333E-2</v>
       </c>
       <c r="AC394" s="41">
         <v>5</v>
       </c>
       <c r="AD394" s="41">
-        <f t="shared" si="675"/>
+        <f t="shared" si="683"/>
         <v>128</v>
       </c>
       <c r="AE394" s="41">
@@ -71259,23 +71901,32 @@
       <c r="AF394" s="41">
         <v>3000</v>
       </c>
-      <c r="AJ394" s="42" t="e">
+      <c r="AG394" s="41">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="AH394" s="41">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="AI394" s="41">
+        <v>36.5</v>
+      </c>
+      <c r="AJ394" s="42">
         <f t="shared" si="665"/>
-        <v>#DIV/0!</v>
+        <v>36.300000000000004</v>
       </c>
       <c r="AN394" s="43" t="e">
         <f t="shared" si="666"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO394" s="44" t="e">
-        <f t="shared" si="676"/>
-        <v>#DIV/0!</v>
+      <c r="AO394" s="44">
+        <f t="shared" si="684"/>
+        <v>1.8906250000000003E-2</v>
       </c>
       <c r="AQ394" s="41">
         <v>5</v>
       </c>
       <c r="AR394" s="41">
-        <f t="shared" si="677"/>
+        <f t="shared" si="685"/>
         <v>128</v>
       </c>
       <c r="AS394" s="41">
@@ -71284,23 +71935,32 @@
       <c r="AT394" s="41">
         <v>5000</v>
       </c>
-      <c r="AX394" s="42" t="e">
+      <c r="AU394" s="41">
+        <v>59.4</v>
+      </c>
+      <c r="AV394" s="41">
+        <v>59.4</v>
+      </c>
+      <c r="AW394" s="41">
+        <v>59.4</v>
+      </c>
+      <c r="AX394" s="42">
         <f t="shared" si="667"/>
-        <v>#DIV/0!</v>
+        <v>59.4</v>
       </c>
       <c r="BB394" s="43" t="e">
         <f t="shared" si="668"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BC394" s="44" t="e">
-        <f t="shared" si="678"/>
-        <v>#DIV/0!</v>
+      <c r="BC394" s="44">
+        <f t="shared" si="686"/>
+        <v>1.8562499999999999E-2</v>
       </c>
       <c r="BE394" s="55">
         <v>5</v>
       </c>
       <c r="BF394" s="41">
-        <f t="shared" si="679"/>
+        <f t="shared" si="687"/>
         <v>128</v>
       </c>
       <c r="BG394" s="41">
@@ -71309,25 +71969,170 @@
       <c r="BH394" s="41">
         <v>10000</v>
       </c>
-      <c r="BL394" s="42" t="e">
+      <c r="BI394" s="41">
+        <v>118.9</v>
+      </c>
+      <c r="BJ394" s="41">
+        <v>114</v>
+      </c>
+      <c r="BK394" s="41">
+        <v>117.9</v>
+      </c>
+      <c r="BL394" s="42">
         <f t="shared" si="669"/>
-        <v>#DIV/0!</v>
+        <v>116.93333333333334</v>
       </c>
       <c r="BP394" s="43" t="e">
         <f t="shared" si="670"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="BQ394" s="44" t="e">
-        <f t="shared" si="680"/>
-        <v>#DIV/0!</v>
+      <c r="BQ394" s="44">
+        <f t="shared" si="688"/>
+        <v>1.8270833333333333E-2</v>
+      </c>
+      <c r="BS394" s="55">
+        <v>5</v>
+      </c>
+      <c r="BT394" s="41">
+        <f t="shared" si="689"/>
+        <v>128</v>
+      </c>
+      <c r="BU394" s="41">
+        <v>5</v>
+      </c>
+      <c r="BV394" s="41">
+        <v>15000</v>
+      </c>
+      <c r="BW394" s="41">
+        <v>139.80000000000001</v>
+      </c>
+      <c r="BX394" s="41">
+        <v>143.1</v>
+      </c>
+      <c r="BY394" s="41">
+        <v>144.1</v>
+      </c>
+      <c r="BZ394" s="42">
+        <f t="shared" si="671"/>
+        <v>142.33333333333334</v>
+      </c>
+      <c r="CD394" s="43" t="e">
+        <f t="shared" si="672"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CE394" s="44">
+        <f t="shared" si="690"/>
+        <v>1.4826388888888891E-2</v>
+      </c>
+      <c r="CG394" s="55">
+        <v>5</v>
+      </c>
+      <c r="CH394" s="41">
+        <f t="shared" si="691"/>
+        <v>128</v>
+      </c>
+      <c r="CI394" s="41">
+        <v>5</v>
+      </c>
+      <c r="CJ394" s="41">
+        <v>20000</v>
+      </c>
+      <c r="CK394" s="41">
+        <v>172.3</v>
+      </c>
+      <c r="CL394" s="41">
+        <v>172.2</v>
+      </c>
+      <c r="CM394" s="41">
+        <v>172.9</v>
+      </c>
+      <c r="CN394" s="42">
+        <f t="shared" si="673"/>
+        <v>172.46666666666667</v>
+      </c>
+      <c r="CR394" s="43" t="e">
+        <f t="shared" si="674"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CS394" s="44">
+        <f t="shared" si="692"/>
+        <v>1.3473958333333333E-2</v>
+      </c>
+      <c r="CU394" s="55">
+        <v>5</v>
+      </c>
+      <c r="CV394" s="41">
+        <f t="shared" si="693"/>
+        <v>128</v>
+      </c>
+      <c r="CW394" s="41">
+        <v>5</v>
+      </c>
+      <c r="CX394" s="41">
+        <v>25000</v>
+      </c>
+      <c r="CY394" s="41">
+        <v>214.9</v>
+      </c>
+      <c r="CZ394" s="41">
+        <v>215.1</v>
+      </c>
+      <c r="DA394" s="41">
+        <v>215</v>
+      </c>
+      <c r="DB394" s="42">
+        <f t="shared" si="675"/>
+        <v>215</v>
+      </c>
+      <c r="DF394" s="43" t="e">
+        <f t="shared" si="676"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DG394" s="44">
+        <f t="shared" si="694"/>
+        <v>1.34375E-2</v>
+      </c>
+      <c r="DI394" s="55">
+        <v>5</v>
+      </c>
+      <c r="DJ394" s="41">
+        <f t="shared" si="695"/>
+        <v>128</v>
+      </c>
+      <c r="DK394" s="41">
+        <v>5</v>
+      </c>
+      <c r="DL394" s="41">
+        <v>30000</v>
+      </c>
+      <c r="DM394" s="41">
+        <v>257.7</v>
+      </c>
+      <c r="DN394" s="41">
+        <v>257.8</v>
+      </c>
+      <c r="DO394" s="41">
+        <v>257.7</v>
+      </c>
+      <c r="DP394" s="42">
+        <f t="shared" si="677"/>
+        <v>257.73333333333335</v>
+      </c>
+      <c r="DT394" s="43" t="e">
+        <f t="shared" si="678"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DU394" s="44">
+        <f t="shared" si="696"/>
+        <v>1.3423611111111112E-2</v>
       </c>
     </row>
-    <row r="395" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>18</v>
       </c>
       <c r="B395">
-        <f t="shared" si="671"/>
+        <f t="shared" si="679"/>
         <v>128</v>
       </c>
       <c r="C395">
@@ -71344,9 +72149,9 @@
       <c r="O395">
         <v>18</v>
       </c>
-      <c r="P395" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="P395">
+        <f t="shared" si="681"/>
+        <v>128</v>
       </c>
       <c r="Q395">
         <v>7</v>
@@ -71362,9 +72167,9 @@
       <c r="AC395">
         <v>18</v>
       </c>
-      <c r="AD395" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="AD395">
+        <f t="shared" si="683"/>
+        <v>128</v>
       </c>
       <c r="AE395">
         <v>7</v>
@@ -71380,9 +72185,9 @@
       <c r="AQ395">
         <v>18</v>
       </c>
-      <c r="AR395" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="AR395">
+        <f t="shared" si="685"/>
+        <v>128</v>
       </c>
       <c r="AS395">
         <v>7</v>
@@ -71398,9 +72203,9 @@
       <c r="BE395" s="53">
         <v>18</v>
       </c>
-      <c r="BF395" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="BF395">
+        <f t="shared" si="687"/>
+        <v>128</v>
       </c>
       <c r="BG395">
         <v>7</v>
@@ -71413,8 +72218,80 @@
       </c>
       <c r="BP395" s="13"/>
       <c r="BQ395" s="34"/>
+      <c r="BS395" s="53">
+        <v>18</v>
+      </c>
+      <c r="BT395">
+        <f t="shared" si="689"/>
+        <v>128</v>
+      </c>
+      <c r="BU395">
+        <v>7</v>
+      </c>
+      <c r="BV395">
+        <v>15000</v>
+      </c>
+      <c r="BZ395" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="CD395" s="13"/>
+      <c r="CE395" s="34"/>
+      <c r="CG395" s="53">
+        <v>18</v>
+      </c>
+      <c r="CH395">
+        <f t="shared" si="691"/>
+        <v>128</v>
+      </c>
+      <c r="CI395">
+        <v>7</v>
+      </c>
+      <c r="CJ395">
+        <v>20000</v>
+      </c>
+      <c r="CN395" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="CR395" s="13"/>
+      <c r="CS395" s="34"/>
+      <c r="CU395" s="53">
+        <v>18</v>
+      </c>
+      <c r="CV395">
+        <f t="shared" si="693"/>
+        <v>128</v>
+      </c>
+      <c r="CW395">
+        <v>7</v>
+      </c>
+      <c r="CX395">
+        <v>25000</v>
+      </c>
+      <c r="DB395" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="DF395" s="13"/>
+      <c r="DG395" s="34"/>
+      <c r="DI395" s="53">
+        <v>18</v>
+      </c>
+      <c r="DJ395">
+        <f t="shared" si="695"/>
+        <v>128</v>
+      </c>
+      <c r="DK395">
+        <v>7</v>
+      </c>
+      <c r="DL395">
+        <v>30000</v>
+      </c>
+      <c r="DP395" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="DT395" s="13"/>
+      <c r="DU395" s="34"/>
     </row>
-    <row r="397" spans="1:69" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:125" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A397" s="39" t="s">
         <v>59</v>
       </c>
@@ -71428,7 +72305,7 @@
       <c r="AA397" s="37"/>
       <c r="BE397" s="54"/>
     </row>
-    <row r="398" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A398" s="31"/>
       <c r="B398" s="32" t="s">
         <v>11</v>
@@ -71615,7 +72492,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="399" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>1</v>
       </c>
@@ -71758,7 +72635,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="400" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>2</v>
       </c>
@@ -71773,14 +72650,14 @@
         <v>1000</v>
       </c>
       <c r="H400" s="29" t="e">
-        <f t="shared" ref="H400:H402" si="681">AVERAGE(E400:G400)</f>
+        <f t="shared" ref="H400:H402" si="697">AVERAGE(E400:G400)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I400" s="38"/>
       <c r="J400" s="5"/>
       <c r="K400" s="38"/>
       <c r="L400" s="13" t="e">
-        <f t="shared" ref="L400:L402" si="682">AVERAGE(I400:K400)</f>
+        <f t="shared" ref="L400:L402" si="698">AVERAGE(I400:K400)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M400" s="34" t="e">
@@ -71801,14 +72678,14 @@
         <v>2000</v>
       </c>
       <c r="V400" s="29" t="e">
-        <f t="shared" ref="V400:V402" si="683">AVERAGE(S400:U400)</f>
+        <f t="shared" ref="V400:V402" si="699">AVERAGE(S400:U400)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="W400" s="38"/>
       <c r="X400" s="5"/>
       <c r="Y400" s="38"/>
       <c r="Z400" s="13" t="e">
-        <f t="shared" ref="Z400:Z402" si="684">AVERAGE(W400:Y400)</f>
+        <f t="shared" ref="Z400:Z402" si="700">AVERAGE(W400:Y400)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AA400" s="34" t="e">
@@ -71829,14 +72706,14 @@
         <v>3000</v>
       </c>
       <c r="AJ400" s="29" t="e">
-        <f t="shared" ref="AJ400:AJ402" si="685">AVERAGE(AG400:AI400)</f>
+        <f t="shared" ref="AJ400:AJ402" si="701">AVERAGE(AG400:AI400)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AK400" s="38"/>
       <c r="AL400" s="5"/>
       <c r="AM400" s="38"/>
       <c r="AN400" s="13" t="e">
-        <f t="shared" ref="AN400:AN402" si="686">AVERAGE(AK400:AM400)</f>
+        <f t="shared" ref="AN400:AN402" si="702">AVERAGE(AK400:AM400)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO400" s="34" t="e">
@@ -71857,14 +72734,14 @@
         <v>5000</v>
       </c>
       <c r="AX400" s="29" t="e">
-        <f t="shared" ref="AX400:AX402" si="687">AVERAGE(AU400:AW400)</f>
+        <f t="shared" ref="AX400:AX402" si="703">AVERAGE(AU400:AW400)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AY400" s="38"/>
       <c r="AZ400" s="5"/>
       <c r="BA400" s="38"/>
       <c r="BB400" s="13" t="e">
-        <f t="shared" ref="BB400:BB402" si="688">AVERAGE(AY400:BA400)</f>
+        <f t="shared" ref="BB400:BB402" si="704">AVERAGE(AY400:BA400)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BC400" s="34" t="e">
@@ -71885,14 +72762,14 @@
         <v>10000</v>
       </c>
       <c r="BL400" s="29" t="e">
-        <f t="shared" ref="BL400:BL402" si="689">AVERAGE(BI400:BK400)</f>
+        <f t="shared" ref="BL400:BL402" si="705">AVERAGE(BI400:BK400)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BM400" s="38"/>
       <c r="BN400" s="5"/>
       <c r="BO400" s="38"/>
       <c r="BP400" s="13" t="e">
-        <f t="shared" ref="BP400:BP402" si="690">AVERAGE(BM400:BO400)</f>
+        <f t="shared" ref="BP400:BP402" si="706">AVERAGE(BM400:BO400)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BQ400" s="34" t="e">
@@ -71905,7 +72782,7 @@
         <v>3</v>
       </c>
       <c r="B401">
-        <f t="shared" ref="B401:B402" si="691">B400</f>
+        <f t="shared" ref="B401:B402" si="707">B400</f>
         <v>150</v>
       </c>
       <c r="C401">
@@ -71915,22 +72792,22 @@
         <v>1000</v>
       </c>
       <c r="H401" s="29" t="e">
-        <f t="shared" si="681"/>
+        <f t="shared" si="697"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L401" s="13" t="e">
-        <f t="shared" si="682"/>
+        <f t="shared" si="698"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M401" s="34" t="e">
-        <f t="shared" ref="M401:M402" si="692">H401*1000/(B401*C401*D401)</f>
+        <f t="shared" ref="M401:M402" si="708">H401*1000/(B401*C401*D401)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O401">
         <v>3</v>
       </c>
       <c r="P401">
-        <f t="shared" ref="P401:P402" si="693">P400</f>
+        <f t="shared" ref="P401:P402" si="709">P400</f>
         <v>150</v>
       </c>
       <c r="Q401">
@@ -71940,22 +72817,22 @@
         <v>2000</v>
       </c>
       <c r="V401" s="29" t="e">
-        <f t="shared" si="683"/>
+        <f t="shared" si="699"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z401" s="13" t="e">
-        <f t="shared" si="684"/>
+        <f t="shared" si="700"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA401" s="34" t="e">
-        <f t="shared" ref="AA401:AA402" si="694">V401*1000/(P401*Q401*R401)</f>
+        <f t="shared" ref="AA401:AA402" si="710">V401*1000/(P401*Q401*R401)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AC401">
         <v>3</v>
       </c>
       <c r="AD401">
-        <f t="shared" ref="AD401:AD402" si="695">AD400</f>
+        <f t="shared" ref="AD401:AD402" si="711">AD400</f>
         <v>150</v>
       </c>
       <c r="AE401">
@@ -71965,22 +72842,22 @@
         <v>3000</v>
       </c>
       <c r="AJ401" s="29" t="e">
-        <f t="shared" si="685"/>
+        <f t="shared" si="701"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN401" s="13" t="e">
-        <f t="shared" si="686"/>
+        <f t="shared" si="702"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO401" s="34" t="e">
-        <f t="shared" ref="AO401:AO402" si="696">AJ401*1000/(AD401*AE401*AF401)</f>
+        <f t="shared" ref="AO401:AO402" si="712">AJ401*1000/(AD401*AE401*AF401)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ401">
         <v>3</v>
       </c>
       <c r="AR401">
-        <f t="shared" ref="AR401:AR402" si="697">AR400</f>
+        <f t="shared" ref="AR401:AR402" si="713">AR400</f>
         <v>150</v>
       </c>
       <c r="AS401">
@@ -71990,22 +72867,22 @@
         <v>5000</v>
       </c>
       <c r="AX401" s="29" t="e">
-        <f t="shared" si="687"/>
+        <f t="shared" si="703"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BB401" s="13" t="e">
-        <f t="shared" si="688"/>
+        <f t="shared" si="704"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC401" s="34" t="e">
-        <f t="shared" ref="BC401:BC402" si="698">AX401*1000/(AR401*AS401*AT401)</f>
+        <f t="shared" ref="BC401:BC402" si="714">AX401*1000/(AR401*AS401*AT401)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BE401" s="53">
         <v>3</v>
       </c>
       <c r="BF401">
-        <f t="shared" ref="BF401:BF402" si="699">BF400</f>
+        <f t="shared" ref="BF401:BF402" si="715">BF400</f>
         <v>150</v>
       </c>
       <c r="BG401">
@@ -72015,15 +72892,15 @@
         <v>10000</v>
       </c>
       <c r="BL401" s="29" t="e">
-        <f t="shared" si="689"/>
+        <f t="shared" si="705"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BP401" s="13" t="e">
-        <f t="shared" si="690"/>
+        <f t="shared" si="706"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BQ401" s="34" t="e">
-        <f t="shared" ref="BQ401:BQ402" si="700">BL401*1000/(BF401*BG401*BH401)</f>
+        <f t="shared" ref="BQ401:BQ402" si="716">BL401*1000/(BF401*BG401*BH401)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -72032,7 +72909,7 @@
         <v>4</v>
       </c>
       <c r="B402" s="41">
-        <f t="shared" si="691"/>
+        <f t="shared" si="707"/>
         <v>150</v>
       </c>
       <c r="C402" s="41">
@@ -72051,7 +72928,7 @@
         <v>12.1</v>
       </c>
       <c r="H402" s="42">
-        <f t="shared" si="681"/>
+        <f t="shared" si="697"/>
         <v>12.466666666666667</v>
       </c>
       <c r="I402" s="41">
@@ -72064,18 +72941,18 @@
         <v>9</v>
       </c>
       <c r="L402" s="43">
-        <f t="shared" si="682"/>
+        <f t="shared" si="698"/>
         <v>11.333333333333334</v>
       </c>
       <c r="M402" s="44">
-        <f t="shared" si="692"/>
+        <f t="shared" si="708"/>
         <v>2.0777777777777777E-2</v>
       </c>
       <c r="O402" s="41">
         <v>4</v>
       </c>
       <c r="P402" s="41">
-        <f t="shared" si="693"/>
+        <f t="shared" si="709"/>
         <v>150</v>
       </c>
       <c r="Q402" s="41">
@@ -72094,22 +72971,22 @@
         <v>22.7</v>
       </c>
       <c r="V402" s="42">
-        <f t="shared" si="683"/>
+        <f t="shared" si="699"/>
         <v>22.666666666666668</v>
       </c>
       <c r="Z402" s="43" t="e">
-        <f t="shared" si="684"/>
+        <f t="shared" si="700"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA402" s="44">
-        <f t="shared" si="694"/>
+        <f t="shared" si="710"/>
         <v>1.8888888888888889E-2</v>
       </c>
       <c r="AC402" s="41">
         <v>4</v>
       </c>
       <c r="AD402" s="41">
-        <f t="shared" si="695"/>
+        <f t="shared" si="711"/>
         <v>150</v>
       </c>
       <c r="AE402" s="41">
@@ -72128,22 +73005,22 @@
         <v>33.299999999999997</v>
       </c>
       <c r="AJ402" s="42">
-        <f t="shared" si="685"/>
+        <f t="shared" si="701"/>
         <v>33.43333333333333</v>
       </c>
       <c r="AN402" s="43" t="e">
-        <f t="shared" si="686"/>
+        <f t="shared" si="702"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO402" s="44">
-        <f t="shared" si="696"/>
+        <f t="shared" si="712"/>
         <v>1.8574074074074073E-2</v>
       </c>
       <c r="AQ402" s="41">
         <v>4</v>
       </c>
       <c r="AR402" s="41">
-        <f t="shared" si="697"/>
+        <f t="shared" si="713"/>
         <v>150</v>
       </c>
       <c r="AS402" s="41">
@@ -72162,22 +73039,22 @@
         <v>54.2</v>
       </c>
       <c r="AX402" s="42">
-        <f t="shared" si="687"/>
+        <f t="shared" si="703"/>
         <v>54.233333333333327</v>
       </c>
       <c r="BB402" s="43" t="e">
-        <f t="shared" si="688"/>
+        <f t="shared" si="704"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC402" s="44">
-        <f t="shared" si="698"/>
+        <f t="shared" si="714"/>
         <v>1.8077777777777776E-2</v>
       </c>
       <c r="BE402" s="55">
         <v>4</v>
       </c>
       <c r="BF402" s="41">
-        <f t="shared" si="699"/>
+        <f t="shared" si="715"/>
         <v>150</v>
       </c>
       <c r="BG402" s="41">
@@ -72196,15 +73073,15 @@
         <v>96</v>
       </c>
       <c r="BL402" s="42">
-        <f t="shared" si="689"/>
+        <f t="shared" si="705"/>
         <v>96.899999999999991</v>
       </c>
       <c r="BP402" s="43" t="e">
-        <f t="shared" si="690"/>
+        <f t="shared" si="706"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BQ402" s="44">
-        <f t="shared" si="700"/>
+        <f t="shared" si="716"/>
         <v>1.6149999999999998E-2</v>
       </c>
     </row>
@@ -72909,14 +73786,14 @@
         <v>1000</v>
       </c>
       <c r="H408" s="29" t="e">
-        <f t="shared" ref="H408:H410" si="701">AVERAGE(E408:G408)</f>
+        <f t="shared" ref="H408:H410" si="717">AVERAGE(E408:G408)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I408" s="38"/>
       <c r="J408" s="5"/>
       <c r="K408" s="38"/>
       <c r="L408" s="13" t="e">
-        <f t="shared" ref="L408:L410" si="702">AVERAGE(I408:K408)</f>
+        <f t="shared" ref="L408:L410" si="718">AVERAGE(I408:K408)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M408" s="34" t="e">
@@ -72937,14 +73814,14 @@
         <v>2000</v>
       </c>
       <c r="V408" s="29" t="e">
-        <f t="shared" ref="V408:V410" si="703">AVERAGE(S408:U408)</f>
+        <f t="shared" ref="V408:V410" si="719">AVERAGE(S408:U408)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="W408" s="38"/>
       <c r="X408" s="5"/>
       <c r="Y408" s="38"/>
       <c r="Z408" s="13" t="e">
-        <f t="shared" ref="Z408:Z410" si="704">AVERAGE(W408:Y408)</f>
+        <f t="shared" ref="Z408:Z410" si="720">AVERAGE(W408:Y408)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AA408" s="34" t="e">
@@ -72965,14 +73842,14 @@
         <v>3000</v>
       </c>
       <c r="AJ408" s="29" t="e">
-        <f t="shared" ref="AJ408:AJ410" si="705">AVERAGE(AG408:AI408)</f>
+        <f t="shared" ref="AJ408:AJ410" si="721">AVERAGE(AG408:AI408)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AK408" s="38"/>
       <c r="AL408" s="5"/>
       <c r="AM408" s="38"/>
       <c r="AN408" s="13" t="e">
-        <f t="shared" ref="AN408:AN410" si="706">AVERAGE(AK408:AM408)</f>
+        <f t="shared" ref="AN408:AN410" si="722">AVERAGE(AK408:AM408)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO408" s="34" t="e">
@@ -72993,14 +73870,14 @@
         <v>5000</v>
       </c>
       <c r="AX408" s="29" t="e">
-        <f t="shared" ref="AX408:AX410" si="707">AVERAGE(AU408:AW408)</f>
+        <f t="shared" ref="AX408:AX410" si="723">AVERAGE(AU408:AW408)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AY408" s="38"/>
       <c r="AZ408" s="5"/>
       <c r="BA408" s="38"/>
       <c r="BB408" s="13" t="e">
-        <f t="shared" ref="BB408:BB410" si="708">AVERAGE(AY408:BA408)</f>
+        <f t="shared" ref="BB408:BB410" si="724">AVERAGE(AY408:BA408)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BC408" s="34" t="e">
@@ -73021,14 +73898,14 @@
         <v>10000</v>
       </c>
       <c r="BL408" s="29" t="e">
-        <f t="shared" ref="BL408:BL410" si="709">AVERAGE(BI408:BK408)</f>
+        <f t="shared" ref="BL408:BL410" si="725">AVERAGE(BI408:BK408)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BM408" s="38"/>
       <c r="BN408" s="5"/>
       <c r="BO408" s="38"/>
       <c r="BP408" s="13" t="e">
-        <f t="shared" ref="BP408:BP410" si="710">AVERAGE(BM408:BO408)</f>
+        <f t="shared" ref="BP408:BP410" si="726">AVERAGE(BM408:BO408)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BQ408" s="34" t="e">
@@ -73049,14 +73926,14 @@
         <v>15000</v>
       </c>
       <c r="BZ408" s="29" t="e">
-        <f t="shared" ref="BZ408:BZ410" si="711">AVERAGE(BW408:BY408)</f>
+        <f t="shared" ref="BZ408:BZ410" si="727">AVERAGE(BW408:BY408)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="CA408" s="38"/>
       <c r="CB408" s="5"/>
       <c r="CC408" s="38"/>
       <c r="CD408" s="13" t="e">
-        <f t="shared" ref="CD408:CD410" si="712">AVERAGE(CA408:CC408)</f>
+        <f t="shared" ref="CD408:CD410" si="728">AVERAGE(CA408:CC408)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="CE408" s="34" t="e">
@@ -73077,14 +73954,14 @@
         <v>20000</v>
       </c>
       <c r="CN408" s="29" t="e">
-        <f t="shared" ref="CN408:CN410" si="713">AVERAGE(CK408:CM408)</f>
+        <f t="shared" ref="CN408:CN410" si="729">AVERAGE(CK408:CM408)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="CO408" s="38"/>
       <c r="CP408" s="5"/>
       <c r="CQ408" s="38"/>
       <c r="CR408" s="13" t="e">
-        <f t="shared" ref="CR408:CR410" si="714">AVERAGE(CO408:CQ408)</f>
+        <f t="shared" ref="CR408:CR410" si="730">AVERAGE(CO408:CQ408)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="CS408" s="34" t="e">
@@ -73105,14 +73982,14 @@
         <v>25000</v>
       </c>
       <c r="DB408" s="29" t="e">
-        <f t="shared" ref="DB408:DB410" si="715">AVERAGE(CY408:DA408)</f>
+        <f t="shared" ref="DB408:DB410" si="731">AVERAGE(CY408:DA408)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="DC408" s="38"/>
       <c r="DD408" s="5"/>
       <c r="DE408" s="38"/>
       <c r="DF408" s="13" t="e">
-        <f t="shared" ref="DF408:DF410" si="716">AVERAGE(DC408:DE408)</f>
+        <f t="shared" ref="DF408:DF410" si="732">AVERAGE(DC408:DE408)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="DG408" s="34" t="e">
@@ -73133,14 +74010,14 @@
         <v>30000</v>
       </c>
       <c r="DP408" s="29" t="e">
-        <f t="shared" ref="DP408:DP410" si="717">AVERAGE(DM408:DO408)</f>
+        <f t="shared" ref="DP408:DP410" si="733">AVERAGE(DM408:DO408)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="DQ408" s="38"/>
       <c r="DR408" s="5"/>
       <c r="DS408" s="38"/>
       <c r="DT408" s="13" t="e">
-        <f t="shared" ref="DT408:DT410" si="718">AVERAGE(DQ408:DS408)</f>
+        <f t="shared" ref="DT408:DT410" si="734">AVERAGE(DQ408:DS408)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="DU408" s="34" t="e">
@@ -73153,7 +74030,7 @@
         <v>3</v>
       </c>
       <c r="B409">
-        <f t="shared" ref="B409:B410" si="719">B408</f>
+        <f t="shared" ref="B409:B410" si="735">B408</f>
         <v>160</v>
       </c>
       <c r="C409">
@@ -73163,22 +74040,22 @@
         <v>1000</v>
       </c>
       <c r="H409" s="29" t="e">
-        <f t="shared" si="701"/>
+        <f t="shared" si="717"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L409" s="13" t="e">
-        <f t="shared" si="702"/>
+        <f t="shared" si="718"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M409" s="34" t="e">
-        <f t="shared" ref="M409:M410" si="720">H409*1000/(B409*C409*D409)</f>
+        <f t="shared" ref="M409:M410" si="736">H409*1000/(B409*C409*D409)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O409">
         <v>3</v>
       </c>
       <c r="P409">
-        <f t="shared" ref="P409:P410" si="721">P408</f>
+        <f t="shared" ref="P409:P410" si="737">P408</f>
         <v>160</v>
       </c>
       <c r="Q409">
@@ -73188,22 +74065,22 @@
         <v>2000</v>
       </c>
       <c r="V409" s="29" t="e">
-        <f t="shared" si="703"/>
+        <f t="shared" si="719"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z409" s="13" t="e">
-        <f t="shared" si="704"/>
+        <f t="shared" si="720"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA409" s="34" t="e">
-        <f t="shared" ref="AA409:AA410" si="722">V409*1000/(P409*Q409*R409)</f>
+        <f t="shared" ref="AA409:AA410" si="738">V409*1000/(P409*Q409*R409)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AC409">
         <v>3</v>
       </c>
       <c r="AD409">
-        <f t="shared" ref="AD409:AD410" si="723">AD408</f>
+        <f t="shared" ref="AD409:AD410" si="739">AD408</f>
         <v>160</v>
       </c>
       <c r="AE409">
@@ -73213,22 +74090,22 @@
         <v>3000</v>
       </c>
       <c r="AJ409" s="29" t="e">
-        <f t="shared" si="705"/>
+        <f t="shared" si="721"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN409" s="13" t="e">
-        <f t="shared" si="706"/>
+        <f t="shared" si="722"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO409" s="34" t="e">
-        <f t="shared" ref="AO409:AO410" si="724">AJ409*1000/(AD409*AE409*AF409)</f>
+        <f t="shared" ref="AO409:AO410" si="740">AJ409*1000/(AD409*AE409*AF409)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ409">
         <v>3</v>
       </c>
       <c r="AR409">
-        <f t="shared" ref="AR409:AR410" si="725">AR408</f>
+        <f t="shared" ref="AR409:AR410" si="741">AR408</f>
         <v>160</v>
       </c>
       <c r="AS409">
@@ -73238,22 +74115,22 @@
         <v>5000</v>
       </c>
       <c r="AX409" s="29" t="e">
-        <f t="shared" si="707"/>
+        <f t="shared" si="723"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BB409" s="13" t="e">
-        <f t="shared" si="708"/>
+        <f t="shared" si="724"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC409" s="34" t="e">
-        <f t="shared" ref="BC409:BC410" si="726">AX409*1000/(AR409*AS409*AT409)</f>
+        <f t="shared" ref="BC409:BC410" si="742">AX409*1000/(AR409*AS409*AT409)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BE409" s="53">
         <v>3</v>
       </c>
       <c r="BF409">
-        <f t="shared" ref="BF409:BF410" si="727">BF408</f>
+        <f t="shared" ref="BF409:BF410" si="743">BF408</f>
         <v>160</v>
       </c>
       <c r="BG409">
@@ -73263,22 +74140,22 @@
         <v>10000</v>
       </c>
       <c r="BL409" s="29" t="e">
-        <f t="shared" si="709"/>
+        <f t="shared" si="725"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BP409" s="13" t="e">
-        <f t="shared" si="710"/>
+        <f t="shared" si="726"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BQ409" s="34" t="e">
-        <f t="shared" ref="BQ409:BQ410" si="728">BL409*1000/(BF409*BG409*BH409)</f>
+        <f t="shared" ref="BQ409:BQ410" si="744">BL409*1000/(BF409*BG409*BH409)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BS409" s="53">
         <v>3</v>
       </c>
       <c r="BT409">
-        <f t="shared" ref="BT409:BT410" si="729">BT408</f>
+        <f t="shared" ref="BT409:BT410" si="745">BT408</f>
         <v>160</v>
       </c>
       <c r="BU409">
@@ -73288,22 +74165,22 @@
         <v>15000</v>
       </c>
       <c r="BZ409" s="29" t="e">
-        <f t="shared" si="711"/>
+        <f t="shared" si="727"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CD409" s="13" t="e">
-        <f t="shared" si="712"/>
+        <f t="shared" si="728"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CE409" s="34" t="e">
-        <f t="shared" ref="CE409:CE410" si="730">BZ409*1000/(BT409*BU409*BV409)</f>
+        <f t="shared" ref="CE409:CE410" si="746">BZ409*1000/(BT409*BU409*BV409)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="CG409" s="53">
         <v>3</v>
       </c>
       <c r="CH409">
-        <f t="shared" ref="CH409:CH410" si="731">CH408</f>
+        <f t="shared" ref="CH409:CH410" si="747">CH408</f>
         <v>160</v>
       </c>
       <c r="CI409">
@@ -73313,22 +74190,22 @@
         <v>20000</v>
       </c>
       <c r="CN409" s="29" t="e">
-        <f t="shared" si="713"/>
+        <f t="shared" si="729"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CR409" s="13" t="e">
-        <f t="shared" si="714"/>
+        <f t="shared" si="730"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CS409" s="34" t="e">
-        <f t="shared" ref="CS409:CS410" si="732">CN409*1000/(CH409*CI409*CJ409)</f>
+        <f t="shared" ref="CS409:CS410" si="748">CN409*1000/(CH409*CI409*CJ409)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="CU409" s="53">
         <v>3</v>
       </c>
       <c r="CV409">
-        <f t="shared" ref="CV409:CV410" si="733">CV408</f>
+        <f t="shared" ref="CV409:CV410" si="749">CV408</f>
         <v>160</v>
       </c>
       <c r="CW409">
@@ -73338,22 +74215,22 @@
         <v>25000</v>
       </c>
       <c r="DB409" s="29" t="e">
-        <f t="shared" si="715"/>
+        <f t="shared" si="731"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DF409" s="13" t="e">
-        <f t="shared" si="716"/>
+        <f t="shared" si="732"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DG409" s="34" t="e">
-        <f t="shared" ref="DG409:DG410" si="734">DB409*1000/(CV409*CW409*CX409)</f>
+        <f t="shared" ref="DG409:DG410" si="750">DB409*1000/(CV409*CW409*CX409)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="DI409" s="53">
         <v>3</v>
       </c>
       <c r="DJ409">
-        <f t="shared" ref="DJ409:DJ410" si="735">DJ408</f>
+        <f t="shared" ref="DJ409:DJ410" si="751">DJ408</f>
         <v>160</v>
       </c>
       <c r="DK409">
@@ -73363,15 +74240,15 @@
         <v>30000</v>
       </c>
       <c r="DP409" s="29" t="e">
-        <f t="shared" si="717"/>
+        <f t="shared" si="733"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DT409" s="13" t="e">
-        <f t="shared" si="718"/>
+        <f t="shared" si="734"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DU409" s="34" t="e">
-        <f t="shared" ref="DU409:DU410" si="736">DP409*1000/(DJ409*DK409*DL409)</f>
+        <f t="shared" ref="DU409:DU410" si="752">DP409*1000/(DJ409*DK409*DL409)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -73380,7 +74257,7 @@
         <v>4</v>
       </c>
       <c r="B410" s="41">
-        <f t="shared" si="719"/>
+        <f t="shared" si="735"/>
         <v>160</v>
       </c>
       <c r="C410" s="41">
@@ -73399,22 +74276,22 @@
         <v>12.2</v>
       </c>
       <c r="H410" s="42">
-        <f t="shared" si="701"/>
+        <f t="shared" si="717"/>
         <v>12.203333333333333</v>
       </c>
       <c r="L410" s="43" t="e">
-        <f t="shared" si="702"/>
+        <f t="shared" si="718"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M410" s="44">
-        <f t="shared" si="720"/>
+        <f t="shared" si="736"/>
         <v>1.9067708333333336E-2</v>
       </c>
       <c r="O410" s="41">
         <v>4</v>
       </c>
       <c r="P410" s="41">
-        <f t="shared" si="721"/>
+        <f t="shared" si="737"/>
         <v>160</v>
       </c>
       <c r="Q410" s="41">
@@ -73433,22 +74310,22 @@
         <v>23.2</v>
       </c>
       <c r="V410" s="42">
-        <f t="shared" si="703"/>
+        <f t="shared" si="719"/>
         <v>23.099999999999998</v>
       </c>
       <c r="Z410" s="43" t="e">
-        <f t="shared" si="704"/>
+        <f t="shared" si="720"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA410" s="44">
-        <f t="shared" si="722"/>
+        <f t="shared" si="738"/>
         <v>1.8046874999999997E-2</v>
       </c>
       <c r="AC410" s="41">
         <v>4</v>
       </c>
       <c r="AD410" s="41">
-        <f t="shared" si="723"/>
+        <f t="shared" si="739"/>
         <v>160</v>
       </c>
       <c r="AE410" s="41">
@@ -73467,22 +74344,22 @@
         <v>34.1</v>
       </c>
       <c r="AJ410" s="42">
-        <f t="shared" si="705"/>
+        <f t="shared" si="721"/>
         <v>33.9</v>
       </c>
       <c r="AN410" s="43" t="e">
-        <f t="shared" si="706"/>
+        <f t="shared" si="722"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO410" s="44">
-        <f t="shared" si="724"/>
+        <f t="shared" si="740"/>
         <v>1.7656249999999998E-2</v>
       </c>
       <c r="AQ410" s="41">
         <v>4</v>
       </c>
       <c r="AR410" s="41">
-        <f t="shared" si="725"/>
+        <f t="shared" si="741"/>
         <v>160</v>
       </c>
       <c r="AS410" s="41">
@@ -73501,22 +74378,22 @@
         <v>54.5</v>
       </c>
       <c r="AX410" s="42">
-        <f t="shared" si="707"/>
+        <f t="shared" si="723"/>
         <v>55.033333333333331</v>
       </c>
       <c r="BB410" s="43" t="e">
-        <f t="shared" si="708"/>
+        <f t="shared" si="724"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC410" s="44">
-        <f t="shared" si="726"/>
+        <f t="shared" si="742"/>
         <v>1.7197916666666663E-2</v>
       </c>
       <c r="BE410" s="55">
         <v>4</v>
       </c>
       <c r="BF410" s="41">
-        <f t="shared" si="727"/>
+        <f t="shared" si="743"/>
         <v>160</v>
       </c>
       <c r="BG410" s="41">
@@ -73535,22 +74412,22 @@
         <v>106.8</v>
       </c>
       <c r="BL410" s="42">
-        <f t="shared" si="709"/>
+        <f t="shared" si="725"/>
         <v>108.53333333333335</v>
       </c>
       <c r="BP410" s="43" t="e">
-        <f t="shared" si="710"/>
+        <f t="shared" si="726"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BQ410" s="44">
-        <f t="shared" si="728"/>
+        <f t="shared" si="744"/>
         <v>1.6958333333333336E-2</v>
       </c>
       <c r="BS410" s="55">
         <v>4</v>
       </c>
       <c r="BT410" s="41">
-        <f t="shared" si="729"/>
+        <f t="shared" si="745"/>
         <v>160</v>
       </c>
       <c r="BU410" s="41">
@@ -73569,22 +74446,22 @@
         <v>134.4</v>
       </c>
       <c r="BZ410" s="42">
-        <f t="shared" si="711"/>
+        <f t="shared" si="727"/>
         <v>138.29999999999998</v>
       </c>
       <c r="CD410" s="43" t="e">
-        <f t="shared" si="712"/>
+        <f t="shared" si="728"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CE410" s="44">
-        <f t="shared" si="730"/>
+        <f t="shared" si="746"/>
         <v>1.4406249999999997E-2</v>
       </c>
       <c r="CG410" s="55">
         <v>4</v>
       </c>
       <c r="CH410" s="41">
-        <f t="shared" si="731"/>
+        <f t="shared" si="747"/>
         <v>160</v>
       </c>
       <c r="CI410" s="41">
@@ -73603,22 +74480,22 @@
         <v>161.19999999999999</v>
       </c>
       <c r="CN410" s="42">
-        <f t="shared" si="713"/>
+        <f t="shared" si="729"/>
         <v>161.30000000000001</v>
       </c>
       <c r="CR410" s="43" t="e">
-        <f t="shared" si="714"/>
+        <f t="shared" si="730"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CS410" s="44">
-        <f t="shared" si="732"/>
+        <f t="shared" si="748"/>
         <v>1.26015625E-2</v>
       </c>
       <c r="CU410" s="55">
         <v>4</v>
       </c>
       <c r="CV410" s="41">
-        <f t="shared" si="733"/>
+        <f t="shared" si="749"/>
         <v>160</v>
       </c>
       <c r="CW410" s="41">
@@ -73637,22 +74514,22 @@
         <v>200.9</v>
       </c>
       <c r="DB410" s="42">
-        <f t="shared" si="715"/>
+        <f t="shared" si="731"/>
         <v>200.9</v>
       </c>
       <c r="DF410" s="43" t="e">
-        <f t="shared" si="716"/>
+        <f t="shared" si="732"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DG410" s="44">
-        <f t="shared" si="734"/>
+        <f t="shared" si="750"/>
         <v>1.255625E-2</v>
       </c>
       <c r="DI410" s="55">
         <v>4</v>
       </c>
       <c r="DJ410" s="41">
-        <f t="shared" si="735"/>
+        <f t="shared" si="751"/>
         <v>160</v>
       </c>
       <c r="DK410" s="41">
@@ -73671,15 +74548,15 @@
         <v>241</v>
       </c>
       <c r="DP410" s="42">
-        <f t="shared" si="717"/>
+        <f t="shared" si="733"/>
         <v>240.9</v>
       </c>
       <c r="DT410" s="43" t="e">
-        <f t="shared" si="718"/>
+        <f t="shared" si="734"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DU410" s="44">
-        <f t="shared" si="736"/>
+        <f t="shared" si="752"/>
         <v>1.2546875000000001E-2</v>
       </c>
     </row>
@@ -74206,14 +75083,14 @@
         <v>1000</v>
       </c>
       <c r="H417" s="29" t="e">
-        <f t="shared" ref="H417:H418" si="737">AVERAGE(E417:G417)</f>
+        <f t="shared" ref="H417:H418" si="753">AVERAGE(E417:G417)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I417" s="38"/>
       <c r="J417" s="5"/>
       <c r="K417" s="38"/>
       <c r="L417" s="13" t="e">
-        <f t="shared" ref="L417:L418" si="738">AVERAGE(I417:K417)</f>
+        <f t="shared" ref="L417:L418" si="754">AVERAGE(I417:K417)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M417" s="34" t="e">
@@ -74234,14 +75111,14 @@
         <v>2000</v>
       </c>
       <c r="V417" s="29" t="e">
-        <f t="shared" ref="V417:V418" si="739">AVERAGE(S417:U417)</f>
+        <f t="shared" ref="V417:V418" si="755">AVERAGE(S417:U417)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="W417" s="38"/>
       <c r="X417" s="5"/>
       <c r="Y417" s="38"/>
       <c r="Z417" s="13" t="e">
-        <f t="shared" ref="Z417:Z418" si="740">AVERAGE(W417:Y417)</f>
+        <f t="shared" ref="Z417:Z418" si="756">AVERAGE(W417:Y417)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AA417" s="34" t="e">
@@ -74262,14 +75139,14 @@
         <v>3000</v>
       </c>
       <c r="AJ417" s="29" t="e">
-        <f t="shared" ref="AJ417:AJ418" si="741">AVERAGE(AG417:AI417)</f>
+        <f t="shared" ref="AJ417:AJ418" si="757">AVERAGE(AG417:AI417)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AK417" s="38"/>
       <c r="AL417" s="5"/>
       <c r="AM417" s="38"/>
       <c r="AN417" s="13" t="e">
-        <f t="shared" ref="AN417:AN418" si="742">AVERAGE(AK417:AM417)</f>
+        <f t="shared" ref="AN417:AN418" si="758">AVERAGE(AK417:AM417)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO417" s="34" t="e">
@@ -74290,14 +75167,14 @@
         <v>5000</v>
       </c>
       <c r="AX417" s="29" t="e">
-        <f t="shared" ref="AX417:AX418" si="743">AVERAGE(AU417:AW417)</f>
+        <f t="shared" ref="AX417:AX418" si="759">AVERAGE(AU417:AW417)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AY417" s="38"/>
       <c r="AZ417" s="5"/>
       <c r="BA417" s="38"/>
       <c r="BB417" s="13" t="e">
-        <f t="shared" ref="BB417:BB418" si="744">AVERAGE(AY417:BA417)</f>
+        <f t="shared" ref="BB417:BB418" si="760">AVERAGE(AY417:BA417)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BC417" s="34" t="e">
@@ -74318,14 +75195,14 @@
         <v>10000</v>
       </c>
       <c r="BL417" s="29" t="e">
-        <f t="shared" ref="BL417:BL418" si="745">AVERAGE(BI417:BK417)</f>
+        <f t="shared" ref="BL417:BL418" si="761">AVERAGE(BI417:BK417)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BM417" s="38"/>
       <c r="BN417" s="5"/>
       <c r="BO417" s="38"/>
       <c r="BP417" s="13" t="e">
-        <f t="shared" ref="BP417:BP418" si="746">AVERAGE(BM417:BO417)</f>
+        <f t="shared" ref="BP417:BP418" si="762">AVERAGE(BM417:BO417)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BQ417" s="34" t="e">
@@ -74338,7 +75215,7 @@
         <v>3</v>
       </c>
       <c r="B418" s="41">
-        <f t="shared" ref="B418" si="747">B417</f>
+        <f t="shared" ref="B418" si="763">B417</f>
         <v>200</v>
       </c>
       <c r="C418" s="41">
@@ -74357,7 +75234,7 @@
         <v>13.4</v>
       </c>
       <c r="H418" s="42">
-        <f t="shared" si="737"/>
+        <f t="shared" si="753"/>
         <v>13.299999999999999</v>
       </c>
       <c r="I418" s="41">
@@ -74370,18 +75247,18 @@
         <v>10</v>
       </c>
       <c r="L418" s="43">
-        <f t="shared" si="738"/>
+        <f t="shared" si="754"/>
         <v>10</v>
       </c>
       <c r="M418" s="44">
-        <f t="shared" ref="M418" si="748">H418*1000/(B418*C418*D418)</f>
+        <f t="shared" ref="M418" si="764">H418*1000/(B418*C418*D418)</f>
         <v>2.2166666666666664E-2</v>
       </c>
       <c r="O418" s="41">
         <v>3</v>
       </c>
       <c r="P418" s="41">
-        <f t="shared" ref="P418" si="749">P417</f>
+        <f t="shared" ref="P418" si="765">P417</f>
         <v>200</v>
       </c>
       <c r="Q418" s="41">
@@ -74400,22 +75277,22 @@
         <v>24.9</v>
       </c>
       <c r="V418" s="42">
-        <f t="shared" si="739"/>
+        <f t="shared" si="755"/>
         <v>24.8</v>
       </c>
       <c r="Z418" s="43" t="e">
-        <f t="shared" si="740"/>
+        <f t="shared" si="756"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA418" s="44">
-        <f t="shared" ref="AA418" si="750">V418*1000/(P418*Q418*R418)</f>
+        <f t="shared" ref="AA418" si="766">V418*1000/(P418*Q418*R418)</f>
         <v>2.0666666666666667E-2</v>
       </c>
       <c r="AC418" s="41">
         <v>3</v>
       </c>
       <c r="AD418" s="41">
-        <f t="shared" ref="AD418" si="751">AD417</f>
+        <f t="shared" ref="AD418" si="767">AD417</f>
         <v>200</v>
       </c>
       <c r="AE418" s="41">
@@ -74434,22 +75311,22 @@
         <v>36.4</v>
       </c>
       <c r="AJ418" s="42">
-        <f t="shared" si="741"/>
+        <f t="shared" si="757"/>
         <v>36.233333333333341</v>
       </c>
       <c r="AN418" s="43" t="e">
-        <f t="shared" si="742"/>
+        <f t="shared" si="758"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO418" s="44">
-        <f t="shared" ref="AO418" si="752">AJ418*1000/(AD418*AE418*AF418)</f>
+        <f t="shared" ref="AO418" si="768">AJ418*1000/(AD418*AE418*AF418)</f>
         <v>2.0129629629629636E-2</v>
       </c>
       <c r="AQ418" s="41">
         <v>3</v>
       </c>
       <c r="AR418" s="41">
-        <f t="shared" ref="AR418" si="753">AR417</f>
+        <f t="shared" ref="AR418" si="769">AR417</f>
         <v>200</v>
       </c>
       <c r="AS418" s="41">
@@ -74468,22 +75345,22 @@
         <v>59</v>
       </c>
       <c r="AX418" s="42">
-        <f t="shared" si="743"/>
+        <f t="shared" si="759"/>
         <v>58.533333333333331</v>
       </c>
       <c r="BB418" s="43" t="e">
-        <f t="shared" si="744"/>
+        <f t="shared" si="760"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BC418" s="44">
-        <f t="shared" ref="BC418" si="754">AX418*1000/(AR418*AS418*AT418)</f>
+        <f t="shared" ref="BC418" si="770">AX418*1000/(AR418*AS418*AT418)</f>
         <v>1.9511111111111111E-2</v>
       </c>
       <c r="BE418" s="55">
         <v>3</v>
       </c>
       <c r="BF418" s="41">
-        <f t="shared" ref="BF418" si="755">BF417</f>
+        <f t="shared" ref="BF418" si="771">BF417</f>
         <v>200</v>
       </c>
       <c r="BG418" s="41">
@@ -74502,15 +75379,15 @@
         <v>95</v>
       </c>
       <c r="BL418" s="42">
-        <f t="shared" si="745"/>
+        <f t="shared" si="761"/>
         <v>100.89999999999999</v>
       </c>
       <c r="BP418" s="43" t="e">
-        <f t="shared" si="746"/>
+        <f t="shared" si="762"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BQ418" s="44">
-        <f t="shared" ref="BQ418" si="756">BL418*1000/(BF418*BG418*BH418)</f>
+        <f t="shared" ref="BQ418" si="772">BL418*1000/(BF418*BG418*BH418)</f>
         <v>1.6816666666666664E-2</v>
       </c>
     </row>
@@ -74966,7 +75843,7 @@
         <v>13.3</v>
       </c>
       <c r="H424" s="42">
-        <f t="shared" ref="H424" si="757">AVERAGE(E424:G424)</f>
+        <f t="shared" ref="H424" si="773">AVERAGE(E424:G424)</f>
         <v>13.199999999999998</v>
       </c>
       <c r="I424" s="56">
@@ -74979,7 +75856,7 @@
         <v>13</v>
       </c>
       <c r="L424" s="43">
-        <f t="shared" ref="L424" si="758">AVERAGE(I424:K424)</f>
+        <f t="shared" ref="L424" si="774">AVERAGE(I424:K424)</f>
         <v>11.666666666666666</v>
       </c>
       <c r="M424" s="44">
@@ -75009,7 +75886,7 @@
         <v>23.5</v>
       </c>
       <c r="V424" s="42">
-        <f t="shared" ref="V424" si="759">AVERAGE(S424:U424)</f>
+        <f t="shared" ref="V424" si="775">AVERAGE(S424:U424)</f>
         <v>23.366666666666664</v>
       </c>
       <c r="W424" s="56"/>
@@ -75043,7 +75920,7 @@
         <v>34</v>
       </c>
       <c r="AJ424" s="42">
-        <f t="shared" ref="AJ424" si="760">AVERAGE(AG424:AI424)</f>
+        <f t="shared" ref="AJ424" si="776">AVERAGE(AG424:AI424)</f>
         <v>33.866666666666667</v>
       </c>
       <c r="AK424" s="56"/>
@@ -75077,7 +75954,7 @@
         <v>54.6</v>
       </c>
       <c r="AX424" s="42">
-        <f t="shared" ref="AX424" si="761">AVERAGE(AU424:AW424)</f>
+        <f t="shared" ref="AX424" si="777">AVERAGE(AU424:AW424)</f>
         <v>54.633333333333333</v>
       </c>
       <c r="AY424" s="56"/>
@@ -75111,7 +75988,7 @@
         <v>93.2</v>
       </c>
       <c r="BL424" s="42">
-        <f t="shared" ref="BL424" si="762">AVERAGE(BI424:BK424)</f>
+        <f t="shared" ref="BL424" si="778">AVERAGE(BI424:BK424)</f>
         <v>98.600000000000009</v>
       </c>
       <c r="BM424" s="56"/>
@@ -75823,14 +76700,14 @@
         <v>13.2</v>
       </c>
       <c r="H430" s="42">
-        <f t="shared" ref="H430" si="763">AVERAGE(E430:G430)</f>
+        <f t="shared" ref="H430" si="779">AVERAGE(E430:G430)</f>
         <v>13.199999999999998</v>
       </c>
       <c r="I430" s="56"/>
       <c r="J430" s="57"/>
       <c r="K430" s="56"/>
       <c r="L430" s="43" t="e">
-        <f t="shared" ref="L430" si="764">AVERAGE(I430:K430)</f>
+        <f t="shared" ref="L430" si="780">AVERAGE(I430:K430)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M430" s="44">
@@ -75860,7 +76737,7 @@
         <v>24.1</v>
       </c>
       <c r="V430" s="42">
-        <f t="shared" ref="V430" si="765">AVERAGE(S430:U430)</f>
+        <f t="shared" ref="V430" si="781">AVERAGE(S430:U430)</f>
         <v>24.033333333333331</v>
       </c>
       <c r="W430" s="56"/>
@@ -75894,7 +76771,7 @@
         <v>35</v>
       </c>
       <c r="AJ430" s="42">
-        <f t="shared" ref="AJ430" si="766">AVERAGE(AG430:AI430)</f>
+        <f t="shared" ref="AJ430" si="782">AVERAGE(AG430:AI430)</f>
         <v>34.866666666666667</v>
       </c>
       <c r="AK430" s="56"/>
@@ -75928,7 +76805,7 @@
         <v>56.2</v>
       </c>
       <c r="AX430" s="42">
-        <f t="shared" ref="AX430" si="767">AVERAGE(AU430:AW430)</f>
+        <f t="shared" ref="AX430" si="783">AVERAGE(AU430:AW430)</f>
         <v>56.233333333333327</v>
       </c>
       <c r="AY430" s="56"/>
@@ -75962,7 +76839,7 @@
         <v>108.6</v>
       </c>
       <c r="BL430" s="42">
-        <f t="shared" ref="BL430" si="768">AVERAGE(BI430:BK430)</f>
+        <f t="shared" ref="BL430" si="784">AVERAGE(BI430:BK430)</f>
         <v>107.5</v>
       </c>
       <c r="BM430" s="56"/>
@@ -75996,7 +76873,7 @@
         <v>123.2</v>
       </c>
       <c r="BZ430" s="42">
-        <f t="shared" ref="BZ430" si="769">AVERAGE(BW430:BY430)</f>
+        <f t="shared" ref="BZ430" si="785">AVERAGE(BW430:BY430)</f>
         <v>124.16666666666667</v>
       </c>
       <c r="CA430" s="56"/>
@@ -76030,7 +76907,7 @@
         <v>163.5</v>
       </c>
       <c r="CN430" s="42">
-        <f t="shared" ref="CN430" si="770">AVERAGE(CK430:CM430)</f>
+        <f t="shared" ref="CN430" si="786">AVERAGE(CK430:CM430)</f>
         <v>164.23333333333332</v>
       </c>
       <c r="CO430" s="56"/>
@@ -76064,7 +76941,7 @@
         <v>204.5</v>
       </c>
       <c r="DB430" s="42">
-        <f t="shared" ref="DB430" si="771">AVERAGE(CY430:DA430)</f>
+        <f t="shared" ref="DB430" si="787">AVERAGE(CY430:DA430)</f>
         <v>204.63333333333333</v>
       </c>
       <c r="DC430" s="56"/>
@@ -76098,7 +76975,7 @@
         <v>244.8</v>
       </c>
       <c r="DP430" s="42">
-        <f t="shared" ref="DP430" si="772">AVERAGE(DM430:DO430)</f>
+        <f t="shared" ref="DP430" si="788">AVERAGE(DM430:DO430)</f>
         <v>244.80000000000004</v>
       </c>
       <c r="DQ430" s="56"/>
